--- a/ECE 4981 Task List.xlsx
+++ b/ECE 4981 Task List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fall2020\4981 Senior Design 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fall2020\ECE4981\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EC4B35-CFD8-48E3-83EC-6F371120F514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538710C9-DC76-4653-974C-C808059CB7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B8829020-0EF2-4875-8210-9C2942B344E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>START DATE</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Draft Concept Description with advisor comments</t>
   </si>
   <si>
-    <t>When meeting on Sep 8, we should discuss and determine the sub-tasks for this task.</t>
-  </si>
-  <si>
     <t>Present Concept Description</t>
   </si>
   <si>
@@ -188,6 +185,26 @@
   <si>
     <t>The task list used to keep track of the main tasks and sub-tasks that need to be done in order to complete the senior design project. The task list also includes dates, priorities, assignees' initials, status, and comments.
 09/05/20 Created the template for the task list. Will add more tasks, sub-tasks and deadline later.</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>When meeting on Sep 8, we should discuss and determine the sub-tasks for this task.
+Wait until receiving template from prof</t>
+  </si>
+  <si>
+    <t>3 team members</t>
+  </si>
+  <si>
+    <t>Sound Logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/20 
+How many advisors can we have?
+Prof Putty (backup Prof: John Miller, Larry Sieh, Azeem H.)
+Contact and Set up a meeting with the advisor
+</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1159,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1207,7 +1224,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="2"/>
       <c r="L2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>16</v>
@@ -1287,13 +1304,13 @@
       </c>
       <c r="G5" s="10">
         <f ca="1">(NETWORKDAYS.INTL(TODAY(),F5))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1329,7 +1346,7 @@
       </c>
       <c r="G7" s="10">
         <f ca="1">(NETWORKDAYS.INTL(TODAY(),F7))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>18</v>
@@ -1350,8 +1367,12 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="L8" s="2"/>
     </row>
@@ -1365,8 +1386,12 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
     </row>
@@ -1395,23 +1420,31 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1429,7 +1462,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>3</v>
       </c>
@@ -1448,13 +1481,13 @@
       </c>
       <c r="G14" s="10">
         <f t="shared" ref="G14" ca="1" si="0">(NETWORKDAYS.INTL(TODAY(),F14))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1535,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>15</v>
@@ -1549,10 +1582,10 @@
       </c>
       <c r="G20" s="10">
         <f t="shared" ref="G20" ca="1" si="1">(NETWORKDAYS.INTL(TODAY(),F20))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
@@ -1620,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>16</v>
@@ -1634,10 +1667,10 @@
       </c>
       <c r="G25" s="10">
         <f t="shared" ref="G25" ca="1" si="2">(NETWORKDAYS.INTL(TODAY(),F25))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="2"/>
@@ -1727,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>16</v>
@@ -1741,10 +1774,10 @@
       </c>
       <c r="G32" s="10">
         <f t="shared" ref="G32" ca="1" si="3">(NETWORKDAYS.INTL(TODAY(),F32))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" s="18"/>
     </row>
@@ -1819,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>16</v>
@@ -1833,7 +1866,7 @@
       </c>
       <c r="G39" s="10">
         <f t="shared" ref="G39" ca="1" si="4">(NETWORKDAYS.INTL(TODAY(),F39))</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="18"/>
@@ -1909,7 +1942,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>16</v>
@@ -1923,10 +1956,10 @@
       </c>
       <c r="G46" s="10">
         <f t="shared" ref="G46" ca="1" si="5">(NETWORKDAYS.INTL(TODAY(),F46))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I46" s="18"/>
     </row>
@@ -1990,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>16</v>
@@ -2004,10 +2037,10 @@
       </c>
       <c r="G52" s="10">
         <f t="shared" ref="G52" ca="1" si="6">(NETWORKDAYS.INTL(TODAY(),F52))</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I52" s="18"/>
     </row>
@@ -2071,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>16</v>
@@ -2085,10 +2118,10 @@
       </c>
       <c r="G58" s="10">
         <f t="shared" ref="G58" ca="1" si="7">(NETWORKDAYS.INTL(TODAY(),F58))</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I58" s="18"/>
     </row>
@@ -2152,7 +2185,7 @@
         <v>11</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>16</v>
@@ -2166,10 +2199,10 @@
       </c>
       <c r="G64" s="10">
         <f t="shared" ref="G64" ca="1" si="8">(NETWORKDAYS.INTL(TODAY(),F64))</f>
+        <v>35</v>
+      </c>
+      <c r="H64" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="I64" s="18"/>
     </row>
@@ -2233,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>16</v>
@@ -2247,10 +2280,10 @@
       </c>
       <c r="G70" s="10">
         <f t="shared" ref="G70" ca="1" si="9">(NETWORKDAYS.INTL(TODAY(),F70))</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I70" s="18"/>
     </row>
@@ -2314,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>16</v>
@@ -2328,7 +2361,7 @@
       </c>
       <c r="G76" s="10">
         <f t="shared" ref="G76" ca="1" si="10">(NETWORKDAYS.INTL(TODAY(),F76))</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="18"/>
@@ -2393,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C82" s="21" t="s">
         <v>16</v>
@@ -2467,7 +2500,7 @@
         <v>15</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>16</v>
@@ -2481,7 +2514,7 @@
       </c>
       <c r="G88" s="10">
         <f t="shared" ref="G88" ca="1" si="11">(NETWORKDAYS.INTL(TODAY(),F88))</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H88" s="21"/>
       <c r="I88" s="18"/>
@@ -2546,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>16</v>
@@ -2620,7 +2653,7 @@
         <v>17</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>16</v>
@@ -2634,7 +2667,7 @@
       </c>
       <c r="G100" s="10">
         <f t="shared" ref="G100" ca="1" si="12">(NETWORKDAYS.INTL(TODAY(),F100))</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H100" s="21"/>
       <c r="I100" s="18"/>
@@ -2710,7 +2743,7 @@
         <v>18</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>16</v>

--- a/ECE 4981 Task List.xlsx
+++ b/ECE 4981 Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fall2020\ECE4981\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538710C9-DC76-4653-974C-C808059CB7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F3BBD-E06B-4B3B-998A-F3B11F92292F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B8829020-0EF2-4875-8210-9C2942B344E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>START DATE</t>
   </si>
@@ -204,6 +204,10 @@
 How many advisors can we have?
 Prof Putty (backup Prof: John Miller, Larry Sieh, Azeem H.)
 Contact and Set up a meeting with the advisor
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/20 Matt to document the problems
 </t>
   </si>
 </sst>
@@ -1159,7 +1163,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1414,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -1423,7 +1427,9 @@
       <c r="H11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -1441,7 +1447,9 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>53</v>
       </c>

--- a/ECE 4981 Task List.xlsx
+++ b/ECE 4981 Task List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fall2020\ECE4981\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ECE_4981_Files\gitclone\ECE4981\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F3BBD-E06B-4B3B-998A-F3B11F92292F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68046F9-363A-4217-A467-129F70C096F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B8829020-0EF2-4875-8210-9C2942B344E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8829020-0EF2-4875-8210-9C2942B344E7}"/>
   </bookViews>
   <sheets>
     <sheet name="TASK LIST" sheetId="1" r:id="rId1"/>
@@ -200,14 +200,11 @@
     <t>Sound Logic</t>
   </si>
   <si>
-    <t xml:space="preserve">09/08/20 
-How many advisors can we have?
-Prof Putty (backup Prof: John Miller, Larry Sieh, Azeem H.)
-Contact and Set up a meeting with the advisor
+    <t xml:space="preserve">09/08/20 Matt to document the problems
 </t>
   </si>
   <si>
-    <t xml:space="preserve">09/08/20 Matt to document the problems
+    <t xml:space="preserve">09/10/2020 Professor Paul Watta has accepted our invitation to be our faculty advisor. Matt Falconer will set up a vrtual meeting with him for next week in which we can discuss our project concepts and receive written advisor comments.
 </t>
   </si>
 </sst>
@@ -1161,32 +1158,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADCF63-C9C4-4C77-9C8F-0AE89C3F3266}">
   <dimension ref="A1:O995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="19" customWidth="1"/>
     <col min="9" max="9" width="82" style="13" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="17.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.109375" style="5"/>
+    <col min="11" max="11" width="17.88671875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="5"/>
     <col min="14" max="14" width="16" style="5" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="5"/>
+    <col min="15" max="15" width="14.33203125" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -1234,7 +1231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1287,7 +1284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="147" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>1</v>
       </c>
@@ -1308,7 +1305,7 @@
       </c>
       <c r="G5" s="10">
         <f ca="1">(NETWORKDAYS.INTL(TODAY(),F5))</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>17</v>
@@ -1350,7 +1347,7 @@
       </c>
       <c r="G7" s="10">
         <f ca="1">(NETWORKDAYS.INTL(TODAY(),F7))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>18</v>
@@ -1399,7 +1396,7 @@
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="13" t="s">
         <v>27</v>
@@ -1414,7 +1411,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="42" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -1428,12 +1425,12 @@
         <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="12" t="s">
         <v>25</v>
@@ -1451,7 +1448,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1470,7 +1467,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>3</v>
       </c>
@@ -1489,7 +1486,7 @@
       </c>
       <c r="G14" s="10">
         <f t="shared" ref="G14" ca="1" si="0">(NETWORKDAYS.INTL(TODAY(),F14))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>36</v>
@@ -1590,7 +1587,7 @@
       </c>
       <c r="G20" s="10">
         <f t="shared" ref="G20" ca="1" si="1">(NETWORKDAYS.INTL(TODAY(),F20))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>36</v>
@@ -1614,7 +1611,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="21"/>
       <c r="B22" s="18"/>
       <c r="C22" s="21"/>
@@ -1628,7 +1625,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="21"/>
       <c r="B23" s="18"/>
       <c r="C23" s="21"/>
@@ -1642,7 +1639,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
       <c r="B24" s="18"/>
       <c r="C24" s="21"/>
@@ -1656,7 +1653,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="29">
         <v>5</v>
       </c>
@@ -1675,7 +1672,7 @@
       </c>
       <c r="G25" s="10">
         <f t="shared" ref="G25" ca="1" si="2">(NETWORKDAYS.INTL(TODAY(),F25))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>36</v>
@@ -1685,7 +1682,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="21"/>
       <c r="B26" s="18"/>
       <c r="C26" s="21"/>
@@ -1699,7 +1696,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="21"/>
       <c r="B27" s="18"/>
       <c r="C27" s="21"/>
@@ -1713,7 +1710,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="21"/>
       <c r="B28" s="18"/>
       <c r="C28" s="21"/>
@@ -1727,7 +1724,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="21"/>
       <c r="B29" s="18"/>
       <c r="C29" s="21"/>
@@ -1741,7 +1738,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="21"/>
       <c r="B30" s="18"/>
       <c r="C30" s="21"/>
@@ -1752,7 +1749,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="21"/>
       <c r="B31" s="18"/>
       <c r="C31" s="21"/>
@@ -1763,7 +1760,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:12" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="42" x14ac:dyDescent="0.4">
       <c r="A32" s="29">
         <v>6</v>
       </c>
@@ -1782,14 +1779,14 @@
       </c>
       <c r="G32" s="10">
         <f t="shared" ref="G32" ca="1" si="3">(NETWORKDAYS.INTL(TODAY(),F32))</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>36</v>
       </c>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="21"/>
       <c r="B33" s="18"/>
       <c r="C33" s="21"/>
@@ -1800,7 +1797,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="21"/>
       <c r="B34" s="18"/>
       <c r="C34" s="21"/>
@@ -1811,7 +1808,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="21"/>
       <c r="B35" s="18"/>
       <c r="C35" s="21"/>
@@ -1822,7 +1819,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="21"/>
       <c r="B36" s="18"/>
       <c r="C36" s="21"/>
@@ -1833,7 +1830,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="21"/>
       <c r="B37" s="18"/>
       <c r="C37" s="21"/>
@@ -1844,7 +1841,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="21"/>
       <c r="B38" s="18"/>
       <c r="C38" s="21"/>
@@ -1855,7 +1852,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="29">
         <v>7</v>
       </c>
@@ -1874,12 +1871,12 @@
       </c>
       <c r="G39" s="10">
         <f t="shared" ref="G39" ca="1" si="4">(NETWORKDAYS.INTL(TODAY(),F39))</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="21"/>
       <c r="B40" s="18"/>
       <c r="C40" s="21"/>
@@ -1890,7 +1887,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="21"/>
       <c r="B41" s="18"/>
       <c r="C41" s="21"/>
@@ -1901,7 +1898,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="21"/>
       <c r="B42" s="18"/>
       <c r="C42" s="21"/>
@@ -1912,7 +1909,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="21"/>
       <c r="B43" s="18"/>
       <c r="C43" s="21"/>
@@ -1923,7 +1920,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="21"/>
       <c r="B44" s="18"/>
       <c r="C44" s="21"/>
@@ -1934,7 +1931,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="21"/>
       <c r="B45" s="18"/>
       <c r="C45" s="21"/>
@@ -1945,7 +1942,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="29">
         <v>8</v>
       </c>
@@ -1964,14 +1961,14 @@
       </c>
       <c r="G46" s="10">
         <f t="shared" ref="G46" ca="1" si="5">(NETWORKDAYS.INTL(TODAY(),F46))</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>36</v>
       </c>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="21"/>
       <c r="B47" s="18"/>
       <c r="C47" s="21"/>
@@ -1982,7 +1979,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="21"/>
       <c r="B48" s="18"/>
       <c r="C48" s="21"/>
@@ -1993,7 +1990,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="21"/>
       <c r="B49" s="18"/>
       <c r="C49" s="21"/>
@@ -2004,7 +2001,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="21"/>
       <c r="B50" s="18"/>
       <c r="C50" s="21"/>
@@ -2015,7 +2012,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="21"/>
       <c r="B51" s="18"/>
       <c r="C51" s="21"/>
@@ -2026,7 +2023,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="29">
         <v>9</v>
       </c>
@@ -2045,14 +2042,14 @@
       </c>
       <c r="G52" s="10">
         <f t="shared" ref="G52" ca="1" si="6">(NETWORKDAYS.INTL(TODAY(),F52))</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H52" s="21" t="s">
         <v>36</v>
       </c>
       <c r="I52" s="18"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="21"/>
       <c r="B53" s="18"/>
       <c r="C53" s="21"/>
@@ -2063,7 +2060,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="18"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="21"/>
       <c r="B54" s="18"/>
       <c r="C54" s="21"/>
@@ -2074,7 +2071,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="18"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="21"/>
       <c r="B55" s="18"/>
       <c r="C55" s="21"/>
@@ -2085,7 +2082,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="21"/>
       <c r="B56" s="18"/>
       <c r="C56" s="21"/>
@@ -2096,7 +2093,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="21"/>
       <c r="B57" s="18"/>
       <c r="C57" s="21"/>
@@ -2107,7 +2104,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="42" x14ac:dyDescent="0.4">
       <c r="A58" s="29">
         <v>10</v>
       </c>
@@ -2126,14 +2123,14 @@
       </c>
       <c r="G58" s="10">
         <f t="shared" ref="G58" ca="1" si="7">(NETWORKDAYS.INTL(TODAY(),F58))</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H58" s="21" t="s">
         <v>36</v>
       </c>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="21"/>
       <c r="B59" s="18"/>
       <c r="C59" s="21"/>
@@ -2144,7 +2141,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="21"/>
       <c r="B60" s="18"/>
       <c r="C60" s="21"/>
@@ -2155,7 +2152,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="21"/>
       <c r="B61" s="18"/>
       <c r="C61" s="21"/>
@@ -2166,7 +2163,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="21"/>
       <c r="B62" s="18"/>
       <c r="C62" s="21"/>
@@ -2177,7 +2174,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="21"/>
       <c r="B63" s="18"/>
       <c r="C63" s="21"/>
@@ -2188,7 +2185,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="29">
         <v>11</v>
       </c>
@@ -2207,14 +2204,14 @@
       </c>
       <c r="G64" s="10">
         <f t="shared" ref="G64" ca="1" si="8">(NETWORKDAYS.INTL(TODAY(),F64))</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64" s="21" t="s">
         <v>36</v>
       </c>
       <c r="I64" s="18"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="21"/>
       <c r="B65" s="18"/>
       <c r="C65" s="21"/>
@@ -2225,7 +2222,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="18"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="21"/>
       <c r="B66" s="18"/>
       <c r="C66" s="21"/>
@@ -2236,7 +2233,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="18"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="21"/>
       <c r="B67" s="18"/>
       <c r="C67" s="21"/>
@@ -2247,7 +2244,7 @@
       <c r="H67" s="21"/>
       <c r="I67" s="18"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="21"/>
       <c r="B68" s="18"/>
       <c r="C68" s="21"/>
@@ -2258,7 +2255,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="18"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="21"/>
       <c r="B69" s="18"/>
       <c r="C69" s="21"/>
@@ -2269,7 +2266,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="42" x14ac:dyDescent="0.4">
       <c r="A70" s="29">
         <v>12</v>
       </c>
@@ -2288,14 +2285,14 @@
       </c>
       <c r="G70" s="10">
         <f t="shared" ref="G70" ca="1" si="9">(NETWORKDAYS.INTL(TODAY(),F70))</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H70" s="21" t="s">
         <v>36</v>
       </c>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="21"/>
       <c r="B71" s="18"/>
       <c r="C71" s="21"/>
@@ -2306,7 +2303,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="21"/>
       <c r="B72" s="18"/>
       <c r="C72" s="21"/>
@@ -2317,7 +2314,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="21"/>
       <c r="B73" s="18"/>
       <c r="C73" s="21"/>
@@ -2328,7 +2325,7 @@
       <c r="H73" s="21"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="21"/>
       <c r="B74" s="18"/>
       <c r="C74" s="21"/>
@@ -2339,7 +2336,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="21"/>
       <c r="B75" s="18"/>
       <c r="C75" s="21"/>
@@ -2350,7 +2347,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="21">
         <v>13</v>
       </c>
@@ -2369,12 +2366,12 @@
       </c>
       <c r="G76" s="10">
         <f t="shared" ref="G76" ca="1" si="10">(NETWORKDAYS.INTL(TODAY(),F76))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="18"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="21"/>
       <c r="B77" s="18"/>
       <c r="C77" s="21"/>
@@ -2385,7 +2382,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="18"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="21"/>
       <c r="B78" s="18"/>
       <c r="C78" s="21"/>
@@ -2396,7 +2393,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="18"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="21"/>
       <c r="B79" s="18"/>
       <c r="C79" s="21"/>
@@ -2407,7 +2404,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="18"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="21"/>
       <c r="B80" s="18"/>
       <c r="C80" s="21"/>
@@ -2418,7 +2415,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="18"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="21"/>
       <c r="B81" s="18"/>
       <c r="C81" s="21"/>
@@ -2429,7 +2426,7 @@
       <c r="H81" s="21"/>
       <c r="I81" s="18"/>
     </row>
-    <row r="82" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="42" x14ac:dyDescent="0.4">
       <c r="A82" s="21">
         <v>14</v>
       </c>
@@ -2448,7 +2445,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="18"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="21"/>
       <c r="B83" s="18"/>
       <c r="C83" s="21"/>
@@ -2459,7 +2456,7 @@
       <c r="H83" s="21"/>
       <c r="I83" s="18"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="21"/>
       <c r="B84" s="18"/>
       <c r="C84" s="21"/>
@@ -2470,7 +2467,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="18"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="21"/>
       <c r="B85" s="18"/>
       <c r="C85" s="21"/>
@@ -2481,7 +2478,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="18"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="21"/>
       <c r="B86" s="18"/>
       <c r="C86" s="21"/>
@@ -2492,7 +2489,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="18"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="21"/>
       <c r="B87" s="18"/>
       <c r="C87" s="21"/>
@@ -2503,7 +2500,7 @@
       <c r="H87" s="21"/>
       <c r="I87" s="18"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="21">
         <v>15</v>
       </c>
@@ -2522,12 +2519,12 @@
       </c>
       <c r="G88" s="10">
         <f t="shared" ref="G88" ca="1" si="11">(NETWORKDAYS.INTL(TODAY(),F88))</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H88" s="21"/>
       <c r="I88" s="18"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="21"/>
       <c r="B89" s="18"/>
       <c r="C89" s="21"/>
@@ -2538,7 +2535,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="18"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="21"/>
       <c r="B90" s="18"/>
       <c r="C90" s="21"/>
@@ -2549,7 +2546,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="18"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="21"/>
       <c r="B91" s="18"/>
       <c r="C91" s="21"/>
@@ -2560,7 +2557,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="18"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="21"/>
       <c r="B92" s="18"/>
       <c r="C92" s="21"/>
@@ -2571,7 +2568,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="18"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="21"/>
       <c r="B93" s="18"/>
       <c r="C93" s="21"/>
@@ -2582,7 +2579,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="18"/>
     </row>
-    <row r="94" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="42" x14ac:dyDescent="0.4">
       <c r="A94" s="21">
         <v>16</v>
       </c>
@@ -2601,7 +2598,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="18"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="21"/>
       <c r="B95" s="18"/>
       <c r="C95" s="21"/>
@@ -2612,7 +2609,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="18"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="21"/>
       <c r="B96" s="18"/>
       <c r="C96" s="21"/>
@@ -2623,7 +2620,7 @@
       <c r="H96" s="21"/>
       <c r="I96" s="18"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="21"/>
       <c r="B97" s="18"/>
       <c r="C97" s="21"/>
@@ -2634,7 +2631,7 @@
       <c r="H97" s="21"/>
       <c r="I97" s="18"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="21"/>
       <c r="B98" s="18"/>
       <c r="C98" s="21"/>
@@ -2645,7 +2642,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="18"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="21"/>
       <c r="B99" s="18"/>
       <c r="C99" s="21"/>
@@ -2656,7 +2653,7 @@
       <c r="H99" s="21"/>
       <c r="I99" s="18"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="21">
         <v>17</v>
       </c>
@@ -2675,12 +2672,12 @@
       </c>
       <c r="G100" s="10">
         <f t="shared" ref="G100" ca="1" si="12">(NETWORKDAYS.INTL(TODAY(),F100))</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H100" s="21"/>
       <c r="I100" s="18"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="21"/>
       <c r="B101" s="18"/>
       <c r="C101" s="21"/>
@@ -2691,7 +2688,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="18"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="21"/>
       <c r="B102" s="18"/>
       <c r="C102" s="21"/>
@@ -2702,7 +2699,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="21"/>
       <c r="B103" s="18"/>
       <c r="C103" s="21"/>
@@ -2713,7 +2710,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="21"/>
       <c r="B104" s="18"/>
       <c r="C104" s="21"/>
@@ -2724,7 +2721,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="21"/>
       <c r="B105" s="18"/>
       <c r="C105" s="21"/>
@@ -2735,7 +2732,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="21"/>
       <c r="B106" s="18"/>
       <c r="C106" s="21"/>
@@ -2746,7 +2743,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="21">
         <v>18</v>
       </c>
@@ -2765,7 +2762,7 @@
       <c r="H107" s="21"/>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="21"/>
       <c r="B108" s="18"/>
       <c r="C108" s="21"/>
@@ -2776,7 +2773,7 @@
       <c r="H108" s="21"/>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="21"/>
       <c r="B109" s="18"/>
       <c r="C109" s="21"/>
@@ -2787,7 +2784,7 @@
       <c r="H109" s="21"/>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="21"/>
       <c r="B110" s="18"/>
       <c r="C110" s="21"/>
@@ -2798,7 +2795,7 @@
       <c r="H110" s="21"/>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="21"/>
       <c r="B111" s="18"/>
       <c r="C111" s="21"/>
@@ -2809,7 +2806,7 @@
       <c r="H111" s="21"/>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="21"/>
       <c r="B112" s="18"/>
       <c r="C112" s="21"/>
@@ -2820,7 +2817,7 @@
       <c r="H112" s="21"/>
       <c r="I112" s="18"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="21"/>
       <c r="B113" s="18"/>
       <c r="C113" s="21"/>
@@ -2831,7 +2828,7 @@
       <c r="H113" s="21"/>
       <c r="I113" s="18"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="21"/>
       <c r="B114" s="18"/>
       <c r="C114" s="21"/>
@@ -2842,7 +2839,7 @@
       <c r="H114" s="21"/>
       <c r="I114" s="18"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="21"/>
       <c r="B115" s="18"/>
       <c r="C115" s="21"/>
@@ -2853,7 +2850,7 @@
       <c r="H115" s="21"/>
       <c r="I115" s="18"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="21"/>
       <c r="B116" s="18"/>
       <c r="C116" s="21"/>
@@ -2864,7 +2861,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="21"/>
       <c r="B117" s="18"/>
       <c r="C117" s="21"/>
@@ -2875,7 +2872,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="21"/>
       <c r="B118" s="18"/>
       <c r="C118" s="21"/>
@@ -2886,7 +2883,7 @@
       <c r="H118" s="21"/>
       <c r="I118" s="18"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="21"/>
       <c r="B119" s="18"/>
       <c r="C119" s="21"/>
@@ -2897,7 +2894,7 @@
       <c r="H119" s="21"/>
       <c r="I119" s="18"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="21"/>
       <c r="B120" s="18"/>
       <c r="C120" s="21"/>
@@ -2908,7 +2905,7 @@
       <c r="H120" s="21"/>
       <c r="I120" s="18"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="21"/>
       <c r="B121" s="18"/>
       <c r="C121" s="21"/>
@@ -2919,7 +2916,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="18"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="21"/>
       <c r="B122" s="18"/>
       <c r="C122" s="21"/>
@@ -2930,7 +2927,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="18"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="21"/>
       <c r="B123" s="18"/>
       <c r="C123" s="21"/>
@@ -2941,7 +2938,7 @@
       <c r="H123" s="21"/>
       <c r="I123" s="18"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="21"/>
       <c r="B124" s="18"/>
       <c r="C124" s="21"/>
@@ -2952,7 +2949,7 @@
       <c r="H124" s="21"/>
       <c r="I124" s="18"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="21"/>
       <c r="B125" s="18"/>
       <c r="C125" s="21"/>
@@ -2963,7 +2960,7 @@
       <c r="H125" s="21"/>
       <c r="I125" s="18"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="21"/>
       <c r="B126" s="18"/>
       <c r="C126" s="21"/>
@@ -2974,7 +2971,7 @@
       <c r="H126" s="21"/>
       <c r="I126" s="18"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="21"/>
       <c r="B127" s="18"/>
       <c r="C127" s="21"/>
@@ -2985,7 +2982,7 @@
       <c r="H127" s="21"/>
       <c r="I127" s="18"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="21"/>
       <c r="B128" s="18"/>
       <c r="C128" s="21"/>
@@ -2996,7 +2993,7 @@
       <c r="H128" s="21"/>
       <c r="I128" s="18"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="21"/>
       <c r="B129" s="18"/>
       <c r="C129" s="21"/>
@@ -3007,7 +3004,7 @@
       <c r="H129" s="21"/>
       <c r="I129" s="18"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="21"/>
       <c r="B130" s="18"/>
       <c r="C130" s="21"/>
@@ -3018,7 +3015,7 @@
       <c r="H130" s="21"/>
       <c r="I130" s="18"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="21"/>
       <c r="B131" s="18"/>
       <c r="C131" s="21"/>
@@ -3029,7 +3026,7 @@
       <c r="H131" s="21"/>
       <c r="I131" s="18"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="21"/>
       <c r="B132" s="18"/>
       <c r="C132" s="21"/>
@@ -3040,7 +3037,7 @@
       <c r="H132" s="21"/>
       <c r="I132" s="18"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="21"/>
       <c r="B133" s="18"/>
       <c r="C133" s="21"/>
@@ -3051,7 +3048,7 @@
       <c r="H133" s="21"/>
       <c r="I133" s="18"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="21"/>
       <c r="B134" s="18"/>
       <c r="C134" s="21"/>
@@ -3062,7 +3059,7 @@
       <c r="H134" s="21"/>
       <c r="I134" s="18"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="21"/>
       <c r="B135" s="18"/>
       <c r="C135" s="21"/>
@@ -3073,7 +3070,7 @@
       <c r="H135" s="21"/>
       <c r="I135" s="18"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="21"/>
       <c r="B136" s="18"/>
       <c r="C136" s="21"/>
@@ -3084,7 +3081,7 @@
       <c r="H136" s="21"/>
       <c r="I136" s="18"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="21"/>
       <c r="B137" s="18"/>
       <c r="C137" s="21"/>
@@ -3095,7 +3092,7 @@
       <c r="H137" s="21"/>
       <c r="I137" s="18"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="21"/>
       <c r="B138" s="18"/>
       <c r="C138" s="21"/>
@@ -3106,7 +3103,7 @@
       <c r="H138" s="21"/>
       <c r="I138" s="18"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="21"/>
       <c r="B139" s="18"/>
       <c r="C139" s="21"/>
@@ -3117,7 +3114,7 @@
       <c r="H139" s="21"/>
       <c r="I139" s="18"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="21"/>
       <c r="B140" s="18"/>
       <c r="C140" s="21"/>
@@ -3128,7 +3125,7 @@
       <c r="H140" s="21"/>
       <c r="I140" s="18"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="21"/>
       <c r="B141" s="18"/>
       <c r="C141" s="21"/>
@@ -3139,7 +3136,7 @@
       <c r="H141" s="21"/>
       <c r="I141" s="18"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="21"/>
       <c r="B142" s="18"/>
       <c r="C142" s="21"/>
@@ -3150,7 +3147,7 @@
       <c r="H142" s="21"/>
       <c r="I142" s="18"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="21"/>
       <c r="B143" s="18"/>
       <c r="C143" s="21"/>
@@ -3161,7 +3158,7 @@
       <c r="H143" s="21"/>
       <c r="I143" s="18"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="21"/>
       <c r="B144" s="18"/>
       <c r="C144" s="21"/>
@@ -3172,7 +3169,7 @@
       <c r="H144" s="21"/>
       <c r="I144" s="18"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="21"/>
       <c r="B145" s="18"/>
       <c r="C145" s="21"/>
@@ -3183,7 +3180,7 @@
       <c r="H145" s="21"/>
       <c r="I145" s="18"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="21"/>
       <c r="B146" s="18"/>
       <c r="C146" s="21"/>
@@ -3194,7 +3191,7 @@
       <c r="H146" s="21"/>
       <c r="I146" s="18"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="21"/>
       <c r="B147" s="18"/>
       <c r="C147" s="21"/>
@@ -3205,7 +3202,7 @@
       <c r="H147" s="21"/>
       <c r="I147" s="18"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="21"/>
       <c r="B148" s="18"/>
       <c r="C148" s="21"/>
@@ -3216,7 +3213,7 @@
       <c r="H148" s="21"/>
       <c r="I148" s="18"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="21"/>
       <c r="B149" s="18"/>
       <c r="C149" s="21"/>
@@ -3227,7 +3224,7 @@
       <c r="H149" s="21"/>
       <c r="I149" s="18"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="21"/>
       <c r="B150" s="18"/>
       <c r="C150" s="21"/>
@@ -3238,7 +3235,7 @@
       <c r="H150" s="21"/>
       <c r="I150" s="18"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="21"/>
       <c r="B151" s="18"/>
       <c r="C151" s="21"/>
@@ -3249,7 +3246,7 @@
       <c r="H151" s="21"/>
       <c r="I151" s="18"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="21"/>
       <c r="B152" s="18"/>
       <c r="C152" s="21"/>
@@ -3260,7 +3257,7 @@
       <c r="H152" s="21"/>
       <c r="I152" s="18"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="21"/>
       <c r="B153" s="18"/>
       <c r="C153" s="21"/>
@@ -3271,7 +3268,7 @@
       <c r="H153" s="21"/>
       <c r="I153" s="18"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="21"/>
       <c r="B154" s="18"/>
       <c r="C154" s="21"/>
@@ -3282,7 +3279,7 @@
       <c r="H154" s="21"/>
       <c r="I154" s="18"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="21"/>
       <c r="B155" s="18"/>
       <c r="C155" s="21"/>
@@ -3293,7 +3290,7 @@
       <c r="H155" s="21"/>
       <c r="I155" s="18"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="21"/>
       <c r="B156" s="18"/>
       <c r="C156" s="21"/>
@@ -3304,7 +3301,7 @@
       <c r="H156" s="21"/>
       <c r="I156" s="18"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="21"/>
       <c r="B157" s="18"/>
       <c r="C157" s="21"/>
@@ -3315,7 +3312,7 @@
       <c r="H157" s="21"/>
       <c r="I157" s="18"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="21"/>
       <c r="B158" s="18"/>
       <c r="C158" s="21"/>
@@ -3326,7 +3323,7 @@
       <c r="H158" s="21"/>
       <c r="I158" s="18"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="21"/>
       <c r="B159" s="18"/>
       <c r="C159" s="21"/>
@@ -3337,7 +3334,7 @@
       <c r="H159" s="21"/>
       <c r="I159" s="18"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="21"/>
       <c r="B160" s="18"/>
       <c r="C160" s="21"/>
@@ -3348,7 +3345,7 @@
       <c r="H160" s="21"/>
       <c r="I160" s="18"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="21"/>
       <c r="B161" s="18"/>
       <c r="C161" s="21"/>
@@ -3359,7 +3356,7 @@
       <c r="H161" s="21"/>
       <c r="I161" s="18"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="21"/>
       <c r="B162" s="18"/>
       <c r="C162" s="21"/>
@@ -3370,7 +3367,7 @@
       <c r="H162" s="21"/>
       <c r="I162" s="18"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="21"/>
       <c r="B163" s="18"/>
       <c r="C163" s="21"/>
@@ -3381,7 +3378,7 @@
       <c r="H163" s="21"/>
       <c r="I163" s="18"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="21"/>
       <c r="B164" s="18"/>
       <c r="C164" s="21"/>
@@ -3392,7 +3389,7 @@
       <c r="H164" s="21"/>
       <c r="I164" s="18"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="21"/>
       <c r="B165" s="18"/>
       <c r="C165" s="21"/>
@@ -3403,7 +3400,7 @@
       <c r="H165" s="21"/>
       <c r="I165" s="18"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="21"/>
       <c r="B166" s="18"/>
       <c r="C166" s="21"/>
@@ -3414,7 +3411,7 @@
       <c r="H166" s="21"/>
       <c r="I166" s="18"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="21"/>
       <c r="B167" s="18"/>
       <c r="C167" s="21"/>
@@ -3425,7 +3422,7 @@
       <c r="H167" s="21"/>
       <c r="I167" s="18"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="21"/>
       <c r="B168" s="18"/>
       <c r="C168" s="21"/>
@@ -3436,7 +3433,7 @@
       <c r="H168" s="21"/>
       <c r="I168" s="18"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="21"/>
       <c r="B169" s="18"/>
       <c r="C169" s="21"/>
@@ -3447,7 +3444,7 @@
       <c r="H169" s="21"/>
       <c r="I169" s="18"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="21"/>
       <c r="B170" s="18"/>
       <c r="C170" s="21"/>
@@ -3458,7 +3455,7 @@
       <c r="H170" s="21"/>
       <c r="I170" s="18"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="21"/>
       <c r="B171" s="18"/>
       <c r="C171" s="21"/>
@@ -3469,7 +3466,7 @@
       <c r="H171" s="21"/>
       <c r="I171" s="18"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="21"/>
       <c r="B172" s="18"/>
       <c r="C172" s="21"/>
@@ -3480,7 +3477,7 @@
       <c r="H172" s="21"/>
       <c r="I172" s="18"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="21"/>
       <c r="B173" s="18"/>
       <c r="C173" s="21"/>
@@ -3491,7 +3488,7 @@
       <c r="H173" s="21"/>
       <c r="I173" s="18"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="21"/>
       <c r="B174" s="18"/>
       <c r="C174" s="21"/>
@@ -3502,7 +3499,7 @@
       <c r="H174" s="21"/>
       <c r="I174" s="18"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="21"/>
       <c r="B175" s="18"/>
       <c r="C175" s="21"/>
@@ -3513,7 +3510,7 @@
       <c r="H175" s="21"/>
       <c r="I175" s="18"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="21"/>
       <c r="B176" s="18"/>
       <c r="C176" s="21"/>
@@ -3524,7 +3521,7 @@
       <c r="H176" s="21"/>
       <c r="I176" s="18"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="21"/>
       <c r="B177" s="18"/>
       <c r="C177" s="21"/>
@@ -3535,7 +3532,7 @@
       <c r="H177" s="21"/>
       <c r="I177" s="18"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="21"/>
       <c r="B178" s="18"/>
       <c r="C178" s="21"/>
@@ -3546,7 +3543,7 @@
       <c r="H178" s="21"/>
       <c r="I178" s="18"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="21"/>
       <c r="B179" s="18"/>
       <c r="C179" s="21"/>
@@ -3557,7 +3554,7 @@
       <c r="H179" s="21"/>
       <c r="I179" s="18"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="21"/>
       <c r="B180" s="18"/>
       <c r="C180" s="21"/>
@@ -3568,7 +3565,7 @@
       <c r="H180" s="21"/>
       <c r="I180" s="18"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="21"/>
       <c r="B181" s="18"/>
       <c r="C181" s="21"/>
@@ -3579,7 +3576,7 @@
       <c r="H181" s="21"/>
       <c r="I181" s="18"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="21"/>
       <c r="B182" s="18"/>
       <c r="C182" s="21"/>
@@ -3590,7 +3587,7 @@
       <c r="H182" s="21"/>
       <c r="I182" s="18"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="21"/>
       <c r="B183" s="18"/>
       <c r="C183" s="21"/>
@@ -3601,7 +3598,7 @@
       <c r="H183" s="21"/>
       <c r="I183" s="18"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="21"/>
       <c r="B184" s="18"/>
       <c r="C184" s="21"/>
@@ -3612,7 +3609,7 @@
       <c r="H184" s="21"/>
       <c r="I184" s="18"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="21"/>
       <c r="B185" s="18"/>
       <c r="C185" s="21"/>
@@ -3623,7 +3620,7 @@
       <c r="H185" s="21"/>
       <c r="I185" s="18"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="21"/>
       <c r="B186" s="18"/>
       <c r="C186" s="21"/>
@@ -3634,7 +3631,7 @@
       <c r="H186" s="21"/>
       <c r="I186" s="18"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="21"/>
       <c r="B187" s="18"/>
       <c r="C187" s="21"/>
@@ -3645,7 +3642,7 @@
       <c r="H187" s="21"/>
       <c r="I187" s="18"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="21"/>
       <c r="B188" s="18"/>
       <c r="C188" s="21"/>
@@ -3656,7 +3653,7 @@
       <c r="H188" s="21"/>
       <c r="I188" s="18"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="21"/>
       <c r="B189" s="18"/>
       <c r="C189" s="21"/>
@@ -3667,7 +3664,7 @@
       <c r="H189" s="21"/>
       <c r="I189" s="18"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="21"/>
       <c r="B190" s="18"/>
       <c r="C190" s="21"/>
@@ -3678,7 +3675,7 @@
       <c r="H190" s="21"/>
       <c r="I190" s="18"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="21"/>
       <c r="B191" s="18"/>
       <c r="C191" s="21"/>
@@ -3689,7 +3686,7 @@
       <c r="H191" s="21"/>
       <c r="I191" s="18"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="21"/>
       <c r="B192" s="18"/>
       <c r="C192" s="21"/>
@@ -3700,7 +3697,7 @@
       <c r="H192" s="21"/>
       <c r="I192" s="18"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="21"/>
       <c r="B193" s="18"/>
       <c r="C193" s="21"/>
@@ -3711,7 +3708,7 @@
       <c r="H193" s="21"/>
       <c r="I193" s="18"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="21"/>
       <c r="B194" s="18"/>
       <c r="C194" s="21"/>
@@ -3722,7 +3719,7 @@
       <c r="H194" s="21"/>
       <c r="I194" s="18"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="21"/>
       <c r="B195" s="18"/>
       <c r="C195" s="21"/>
@@ -3733,7 +3730,7 @@
       <c r="H195" s="21"/>
       <c r="I195" s="18"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="21"/>
       <c r="B196" s="18"/>
       <c r="C196" s="21"/>
@@ -3744,7 +3741,7 @@
       <c r="H196" s="21"/>
       <c r="I196" s="18"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="21"/>
       <c r="B197" s="18"/>
       <c r="C197" s="21"/>
@@ -3755,7 +3752,7 @@
       <c r="H197" s="21"/>
       <c r="I197" s="18"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="21"/>
       <c r="B198" s="18"/>
       <c r="C198" s="21"/>
@@ -3766,7 +3763,7 @@
       <c r="H198" s="21"/>
       <c r="I198" s="18"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="21"/>
       <c r="B199" s="18"/>
       <c r="C199" s="21"/>
@@ -3777,7 +3774,7 @@
       <c r="H199" s="21"/>
       <c r="I199" s="18"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="21"/>
       <c r="B200" s="18"/>
       <c r="C200" s="21"/>
@@ -3788,7 +3785,7 @@
       <c r="H200" s="21"/>
       <c r="I200" s="18"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="21"/>
       <c r="B201" s="18"/>
       <c r="C201" s="21"/>
@@ -3799,7 +3796,7 @@
       <c r="H201" s="21"/>
       <c r="I201" s="18"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A202" s="21"/>
       <c r="B202" s="18"/>
       <c r="C202" s="21"/>
@@ -3810,7 +3807,7 @@
       <c r="H202" s="21"/>
       <c r="I202" s="18"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203" s="21"/>
       <c r="B203" s="18"/>
       <c r="C203" s="21"/>
@@ -3821,7 +3818,7 @@
       <c r="H203" s="21"/>
       <c r="I203" s="18"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204" s="21"/>
       <c r="B204" s="18"/>
       <c r="C204" s="21"/>
@@ -3832,7 +3829,7 @@
       <c r="H204" s="21"/>
       <c r="I204" s="18"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A205" s="21"/>
       <c r="B205" s="18"/>
       <c r="C205" s="21"/>
@@ -3843,7 +3840,7 @@
       <c r="H205" s="21"/>
       <c r="I205" s="18"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206" s="21"/>
       <c r="B206" s="18"/>
       <c r="C206" s="21"/>
@@ -3854,7 +3851,7 @@
       <c r="H206" s="21"/>
       <c r="I206" s="18"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207" s="21"/>
       <c r="B207" s="18"/>
       <c r="C207" s="21"/>
@@ -3865,7 +3862,7 @@
       <c r="H207" s="21"/>
       <c r="I207" s="18"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A208" s="21"/>
       <c r="B208" s="18"/>
       <c r="C208" s="21"/>
@@ -3876,7 +3873,7 @@
       <c r="H208" s="21"/>
       <c r="I208" s="18"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209" s="21"/>
       <c r="B209" s="18"/>
       <c r="C209" s="21"/>
@@ -3887,7 +3884,7 @@
       <c r="H209" s="21"/>
       <c r="I209" s="18"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210" s="21"/>
       <c r="B210" s="18"/>
       <c r="C210" s="21"/>
@@ -3898,7 +3895,7 @@
       <c r="H210" s="21"/>
       <c r="I210" s="18"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A211" s="21"/>
       <c r="B211" s="18"/>
       <c r="C211" s="21"/>
@@ -3909,7 +3906,7 @@
       <c r="H211" s="21"/>
       <c r="I211" s="18"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" s="21"/>
       <c r="B212" s="18"/>
       <c r="C212" s="21"/>
@@ -3920,7 +3917,7 @@
       <c r="H212" s="21"/>
       <c r="I212" s="18"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A213" s="21"/>
       <c r="B213" s="18"/>
       <c r="C213" s="21"/>
@@ -3931,7 +3928,7 @@
       <c r="H213" s="21"/>
       <c r="I213" s="18"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A214" s="21"/>
       <c r="B214" s="18"/>
       <c r="C214" s="21"/>
@@ -3942,7 +3939,7 @@
       <c r="H214" s="21"/>
       <c r="I214" s="18"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A215" s="21"/>
       <c r="B215" s="18"/>
       <c r="C215" s="21"/>
@@ -3953,7 +3950,7 @@
       <c r="H215" s="21"/>
       <c r="I215" s="18"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A216" s="21"/>
       <c r="B216" s="18"/>
       <c r="C216" s="21"/>
@@ -3964,7 +3961,7 @@
       <c r="H216" s="21"/>
       <c r="I216" s="18"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A217" s="21"/>
       <c r="B217" s="18"/>
       <c r="C217" s="21"/>
@@ -3975,7 +3972,7 @@
       <c r="H217" s="21"/>
       <c r="I217" s="18"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A218" s="21"/>
       <c r="B218" s="18"/>
       <c r="C218" s="21"/>
@@ -3986,7 +3983,7 @@
       <c r="H218" s="21"/>
       <c r="I218" s="18"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A219" s="21"/>
       <c r="B219" s="18"/>
       <c r="C219" s="21"/>
@@ -3997,7 +3994,7 @@
       <c r="H219" s="21"/>
       <c r="I219" s="18"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A220" s="21"/>
       <c r="B220" s="18"/>
       <c r="C220" s="21"/>
@@ -4008,7 +4005,7 @@
       <c r="H220" s="21"/>
       <c r="I220" s="18"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A221" s="21"/>
       <c r="B221" s="18"/>
       <c r="C221" s="21"/>
@@ -4019,7 +4016,7 @@
       <c r="H221" s="21"/>
       <c r="I221" s="18"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A222" s="21"/>
       <c r="B222" s="18"/>
       <c r="C222" s="21"/>
@@ -4030,7 +4027,7 @@
       <c r="H222" s="21"/>
       <c r="I222" s="18"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A223" s="21"/>
       <c r="B223" s="18"/>
       <c r="C223" s="21"/>
@@ -4041,7 +4038,7 @@
       <c r="H223" s="21"/>
       <c r="I223" s="18"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A224" s="21"/>
       <c r="B224" s="18"/>
       <c r="C224" s="21"/>
@@ -4052,7 +4049,7 @@
       <c r="H224" s="21"/>
       <c r="I224" s="18"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A225" s="21"/>
       <c r="B225" s="18"/>
       <c r="C225" s="21"/>
@@ -4063,7 +4060,7 @@
       <c r="H225" s="21"/>
       <c r="I225" s="18"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A226" s="21"/>
       <c r="B226" s="18"/>
       <c r="C226" s="21"/>
@@ -4074,7 +4071,7 @@
       <c r="H226" s="21"/>
       <c r="I226" s="18"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A227" s="21"/>
       <c r="B227" s="18"/>
       <c r="C227" s="21"/>
@@ -4085,7 +4082,7 @@
       <c r="H227" s="21"/>
       <c r="I227" s="18"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228" s="21"/>
       <c r="B228" s="18"/>
       <c r="C228" s="21"/>
@@ -4096,7 +4093,7 @@
       <c r="H228" s="21"/>
       <c r="I228" s="18"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A229" s="21"/>
       <c r="B229" s="18"/>
       <c r="C229" s="21"/>
@@ -4107,7 +4104,7 @@
       <c r="H229" s="21"/>
       <c r="I229" s="18"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A230" s="21"/>
       <c r="B230" s="18"/>
       <c r="C230" s="21"/>
@@ -4118,7 +4115,7 @@
       <c r="H230" s="21"/>
       <c r="I230" s="18"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A231" s="21"/>
       <c r="B231" s="18"/>
       <c r="C231" s="21"/>
@@ -4129,7 +4126,7 @@
       <c r="H231" s="21"/>
       <c r="I231" s="18"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A232" s="21"/>
       <c r="B232" s="18"/>
       <c r="C232" s="21"/>
@@ -4140,7 +4137,7 @@
       <c r="H232" s="21"/>
       <c r="I232" s="18"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233" s="21"/>
       <c r="B233" s="18"/>
       <c r="C233" s="21"/>
@@ -4151,7 +4148,7 @@
       <c r="H233" s="21"/>
       <c r="I233" s="18"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A234" s="21"/>
       <c r="B234" s="18"/>
       <c r="C234" s="21"/>
@@ -4162,7 +4159,7 @@
       <c r="H234" s="21"/>
       <c r="I234" s="18"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A235" s="21"/>
       <c r="B235" s="18"/>
       <c r="C235" s="21"/>
@@ -4173,7 +4170,7 @@
       <c r="H235" s="21"/>
       <c r="I235" s="18"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A236" s="21"/>
       <c r="B236" s="18"/>
       <c r="C236" s="21"/>
@@ -4184,7 +4181,7 @@
       <c r="H236" s="21"/>
       <c r="I236" s="18"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A237" s="21"/>
       <c r="B237" s="18"/>
       <c r="C237" s="21"/>
@@ -4195,7 +4192,7 @@
       <c r="H237" s="21"/>
       <c r="I237" s="18"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A238" s="21"/>
       <c r="B238" s="18"/>
       <c r="C238" s="21"/>
@@ -4206,7 +4203,7 @@
       <c r="H238" s="21"/>
       <c r="I238" s="18"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A239" s="21"/>
       <c r="B239" s="18"/>
       <c r="C239" s="21"/>
@@ -4217,7 +4214,7 @@
       <c r="H239" s="21"/>
       <c r="I239" s="18"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A240" s="21"/>
       <c r="B240" s="18"/>
       <c r="C240" s="21"/>
@@ -4228,7 +4225,7 @@
       <c r="H240" s="21"/>
       <c r="I240" s="18"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A241" s="21"/>
       <c r="B241" s="18"/>
       <c r="C241" s="21"/>
@@ -4239,7 +4236,7 @@
       <c r="H241" s="21"/>
       <c r="I241" s="18"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A242" s="21"/>
       <c r="B242" s="18"/>
       <c r="C242" s="21"/>
@@ -4250,7 +4247,7 @@
       <c r="H242" s="21"/>
       <c r="I242" s="18"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A243" s="21"/>
       <c r="B243" s="18"/>
       <c r="C243" s="21"/>
@@ -4261,7 +4258,7 @@
       <c r="H243" s="21"/>
       <c r="I243" s="18"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A244" s="21"/>
       <c r="B244" s="18"/>
       <c r="C244" s="21"/>
@@ -4272,7 +4269,7 @@
       <c r="H244" s="21"/>
       <c r="I244" s="18"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A245" s="21"/>
       <c r="B245" s="18"/>
       <c r="C245" s="21"/>
@@ -4283,7 +4280,7 @@
       <c r="H245" s="21"/>
       <c r="I245" s="18"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A246" s="21"/>
       <c r="B246" s="18"/>
       <c r="C246" s="21"/>
@@ -4294,7 +4291,7 @@
       <c r="H246" s="21"/>
       <c r="I246" s="18"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A247" s="21"/>
       <c r="B247" s="18"/>
       <c r="C247" s="21"/>
@@ -4305,7 +4302,7 @@
       <c r="H247" s="21"/>
       <c r="I247" s="18"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A248" s="21"/>
       <c r="B248" s="18"/>
       <c r="C248" s="21"/>
@@ -4316,7 +4313,7 @@
       <c r="H248" s="21"/>
       <c r="I248" s="18"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A249" s="21"/>
       <c r="B249" s="18"/>
       <c r="C249" s="21"/>
@@ -4327,7 +4324,7 @@
       <c r="H249" s="21"/>
       <c r="I249" s="18"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A250" s="21"/>
       <c r="B250" s="18"/>
       <c r="C250" s="21"/>
@@ -4338,7 +4335,7 @@
       <c r="H250" s="21"/>
       <c r="I250" s="18"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A251" s="21"/>
       <c r="B251" s="18"/>
       <c r="C251" s="21"/>
@@ -4349,7 +4346,7 @@
       <c r="H251" s="21"/>
       <c r="I251" s="18"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A252" s="21"/>
       <c r="B252" s="18"/>
       <c r="C252" s="21"/>
@@ -4360,7 +4357,7 @@
       <c r="H252" s="21"/>
       <c r="I252" s="18"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A253" s="21"/>
       <c r="B253" s="18"/>
       <c r="C253" s="21"/>
@@ -4371,7 +4368,7 @@
       <c r="H253" s="21"/>
       <c r="I253" s="18"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A254" s="21"/>
       <c r="B254" s="18"/>
       <c r="C254" s="21"/>
@@ -4382,7 +4379,7 @@
       <c r="H254" s="21"/>
       <c r="I254" s="18"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A255" s="21"/>
       <c r="B255" s="18"/>
       <c r="C255" s="21"/>
@@ -4393,7 +4390,7 @@
       <c r="H255" s="21"/>
       <c r="I255" s="18"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A256" s="21"/>
       <c r="B256" s="18"/>
       <c r="C256" s="21"/>
@@ -4404,7 +4401,7 @@
       <c r="H256" s="21"/>
       <c r="I256" s="18"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A257" s="21"/>
       <c r="B257" s="18"/>
       <c r="C257" s="21"/>
@@ -4415,7 +4412,7 @@
       <c r="H257" s="21"/>
       <c r="I257" s="18"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A258" s="21"/>
       <c r="B258" s="18"/>
       <c r="C258" s="21"/>
@@ -4426,7 +4423,7 @@
       <c r="H258" s="21"/>
       <c r="I258" s="18"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A259" s="21"/>
       <c r="B259" s="18"/>
       <c r="C259" s="21"/>
@@ -4437,7 +4434,7 @@
       <c r="H259" s="21"/>
       <c r="I259" s="18"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A260" s="21"/>
       <c r="B260" s="18"/>
       <c r="C260" s="21"/>
@@ -4448,7 +4445,7 @@
       <c r="H260" s="21"/>
       <c r="I260" s="18"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A261" s="21"/>
       <c r="B261" s="18"/>
       <c r="C261" s="21"/>
@@ -4459,7 +4456,7 @@
       <c r="H261" s="21"/>
       <c r="I261" s="18"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A262" s="21"/>
       <c r="B262" s="18"/>
       <c r="C262" s="21"/>
@@ -4470,7 +4467,7 @@
       <c r="H262" s="21"/>
       <c r="I262" s="18"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A263" s="21"/>
       <c r="B263" s="18"/>
       <c r="C263" s="21"/>
@@ -4481,7 +4478,7 @@
       <c r="H263" s="21"/>
       <c r="I263" s="18"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A264" s="21"/>
       <c r="B264" s="18"/>
       <c r="C264" s="21"/>
@@ -4492,7 +4489,7 @@
       <c r="H264" s="21"/>
       <c r="I264" s="18"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A265" s="21"/>
       <c r="B265" s="18"/>
       <c r="C265" s="21"/>
@@ -4503,7 +4500,7 @@
       <c r="H265" s="21"/>
       <c r="I265" s="18"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A266" s="21"/>
       <c r="B266" s="18"/>
       <c r="C266" s="21"/>
@@ -4514,7 +4511,7 @@
       <c r="H266" s="21"/>
       <c r="I266" s="18"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A267" s="21"/>
       <c r="B267" s="18"/>
       <c r="C267" s="21"/>
@@ -4525,7 +4522,7 @@
       <c r="H267" s="21"/>
       <c r="I267" s="18"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A268" s="21"/>
       <c r="B268" s="18"/>
       <c r="C268" s="21"/>
@@ -4536,7 +4533,7 @@
       <c r="H268" s="21"/>
       <c r="I268" s="18"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A269" s="21"/>
       <c r="B269" s="18"/>
       <c r="C269" s="21"/>
@@ -4547,7 +4544,7 @@
       <c r="H269" s="21"/>
       <c r="I269" s="18"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A270" s="21"/>
       <c r="B270" s="18"/>
       <c r="C270" s="21"/>
@@ -4558,7 +4555,7 @@
       <c r="H270" s="21"/>
       <c r="I270" s="18"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A271" s="21"/>
       <c r="B271" s="18"/>
       <c r="C271" s="21"/>
@@ -4569,7 +4566,7 @@
       <c r="H271" s="21"/>
       <c r="I271" s="18"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A272" s="21"/>
       <c r="B272" s="18"/>
       <c r="C272" s="21"/>
@@ -4580,7 +4577,7 @@
       <c r="H272" s="21"/>
       <c r="I272" s="18"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A273" s="21"/>
       <c r="B273" s="18"/>
       <c r="C273" s="21"/>
@@ -4591,7 +4588,7 @@
       <c r="H273" s="21"/>
       <c r="I273" s="18"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A274" s="21"/>
       <c r="B274" s="18"/>
       <c r="C274" s="21"/>
@@ -4602,7 +4599,7 @@
       <c r="H274" s="21"/>
       <c r="I274" s="18"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A275" s="21"/>
       <c r="B275" s="18"/>
       <c r="C275" s="21"/>
@@ -4613,7 +4610,7 @@
       <c r="H275" s="21"/>
       <c r="I275" s="18"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A276" s="21"/>
       <c r="B276" s="18"/>
       <c r="C276" s="21"/>
@@ -4624,7 +4621,7 @@
       <c r="H276" s="21"/>
       <c r="I276" s="18"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A277" s="21"/>
       <c r="B277" s="18"/>
       <c r="C277" s="21"/>
@@ -4635,7 +4632,7 @@
       <c r="H277" s="21"/>
       <c r="I277" s="18"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A278" s="21"/>
       <c r="B278" s="18"/>
       <c r="C278" s="21"/>
@@ -4646,7 +4643,7 @@
       <c r="H278" s="21"/>
       <c r="I278" s="18"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A279" s="21"/>
       <c r="B279" s="18"/>
       <c r="C279" s="21"/>
@@ -4657,7 +4654,7 @@
       <c r="H279" s="21"/>
       <c r="I279" s="18"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A280" s="21"/>
       <c r="B280" s="18"/>
       <c r="C280" s="21"/>
@@ -4668,7 +4665,7 @@
       <c r="H280" s="21"/>
       <c r="I280" s="18"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A281" s="21"/>
       <c r="B281" s="18"/>
       <c r="C281" s="21"/>
@@ -4679,7 +4676,7 @@
       <c r="H281" s="21"/>
       <c r="I281" s="18"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A282" s="21"/>
       <c r="B282" s="18"/>
       <c r="C282" s="21"/>
@@ -4690,7 +4687,7 @@
       <c r="H282" s="21"/>
       <c r="I282" s="18"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A283" s="21"/>
       <c r="B283" s="18"/>
       <c r="C283" s="21"/>
@@ -4701,7 +4698,7 @@
       <c r="H283" s="21"/>
       <c r="I283" s="18"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A284" s="21"/>
       <c r="B284" s="18"/>
       <c r="C284" s="21"/>
@@ -4712,7 +4709,7 @@
       <c r="H284" s="21"/>
       <c r="I284" s="18"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A285" s="21"/>
       <c r="B285" s="18"/>
       <c r="C285" s="21"/>
@@ -4723,7 +4720,7 @@
       <c r="H285" s="21"/>
       <c r="I285" s="18"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A286" s="21"/>
       <c r="B286" s="18"/>
       <c r="C286" s="21"/>
@@ -4734,7 +4731,7 @@
       <c r="H286" s="21"/>
       <c r="I286" s="18"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A287" s="21"/>
       <c r="B287" s="18"/>
       <c r="C287" s="21"/>
@@ -4745,7 +4742,7 @@
       <c r="H287" s="21"/>
       <c r="I287" s="18"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A288" s="21"/>
       <c r="B288" s="18"/>
       <c r="C288" s="21"/>
@@ -4756,7 +4753,7 @@
       <c r="H288" s="21"/>
       <c r="I288" s="18"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A289" s="21"/>
       <c r="B289" s="18"/>
       <c r="C289" s="21"/>
@@ -4767,7 +4764,7 @@
       <c r="H289" s="21"/>
       <c r="I289" s="18"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A290" s="21"/>
       <c r="B290" s="18"/>
       <c r="C290" s="21"/>
@@ -4778,7 +4775,7 @@
       <c r="H290" s="21"/>
       <c r="I290" s="18"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A291" s="21"/>
       <c r="B291" s="18"/>
       <c r="C291" s="21"/>
@@ -4789,7 +4786,7 @@
       <c r="H291" s="21"/>
       <c r="I291" s="18"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A292" s="21"/>
       <c r="B292" s="18"/>
       <c r="C292" s="21"/>
@@ -4800,7 +4797,7 @@
       <c r="H292" s="21"/>
       <c r="I292" s="18"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A293" s="21"/>
       <c r="B293" s="18"/>
       <c r="C293" s="21"/>
@@ -4811,7 +4808,7 @@
       <c r="H293" s="21"/>
       <c r="I293" s="18"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A294" s="21"/>
       <c r="B294" s="18"/>
       <c r="C294" s="21"/>
@@ -4822,7 +4819,7 @@
       <c r="H294" s="21"/>
       <c r="I294" s="18"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A295" s="21"/>
       <c r="B295" s="18"/>
       <c r="C295" s="21"/>
@@ -4833,7 +4830,7 @@
       <c r="H295" s="21"/>
       <c r="I295" s="18"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A296" s="21"/>
       <c r="B296" s="18"/>
       <c r="C296" s="21"/>
@@ -4844,7 +4841,7 @@
       <c r="H296" s="21"/>
       <c r="I296" s="18"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A297" s="21"/>
       <c r="B297" s="18"/>
       <c r="C297" s="21"/>
@@ -4855,7 +4852,7 @@
       <c r="H297" s="21"/>
       <c r="I297" s="18"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A298" s="21"/>
       <c r="B298" s="18"/>
       <c r="C298" s="21"/>
@@ -4866,7 +4863,7 @@
       <c r="H298" s="21"/>
       <c r="I298" s="18"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A299" s="21"/>
       <c r="B299" s="18"/>
       <c r="C299" s="21"/>
@@ -4877,7 +4874,7 @@
       <c r="H299" s="21"/>
       <c r="I299" s="18"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A300" s="21"/>
       <c r="B300" s="18"/>
       <c r="C300" s="21"/>
@@ -4888,7 +4885,7 @@
       <c r="H300" s="21"/>
       <c r="I300" s="18"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A301" s="21"/>
       <c r="B301" s="18"/>
       <c r="C301" s="21"/>
@@ -4899,7 +4896,7 @@
       <c r="H301" s="21"/>
       <c r="I301" s="18"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A302" s="21"/>
       <c r="B302" s="18"/>
       <c r="C302" s="21"/>
@@ -4910,7 +4907,7 @@
       <c r="H302" s="21"/>
       <c r="I302" s="18"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A303" s="21"/>
       <c r="B303" s="18"/>
       <c r="C303" s="21"/>
@@ -4921,7 +4918,7 @@
       <c r="H303" s="21"/>
       <c r="I303" s="18"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A304" s="21"/>
       <c r="B304" s="18"/>
       <c r="C304" s="21"/>
@@ -4932,7 +4929,7 @@
       <c r="H304" s="21"/>
       <c r="I304" s="18"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="21"/>
       <c r="B305" s="18"/>
       <c r="C305" s="21"/>
@@ -4943,7 +4940,7 @@
       <c r="H305" s="21"/>
       <c r="I305" s="18"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A306" s="21"/>
       <c r="B306" s="18"/>
       <c r="C306" s="21"/>
@@ -4954,7 +4951,7 @@
       <c r="H306" s="21"/>
       <c r="I306" s="18"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A307" s="21"/>
       <c r="B307" s="18"/>
       <c r="C307" s="21"/>
@@ -4965,7 +4962,7 @@
       <c r="H307" s="21"/>
       <c r="I307" s="18"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="21"/>
       <c r="B308" s="18"/>
       <c r="C308" s="21"/>
@@ -4976,7 +4973,7 @@
       <c r="H308" s="21"/>
       <c r="I308" s="18"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" s="21"/>
       <c r="B309" s="18"/>
       <c r="C309" s="21"/>
@@ -4987,7 +4984,7 @@
       <c r="H309" s="21"/>
       <c r="I309" s="18"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A310" s="21"/>
       <c r="B310" s="18"/>
       <c r="C310" s="21"/>
@@ -4998,7 +4995,7 @@
       <c r="H310" s="21"/>
       <c r="I310" s="18"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="21"/>
       <c r="B311" s="18"/>
       <c r="C311" s="21"/>
@@ -5009,7 +5006,7 @@
       <c r="H311" s="21"/>
       <c r="I311" s="18"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" s="21"/>
       <c r="B312" s="18"/>
       <c r="C312" s="21"/>
@@ -5020,7 +5017,7 @@
       <c r="H312" s="21"/>
       <c r="I312" s="18"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A313" s="21"/>
       <c r="B313" s="18"/>
       <c r="C313" s="21"/>
@@ -5031,7 +5028,7 @@
       <c r="H313" s="21"/>
       <c r="I313" s="18"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="21"/>
       <c r="B314" s="18"/>
       <c r="C314" s="21"/>
@@ -5042,7 +5039,7 @@
       <c r="H314" s="21"/>
       <c r="I314" s="18"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" s="21"/>
       <c r="B315" s="18"/>
       <c r="C315" s="21"/>
@@ -5053,7 +5050,7 @@
       <c r="H315" s="21"/>
       <c r="I315" s="18"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A316" s="21"/>
       <c r="B316" s="18"/>
       <c r="C316" s="21"/>
@@ -5064,7 +5061,7 @@
       <c r="H316" s="21"/>
       <c r="I316" s="18"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="21"/>
       <c r="B317" s="18"/>
       <c r="C317" s="21"/>
@@ -5075,7 +5072,7 @@
       <c r="H317" s="21"/>
       <c r="I317" s="18"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" s="21"/>
       <c r="B318" s="18"/>
       <c r="C318" s="21"/>
@@ -5086,7 +5083,7 @@
       <c r="H318" s="21"/>
       <c r="I318" s="18"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A319" s="21"/>
       <c r="B319" s="18"/>
       <c r="C319" s="21"/>
@@ -5097,7 +5094,7 @@
       <c r="H319" s="21"/>
       <c r="I319" s="18"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="21"/>
       <c r="B320" s="18"/>
       <c r="C320" s="21"/>
@@ -5108,7 +5105,7 @@
       <c r="H320" s="21"/>
       <c r="I320" s="18"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" s="21"/>
       <c r="B321" s="18"/>
       <c r="C321" s="21"/>
@@ -5119,7 +5116,7 @@
       <c r="H321" s="21"/>
       <c r="I321" s="18"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A322" s="21"/>
       <c r="B322" s="18"/>
       <c r="C322" s="21"/>
@@ -5130,7 +5127,7 @@
       <c r="H322" s="21"/>
       <c r="I322" s="18"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="21"/>
       <c r="B323" s="18"/>
       <c r="C323" s="21"/>
@@ -5141,7 +5138,7 @@
       <c r="H323" s="21"/>
       <c r="I323" s="18"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="21"/>
       <c r="B324" s="18"/>
       <c r="C324" s="21"/>
@@ -5152,7 +5149,7 @@
       <c r="H324" s="21"/>
       <c r="I324" s="18"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A325" s="21"/>
       <c r="B325" s="18"/>
       <c r="C325" s="21"/>
@@ -5163,7 +5160,7 @@
       <c r="H325" s="21"/>
       <c r="I325" s="18"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="21"/>
       <c r="B326" s="18"/>
       <c r="C326" s="21"/>
@@ -5174,7 +5171,7 @@
       <c r="H326" s="21"/>
       <c r="I326" s="18"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" s="21"/>
       <c r="B327" s="18"/>
       <c r="C327" s="21"/>
@@ -5185,7 +5182,7 @@
       <c r="H327" s="21"/>
       <c r="I327" s="18"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A328" s="21"/>
       <c r="B328" s="18"/>
       <c r="C328" s="21"/>
@@ -5196,7 +5193,7 @@
       <c r="H328" s="21"/>
       <c r="I328" s="18"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="21"/>
       <c r="B329" s="18"/>
       <c r="C329" s="21"/>
@@ -5207,7 +5204,7 @@
       <c r="H329" s="21"/>
       <c r="I329" s="18"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="21"/>
       <c r="B330" s="18"/>
       <c r="C330" s="21"/>
@@ -5218,7 +5215,7 @@
       <c r="H330" s="21"/>
       <c r="I330" s="18"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="21"/>
       <c r="B331" s="18"/>
       <c r="C331" s="21"/>
@@ -5229,7 +5226,7 @@
       <c r="H331" s="21"/>
       <c r="I331" s="18"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="21"/>
       <c r="B332" s="18"/>
       <c r="C332" s="21"/>
@@ -5240,7 +5237,7 @@
       <c r="H332" s="21"/>
       <c r="I332" s="18"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="21"/>
       <c r="B333" s="18"/>
       <c r="C333" s="21"/>
@@ -5251,7 +5248,7 @@
       <c r="H333" s="21"/>
       <c r="I333" s="18"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="21"/>
       <c r="B334" s="18"/>
       <c r="C334" s="21"/>
@@ -5262,7 +5259,7 @@
       <c r="H334" s="21"/>
       <c r="I334" s="18"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="21"/>
       <c r="B335" s="18"/>
       <c r="C335" s="21"/>
@@ -5273,7 +5270,7 @@
       <c r="H335" s="21"/>
       <c r="I335" s="18"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="21"/>
       <c r="B336" s="18"/>
       <c r="C336" s="21"/>
@@ -5284,7 +5281,7 @@
       <c r="H336" s="21"/>
       <c r="I336" s="18"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A337" s="21"/>
       <c r="B337" s="18"/>
       <c r="C337" s="21"/>
@@ -5295,7 +5292,7 @@
       <c r="H337" s="21"/>
       <c r="I337" s="18"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A338" s="21"/>
       <c r="B338" s="18"/>
       <c r="C338" s="21"/>
@@ -5306,7 +5303,7 @@
       <c r="H338" s="21"/>
       <c r="I338" s="18"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A339" s="21"/>
       <c r="B339" s="18"/>
       <c r="C339" s="21"/>
@@ -5317,7 +5314,7 @@
       <c r="H339" s="21"/>
       <c r="I339" s="18"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A340" s="21"/>
       <c r="B340" s="18"/>
       <c r="C340" s="21"/>
@@ -5328,7 +5325,7 @@
       <c r="H340" s="21"/>
       <c r="I340" s="18"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A341" s="21"/>
       <c r="B341" s="18"/>
       <c r="C341" s="21"/>
@@ -5339,7 +5336,7 @@
       <c r="H341" s="21"/>
       <c r="I341" s="18"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A342" s="21"/>
       <c r="B342" s="18"/>
       <c r="C342" s="21"/>
@@ -5350,7 +5347,7 @@
       <c r="H342" s="21"/>
       <c r="I342" s="18"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A343" s="21"/>
       <c r="B343" s="18"/>
       <c r="C343" s="21"/>
@@ -5361,7 +5358,7 @@
       <c r="H343" s="21"/>
       <c r="I343" s="18"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A344" s="21"/>
       <c r="B344" s="18"/>
       <c r="C344" s="21"/>
@@ -5372,7 +5369,7 @@
       <c r="H344" s="21"/>
       <c r="I344" s="18"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A345" s="21"/>
       <c r="B345" s="18"/>
       <c r="C345" s="21"/>
@@ -5383,7 +5380,7 @@
       <c r="H345" s="21"/>
       <c r="I345" s="18"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A346" s="21"/>
       <c r="B346" s="18"/>
       <c r="C346" s="21"/>
@@ -5394,7 +5391,7 @@
       <c r="H346" s="21"/>
       <c r="I346" s="18"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A347" s="21"/>
       <c r="B347" s="18"/>
       <c r="C347" s="21"/>
@@ -5405,7 +5402,7 @@
       <c r="H347" s="21"/>
       <c r="I347" s="18"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A348" s="21"/>
       <c r="B348" s="18"/>
       <c r="C348" s="21"/>
@@ -5416,7 +5413,7 @@
       <c r="H348" s="21"/>
       <c r="I348" s="18"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A349" s="21"/>
       <c r="B349" s="18"/>
       <c r="C349" s="21"/>
@@ -5427,7 +5424,7 @@
       <c r="H349" s="21"/>
       <c r="I349" s="18"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A350" s="21"/>
       <c r="B350" s="18"/>
       <c r="C350" s="21"/>
@@ -5438,7 +5435,7 @@
       <c r="H350" s="21"/>
       <c r="I350" s="18"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A351" s="21"/>
       <c r="B351" s="18"/>
       <c r="C351" s="21"/>
@@ -5449,7 +5446,7 @@
       <c r="H351" s="21"/>
       <c r="I351" s="18"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A352" s="21"/>
       <c r="B352" s="18"/>
       <c r="C352" s="21"/>
@@ -5460,7 +5457,7 @@
       <c r="H352" s="21"/>
       <c r="I352" s="18"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A353" s="21"/>
       <c r="B353" s="18"/>
       <c r="C353" s="21"/>
@@ -5471,7 +5468,7 @@
       <c r="H353" s="21"/>
       <c r="I353" s="18"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A354" s="21"/>
       <c r="B354" s="18"/>
       <c r="C354" s="21"/>
@@ -5482,7 +5479,7 @@
       <c r="H354" s="21"/>
       <c r="I354" s="18"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A355" s="21"/>
       <c r="B355" s="18"/>
       <c r="C355" s="21"/>
@@ -5493,7 +5490,7 @@
       <c r="H355" s="21"/>
       <c r="I355" s="18"/>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A356" s="21"/>
       <c r="B356" s="18"/>
       <c r="C356" s="21"/>
@@ -5504,7 +5501,7 @@
       <c r="H356" s="21"/>
       <c r="I356" s="18"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A357" s="21"/>
       <c r="B357" s="18"/>
       <c r="C357" s="21"/>
@@ -5515,7 +5512,7 @@
       <c r="H357" s="21"/>
       <c r="I357" s="18"/>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A358" s="21"/>
       <c r="B358" s="18"/>
       <c r="C358" s="21"/>
@@ -5526,7 +5523,7 @@
       <c r="H358" s="21"/>
       <c r="I358" s="18"/>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A359" s="21"/>
       <c r="B359" s="18"/>
       <c r="C359" s="21"/>
@@ -5537,7 +5534,7 @@
       <c r="H359" s="21"/>
       <c r="I359" s="18"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A360" s="21"/>
       <c r="B360" s="18"/>
       <c r="C360" s="21"/>
@@ -5548,7 +5545,7 @@
       <c r="H360" s="21"/>
       <c r="I360" s="18"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A361" s="21"/>
       <c r="B361" s="18"/>
       <c r="C361" s="21"/>
@@ -5559,7 +5556,7 @@
       <c r="H361" s="21"/>
       <c r="I361" s="18"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A362" s="21"/>
       <c r="B362" s="18"/>
       <c r="C362" s="21"/>
@@ -5570,7 +5567,7 @@
       <c r="H362" s="21"/>
       <c r="I362" s="18"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A363" s="21"/>
       <c r="B363" s="18"/>
       <c r="C363" s="21"/>
@@ -5581,7 +5578,7 @@
       <c r="H363" s="21"/>
       <c r="I363" s="18"/>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A364" s="21"/>
       <c r="B364" s="18"/>
       <c r="C364" s="21"/>
@@ -5592,7 +5589,7 @@
       <c r="H364" s="21"/>
       <c r="I364" s="18"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A365" s="21"/>
       <c r="B365" s="18"/>
       <c r="C365" s="21"/>
@@ -5603,7 +5600,7 @@
       <c r="H365" s="21"/>
       <c r="I365" s="18"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A366" s="21"/>
       <c r="B366" s="18"/>
       <c r="C366" s="21"/>
@@ -5614,7 +5611,7 @@
       <c r="H366" s="21"/>
       <c r="I366" s="18"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A367" s="21"/>
       <c r="B367" s="18"/>
       <c r="C367" s="21"/>
@@ -5625,7 +5622,7 @@
       <c r="H367" s="21"/>
       <c r="I367" s="18"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A368" s="21"/>
       <c r="B368" s="18"/>
       <c r="C368" s="21"/>
@@ -5636,7 +5633,7 @@
       <c r="H368" s="21"/>
       <c r="I368" s="18"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A369" s="21"/>
       <c r="B369" s="18"/>
       <c r="C369" s="21"/>
@@ -5647,7 +5644,7 @@
       <c r="H369" s="21"/>
       <c r="I369" s="18"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A370" s="21"/>
       <c r="B370" s="18"/>
       <c r="C370" s="21"/>
@@ -5658,7 +5655,7 @@
       <c r="H370" s="21"/>
       <c r="I370" s="18"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A371" s="21"/>
       <c r="B371" s="18"/>
       <c r="C371" s="21"/>
@@ -5669,7 +5666,7 @@
       <c r="H371" s="21"/>
       <c r="I371" s="18"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A372" s="21"/>
       <c r="B372" s="18"/>
       <c r="C372" s="21"/>
@@ -5680,7 +5677,7 @@
       <c r="H372" s="21"/>
       <c r="I372" s="18"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A373" s="21"/>
       <c r="B373" s="18"/>
       <c r="C373" s="21"/>
@@ -5691,7 +5688,7 @@
       <c r="H373" s="21"/>
       <c r="I373" s="18"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A374" s="21"/>
       <c r="B374" s="18"/>
       <c r="C374" s="21"/>
@@ -5702,7 +5699,7 @@
       <c r="H374" s="21"/>
       <c r="I374" s="18"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A375" s="21"/>
       <c r="B375" s="18"/>
       <c r="C375" s="21"/>
@@ -5713,7 +5710,7 @@
       <c r="H375" s="21"/>
       <c r="I375" s="18"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A376" s="21"/>
       <c r="B376" s="18"/>
       <c r="C376" s="21"/>
@@ -5724,7 +5721,7 @@
       <c r="H376" s="21"/>
       <c r="I376" s="18"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A377" s="21"/>
       <c r="B377" s="18"/>
       <c r="C377" s="21"/>
@@ -5735,7 +5732,7 @@
       <c r="H377" s="21"/>
       <c r="I377" s="18"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A378" s="21"/>
       <c r="B378" s="18"/>
       <c r="C378" s="21"/>
@@ -5746,7 +5743,7 @@
       <c r="H378" s="21"/>
       <c r="I378" s="18"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A379" s="21"/>
       <c r="B379" s="18"/>
       <c r="C379" s="21"/>
@@ -5757,7 +5754,7 @@
       <c r="H379" s="21"/>
       <c r="I379" s="18"/>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A380" s="21"/>
       <c r="B380" s="18"/>
       <c r="C380" s="21"/>
@@ -5768,7 +5765,7 @@
       <c r="H380" s="21"/>
       <c r="I380" s="18"/>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A381" s="21"/>
       <c r="B381" s="18"/>
       <c r="C381" s="21"/>
@@ -5779,7 +5776,7 @@
       <c r="H381" s="21"/>
       <c r="I381" s="18"/>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A382" s="21"/>
       <c r="B382" s="18"/>
       <c r="C382" s="21"/>
@@ -5790,7 +5787,7 @@
       <c r="H382" s="21"/>
       <c r="I382" s="18"/>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A383" s="21"/>
       <c r="B383" s="18"/>
       <c r="C383" s="21"/>
@@ -5801,7 +5798,7 @@
       <c r="H383" s="21"/>
       <c r="I383" s="18"/>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A384" s="21"/>
       <c r="B384" s="18"/>
       <c r="C384" s="21"/>
@@ -5812,7 +5809,7 @@
       <c r="H384" s="21"/>
       <c r="I384" s="18"/>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A385" s="21"/>
       <c r="B385" s="18"/>
       <c r="C385" s="21"/>
@@ -5823,7 +5820,7 @@
       <c r="H385" s="21"/>
       <c r="I385" s="18"/>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A386" s="21"/>
       <c r="B386" s="18"/>
       <c r="C386" s="21"/>
@@ -5834,7 +5831,7 @@
       <c r="H386" s="21"/>
       <c r="I386" s="18"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A387" s="21"/>
       <c r="B387" s="18"/>
       <c r="C387" s="21"/>
@@ -5845,7 +5842,7 @@
       <c r="H387" s="21"/>
       <c r="I387" s="18"/>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A388" s="21"/>
       <c r="B388" s="18"/>
       <c r="C388" s="21"/>
@@ -5856,7 +5853,7 @@
       <c r="H388" s="21"/>
       <c r="I388" s="18"/>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A389" s="21"/>
       <c r="B389" s="18"/>
       <c r="C389" s="21"/>
@@ -5867,7 +5864,7 @@
       <c r="H389" s="21"/>
       <c r="I389" s="18"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A390" s="21"/>
       <c r="B390" s="18"/>
       <c r="C390" s="21"/>
@@ -5878,7 +5875,7 @@
       <c r="H390" s="21"/>
       <c r="I390" s="18"/>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A391" s="21"/>
       <c r="B391" s="18"/>
       <c r="C391" s="21"/>
@@ -5889,7 +5886,7 @@
       <c r="H391" s="21"/>
       <c r="I391" s="18"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A392" s="21"/>
       <c r="B392" s="18"/>
       <c r="C392" s="21"/>
@@ -5900,7 +5897,7 @@
       <c r="H392" s="21"/>
       <c r="I392" s="18"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A393" s="21"/>
       <c r="B393" s="18"/>
       <c r="C393" s="21"/>
@@ -5911,7 +5908,7 @@
       <c r="H393" s="21"/>
       <c r="I393" s="18"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A394" s="21"/>
       <c r="B394" s="18"/>
       <c r="C394" s="21"/>
@@ -5922,7 +5919,7 @@
       <c r="H394" s="21"/>
       <c r="I394" s="18"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A395" s="21"/>
       <c r="B395" s="18"/>
       <c r="C395" s="21"/>
@@ -5933,7 +5930,7 @@
       <c r="H395" s="21"/>
       <c r="I395" s="18"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A396" s="21"/>
       <c r="B396" s="18"/>
       <c r="C396" s="21"/>
@@ -5944,7 +5941,7 @@
       <c r="H396" s="21"/>
       <c r="I396" s="18"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A397" s="21"/>
       <c r="B397" s="18"/>
       <c r="C397" s="21"/>
@@ -5955,7 +5952,7 @@
       <c r="H397" s="21"/>
       <c r="I397" s="18"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A398" s="21"/>
       <c r="B398" s="18"/>
       <c r="C398" s="21"/>
@@ -5966,7 +5963,7 @@
       <c r="H398" s="21"/>
       <c r="I398" s="18"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A399" s="21"/>
       <c r="B399" s="18"/>
       <c r="C399" s="21"/>
@@ -5977,7 +5974,7 @@
       <c r="H399" s="21"/>
       <c r="I399" s="18"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A400" s="21"/>
       <c r="B400" s="18"/>
       <c r="C400" s="21"/>
@@ -5988,7 +5985,7 @@
       <c r="H400" s="21"/>
       <c r="I400" s="18"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A401" s="21"/>
       <c r="B401" s="18"/>
       <c r="C401" s="21"/>
@@ -5999,7 +5996,7 @@
       <c r="H401" s="21"/>
       <c r="I401" s="18"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A402" s="21"/>
       <c r="B402" s="18"/>
       <c r="C402" s="21"/>
@@ -6010,7 +6007,7 @@
       <c r="H402" s="21"/>
       <c r="I402" s="18"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A403" s="21"/>
       <c r="B403" s="18"/>
       <c r="C403" s="21"/>
@@ -6021,7 +6018,7 @@
       <c r="H403" s="21"/>
       <c r="I403" s="18"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A404" s="21"/>
       <c r="B404" s="18"/>
       <c r="C404" s="21"/>
@@ -6032,7 +6029,7 @@
       <c r="H404" s="21"/>
       <c r="I404" s="18"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A405" s="21"/>
       <c r="B405" s="18"/>
       <c r="C405" s="21"/>
@@ -6043,7 +6040,7 @@
       <c r="H405" s="21"/>
       <c r="I405" s="18"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A406" s="21"/>
       <c r="B406" s="18"/>
       <c r="C406" s="21"/>
@@ -6054,7 +6051,7 @@
       <c r="H406" s="21"/>
       <c r="I406" s="18"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A407" s="21"/>
       <c r="B407" s="18"/>
       <c r="C407" s="21"/>
@@ -6065,7 +6062,7 @@
       <c r="H407" s="21"/>
       <c r="I407" s="18"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A408" s="21"/>
       <c r="B408" s="18"/>
       <c r="C408" s="21"/>
@@ -6076,7 +6073,7 @@
       <c r="H408" s="21"/>
       <c r="I408" s="18"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A409" s="21"/>
       <c r="B409" s="18"/>
       <c r="C409" s="21"/>
@@ -6087,7 +6084,7 @@
       <c r="H409" s="21"/>
       <c r="I409" s="18"/>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A410" s="21"/>
       <c r="B410" s="18"/>
       <c r="C410" s="21"/>
@@ -6098,7 +6095,7 @@
       <c r="H410" s="21"/>
       <c r="I410" s="18"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A411" s="21"/>
       <c r="B411" s="18"/>
       <c r="C411" s="21"/>
@@ -6109,7 +6106,7 @@
       <c r="H411" s="21"/>
       <c r="I411" s="18"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A412" s="21"/>
       <c r="B412" s="18"/>
       <c r="C412" s="21"/>
@@ -6120,7 +6117,7 @@
       <c r="H412" s="21"/>
       <c r="I412" s="18"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A413" s="21"/>
       <c r="B413" s="18"/>
       <c r="C413" s="21"/>
@@ -6131,7 +6128,7 @@
       <c r="H413" s="21"/>
       <c r="I413" s="18"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A414" s="21"/>
       <c r="B414" s="18"/>
       <c r="C414" s="21"/>
@@ -6142,7 +6139,7 @@
       <c r="H414" s="21"/>
       <c r="I414" s="18"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A415" s="21"/>
       <c r="B415" s="18"/>
       <c r="C415" s="21"/>
@@ -6153,7 +6150,7 @@
       <c r="H415" s="21"/>
       <c r="I415" s="18"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A416" s="21"/>
       <c r="B416" s="18"/>
       <c r="C416" s="21"/>
@@ -6164,7 +6161,7 @@
       <c r="H416" s="21"/>
       <c r="I416" s="18"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A417" s="21"/>
       <c r="B417" s="18"/>
       <c r="C417" s="21"/>
@@ -6175,7 +6172,7 @@
       <c r="H417" s="21"/>
       <c r="I417" s="18"/>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A418" s="21"/>
       <c r="B418" s="18"/>
       <c r="C418" s="21"/>
@@ -6186,7 +6183,7 @@
       <c r="H418" s="21"/>
       <c r="I418" s="18"/>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A419" s="21"/>
       <c r="B419" s="18"/>
       <c r="C419" s="21"/>
@@ -6197,7 +6194,7 @@
       <c r="H419" s="21"/>
       <c r="I419" s="18"/>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A420" s="21"/>
       <c r="B420" s="18"/>
       <c r="C420" s="21"/>
@@ -6208,7 +6205,7 @@
       <c r="H420" s="21"/>
       <c r="I420" s="18"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A421" s="21"/>
       <c r="B421" s="18"/>
       <c r="C421" s="21"/>
@@ -6219,7 +6216,7 @@
       <c r="H421" s="21"/>
       <c r="I421" s="18"/>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A422" s="21"/>
       <c r="B422" s="18"/>
       <c r="C422" s="21"/>
@@ -6230,7 +6227,7 @@
       <c r="H422" s="21"/>
       <c r="I422" s="18"/>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A423" s="21"/>
       <c r="B423" s="18"/>
       <c r="C423" s="21"/>
@@ -6241,7 +6238,7 @@
       <c r="H423" s="21"/>
       <c r="I423" s="18"/>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A424" s="21"/>
       <c r="B424" s="18"/>
       <c r="C424" s="21"/>
@@ -6252,7 +6249,7 @@
       <c r="H424" s="21"/>
       <c r="I424" s="18"/>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A425" s="21"/>
       <c r="B425" s="18"/>
       <c r="C425" s="21"/>
@@ -6263,7 +6260,7 @@
       <c r="H425" s="21"/>
       <c r="I425" s="18"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A426" s="21"/>
       <c r="B426" s="18"/>
       <c r="C426" s="21"/>
@@ -6274,7 +6271,7 @@
       <c r="H426" s="21"/>
       <c r="I426" s="18"/>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A427" s="21"/>
       <c r="B427" s="18"/>
       <c r="C427" s="21"/>
@@ -6285,7 +6282,7 @@
       <c r="H427" s="21"/>
       <c r="I427" s="18"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A428" s="21"/>
       <c r="B428" s="18"/>
       <c r="C428" s="21"/>
@@ -6296,7 +6293,7 @@
       <c r="H428" s="21"/>
       <c r="I428" s="18"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A429" s="21"/>
       <c r="B429" s="18"/>
       <c r="C429" s="21"/>
@@ -6307,7 +6304,7 @@
       <c r="H429" s="21"/>
       <c r="I429" s="18"/>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A430" s="21"/>
       <c r="B430" s="18"/>
       <c r="C430" s="21"/>
@@ -6318,7 +6315,7 @@
       <c r="H430" s="21"/>
       <c r="I430" s="18"/>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A431" s="21"/>
       <c r="B431" s="18"/>
       <c r="C431" s="21"/>
@@ -6329,7 +6326,7 @@
       <c r="H431" s="21"/>
       <c r="I431" s="18"/>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A432" s="21"/>
       <c r="B432" s="18"/>
       <c r="C432" s="21"/>
@@ -6340,7 +6337,7 @@
       <c r="H432" s="21"/>
       <c r="I432" s="18"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A433" s="21"/>
       <c r="B433" s="18"/>
       <c r="C433" s="21"/>
@@ -6351,7 +6348,7 @@
       <c r="H433" s="21"/>
       <c r="I433" s="18"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A434" s="21"/>
       <c r="B434" s="18"/>
       <c r="C434" s="21"/>
@@ -6362,7 +6359,7 @@
       <c r="H434" s="21"/>
       <c r="I434" s="18"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A435" s="21"/>
       <c r="B435" s="18"/>
       <c r="C435" s="21"/>
@@ -6373,7 +6370,7 @@
       <c r="H435" s="21"/>
       <c r="I435" s="18"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A436" s="21"/>
       <c r="B436" s="18"/>
       <c r="C436" s="21"/>
@@ -6384,7 +6381,7 @@
       <c r="H436" s="21"/>
       <c r="I436" s="18"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A437" s="21"/>
       <c r="B437" s="18"/>
       <c r="C437" s="21"/>
@@ -6395,7 +6392,7 @@
       <c r="H437" s="21"/>
       <c r="I437" s="18"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A438" s="21"/>
       <c r="B438" s="18"/>
       <c r="C438" s="21"/>
@@ -6406,7 +6403,7 @@
       <c r="H438" s="21"/>
       <c r="I438" s="18"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A439" s="21"/>
       <c r="B439" s="18"/>
       <c r="C439" s="21"/>
@@ -6417,7 +6414,7 @@
       <c r="H439" s="21"/>
       <c r="I439" s="18"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A440" s="21"/>
       <c r="B440" s="18"/>
       <c r="C440" s="21"/>
@@ -6428,7 +6425,7 @@
       <c r="H440" s="21"/>
       <c r="I440" s="18"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A441" s="21"/>
       <c r="B441" s="18"/>
       <c r="C441" s="21"/>
@@ -6439,7 +6436,7 @@
       <c r="H441" s="21"/>
       <c r="I441" s="18"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A442" s="21"/>
       <c r="B442" s="18"/>
       <c r="C442" s="21"/>
@@ -6450,7 +6447,7 @@
       <c r="H442" s="21"/>
       <c r="I442" s="18"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A443" s="21"/>
       <c r="B443" s="18"/>
       <c r="C443" s="21"/>
@@ -6461,7 +6458,7 @@
       <c r="H443" s="21"/>
       <c r="I443" s="18"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A444" s="21"/>
       <c r="B444" s="18"/>
       <c r="C444" s="21"/>
@@ -6472,7 +6469,7 @@
       <c r="H444" s="21"/>
       <c r="I444" s="18"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A445" s="21"/>
       <c r="B445" s="18"/>
       <c r="C445" s="21"/>
@@ -6483,7 +6480,7 @@
       <c r="H445" s="21"/>
       <c r="I445" s="18"/>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A446" s="21"/>
       <c r="B446" s="18"/>
       <c r="C446" s="21"/>
@@ -6494,7 +6491,7 @@
       <c r="H446" s="21"/>
       <c r="I446" s="18"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A447" s="21"/>
       <c r="B447" s="18"/>
       <c r="C447" s="21"/>
@@ -6505,7 +6502,7 @@
       <c r="H447" s="21"/>
       <c r="I447" s="18"/>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A448" s="21"/>
       <c r="B448" s="18"/>
       <c r="C448" s="21"/>
@@ -6516,7 +6513,7 @@
       <c r="H448" s="21"/>
       <c r="I448" s="18"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A449" s="21"/>
       <c r="B449" s="18"/>
       <c r="C449" s="21"/>
@@ -6527,7 +6524,7 @@
       <c r="H449" s="21"/>
       <c r="I449" s="18"/>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A450" s="21"/>
       <c r="B450" s="18"/>
       <c r="C450" s="21"/>
@@ -6538,7 +6535,7 @@
       <c r="H450" s="21"/>
       <c r="I450" s="18"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A451" s="21"/>
       <c r="B451" s="18"/>
       <c r="C451" s="21"/>
@@ -6549,7 +6546,7 @@
       <c r="H451" s="21"/>
       <c r="I451" s="18"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A452" s="21"/>
       <c r="B452" s="18"/>
       <c r="C452" s="21"/>
@@ -6560,7 +6557,7 @@
       <c r="H452" s="21"/>
       <c r="I452" s="18"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A453" s="21"/>
       <c r="B453" s="18"/>
       <c r="C453" s="21"/>
@@ -6571,7 +6568,7 @@
       <c r="H453" s="21"/>
       <c r="I453" s="18"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A454" s="21"/>
       <c r="B454" s="18"/>
       <c r="C454" s="21"/>
@@ -6582,7 +6579,7 @@
       <c r="H454" s="21"/>
       <c r="I454" s="18"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A455" s="21"/>
       <c r="B455" s="18"/>
       <c r="C455" s="21"/>
@@ -6593,7 +6590,7 @@
       <c r="H455" s="21"/>
       <c r="I455" s="18"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A456" s="21"/>
       <c r="B456" s="18"/>
       <c r="C456" s="21"/>
@@ -6604,7 +6601,7 @@
       <c r="H456" s="21"/>
       <c r="I456" s="18"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A457" s="21"/>
       <c r="B457" s="18"/>
       <c r="C457" s="21"/>
@@ -6615,7 +6612,7 @@
       <c r="H457" s="21"/>
       <c r="I457" s="18"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A458" s="21"/>
       <c r="B458" s="18"/>
       <c r="C458" s="21"/>
@@ -6626,7 +6623,7 @@
       <c r="H458" s="21"/>
       <c r="I458" s="18"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A459" s="21"/>
       <c r="B459" s="18"/>
       <c r="C459" s="21"/>
@@ -6637,7 +6634,7 @@
       <c r="H459" s="21"/>
       <c r="I459" s="18"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A460" s="21"/>
       <c r="B460" s="18"/>
       <c r="C460" s="21"/>
@@ -6648,7 +6645,7 @@
       <c r="H460" s="21"/>
       <c r="I460" s="18"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A461" s="21"/>
       <c r="B461" s="18"/>
       <c r="C461" s="21"/>
@@ -6659,7 +6656,7 @@
       <c r="H461" s="21"/>
       <c r="I461" s="18"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A462" s="21"/>
       <c r="B462" s="18"/>
       <c r="C462" s="21"/>
@@ -6670,7 +6667,7 @@
       <c r="H462" s="21"/>
       <c r="I462" s="18"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A463" s="21"/>
       <c r="B463" s="18"/>
       <c r="C463" s="21"/>
@@ -6681,7 +6678,7 @@
       <c r="H463" s="21"/>
       <c r="I463" s="18"/>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A464" s="21"/>
       <c r="B464" s="18"/>
       <c r="C464" s="21"/>
@@ -6692,7 +6689,7 @@
       <c r="H464" s="21"/>
       <c r="I464" s="18"/>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A465" s="21"/>
       <c r="B465" s="18"/>
       <c r="C465" s="21"/>
@@ -6703,7 +6700,7 @@
       <c r="H465" s="21"/>
       <c r="I465" s="18"/>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A466" s="21"/>
       <c r="B466" s="18"/>
       <c r="C466" s="21"/>
@@ -6714,7 +6711,7 @@
       <c r="H466" s="21"/>
       <c r="I466" s="18"/>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A467" s="21"/>
       <c r="B467" s="18"/>
       <c r="C467" s="21"/>
@@ -6725,7 +6722,7 @@
       <c r="H467" s="21"/>
       <c r="I467" s="18"/>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A468" s="21"/>
       <c r="B468" s="18"/>
       <c r="C468" s="21"/>
@@ -6736,7 +6733,7 @@
       <c r="H468" s="21"/>
       <c r="I468" s="18"/>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A469" s="21"/>
       <c r="B469" s="18"/>
       <c r="C469" s="21"/>
@@ -6747,7 +6744,7 @@
       <c r="H469" s="21"/>
       <c r="I469" s="18"/>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A470" s="21"/>
       <c r="B470" s="18"/>
       <c r="C470" s="21"/>
@@ -6758,7 +6755,7 @@
       <c r="H470" s="21"/>
       <c r="I470" s="18"/>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A471" s="21"/>
       <c r="B471" s="18"/>
       <c r="C471" s="21"/>
@@ -6769,7 +6766,7 @@
       <c r="H471" s="21"/>
       <c r="I471" s="18"/>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A472" s="21"/>
       <c r="B472" s="18"/>
       <c r="C472" s="21"/>
@@ -6780,7 +6777,7 @@
       <c r="H472" s="21"/>
       <c r="I472" s="18"/>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A473" s="21"/>
       <c r="B473" s="18"/>
       <c r="C473" s="21"/>
@@ -6791,7 +6788,7 @@
       <c r="H473" s="21"/>
       <c r="I473" s="18"/>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A474" s="21"/>
       <c r="B474" s="18"/>
       <c r="C474" s="21"/>
@@ -6802,7 +6799,7 @@
       <c r="H474" s="21"/>
       <c r="I474" s="18"/>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A475" s="21"/>
       <c r="B475" s="18"/>
       <c r="C475" s="21"/>
@@ -6813,7 +6810,7 @@
       <c r="H475" s="21"/>
       <c r="I475" s="18"/>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A476" s="21"/>
       <c r="B476" s="18"/>
       <c r="C476" s="21"/>
@@ -6824,7 +6821,7 @@
       <c r="H476" s="21"/>
       <c r="I476" s="18"/>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A477" s="21"/>
       <c r="B477" s="18"/>
       <c r="C477" s="21"/>
@@ -6835,7 +6832,7 @@
       <c r="H477" s="21"/>
       <c r="I477" s="18"/>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A478" s="21"/>
       <c r="B478" s="18"/>
       <c r="C478" s="21"/>
@@ -6846,7 +6843,7 @@
       <c r="H478" s="21"/>
       <c r="I478" s="18"/>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A479" s="21"/>
       <c r="B479" s="18"/>
       <c r="C479" s="21"/>
@@ -6857,7 +6854,7 @@
       <c r="H479" s="21"/>
       <c r="I479" s="18"/>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A480" s="21"/>
       <c r="B480" s="18"/>
       <c r="C480" s="21"/>
@@ -6868,7 +6865,7 @@
       <c r="H480" s="21"/>
       <c r="I480" s="18"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A481" s="21"/>
       <c r="B481" s="18"/>
       <c r="C481" s="21"/>
@@ -6879,7 +6876,7 @@
       <c r="H481" s="21"/>
       <c r="I481" s="18"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A482" s="21"/>
       <c r="B482" s="18"/>
       <c r="C482" s="21"/>
@@ -6890,7 +6887,7 @@
       <c r="H482" s="21"/>
       <c r="I482" s="18"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A483" s="21"/>
       <c r="B483" s="18"/>
       <c r="C483" s="21"/>
@@ -6901,7 +6898,7 @@
       <c r="H483" s="21"/>
       <c r="I483" s="18"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A484" s="21"/>
       <c r="B484" s="18"/>
       <c r="C484" s="21"/>
@@ -6912,7 +6909,7 @@
       <c r="H484" s="21"/>
       <c r="I484" s="18"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A485" s="21"/>
       <c r="B485" s="18"/>
       <c r="C485" s="21"/>
@@ -6923,7 +6920,7 @@
       <c r="H485" s="21"/>
       <c r="I485" s="18"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A486" s="21"/>
       <c r="B486" s="18"/>
       <c r="C486" s="21"/>
@@ -6934,7 +6931,7 @@
       <c r="H486" s="21"/>
       <c r="I486" s="18"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A487" s="21"/>
       <c r="B487" s="18"/>
       <c r="C487" s="21"/>
@@ -6945,7 +6942,7 @@
       <c r="H487" s="21"/>
       <c r="I487" s="18"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A488" s="21"/>
       <c r="B488" s="18"/>
       <c r="C488" s="21"/>
@@ -6956,7 +6953,7 @@
       <c r="H488" s="21"/>
       <c r="I488" s="18"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A489" s="21"/>
       <c r="B489" s="18"/>
       <c r="C489" s="21"/>
@@ -6967,7 +6964,7 @@
       <c r="H489" s="21"/>
       <c r="I489" s="18"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A490" s="21"/>
       <c r="B490" s="18"/>
       <c r="C490" s="21"/>
@@ -6978,7 +6975,7 @@
       <c r="H490" s="21"/>
       <c r="I490" s="18"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A491" s="21"/>
       <c r="B491" s="18"/>
       <c r="C491" s="21"/>
@@ -6989,7 +6986,7 @@
       <c r="H491" s="21"/>
       <c r="I491" s="18"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A492" s="21"/>
       <c r="B492" s="18"/>
       <c r="C492" s="21"/>
@@ -7000,7 +6997,7 @@
       <c r="H492" s="21"/>
       <c r="I492" s="18"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A493" s="21"/>
       <c r="B493" s="18"/>
       <c r="C493" s="21"/>
@@ -7011,7 +7008,7 @@
       <c r="H493" s="21"/>
       <c r="I493" s="18"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A494" s="21"/>
       <c r="B494" s="18"/>
       <c r="C494" s="21"/>
@@ -7022,7 +7019,7 @@
       <c r="H494" s="21"/>
       <c r="I494" s="18"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A495" s="21"/>
       <c r="B495" s="18"/>
       <c r="C495" s="21"/>
@@ -7033,7 +7030,7 @@
       <c r="H495" s="21"/>
       <c r="I495" s="18"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A496" s="21"/>
       <c r="B496" s="18"/>
       <c r="C496" s="21"/>
@@ -7044,7 +7041,7 @@
       <c r="H496" s="21"/>
       <c r="I496" s="18"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A497" s="21"/>
       <c r="B497" s="18"/>
       <c r="C497" s="21"/>
@@ -7055,7 +7052,7 @@
       <c r="H497" s="21"/>
       <c r="I497" s="18"/>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A498" s="21"/>
       <c r="B498" s="18"/>
       <c r="C498" s="21"/>
@@ -7066,7 +7063,7 @@
       <c r="H498" s="21"/>
       <c r="I498" s="18"/>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A499" s="21"/>
       <c r="B499" s="18"/>
       <c r="C499" s="21"/>
@@ -7077,7 +7074,7 @@
       <c r="H499" s="21"/>
       <c r="I499" s="18"/>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A500" s="21"/>
       <c r="B500" s="18"/>
       <c r="C500" s="21"/>
@@ -7088,7 +7085,7 @@
       <c r="H500" s="21"/>
       <c r="I500" s="18"/>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A501" s="21"/>
       <c r="B501" s="18"/>
       <c r="C501" s="21"/>
@@ -7099,7 +7096,7 @@
       <c r="H501" s="21"/>
       <c r="I501" s="18"/>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A502" s="21"/>
       <c r="B502" s="18"/>
       <c r="C502" s="21"/>
@@ -7110,7 +7107,7 @@
       <c r="H502" s="21"/>
       <c r="I502" s="18"/>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A503" s="21"/>
       <c r="B503" s="18"/>
       <c r="C503" s="21"/>
@@ -7121,7 +7118,7 @@
       <c r="H503" s="21"/>
       <c r="I503" s="18"/>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A504" s="21"/>
       <c r="B504" s="18"/>
       <c r="C504" s="21"/>
@@ -7132,7 +7129,7 @@
       <c r="H504" s="21"/>
       <c r="I504" s="18"/>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A505" s="21"/>
       <c r="B505" s="18"/>
       <c r="C505" s="21"/>
@@ -7143,7 +7140,7 @@
       <c r="H505" s="21"/>
       <c r="I505" s="18"/>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A506" s="21"/>
       <c r="B506" s="18"/>
       <c r="C506" s="21"/>
@@ -7154,7 +7151,7 @@
       <c r="H506" s="21"/>
       <c r="I506" s="18"/>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A507" s="21"/>
       <c r="B507" s="18"/>
       <c r="C507" s="21"/>
@@ -7165,7 +7162,7 @@
       <c r="H507" s="21"/>
       <c r="I507" s="18"/>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A508" s="21"/>
       <c r="B508" s="18"/>
       <c r="C508" s="21"/>
@@ -7176,7 +7173,7 @@
       <c r="H508" s="21"/>
       <c r="I508" s="18"/>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A509" s="21"/>
       <c r="B509" s="18"/>
       <c r="C509" s="21"/>
@@ -7187,7 +7184,7 @@
       <c r="H509" s="21"/>
       <c r="I509" s="18"/>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A510" s="21"/>
       <c r="B510" s="18"/>
       <c r="C510" s="21"/>
@@ -7198,7 +7195,7 @@
       <c r="H510" s="21"/>
       <c r="I510" s="18"/>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A511" s="21"/>
       <c r="B511" s="18"/>
       <c r="C511" s="21"/>
@@ -7209,7 +7206,7 @@
       <c r="H511" s="21"/>
       <c r="I511" s="18"/>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A512" s="21"/>
       <c r="B512" s="18"/>
       <c r="C512" s="21"/>
@@ -7220,7 +7217,7 @@
       <c r="H512" s="21"/>
       <c r="I512" s="18"/>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A513" s="21"/>
       <c r="B513" s="18"/>
       <c r="C513" s="21"/>
@@ -7231,7 +7228,7 @@
       <c r="H513" s="21"/>
       <c r="I513" s="18"/>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A514" s="21"/>
       <c r="B514" s="18"/>
       <c r="C514" s="21"/>
@@ -7242,7 +7239,7 @@
       <c r="H514" s="21"/>
       <c r="I514" s="18"/>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A515" s="21"/>
       <c r="B515" s="18"/>
       <c r="C515" s="21"/>
@@ -7253,7 +7250,7 @@
       <c r="H515" s="21"/>
       <c r="I515" s="18"/>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A516" s="21"/>
       <c r="B516" s="18"/>
       <c r="C516" s="21"/>
@@ -7264,7 +7261,7 @@
       <c r="H516" s="21"/>
       <c r="I516" s="18"/>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A517" s="21"/>
       <c r="B517" s="18"/>
       <c r="C517" s="21"/>
@@ -7275,7 +7272,7 @@
       <c r="H517" s="21"/>
       <c r="I517" s="18"/>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A518" s="21"/>
       <c r="B518" s="18"/>
       <c r="C518" s="21"/>
@@ -7286,7 +7283,7 @@
       <c r="H518" s="21"/>
       <c r="I518" s="18"/>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A519" s="21"/>
       <c r="B519" s="18"/>
       <c r="C519" s="21"/>
@@ -7297,7 +7294,7 @@
       <c r="H519" s="21"/>
       <c r="I519" s="18"/>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A520" s="21"/>
       <c r="B520" s="18"/>
       <c r="C520" s="21"/>
@@ -7308,7 +7305,7 @@
       <c r="H520" s="21"/>
       <c r="I520" s="18"/>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A521" s="21"/>
       <c r="B521" s="18"/>
       <c r="C521" s="21"/>
@@ -7319,7 +7316,7 @@
       <c r="H521" s="21"/>
       <c r="I521" s="18"/>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A522" s="21"/>
       <c r="B522" s="18"/>
       <c r="C522" s="21"/>
@@ -7330,7 +7327,7 @@
       <c r="H522" s="21"/>
       <c r="I522" s="18"/>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A523" s="21"/>
       <c r="B523" s="18"/>
       <c r="C523" s="21"/>
@@ -7341,7 +7338,7 @@
       <c r="H523" s="21"/>
       <c r="I523" s="18"/>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A524" s="21"/>
       <c r="B524" s="18"/>
       <c r="C524" s="21"/>
@@ -7352,7 +7349,7 @@
       <c r="H524" s="21"/>
       <c r="I524" s="18"/>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A525" s="21"/>
       <c r="B525" s="18"/>
       <c r="C525" s="21"/>
@@ -7363,7 +7360,7 @@
       <c r="H525" s="21"/>
       <c r="I525" s="18"/>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A526" s="21"/>
       <c r="B526" s="18"/>
       <c r="C526" s="21"/>
@@ -7374,7 +7371,7 @@
       <c r="H526" s="21"/>
       <c r="I526" s="18"/>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A527" s="21"/>
       <c r="B527" s="18"/>
       <c r="C527" s="21"/>
@@ -7385,7 +7382,7 @@
       <c r="H527" s="21"/>
       <c r="I527" s="18"/>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A528" s="21"/>
       <c r="B528" s="18"/>
       <c r="C528" s="21"/>
@@ -7396,7 +7393,7 @@
       <c r="H528" s="21"/>
       <c r="I528" s="18"/>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A529" s="21"/>
       <c r="B529" s="18"/>
       <c r="C529" s="21"/>
@@ -7407,7 +7404,7 @@
       <c r="H529" s="21"/>
       <c r="I529" s="18"/>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A530" s="21"/>
       <c r="B530" s="18"/>
       <c r="C530" s="21"/>
@@ -7418,7 +7415,7 @@
       <c r="H530" s="21"/>
       <c r="I530" s="18"/>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A531" s="21"/>
       <c r="B531" s="18"/>
       <c r="C531" s="21"/>
@@ -7429,7 +7426,7 @@
       <c r="H531" s="21"/>
       <c r="I531" s="18"/>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A532" s="21"/>
       <c r="B532" s="18"/>
       <c r="C532" s="21"/>
@@ -7440,7 +7437,7 @@
       <c r="H532" s="21"/>
       <c r="I532" s="18"/>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A533" s="21"/>
       <c r="B533" s="18"/>
       <c r="C533" s="21"/>
@@ -7451,7 +7448,7 @@
       <c r="H533" s="21"/>
       <c r="I533" s="18"/>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A534" s="21"/>
       <c r="B534" s="18"/>
       <c r="C534" s="21"/>
@@ -7462,7 +7459,7 @@
       <c r="H534" s="21"/>
       <c r="I534" s="18"/>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A535" s="21"/>
       <c r="B535" s="18"/>
       <c r="C535" s="21"/>
@@ -7473,7 +7470,7 @@
       <c r="H535" s="21"/>
       <c r="I535" s="18"/>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A536" s="21"/>
       <c r="B536" s="18"/>
       <c r="C536" s="21"/>
@@ -7484,7 +7481,7 @@
       <c r="H536" s="21"/>
       <c r="I536" s="18"/>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A537" s="21"/>
       <c r="B537" s="18"/>
       <c r="C537" s="21"/>
@@ -7495,7 +7492,7 @@
       <c r="H537" s="21"/>
       <c r="I537" s="18"/>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A538" s="21"/>
       <c r="B538" s="18"/>
       <c r="C538" s="21"/>
@@ -7506,7 +7503,7 @@
       <c r="H538" s="21"/>
       <c r="I538" s="18"/>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A539" s="21"/>
       <c r="B539" s="18"/>
       <c r="C539" s="21"/>
@@ -7517,7 +7514,7 @@
       <c r="H539" s="21"/>
       <c r="I539" s="18"/>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A540" s="21"/>
       <c r="B540" s="18"/>
       <c r="C540" s="21"/>
@@ -7528,7 +7525,7 @@
       <c r="H540" s="21"/>
       <c r="I540" s="18"/>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A541" s="21"/>
       <c r="B541" s="18"/>
       <c r="C541" s="21"/>
@@ -7539,7 +7536,7 @@
       <c r="H541" s="21"/>
       <c r="I541" s="18"/>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A542" s="21"/>
       <c r="B542" s="18"/>
       <c r="C542" s="21"/>
@@ -7550,7 +7547,7 @@
       <c r="H542" s="21"/>
       <c r="I542" s="18"/>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A543" s="21"/>
       <c r="B543" s="18"/>
       <c r="C543" s="21"/>
@@ -7561,7 +7558,7 @@
       <c r="H543" s="21"/>
       <c r="I543" s="18"/>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A544" s="21"/>
       <c r="B544" s="18"/>
       <c r="C544" s="21"/>
@@ -7572,7 +7569,7 @@
       <c r="H544" s="21"/>
       <c r="I544" s="18"/>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A545" s="21"/>
       <c r="B545" s="18"/>
       <c r="C545" s="21"/>
@@ -7583,7 +7580,7 @@
       <c r="H545" s="21"/>
       <c r="I545" s="18"/>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A546" s="21"/>
       <c r="B546" s="18"/>
       <c r="C546" s="21"/>
@@ -7594,7 +7591,7 @@
       <c r="H546" s="21"/>
       <c r="I546" s="18"/>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A547" s="21"/>
       <c r="B547" s="18"/>
       <c r="C547" s="21"/>
@@ -7605,7 +7602,7 @@
       <c r="H547" s="21"/>
       <c r="I547" s="18"/>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A548" s="21"/>
       <c r="B548" s="18"/>
       <c r="C548" s="21"/>
@@ -7616,7 +7613,7 @@
       <c r="H548" s="21"/>
       <c r="I548" s="18"/>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A549" s="21"/>
       <c r="B549" s="18"/>
       <c r="C549" s="21"/>
@@ -7627,7 +7624,7 @@
       <c r="H549" s="21"/>
       <c r="I549" s="18"/>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A550" s="21"/>
       <c r="B550" s="18"/>
       <c r="C550" s="21"/>
@@ -7638,7 +7635,7 @@
       <c r="H550" s="21"/>
       <c r="I550" s="18"/>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A551" s="21"/>
       <c r="B551" s="18"/>
       <c r="C551" s="21"/>
@@ -7649,7 +7646,7 @@
       <c r="H551" s="21"/>
       <c r="I551" s="18"/>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A552" s="21"/>
       <c r="B552" s="18"/>
       <c r="C552" s="21"/>
@@ -7660,7 +7657,7 @@
       <c r="H552" s="21"/>
       <c r="I552" s="18"/>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A553" s="21"/>
       <c r="B553" s="18"/>
       <c r="C553" s="21"/>
@@ -7671,7 +7668,7 @@
       <c r="H553" s="21"/>
       <c r="I553" s="18"/>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A554" s="21"/>
       <c r="B554" s="18"/>
       <c r="C554" s="21"/>
@@ -7682,7 +7679,7 @@
       <c r="H554" s="21"/>
       <c r="I554" s="18"/>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A555" s="21"/>
       <c r="B555" s="18"/>
       <c r="C555" s="21"/>
@@ -7693,7 +7690,7 @@
       <c r="H555" s="21"/>
       <c r="I555" s="18"/>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A556" s="21"/>
       <c r="B556" s="18"/>
       <c r="C556" s="21"/>
@@ -7704,7 +7701,7 @@
       <c r="H556" s="21"/>
       <c r="I556" s="18"/>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A557" s="21"/>
       <c r="B557" s="18"/>
       <c r="C557" s="21"/>
@@ -7715,7 +7712,7 @@
       <c r="H557" s="21"/>
       <c r="I557" s="18"/>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A558" s="21"/>
       <c r="B558" s="18"/>
       <c r="C558" s="21"/>
@@ -7726,7 +7723,7 @@
       <c r="H558" s="21"/>
       <c r="I558" s="18"/>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A559" s="21"/>
       <c r="B559" s="18"/>
       <c r="C559" s="21"/>
@@ -7737,7 +7734,7 @@
       <c r="H559" s="21"/>
       <c r="I559" s="18"/>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A560" s="21"/>
       <c r="B560" s="18"/>
       <c r="C560" s="21"/>
@@ -7748,7 +7745,7 @@
       <c r="H560" s="21"/>
       <c r="I560" s="18"/>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A561" s="21"/>
       <c r="B561" s="18"/>
       <c r="C561" s="21"/>
@@ -7759,7 +7756,7 @@
       <c r="H561" s="21"/>
       <c r="I561" s="18"/>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A562" s="21"/>
       <c r="B562" s="18"/>
       <c r="C562" s="21"/>
@@ -7770,7 +7767,7 @@
       <c r="H562" s="21"/>
       <c r="I562" s="18"/>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A563" s="21"/>
       <c r="B563" s="18"/>
       <c r="C563" s="21"/>
@@ -7781,7 +7778,7 @@
       <c r="H563" s="21"/>
       <c r="I563" s="18"/>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A564" s="21"/>
       <c r="B564" s="18"/>
       <c r="C564" s="21"/>
@@ -7792,7 +7789,7 @@
       <c r="H564" s="21"/>
       <c r="I564" s="18"/>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A565" s="21"/>
       <c r="B565" s="18"/>
       <c r="C565" s="21"/>
@@ -7803,7 +7800,7 @@
       <c r="H565" s="21"/>
       <c r="I565" s="18"/>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A566" s="21"/>
       <c r="B566" s="18"/>
       <c r="C566" s="21"/>
@@ -7814,7 +7811,7 @@
       <c r="H566" s="21"/>
       <c r="I566" s="18"/>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A567" s="21"/>
       <c r="B567" s="18"/>
       <c r="C567" s="21"/>
@@ -7825,7 +7822,7 @@
       <c r="H567" s="21"/>
       <c r="I567" s="18"/>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A568" s="21"/>
       <c r="B568" s="18"/>
       <c r="C568" s="21"/>
@@ -7836,7 +7833,7 @@
       <c r="H568" s="21"/>
       <c r="I568" s="18"/>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A569" s="21"/>
       <c r="B569" s="18"/>
       <c r="C569" s="21"/>
@@ -7847,7 +7844,7 @@
       <c r="H569" s="21"/>
       <c r="I569" s="18"/>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A570" s="21"/>
       <c r="B570" s="18"/>
       <c r="C570" s="21"/>
@@ -7858,7 +7855,7 @@
       <c r="H570" s="21"/>
       <c r="I570" s="18"/>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A571" s="21"/>
       <c r="B571" s="18"/>
       <c r="C571" s="21"/>
@@ -7869,7 +7866,7 @@
       <c r="H571" s="21"/>
       <c r="I571" s="18"/>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A572" s="21"/>
       <c r="B572" s="18"/>
       <c r="C572" s="21"/>
@@ -7880,7 +7877,7 @@
       <c r="H572" s="21"/>
       <c r="I572" s="18"/>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A573" s="21"/>
       <c r="B573" s="18"/>
       <c r="C573" s="21"/>
@@ -7891,7 +7888,7 @@
       <c r="H573" s="21"/>
       <c r="I573" s="18"/>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A574" s="21"/>
       <c r="B574" s="18"/>
       <c r="C574" s="21"/>
@@ -7902,7 +7899,7 @@
       <c r="H574" s="21"/>
       <c r="I574" s="18"/>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A575" s="21"/>
       <c r="B575" s="18"/>
       <c r="C575" s="21"/>
@@ -7913,7 +7910,7 @@
       <c r="H575" s="21"/>
       <c r="I575" s="18"/>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A576" s="21"/>
       <c r="B576" s="18"/>
       <c r="C576" s="21"/>
@@ -7924,7 +7921,7 @@
       <c r="H576" s="21"/>
       <c r="I576" s="18"/>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A577" s="21"/>
       <c r="B577" s="18"/>
       <c r="C577" s="21"/>
@@ -7935,7 +7932,7 @@
       <c r="H577" s="21"/>
       <c r="I577" s="18"/>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A578" s="21"/>
       <c r="B578" s="18"/>
       <c r="C578" s="21"/>
@@ -7946,7 +7943,7 @@
       <c r="H578" s="21"/>
       <c r="I578" s="18"/>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A579" s="21"/>
       <c r="B579" s="18"/>
       <c r="C579" s="21"/>
@@ -7957,7 +7954,7 @@
       <c r="H579" s="21"/>
       <c r="I579" s="18"/>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A580" s="21"/>
       <c r="B580" s="18"/>
       <c r="C580" s="21"/>
@@ -7968,7 +7965,7 @@
       <c r="H580" s="21"/>
       <c r="I580" s="18"/>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A581" s="21"/>
       <c r="B581" s="18"/>
       <c r="C581" s="21"/>
@@ -7979,7 +7976,7 @@
       <c r="H581" s="21"/>
       <c r="I581" s="18"/>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A582" s="21"/>
       <c r="B582" s="18"/>
       <c r="C582" s="21"/>
@@ -7990,7 +7987,7 @@
       <c r="H582" s="21"/>
       <c r="I582" s="18"/>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A583" s="21"/>
       <c r="B583" s="18"/>
       <c r="C583" s="21"/>
@@ -8001,7 +7998,7 @@
       <c r="H583" s="21"/>
       <c r="I583" s="18"/>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A584" s="21"/>
       <c r="B584" s="18"/>
       <c r="C584" s="21"/>
@@ -8012,7 +8009,7 @@
       <c r="H584" s="21"/>
       <c r="I584" s="18"/>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A585" s="21"/>
       <c r="B585" s="18"/>
       <c r="C585" s="21"/>
@@ -8023,7 +8020,7 @@
       <c r="H585" s="21"/>
       <c r="I585" s="18"/>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A586" s="21"/>
       <c r="B586" s="18"/>
       <c r="C586" s="21"/>
@@ -8034,7 +8031,7 @@
       <c r="H586" s="21"/>
       <c r="I586" s="18"/>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A587" s="21"/>
       <c r="B587" s="18"/>
       <c r="C587" s="21"/>
@@ -8045,7 +8042,7 @@
       <c r="H587" s="21"/>
       <c r="I587" s="18"/>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A588" s="21"/>
       <c r="B588" s="18"/>
       <c r="C588" s="21"/>
@@ -8056,7 +8053,7 @@
       <c r="H588" s="21"/>
       <c r="I588" s="18"/>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A589" s="21"/>
       <c r="B589" s="18"/>
       <c r="C589" s="21"/>
@@ -8067,7 +8064,7 @@
       <c r="H589" s="21"/>
       <c r="I589" s="18"/>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A590" s="21"/>
       <c r="B590" s="18"/>
       <c r="C590" s="21"/>
@@ -8078,7 +8075,7 @@
       <c r="H590" s="21"/>
       <c r="I590" s="18"/>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A591" s="21"/>
       <c r="B591" s="18"/>
       <c r="C591" s="21"/>
@@ -8089,7 +8086,7 @@
       <c r="H591" s="21"/>
       <c r="I591" s="18"/>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A592" s="21"/>
       <c r="B592" s="18"/>
       <c r="C592" s="21"/>
@@ -8100,7 +8097,7 @@
       <c r="H592" s="21"/>
       <c r="I592" s="18"/>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A593" s="21"/>
       <c r="B593" s="18"/>
       <c r="C593" s="21"/>
@@ -8111,7 +8108,7 @@
       <c r="H593" s="21"/>
       <c r="I593" s="18"/>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A594" s="21"/>
       <c r="B594" s="18"/>
       <c r="C594" s="21"/>
@@ -8122,7 +8119,7 @@
       <c r="H594" s="21"/>
       <c r="I594" s="18"/>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A595" s="21"/>
       <c r="B595" s="18"/>
       <c r="C595" s="21"/>
@@ -8133,7 +8130,7 @@
       <c r="H595" s="21"/>
       <c r="I595" s="18"/>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A596" s="21"/>
       <c r="B596" s="18"/>
       <c r="C596" s="21"/>
@@ -8144,7 +8141,7 @@
       <c r="H596" s="21"/>
       <c r="I596" s="18"/>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A597" s="21"/>
       <c r="B597" s="18"/>
       <c r="C597" s="21"/>
@@ -8155,7 +8152,7 @@
       <c r="H597" s="21"/>
       <c r="I597" s="18"/>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A598" s="21"/>
       <c r="B598" s="18"/>
       <c r="C598" s="21"/>
@@ -8166,7 +8163,7 @@
       <c r="H598" s="21"/>
       <c r="I598" s="18"/>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A599" s="21"/>
       <c r="B599" s="18"/>
       <c r="C599" s="21"/>
@@ -8177,7 +8174,7 @@
       <c r="H599" s="21"/>
       <c r="I599" s="18"/>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A600" s="21"/>
       <c r="B600" s="18"/>
       <c r="C600" s="21"/>
@@ -8188,7 +8185,7 @@
       <c r="H600" s="21"/>
       <c r="I600" s="18"/>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A601" s="21"/>
       <c r="B601" s="18"/>
       <c r="C601" s="21"/>
@@ -8199,7 +8196,7 @@
       <c r="H601" s="21"/>
       <c r="I601" s="18"/>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A602" s="21"/>
       <c r="B602" s="18"/>
       <c r="C602" s="21"/>
@@ -8210,7 +8207,7 @@
       <c r="H602" s="21"/>
       <c r="I602" s="18"/>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A603" s="21"/>
       <c r="B603" s="18"/>
       <c r="C603" s="21"/>
@@ -8221,7 +8218,7 @@
       <c r="H603" s="21"/>
       <c r="I603" s="18"/>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A604" s="21"/>
       <c r="B604" s="18"/>
       <c r="C604" s="21"/>
@@ -8232,7 +8229,7 @@
       <c r="H604" s="21"/>
       <c r="I604" s="18"/>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A605" s="21"/>
       <c r="B605" s="18"/>
       <c r="C605" s="21"/>
@@ -8243,7 +8240,7 @@
       <c r="H605" s="21"/>
       <c r="I605" s="18"/>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A606" s="21"/>
       <c r="B606" s="18"/>
       <c r="C606" s="21"/>
@@ -8254,7 +8251,7 @@
       <c r="H606" s="21"/>
       <c r="I606" s="18"/>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A607" s="21"/>
       <c r="B607" s="18"/>
       <c r="C607" s="21"/>
@@ -8265,7 +8262,7 @@
       <c r="H607" s="21"/>
       <c r="I607" s="18"/>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A608" s="21"/>
       <c r="B608" s="18"/>
       <c r="C608" s="21"/>
@@ -8276,7 +8273,7 @@
       <c r="H608" s="21"/>
       <c r="I608" s="18"/>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A609" s="21"/>
       <c r="B609" s="18"/>
       <c r="C609" s="21"/>
@@ -8287,7 +8284,7 @@
       <c r="H609" s="21"/>
       <c r="I609" s="18"/>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A610" s="21"/>
       <c r="B610" s="18"/>
       <c r="C610" s="21"/>
@@ -8298,7 +8295,7 @@
       <c r="H610" s="21"/>
       <c r="I610" s="18"/>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A611" s="21"/>
       <c r="B611" s="18"/>
       <c r="C611" s="21"/>
@@ -8309,7 +8306,7 @@
       <c r="H611" s="21"/>
       <c r="I611" s="18"/>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A612" s="21"/>
       <c r="B612" s="18"/>
       <c r="C612" s="21"/>
@@ -8320,7 +8317,7 @@
       <c r="H612" s="21"/>
       <c r="I612" s="18"/>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A613" s="21"/>
       <c r="B613" s="18"/>
       <c r="C613" s="21"/>
@@ -8331,7 +8328,7 @@
       <c r="H613" s="21"/>
       <c r="I613" s="18"/>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A614" s="21"/>
       <c r="B614" s="18"/>
       <c r="C614" s="21"/>
@@ -8342,7 +8339,7 @@
       <c r="H614" s="21"/>
       <c r="I614" s="18"/>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A615" s="21"/>
       <c r="B615" s="18"/>
       <c r="C615" s="21"/>
@@ -8353,7 +8350,7 @@
       <c r="H615" s="21"/>
       <c r="I615" s="18"/>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A616" s="21"/>
       <c r="B616" s="18"/>
       <c r="C616" s="21"/>
@@ -8364,7 +8361,7 @@
       <c r="H616" s="21"/>
       <c r="I616" s="18"/>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A617" s="21"/>
       <c r="B617" s="18"/>
       <c r="C617" s="21"/>
@@ -8375,7 +8372,7 @@
       <c r="H617" s="21"/>
       <c r="I617" s="18"/>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A618" s="21"/>
       <c r="B618" s="18"/>
       <c r="C618" s="21"/>
@@ -8386,7 +8383,7 @@
       <c r="H618" s="21"/>
       <c r="I618" s="18"/>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A619" s="21"/>
       <c r="B619" s="18"/>
       <c r="C619" s="21"/>
@@ -8397,7 +8394,7 @@
       <c r="H619" s="21"/>
       <c r="I619" s="18"/>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A620" s="21"/>
       <c r="B620" s="18"/>
       <c r="C620" s="21"/>
@@ -8408,7 +8405,7 @@
       <c r="H620" s="21"/>
       <c r="I620" s="18"/>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A621" s="21"/>
       <c r="B621" s="18"/>
       <c r="C621" s="21"/>
@@ -8419,7 +8416,7 @@
       <c r="H621" s="21"/>
       <c r="I621" s="18"/>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A622" s="21"/>
       <c r="B622" s="18"/>
       <c r="C622" s="21"/>
@@ -8430,7 +8427,7 @@
       <c r="H622" s="21"/>
       <c r="I622" s="18"/>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A623" s="21"/>
       <c r="B623" s="18"/>
       <c r="C623" s="21"/>
@@ -8441,7 +8438,7 @@
       <c r="H623" s="21"/>
       <c r="I623" s="18"/>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A624" s="21"/>
       <c r="B624" s="18"/>
       <c r="C624" s="21"/>
@@ -8452,7 +8449,7 @@
       <c r="H624" s="21"/>
       <c r="I624" s="18"/>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A625" s="21"/>
       <c r="B625" s="18"/>
       <c r="C625" s="21"/>
@@ -8463,7 +8460,7 @@
       <c r="H625" s="21"/>
       <c r="I625" s="18"/>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A626" s="21"/>
       <c r="B626" s="18"/>
       <c r="C626" s="21"/>
@@ -8474,7 +8471,7 @@
       <c r="H626" s="21"/>
       <c r="I626" s="18"/>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A627" s="21"/>
       <c r="B627" s="18"/>
       <c r="C627" s="21"/>
@@ -8485,7 +8482,7 @@
       <c r="H627" s="21"/>
       <c r="I627" s="18"/>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A628" s="21"/>
       <c r="B628" s="18"/>
       <c r="C628" s="21"/>
@@ -8496,7 +8493,7 @@
       <c r="H628" s="21"/>
       <c r="I628" s="18"/>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A629" s="21"/>
       <c r="B629" s="18"/>
       <c r="C629" s="21"/>
@@ -8507,7 +8504,7 @@
       <c r="H629" s="21"/>
       <c r="I629" s="18"/>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A630" s="21"/>
       <c r="B630" s="18"/>
       <c r="C630" s="21"/>
@@ -8518,7 +8515,7 @@
       <c r="H630" s="21"/>
       <c r="I630" s="18"/>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A631" s="21"/>
       <c r="B631" s="18"/>
       <c r="C631" s="21"/>
@@ -8529,7 +8526,7 @@
       <c r="H631" s="21"/>
       <c r="I631" s="18"/>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A632" s="21"/>
       <c r="B632" s="18"/>
       <c r="C632" s="21"/>
@@ -8540,7 +8537,7 @@
       <c r="H632" s="21"/>
       <c r="I632" s="18"/>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A633" s="21"/>
       <c r="B633" s="18"/>
       <c r="C633" s="21"/>
@@ -8551,7 +8548,7 @@
       <c r="H633" s="21"/>
       <c r="I633" s="18"/>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A634" s="21"/>
       <c r="B634" s="18"/>
       <c r="C634" s="21"/>
@@ -8562,7 +8559,7 @@
       <c r="H634" s="21"/>
       <c r="I634" s="18"/>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A635" s="21"/>
       <c r="B635" s="18"/>
       <c r="C635" s="21"/>
@@ -8573,7 +8570,7 @@
       <c r="H635" s="21"/>
       <c r="I635" s="18"/>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A636" s="21"/>
       <c r="B636" s="18"/>
       <c r="C636" s="21"/>
@@ -8584,7 +8581,7 @@
       <c r="H636" s="21"/>
       <c r="I636" s="18"/>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A637" s="21"/>
       <c r="B637" s="18"/>
       <c r="C637" s="21"/>
@@ -8595,7 +8592,7 @@
       <c r="H637" s="21"/>
       <c r="I637" s="18"/>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A638" s="21"/>
       <c r="B638" s="18"/>
       <c r="C638" s="21"/>
@@ -8606,7 +8603,7 @@
       <c r="H638" s="21"/>
       <c r="I638" s="18"/>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A639" s="21"/>
       <c r="B639" s="18"/>
       <c r="C639" s="21"/>
@@ -8617,7 +8614,7 @@
       <c r="H639" s="21"/>
       <c r="I639" s="18"/>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A640" s="21"/>
       <c r="B640" s="18"/>
       <c r="C640" s="21"/>
@@ -8628,7 +8625,7 @@
       <c r="H640" s="21"/>
       <c r="I640" s="18"/>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A641" s="21"/>
       <c r="B641" s="18"/>
       <c r="C641" s="21"/>
@@ -8639,7 +8636,7 @@
       <c r="H641" s="21"/>
       <c r="I641" s="18"/>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A642" s="21"/>
       <c r="B642" s="18"/>
       <c r="C642" s="21"/>
@@ -8650,7 +8647,7 @@
       <c r="H642" s="21"/>
       <c r="I642" s="18"/>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A643" s="21"/>
       <c r="B643" s="18"/>
       <c r="C643" s="21"/>
@@ -8661,7 +8658,7 @@
       <c r="H643" s="21"/>
       <c r="I643" s="18"/>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A644" s="21"/>
       <c r="B644" s="18"/>
       <c r="C644" s="21"/>
@@ -8672,7 +8669,7 @@
       <c r="H644" s="21"/>
       <c r="I644" s="18"/>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A645" s="21"/>
       <c r="B645" s="18"/>
       <c r="C645" s="21"/>
@@ -8683,7 +8680,7 @@
       <c r="H645" s="21"/>
       <c r="I645" s="18"/>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A646" s="21"/>
       <c r="B646" s="18"/>
       <c r="C646" s="21"/>
@@ -8694,7 +8691,7 @@
       <c r="H646" s="21"/>
       <c r="I646" s="18"/>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A647" s="21"/>
       <c r="B647" s="18"/>
       <c r="C647" s="21"/>
@@ -8705,7 +8702,7 @@
       <c r="H647" s="21"/>
       <c r="I647" s="18"/>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A648" s="21"/>
       <c r="B648" s="18"/>
       <c r="C648" s="21"/>
@@ -8716,7 +8713,7 @@
       <c r="H648" s="21"/>
       <c r="I648" s="18"/>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A649" s="21"/>
       <c r="B649" s="18"/>
       <c r="C649" s="21"/>
@@ -8727,7 +8724,7 @@
       <c r="H649" s="21"/>
       <c r="I649" s="18"/>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A650" s="21"/>
       <c r="B650" s="18"/>
       <c r="C650" s="21"/>
@@ -8738,7 +8735,7 @@
       <c r="H650" s="21"/>
       <c r="I650" s="18"/>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A651" s="21"/>
       <c r="B651" s="18"/>
       <c r="C651" s="21"/>
@@ -8749,7 +8746,7 @@
       <c r="H651" s="21"/>
       <c r="I651" s="18"/>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A652" s="21"/>
       <c r="B652" s="18"/>
       <c r="C652" s="21"/>
@@ -8760,7 +8757,7 @@
       <c r="H652" s="21"/>
       <c r="I652" s="18"/>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A653" s="21"/>
       <c r="B653" s="18"/>
       <c r="C653" s="21"/>
@@ -8771,7 +8768,7 @@
       <c r="H653" s="21"/>
       <c r="I653" s="18"/>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A654" s="21"/>
       <c r="B654" s="18"/>
       <c r="C654" s="21"/>
@@ -8782,7 +8779,7 @@
       <c r="H654" s="21"/>
       <c r="I654" s="18"/>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A655" s="21"/>
       <c r="B655" s="18"/>
       <c r="C655" s="21"/>
@@ -8793,7 +8790,7 @@
       <c r="H655" s="21"/>
       <c r="I655" s="18"/>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A656" s="21"/>
       <c r="B656" s="18"/>
       <c r="C656" s="21"/>
@@ -8804,7 +8801,7 @@
       <c r="H656" s="21"/>
       <c r="I656" s="18"/>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A657" s="21"/>
       <c r="B657" s="18"/>
       <c r="C657" s="21"/>
@@ -8815,7 +8812,7 @@
       <c r="H657" s="21"/>
       <c r="I657" s="18"/>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A658" s="21"/>
       <c r="B658" s="18"/>
       <c r="C658" s="21"/>
@@ -8826,7 +8823,7 @@
       <c r="H658" s="21"/>
       <c r="I658" s="18"/>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A659" s="21"/>
       <c r="B659" s="18"/>
       <c r="C659" s="21"/>
@@ -8837,7 +8834,7 @@
       <c r="H659" s="21"/>
       <c r="I659" s="18"/>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A660" s="21"/>
       <c r="B660" s="18"/>
       <c r="C660" s="21"/>
@@ -8848,7 +8845,7 @@
       <c r="H660" s="21"/>
       <c r="I660" s="18"/>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A661" s="21"/>
       <c r="B661" s="18"/>
       <c r="C661" s="21"/>
@@ -8859,7 +8856,7 @@
       <c r="H661" s="21"/>
       <c r="I661" s="18"/>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A662" s="21"/>
       <c r="B662" s="18"/>
       <c r="C662" s="21"/>
@@ -8870,7 +8867,7 @@
       <c r="H662" s="21"/>
       <c r="I662" s="18"/>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A663" s="21"/>
       <c r="B663" s="18"/>
       <c r="C663" s="21"/>
@@ -8881,7 +8878,7 @@
       <c r="H663" s="21"/>
       <c r="I663" s="18"/>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A664" s="21"/>
       <c r="B664" s="18"/>
       <c r="C664" s="21"/>
@@ -8892,7 +8889,7 @@
       <c r="H664" s="21"/>
       <c r="I664" s="18"/>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A665" s="21"/>
       <c r="B665" s="18"/>
       <c r="C665" s="21"/>
@@ -8903,7 +8900,7 @@
       <c r="H665" s="21"/>
       <c r="I665" s="18"/>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A666" s="21"/>
       <c r="B666" s="18"/>
       <c r="C666" s="21"/>
@@ -8914,7 +8911,7 @@
       <c r="H666" s="21"/>
       <c r="I666" s="18"/>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A667" s="21"/>
       <c r="B667" s="18"/>
       <c r="C667" s="21"/>
@@ -8925,7 +8922,7 @@
       <c r="H667" s="21"/>
       <c r="I667" s="18"/>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A668" s="21"/>
       <c r="B668" s="18"/>
       <c r="C668" s="21"/>
@@ -8936,7 +8933,7 @@
       <c r="H668" s="21"/>
       <c r="I668" s="18"/>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A669" s="21"/>
       <c r="B669" s="18"/>
       <c r="C669" s="21"/>
@@ -8947,7 +8944,7 @@
       <c r="H669" s="21"/>
       <c r="I669" s="18"/>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A670" s="21"/>
       <c r="B670" s="18"/>
       <c r="C670" s="21"/>
@@ -8958,7 +8955,7 @@
       <c r="H670" s="21"/>
       <c r="I670" s="18"/>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A671" s="21"/>
       <c r="B671" s="18"/>
       <c r="C671" s="21"/>
@@ -8969,7 +8966,7 @@
       <c r="H671" s="21"/>
       <c r="I671" s="18"/>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A672" s="21"/>
       <c r="B672" s="18"/>
       <c r="C672" s="21"/>
@@ -8980,7 +8977,7 @@
       <c r="H672" s="21"/>
       <c r="I672" s="18"/>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A673" s="21"/>
       <c r="B673" s="18"/>
       <c r="C673" s="21"/>
@@ -8991,7 +8988,7 @@
       <c r="H673" s="21"/>
       <c r="I673" s="18"/>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A674" s="21"/>
       <c r="B674" s="18"/>
       <c r="C674" s="21"/>
@@ -9002,7 +8999,7 @@
       <c r="H674" s="21"/>
       <c r="I674" s="18"/>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A675" s="21"/>
       <c r="B675" s="18"/>
       <c r="C675" s="21"/>
@@ -9013,7 +9010,7 @@
       <c r="H675" s="21"/>
       <c r="I675" s="18"/>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A676" s="21"/>
       <c r="B676" s="18"/>
       <c r="C676" s="21"/>
@@ -9024,7 +9021,7 @@
       <c r="H676" s="21"/>
       <c r="I676" s="18"/>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A677" s="21"/>
       <c r="B677" s="18"/>
       <c r="C677" s="21"/>
@@ -9035,7 +9032,7 @@
       <c r="H677" s="21"/>
       <c r="I677" s="18"/>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A678" s="21"/>
       <c r="B678" s="18"/>
       <c r="C678" s="21"/>
@@ -9046,7 +9043,7 @@
       <c r="H678" s="21"/>
       <c r="I678" s="18"/>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A679" s="21"/>
       <c r="B679" s="18"/>
       <c r="C679" s="21"/>
@@ -9057,7 +9054,7 @@
       <c r="H679" s="21"/>
       <c r="I679" s="18"/>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A680" s="21"/>
       <c r="B680" s="18"/>
       <c r="C680" s="21"/>
@@ -9068,7 +9065,7 @@
       <c r="H680" s="21"/>
       <c r="I680" s="18"/>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A681" s="21"/>
       <c r="B681" s="18"/>
       <c r="C681" s="21"/>
@@ -9079,7 +9076,7 @@
       <c r="H681" s="21"/>
       <c r="I681" s="18"/>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A682" s="21"/>
       <c r="B682" s="18"/>
       <c r="C682" s="21"/>
@@ -9090,7 +9087,7 @@
       <c r="H682" s="21"/>
       <c r="I682" s="18"/>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A683" s="21"/>
       <c r="B683" s="18"/>
       <c r="C683" s="21"/>
@@ -9101,7 +9098,7 @@
       <c r="H683" s="21"/>
       <c r="I683" s="18"/>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A684" s="21"/>
       <c r="B684" s="18"/>
       <c r="C684" s="21"/>
@@ -9112,7 +9109,7 @@
       <c r="H684" s="21"/>
       <c r="I684" s="18"/>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A685" s="21"/>
       <c r="B685" s="18"/>
       <c r="C685" s="21"/>
@@ -9123,7 +9120,7 @@
       <c r="H685" s="21"/>
       <c r="I685" s="18"/>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A686" s="21"/>
       <c r="B686" s="18"/>
       <c r="C686" s="21"/>
@@ -9134,7 +9131,7 @@
       <c r="H686" s="21"/>
       <c r="I686" s="18"/>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A687" s="21"/>
       <c r="B687" s="18"/>
       <c r="C687" s="21"/>
@@ -9145,7 +9142,7 @@
       <c r="H687" s="21"/>
       <c r="I687" s="18"/>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A688" s="21"/>
       <c r="B688" s="18"/>
       <c r="C688" s="21"/>
@@ -9156,7 +9153,7 @@
       <c r="H688" s="21"/>
       <c r="I688" s="18"/>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A689" s="21"/>
       <c r="B689" s="18"/>
       <c r="C689" s="21"/>
@@ -9167,7 +9164,7 @@
       <c r="H689" s="21"/>
       <c r="I689" s="18"/>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A690" s="21"/>
       <c r="B690" s="18"/>
       <c r="C690" s="21"/>
@@ -9178,7 +9175,7 @@
       <c r="H690" s="21"/>
       <c r="I690" s="18"/>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A691" s="21"/>
       <c r="B691" s="18"/>
       <c r="C691" s="21"/>
@@ -9189,7 +9186,7 @@
       <c r="H691" s="21"/>
       <c r="I691" s="18"/>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A692" s="21"/>
       <c r="B692" s="18"/>
       <c r="C692" s="21"/>
@@ -9200,7 +9197,7 @@
       <c r="H692" s="21"/>
       <c r="I692" s="18"/>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A693" s="21"/>
       <c r="B693" s="18"/>
       <c r="C693" s="21"/>
@@ -9211,7 +9208,7 @@
       <c r="H693" s="21"/>
       <c r="I693" s="18"/>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A694" s="21"/>
       <c r="B694" s="18"/>
       <c r="C694" s="21"/>
@@ -9222,7 +9219,7 @@
       <c r="H694" s="21"/>
       <c r="I694" s="18"/>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A695" s="21"/>
       <c r="B695" s="18"/>
       <c r="C695" s="21"/>
@@ -9233,7 +9230,7 @@
       <c r="H695" s="21"/>
       <c r="I695" s="18"/>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A696" s="21"/>
       <c r="B696" s="18"/>
       <c r="C696" s="21"/>
@@ -9244,7 +9241,7 @@
       <c r="H696" s="21"/>
       <c r="I696" s="18"/>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A697" s="21"/>
       <c r="B697" s="18"/>
       <c r="C697" s="21"/>
@@ -9255,7 +9252,7 @@
       <c r="H697" s="21"/>
       <c r="I697" s="18"/>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A698" s="21"/>
       <c r="B698" s="18"/>
       <c r="C698" s="21"/>
@@ -9266,7 +9263,7 @@
       <c r="H698" s="21"/>
       <c r="I698" s="18"/>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A699" s="21"/>
       <c r="B699" s="18"/>
       <c r="C699" s="21"/>
@@ -9277,7 +9274,7 @@
       <c r="H699" s="21"/>
       <c r="I699" s="18"/>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A700" s="21"/>
       <c r="B700" s="18"/>
       <c r="C700" s="21"/>
@@ -9288,7 +9285,7 @@
       <c r="H700" s="21"/>
       <c r="I700" s="18"/>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A701" s="21"/>
       <c r="B701" s="18"/>
       <c r="C701" s="21"/>
@@ -9299,7 +9296,7 @@
       <c r="H701" s="21"/>
       <c r="I701" s="18"/>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A702" s="21"/>
       <c r="B702" s="18"/>
       <c r="C702" s="21"/>
@@ -9310,7 +9307,7 @@
       <c r="H702" s="21"/>
       <c r="I702" s="18"/>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A703" s="21"/>
       <c r="B703" s="18"/>
       <c r="C703" s="21"/>
@@ -9321,7 +9318,7 @@
       <c r="H703" s="21"/>
       <c r="I703" s="18"/>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A704" s="21"/>
       <c r="B704" s="18"/>
       <c r="C704" s="21"/>
@@ -9332,7 +9329,7 @@
       <c r="H704" s="21"/>
       <c r="I704" s="18"/>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A705" s="21"/>
       <c r="B705" s="18"/>
       <c r="C705" s="21"/>
@@ -9343,7 +9340,7 @@
       <c r="H705" s="21"/>
       <c r="I705" s="18"/>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A706" s="21"/>
       <c r="B706" s="18"/>
       <c r="C706" s="21"/>
@@ -9354,7 +9351,7 @@
       <c r="H706" s="21"/>
       <c r="I706" s="18"/>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A707" s="21"/>
       <c r="B707" s="18"/>
       <c r="C707" s="21"/>
@@ -9365,7 +9362,7 @@
       <c r="H707" s="21"/>
       <c r="I707" s="18"/>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A708" s="21"/>
       <c r="B708" s="18"/>
       <c r="C708" s="21"/>
@@ -9376,7 +9373,7 @@
       <c r="H708" s="21"/>
       <c r="I708" s="18"/>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A709" s="21"/>
       <c r="B709" s="18"/>
       <c r="C709" s="21"/>
@@ -9387,7 +9384,7 @@
       <c r="H709" s="21"/>
       <c r="I709" s="18"/>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A710" s="21"/>
       <c r="B710" s="18"/>
       <c r="C710" s="21"/>
@@ -9398,7 +9395,7 @@
       <c r="H710" s="21"/>
       <c r="I710" s="18"/>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A711" s="21"/>
       <c r="B711" s="18"/>
       <c r="C711" s="21"/>
@@ -9409,7 +9406,7 @@
       <c r="H711" s="21"/>
       <c r="I711" s="18"/>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A712" s="21"/>
       <c r="B712" s="18"/>
       <c r="C712" s="21"/>
@@ -9420,7 +9417,7 @@
       <c r="H712" s="21"/>
       <c r="I712" s="18"/>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A713" s="21"/>
       <c r="B713" s="18"/>
       <c r="C713" s="21"/>
@@ -9431,7 +9428,7 @@
       <c r="H713" s="21"/>
       <c r="I713" s="18"/>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A714" s="21"/>
       <c r="B714" s="18"/>
       <c r="C714" s="21"/>
@@ -9442,7 +9439,7 @@
       <c r="H714" s="21"/>
       <c r="I714" s="18"/>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A715" s="21"/>
       <c r="B715" s="18"/>
       <c r="C715" s="21"/>
@@ -9453,7 +9450,7 @@
       <c r="H715" s="21"/>
       <c r="I715" s="18"/>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A716" s="21"/>
       <c r="B716" s="18"/>
       <c r="C716" s="21"/>
@@ -9464,7 +9461,7 @@
       <c r="H716" s="21"/>
       <c r="I716" s="18"/>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A717" s="21"/>
       <c r="B717" s="18"/>
       <c r="C717" s="21"/>
@@ -9475,7 +9472,7 @@
       <c r="H717" s="21"/>
       <c r="I717" s="18"/>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A718" s="21"/>
       <c r="B718" s="18"/>
       <c r="C718" s="21"/>
@@ -9486,7 +9483,7 @@
       <c r="H718" s="21"/>
       <c r="I718" s="18"/>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A719" s="21"/>
       <c r="B719" s="18"/>
       <c r="C719" s="21"/>
@@ -9497,7 +9494,7 @@
       <c r="H719" s="21"/>
       <c r="I719" s="18"/>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A720" s="21"/>
       <c r="B720" s="18"/>
       <c r="C720" s="21"/>
@@ -9508,7 +9505,7 @@
       <c r="H720" s="21"/>
       <c r="I720" s="18"/>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A721" s="21"/>
       <c r="B721" s="18"/>
       <c r="C721" s="21"/>
@@ -9519,7 +9516,7 @@
       <c r="H721" s="21"/>
       <c r="I721" s="18"/>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A722" s="21"/>
       <c r="B722" s="18"/>
       <c r="C722" s="21"/>
@@ -9530,7 +9527,7 @@
       <c r="H722" s="21"/>
       <c r="I722" s="18"/>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A723" s="21"/>
       <c r="B723" s="18"/>
       <c r="C723" s="21"/>
@@ -9541,7 +9538,7 @@
       <c r="H723" s="21"/>
       <c r="I723" s="18"/>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A724" s="21"/>
       <c r="B724" s="18"/>
       <c r="C724" s="21"/>
@@ -9552,7 +9549,7 @@
       <c r="H724" s="21"/>
       <c r="I724" s="18"/>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A725" s="21"/>
       <c r="B725" s="18"/>
       <c r="C725" s="21"/>
@@ -9563,7 +9560,7 @@
       <c r="H725" s="21"/>
       <c r="I725" s="18"/>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A726" s="21"/>
       <c r="B726" s="18"/>
       <c r="C726" s="21"/>
@@ -9574,7 +9571,7 @@
       <c r="H726" s="21"/>
       <c r="I726" s="18"/>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A727" s="21"/>
       <c r="B727" s="18"/>
       <c r="C727" s="21"/>
@@ -9585,7 +9582,7 @@
       <c r="H727" s="21"/>
       <c r="I727" s="18"/>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A728" s="21"/>
       <c r="B728" s="18"/>
       <c r="C728" s="21"/>
@@ -9596,7 +9593,7 @@
       <c r="H728" s="21"/>
       <c r="I728" s="18"/>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A729" s="21"/>
       <c r="B729" s="18"/>
       <c r="C729" s="21"/>
@@ -9607,7 +9604,7 @@
       <c r="H729" s="21"/>
       <c r="I729" s="18"/>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A730" s="21"/>
       <c r="B730" s="18"/>
       <c r="C730" s="21"/>
@@ -9618,7 +9615,7 @@
       <c r="H730" s="21"/>
       <c r="I730" s="18"/>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A731" s="21"/>
       <c r="B731" s="18"/>
       <c r="C731" s="21"/>
@@ -9629,7 +9626,7 @@
       <c r="H731" s="21"/>
       <c r="I731" s="18"/>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A732" s="21"/>
       <c r="B732" s="18"/>
       <c r="C732" s="21"/>
@@ -9640,7 +9637,7 @@
       <c r="H732" s="21"/>
       <c r="I732" s="18"/>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A733" s="21"/>
       <c r="B733" s="18"/>
       <c r="C733" s="21"/>
@@ -9651,7 +9648,7 @@
       <c r="H733" s="21"/>
       <c r="I733" s="18"/>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A734" s="21"/>
       <c r="B734" s="18"/>
       <c r="C734" s="21"/>
@@ -9662,7 +9659,7 @@
       <c r="H734" s="21"/>
       <c r="I734" s="18"/>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A735" s="21"/>
       <c r="B735" s="18"/>
       <c r="C735" s="21"/>
@@ -9673,7 +9670,7 @@
       <c r="H735" s="21"/>
       <c r="I735" s="18"/>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A736" s="21"/>
       <c r="B736" s="18"/>
       <c r="C736" s="21"/>
@@ -9684,7 +9681,7 @@
       <c r="H736" s="21"/>
       <c r="I736" s="18"/>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A737" s="21"/>
       <c r="B737" s="18"/>
       <c r="C737" s="21"/>
@@ -9695,7 +9692,7 @@
       <c r="H737" s="21"/>
       <c r="I737" s="18"/>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A738" s="21"/>
       <c r="B738" s="18"/>
       <c r="C738" s="21"/>
@@ -9706,7 +9703,7 @@
       <c r="H738" s="21"/>
       <c r="I738" s="18"/>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A739" s="21"/>
       <c r="B739" s="18"/>
       <c r="C739" s="21"/>
@@ -9717,7 +9714,7 @@
       <c r="H739" s="21"/>
       <c r="I739" s="18"/>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A740" s="21"/>
       <c r="B740" s="18"/>
       <c r="C740" s="21"/>
@@ -9728,7 +9725,7 @@
       <c r="H740" s="21"/>
       <c r="I740" s="18"/>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A741" s="21"/>
       <c r="B741" s="18"/>
       <c r="C741" s="21"/>
@@ -9739,7 +9736,7 @@
       <c r="H741" s="21"/>
       <c r="I741" s="18"/>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A742" s="21"/>
       <c r="B742" s="18"/>
       <c r="C742" s="21"/>
@@ -9750,7 +9747,7 @@
       <c r="H742" s="21"/>
       <c r="I742" s="18"/>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A743" s="21"/>
       <c r="B743" s="18"/>
       <c r="C743" s="21"/>
@@ -9761,7 +9758,7 @@
       <c r="H743" s="21"/>
       <c r="I743" s="18"/>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A744" s="21"/>
       <c r="B744" s="18"/>
       <c r="C744" s="21"/>
@@ -9772,7 +9769,7 @@
       <c r="H744" s="21"/>
       <c r="I744" s="18"/>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A745" s="21"/>
       <c r="B745" s="18"/>
       <c r="C745" s="21"/>
@@ -9783,7 +9780,7 @@
       <c r="H745" s="21"/>
       <c r="I745" s="18"/>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A746" s="21"/>
       <c r="B746" s="18"/>
       <c r="C746" s="21"/>
@@ -9794,7 +9791,7 @@
       <c r="H746" s="21"/>
       <c r="I746" s="18"/>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A747" s="21"/>
       <c r="B747" s="18"/>
       <c r="C747" s="21"/>
@@ -9805,7 +9802,7 @@
       <c r="H747" s="21"/>
       <c r="I747" s="18"/>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A748" s="21"/>
       <c r="B748" s="18"/>
       <c r="C748" s="21"/>
@@ -9816,7 +9813,7 @@
       <c r="H748" s="21"/>
       <c r="I748" s="18"/>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A749" s="21"/>
       <c r="B749" s="18"/>
       <c r="C749" s="21"/>
@@ -9827,7 +9824,7 @@
       <c r="H749" s="21"/>
       <c r="I749" s="18"/>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A750" s="21"/>
       <c r="B750" s="18"/>
       <c r="C750" s="21"/>
@@ -9838,7 +9835,7 @@
       <c r="H750" s="21"/>
       <c r="I750" s="18"/>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A751" s="21"/>
       <c r="B751" s="18"/>
       <c r="C751" s="21"/>
@@ -9849,7 +9846,7 @@
       <c r="H751" s="21"/>
       <c r="I751" s="18"/>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A752" s="21"/>
       <c r="B752" s="18"/>
       <c r="C752" s="21"/>
@@ -9860,7 +9857,7 @@
       <c r="H752" s="21"/>
       <c r="I752" s="18"/>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A753" s="21"/>
       <c r="B753" s="18"/>
       <c r="C753" s="21"/>
@@ -9871,7 +9868,7 @@
       <c r="H753" s="21"/>
       <c r="I753" s="18"/>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A754" s="21"/>
       <c r="B754" s="18"/>
       <c r="C754" s="21"/>
@@ -9882,7 +9879,7 @@
       <c r="H754" s="21"/>
       <c r="I754" s="18"/>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A755" s="21"/>
       <c r="B755" s="18"/>
       <c r="C755" s="21"/>
@@ -9893,7 +9890,7 @@
       <c r="H755" s="21"/>
       <c r="I755" s="18"/>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A756" s="21"/>
       <c r="B756" s="18"/>
       <c r="C756" s="21"/>
@@ -9904,7 +9901,7 @@
       <c r="H756" s="21"/>
       <c r="I756" s="18"/>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A757" s="21"/>
       <c r="B757" s="18"/>
       <c r="C757" s="21"/>
@@ -9915,7 +9912,7 @@
       <c r="H757" s="21"/>
       <c r="I757" s="18"/>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A758" s="21"/>
       <c r="B758" s="18"/>
       <c r="C758" s="21"/>
@@ -9926,7 +9923,7 @@
       <c r="H758" s="21"/>
       <c r="I758" s="18"/>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A759" s="21"/>
       <c r="B759" s="18"/>
       <c r="C759" s="21"/>
@@ -9937,7 +9934,7 @@
       <c r="H759" s="21"/>
       <c r="I759" s="18"/>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A760" s="21"/>
       <c r="B760" s="18"/>
       <c r="C760" s="21"/>
@@ -9948,7 +9945,7 @@
       <c r="H760" s="21"/>
       <c r="I760" s="18"/>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A761" s="21"/>
       <c r="B761" s="18"/>
       <c r="C761" s="21"/>
@@ -9959,7 +9956,7 @@
       <c r="H761" s="21"/>
       <c r="I761" s="18"/>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A762" s="21"/>
       <c r="B762" s="18"/>
       <c r="C762" s="21"/>
@@ -9970,7 +9967,7 @@
       <c r="H762" s="21"/>
       <c r="I762" s="18"/>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A763" s="21"/>
       <c r="B763" s="18"/>
       <c r="C763" s="21"/>
@@ -9981,7 +9978,7 @@
       <c r="H763" s="21"/>
       <c r="I763" s="18"/>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A764" s="21"/>
       <c r="B764" s="18"/>
       <c r="C764" s="21"/>
@@ -9992,7 +9989,7 @@
       <c r="H764" s="21"/>
       <c r="I764" s="18"/>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A765" s="21"/>
       <c r="B765" s="18"/>
       <c r="C765" s="21"/>
@@ -10003,7 +10000,7 @@
       <c r="H765" s="21"/>
       <c r="I765" s="18"/>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A766" s="21"/>
       <c r="B766" s="18"/>
       <c r="C766" s="21"/>
@@ -10014,7 +10011,7 @@
       <c r="H766" s="21"/>
       <c r="I766" s="18"/>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A767" s="21"/>
       <c r="B767" s="18"/>
       <c r="C767" s="21"/>
@@ -10025,7 +10022,7 @@
       <c r="H767" s="21"/>
       <c r="I767" s="18"/>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A768" s="21"/>
       <c r="B768" s="18"/>
       <c r="C768" s="21"/>
@@ -10036,7 +10033,7 @@
       <c r="H768" s="21"/>
       <c r="I768" s="18"/>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A769" s="21"/>
       <c r="B769" s="18"/>
       <c r="C769" s="21"/>
@@ -10047,7 +10044,7 @@
       <c r="H769" s="21"/>
       <c r="I769" s="18"/>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A770" s="21"/>
       <c r="B770" s="18"/>
       <c r="C770" s="21"/>
@@ -10058,7 +10055,7 @@
       <c r="H770" s="21"/>
       <c r="I770" s="18"/>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A771" s="21"/>
       <c r="B771" s="18"/>
       <c r="C771" s="21"/>
@@ -10069,7 +10066,7 @@
       <c r="H771" s="21"/>
       <c r="I771" s="18"/>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A772" s="21"/>
       <c r="B772" s="18"/>
       <c r="C772" s="21"/>
@@ -10080,7 +10077,7 @@
       <c r="H772" s="21"/>
       <c r="I772" s="18"/>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A773" s="21"/>
       <c r="B773" s="18"/>
       <c r="C773" s="21"/>
@@ -10091,7 +10088,7 @@
       <c r="H773" s="21"/>
       <c r="I773" s="18"/>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A774" s="21"/>
       <c r="B774" s="18"/>
       <c r="C774" s="21"/>
@@ -10102,7 +10099,7 @@
       <c r="H774" s="21"/>
       <c r="I774" s="18"/>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A775" s="21"/>
       <c r="B775" s="18"/>
       <c r="C775" s="21"/>
@@ -10113,7 +10110,7 @@
       <c r="H775" s="21"/>
       <c r="I775" s="18"/>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A776" s="21"/>
       <c r="B776" s="18"/>
       <c r="C776" s="21"/>
@@ -10124,7 +10121,7 @@
       <c r="H776" s="21"/>
       <c r="I776" s="18"/>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A777" s="21"/>
       <c r="B777" s="18"/>
       <c r="C777" s="21"/>
@@ -10135,7 +10132,7 @@
       <c r="H777" s="21"/>
       <c r="I777" s="18"/>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A778" s="21"/>
       <c r="B778" s="18"/>
       <c r="C778" s="21"/>
@@ -10146,7 +10143,7 @@
       <c r="H778" s="21"/>
       <c r="I778" s="18"/>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A779" s="21"/>
       <c r="B779" s="18"/>
       <c r="C779" s="21"/>
@@ -10157,7 +10154,7 @@
       <c r="H779" s="21"/>
       <c r="I779" s="18"/>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A780" s="21"/>
       <c r="B780" s="18"/>
       <c r="C780" s="21"/>
@@ -10168,7 +10165,7 @@
       <c r="H780" s="21"/>
       <c r="I780" s="18"/>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A781" s="21"/>
       <c r="B781" s="18"/>
       <c r="C781" s="21"/>
@@ -10179,7 +10176,7 @@
       <c r="H781" s="21"/>
       <c r="I781" s="18"/>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A782" s="21"/>
       <c r="B782" s="18"/>
       <c r="C782" s="21"/>
@@ -10190,7 +10187,7 @@
       <c r="H782" s="21"/>
       <c r="I782" s="18"/>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A783" s="21"/>
       <c r="B783" s="18"/>
       <c r="C783" s="21"/>
@@ -10201,7 +10198,7 @@
       <c r="H783" s="21"/>
       <c r="I783" s="18"/>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A784" s="21"/>
       <c r="B784" s="18"/>
       <c r="C784" s="21"/>
@@ -10212,7 +10209,7 @@
       <c r="H784" s="21"/>
       <c r="I784" s="18"/>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A785" s="21"/>
       <c r="B785" s="18"/>
       <c r="C785" s="21"/>
@@ -10223,7 +10220,7 @@
       <c r="H785" s="21"/>
       <c r="I785" s="18"/>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A786" s="21"/>
       <c r="B786" s="18"/>
       <c r="C786" s="21"/>
@@ -10234,7 +10231,7 @@
       <c r="H786" s="21"/>
       <c r="I786" s="18"/>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A787" s="21"/>
       <c r="B787" s="18"/>
       <c r="C787" s="21"/>
@@ -10245,7 +10242,7 @@
       <c r="H787" s="21"/>
       <c r="I787" s="18"/>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A788" s="21"/>
       <c r="B788" s="18"/>
       <c r="C788" s="21"/>
@@ -10256,7 +10253,7 @@
       <c r="H788" s="21"/>
       <c r="I788" s="18"/>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A789" s="21"/>
       <c r="B789" s="18"/>
       <c r="C789" s="21"/>
@@ -10267,7 +10264,7 @@
       <c r="H789" s="21"/>
       <c r="I789" s="18"/>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A790" s="21"/>
       <c r="B790" s="18"/>
       <c r="C790" s="21"/>
@@ -10278,7 +10275,7 @@
       <c r="H790" s="21"/>
       <c r="I790" s="18"/>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A791" s="21"/>
       <c r="B791" s="18"/>
       <c r="C791" s="21"/>
@@ -10289,7 +10286,7 @@
       <c r="H791" s="21"/>
       <c r="I791" s="18"/>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A792" s="21"/>
       <c r="B792" s="18"/>
       <c r="C792" s="21"/>
@@ -10300,7 +10297,7 @@
       <c r="H792" s="21"/>
       <c r="I792" s="18"/>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A793" s="21"/>
       <c r="B793" s="18"/>
       <c r="C793" s="21"/>
@@ -10311,7 +10308,7 @@
       <c r="H793" s="21"/>
       <c r="I793" s="18"/>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A794" s="21"/>
       <c r="B794" s="18"/>
       <c r="C794" s="21"/>
@@ -10322,7 +10319,7 @@
       <c r="H794" s="21"/>
       <c r="I794" s="18"/>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A795" s="21"/>
       <c r="B795" s="18"/>
       <c r="C795" s="21"/>
@@ -10333,7 +10330,7 @@
       <c r="H795" s="21"/>
       <c r="I795" s="18"/>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A796" s="21"/>
       <c r="B796" s="18"/>
       <c r="C796" s="21"/>
@@ -10344,7 +10341,7 @@
       <c r="H796" s="21"/>
       <c r="I796" s="18"/>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A797" s="21"/>
       <c r="B797" s="18"/>
       <c r="C797" s="21"/>
@@ -10355,7 +10352,7 @@
       <c r="H797" s="21"/>
       <c r="I797" s="18"/>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A798" s="21"/>
       <c r="B798" s="18"/>
       <c r="C798" s="21"/>
@@ -10366,7 +10363,7 @@
       <c r="H798" s="21"/>
       <c r="I798" s="18"/>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A799" s="21"/>
       <c r="B799" s="18"/>
       <c r="C799" s="21"/>
@@ -10377,7 +10374,7 @@
       <c r="H799" s="21"/>
       <c r="I799" s="18"/>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A800" s="21"/>
       <c r="B800" s="18"/>
       <c r="C800" s="21"/>
@@ -10388,7 +10385,7 @@
       <c r="H800" s="21"/>
       <c r="I800" s="18"/>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A801" s="21"/>
       <c r="B801" s="18"/>
       <c r="C801" s="21"/>
@@ -10399,7 +10396,7 @@
       <c r="H801" s="21"/>
       <c r="I801" s="18"/>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A802" s="21"/>
       <c r="B802" s="18"/>
       <c r="C802" s="21"/>
@@ -10410,7 +10407,7 @@
       <c r="H802" s="21"/>
       <c r="I802" s="18"/>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A803" s="21"/>
       <c r="B803" s="18"/>
       <c r="C803" s="21"/>
@@ -10421,7 +10418,7 @@
       <c r="H803" s="21"/>
       <c r="I803" s="18"/>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A804" s="21"/>
       <c r="B804" s="18"/>
       <c r="C804" s="21"/>
@@ -10432,7 +10429,7 @@
       <c r="H804" s="21"/>
       <c r="I804" s="18"/>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A805" s="21"/>
       <c r="B805" s="18"/>
       <c r="C805" s="21"/>
@@ -10443,7 +10440,7 @@
       <c r="H805" s="21"/>
       <c r="I805" s="18"/>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A806" s="21"/>
       <c r="B806" s="18"/>
       <c r="C806" s="21"/>
@@ -10454,7 +10451,7 @@
       <c r="H806" s="21"/>
       <c r="I806" s="18"/>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A807" s="21"/>
       <c r="B807" s="18"/>
       <c r="C807" s="21"/>
@@ -10465,7 +10462,7 @@
       <c r="H807" s="21"/>
       <c r="I807" s="18"/>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A808" s="21"/>
       <c r="B808" s="18"/>
       <c r="C808" s="21"/>
@@ -10476,7 +10473,7 @@
       <c r="H808" s="21"/>
       <c r="I808" s="18"/>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A809" s="21"/>
       <c r="B809" s="18"/>
       <c r="C809" s="21"/>
@@ -10487,7 +10484,7 @@
       <c r="H809" s="21"/>
       <c r="I809" s="18"/>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A810" s="21"/>
       <c r="B810" s="18"/>
       <c r="C810" s="21"/>
@@ -10498,7 +10495,7 @@
       <c r="H810" s="21"/>
       <c r="I810" s="18"/>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A811" s="21"/>
       <c r="B811" s="18"/>
       <c r="C811" s="21"/>
@@ -10509,7 +10506,7 @@
       <c r="H811" s="21"/>
       <c r="I811" s="18"/>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A812" s="21"/>
       <c r="B812" s="18"/>
       <c r="C812" s="21"/>
@@ -10520,7 +10517,7 @@
       <c r="H812" s="21"/>
       <c r="I812" s="18"/>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A813" s="21"/>
       <c r="B813" s="18"/>
       <c r="C813" s="21"/>
@@ -10531,7 +10528,7 @@
       <c r="H813" s="21"/>
       <c r="I813" s="18"/>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A814" s="21"/>
       <c r="B814" s="18"/>
       <c r="C814" s="21"/>
@@ -10542,7 +10539,7 @@
       <c r="H814" s="21"/>
       <c r="I814" s="18"/>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A815" s="21"/>
       <c r="B815" s="18"/>
       <c r="C815" s="21"/>
@@ -10553,7 +10550,7 @@
       <c r="H815" s="21"/>
       <c r="I815" s="18"/>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A816" s="21"/>
       <c r="B816" s="18"/>
       <c r="C816" s="21"/>
@@ -10564,7 +10561,7 @@
       <c r="H816" s="21"/>
       <c r="I816" s="18"/>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A817" s="21"/>
       <c r="B817" s="18"/>
       <c r="C817" s="21"/>
@@ -10575,7 +10572,7 @@
       <c r="H817" s="21"/>
       <c r="I817" s="18"/>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A818" s="21"/>
       <c r="B818" s="18"/>
       <c r="C818" s="21"/>
@@ -10586,7 +10583,7 @@
       <c r="H818" s="21"/>
       <c r="I818" s="18"/>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A819" s="21"/>
       <c r="B819" s="18"/>
       <c r="C819" s="21"/>
@@ -10597,7 +10594,7 @@
       <c r="H819" s="21"/>
       <c r="I819" s="18"/>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A820" s="21"/>
       <c r="B820" s="18"/>
       <c r="C820" s="21"/>
@@ -10608,7 +10605,7 @@
       <c r="H820" s="21"/>
       <c r="I820" s="18"/>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A821" s="21"/>
       <c r="B821" s="18"/>
       <c r="C821" s="21"/>
@@ -10619,7 +10616,7 @@
       <c r="H821" s="21"/>
       <c r="I821" s="18"/>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A822" s="21"/>
       <c r="B822" s="18"/>
       <c r="C822" s="21"/>
@@ -10630,7 +10627,7 @@
       <c r="H822" s="21"/>
       <c r="I822" s="18"/>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A823" s="21"/>
       <c r="B823" s="18"/>
       <c r="C823" s="21"/>
@@ -10641,7 +10638,7 @@
       <c r="H823" s="21"/>
       <c r="I823" s="18"/>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A824" s="21"/>
       <c r="B824" s="18"/>
       <c r="C824" s="21"/>
@@ -10652,7 +10649,7 @@
       <c r="H824" s="21"/>
       <c r="I824" s="18"/>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A825" s="21"/>
       <c r="B825" s="18"/>
       <c r="C825" s="21"/>
@@ -10663,7 +10660,7 @@
       <c r="H825" s="21"/>
       <c r="I825" s="18"/>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A826" s="21"/>
       <c r="B826" s="18"/>
       <c r="C826" s="21"/>
@@ -10674,7 +10671,7 @@
       <c r="H826" s="21"/>
       <c r="I826" s="18"/>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A827" s="21"/>
       <c r="B827" s="18"/>
       <c r="C827" s="21"/>
@@ -10685,7 +10682,7 @@
       <c r="H827" s="21"/>
       <c r="I827" s="18"/>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A828" s="21"/>
       <c r="B828" s="18"/>
       <c r="C828" s="21"/>
@@ -10696,7 +10693,7 @@
       <c r="H828" s="21"/>
       <c r="I828" s="18"/>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A829" s="21"/>
       <c r="B829" s="18"/>
       <c r="C829" s="21"/>
@@ -10707,7 +10704,7 @@
       <c r="H829" s="21"/>
       <c r="I829" s="18"/>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A830" s="21"/>
       <c r="B830" s="18"/>
       <c r="C830" s="21"/>
@@ -10718,7 +10715,7 @@
       <c r="H830" s="21"/>
       <c r="I830" s="18"/>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A831" s="21"/>
       <c r="B831" s="18"/>
       <c r="C831" s="21"/>
@@ -10729,7 +10726,7 @@
       <c r="H831" s="21"/>
       <c r="I831" s="18"/>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A832" s="21"/>
       <c r="B832" s="18"/>
       <c r="C832" s="21"/>
@@ -10740,7 +10737,7 @@
       <c r="H832" s="21"/>
       <c r="I832" s="18"/>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A833" s="21"/>
       <c r="B833" s="18"/>
       <c r="C833" s="21"/>
@@ -10751,7 +10748,7 @@
       <c r="H833" s="21"/>
       <c r="I833" s="18"/>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A834" s="21"/>
       <c r="B834" s="18"/>
       <c r="C834" s="21"/>
@@ -10762,7 +10759,7 @@
       <c r="H834" s="21"/>
       <c r="I834" s="18"/>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A835" s="21"/>
       <c r="B835" s="18"/>
       <c r="C835" s="21"/>
@@ -10773,7 +10770,7 @@
       <c r="H835" s="21"/>
       <c r="I835" s="18"/>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A836" s="21"/>
       <c r="B836" s="18"/>
       <c r="C836" s="21"/>
@@ -10784,7 +10781,7 @@
       <c r="H836" s="21"/>
       <c r="I836" s="18"/>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A837" s="21"/>
       <c r="B837" s="18"/>
       <c r="C837" s="21"/>
@@ -10795,7 +10792,7 @@
       <c r="H837" s="21"/>
       <c r="I837" s="18"/>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A838" s="21"/>
       <c r="B838" s="18"/>
       <c r="C838" s="21"/>
@@ -10806,7 +10803,7 @@
       <c r="H838" s="21"/>
       <c r="I838" s="18"/>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A839" s="21"/>
       <c r="B839" s="18"/>
       <c r="C839" s="21"/>
@@ -10817,7 +10814,7 @@
       <c r="H839" s="21"/>
       <c r="I839" s="18"/>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A840" s="21"/>
       <c r="B840" s="18"/>
       <c r="C840" s="21"/>
@@ -10828,7 +10825,7 @@
       <c r="H840" s="21"/>
       <c r="I840" s="18"/>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A841" s="21"/>
       <c r="B841" s="18"/>
       <c r="C841" s="21"/>
@@ -10839,7 +10836,7 @@
       <c r="H841" s="21"/>
       <c r="I841" s="18"/>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A842" s="21"/>
       <c r="B842" s="18"/>
       <c r="C842" s="21"/>
@@ -10850,7 +10847,7 @@
       <c r="H842" s="21"/>
       <c r="I842" s="18"/>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A843" s="21"/>
       <c r="B843" s="18"/>
       <c r="C843" s="21"/>
@@ -10861,7 +10858,7 @@
       <c r="H843" s="21"/>
       <c r="I843" s="18"/>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A844" s="21"/>
       <c r="B844" s="18"/>
       <c r="C844" s="21"/>
@@ -10872,7 +10869,7 @@
       <c r="H844" s="21"/>
       <c r="I844" s="18"/>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A845" s="21"/>
       <c r="B845" s="18"/>
       <c r="C845" s="21"/>
@@ -10883,7 +10880,7 @@
       <c r="H845" s="21"/>
       <c r="I845" s="18"/>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A846" s="21"/>
       <c r="B846" s="18"/>
       <c r="C846" s="21"/>
@@ -10894,7 +10891,7 @@
       <c r="H846" s="21"/>
       <c r="I846" s="18"/>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A847" s="21"/>
       <c r="B847" s="18"/>
       <c r="C847" s="21"/>
@@ -10905,7 +10902,7 @@
       <c r="H847" s="21"/>
       <c r="I847" s="18"/>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A848" s="21"/>
       <c r="B848" s="18"/>
       <c r="C848" s="21"/>
@@ -10916,7 +10913,7 @@
       <c r="H848" s="21"/>
       <c r="I848" s="18"/>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A849" s="21"/>
       <c r="B849" s="18"/>
       <c r="C849" s="21"/>
@@ -10927,7 +10924,7 @@
       <c r="H849" s="21"/>
       <c r="I849" s="18"/>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A850" s="21"/>
       <c r="B850" s="18"/>
       <c r="C850" s="21"/>
@@ -10938,7 +10935,7 @@
       <c r="H850" s="21"/>
       <c r="I850" s="18"/>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A851" s="21"/>
       <c r="B851" s="18"/>
       <c r="C851" s="21"/>
@@ -10949,7 +10946,7 @@
       <c r="H851" s="21"/>
       <c r="I851" s="18"/>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A852" s="21"/>
       <c r="B852" s="18"/>
       <c r="C852" s="21"/>
@@ -10960,7 +10957,7 @@
       <c r="H852" s="21"/>
       <c r="I852" s="18"/>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A853" s="21"/>
       <c r="B853" s="18"/>
       <c r="C853" s="21"/>
@@ -10971,7 +10968,7 @@
       <c r="H853" s="21"/>
       <c r="I853" s="18"/>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A854" s="21"/>
       <c r="B854" s="18"/>
       <c r="C854" s="21"/>
@@ -10982,7 +10979,7 @@
       <c r="H854" s="21"/>
       <c r="I854" s="18"/>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A855" s="21"/>
       <c r="B855" s="18"/>
       <c r="C855" s="21"/>
@@ -10993,7 +10990,7 @@
       <c r="H855" s="21"/>
       <c r="I855" s="18"/>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A856" s="21"/>
       <c r="B856" s="18"/>
       <c r="C856" s="21"/>
@@ -11004,7 +11001,7 @@
       <c r="H856" s="21"/>
       <c r="I856" s="18"/>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A857" s="21"/>
       <c r="B857" s="18"/>
       <c r="C857" s="21"/>
@@ -11015,7 +11012,7 @@
       <c r="H857" s="21"/>
       <c r="I857" s="18"/>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A858" s="21"/>
       <c r="B858" s="18"/>
       <c r="C858" s="21"/>
@@ -11026,7 +11023,7 @@
       <c r="H858" s="21"/>
       <c r="I858" s="18"/>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A859" s="21"/>
       <c r="B859" s="18"/>
       <c r="C859" s="21"/>
@@ -11037,7 +11034,7 @@
       <c r="H859" s="21"/>
       <c r="I859" s="18"/>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A860" s="21"/>
       <c r="B860" s="18"/>
       <c r="C860" s="21"/>
@@ -11048,7 +11045,7 @@
       <c r="H860" s="21"/>
       <c r="I860" s="18"/>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A861" s="21"/>
       <c r="B861" s="18"/>
       <c r="C861" s="21"/>
@@ -11059,7 +11056,7 @@
       <c r="H861" s="21"/>
       <c r="I861" s="18"/>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A862" s="21"/>
       <c r="B862" s="18"/>
       <c r="C862" s="21"/>
@@ -11070,7 +11067,7 @@
       <c r="H862" s="21"/>
       <c r="I862" s="18"/>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A863" s="21"/>
       <c r="B863" s="18"/>
       <c r="C863" s="21"/>
@@ -11081,7 +11078,7 @@
       <c r="H863" s="21"/>
       <c r="I863" s="18"/>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A864" s="21"/>
       <c r="B864" s="18"/>
       <c r="C864" s="21"/>
@@ -11092,7 +11089,7 @@
       <c r="H864" s="21"/>
       <c r="I864" s="18"/>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A865" s="21"/>
       <c r="B865" s="18"/>
       <c r="C865" s="21"/>
@@ -11103,7 +11100,7 @@
       <c r="H865" s="21"/>
       <c r="I865" s="18"/>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A866" s="21"/>
       <c r="B866" s="18"/>
       <c r="C866" s="21"/>
@@ -11114,7 +11111,7 @@
       <c r="H866" s="21"/>
       <c r="I866" s="18"/>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A867" s="21"/>
       <c r="B867" s="18"/>
       <c r="C867" s="21"/>
@@ -11125,7 +11122,7 @@
       <c r="H867" s="21"/>
       <c r="I867" s="18"/>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A868" s="21"/>
       <c r="B868" s="18"/>
       <c r="C868" s="21"/>
@@ -11136,7 +11133,7 @@
       <c r="H868" s="21"/>
       <c r="I868" s="18"/>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A869" s="21"/>
       <c r="B869" s="18"/>
       <c r="C869" s="21"/>
@@ -11147,7 +11144,7 @@
       <c r="H869" s="21"/>
       <c r="I869" s="18"/>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A870" s="21"/>
       <c r="B870" s="18"/>
       <c r="C870" s="21"/>
@@ -11158,7 +11155,7 @@
       <c r="H870" s="21"/>
       <c r="I870" s="18"/>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A871" s="21"/>
       <c r="B871" s="18"/>
       <c r="C871" s="21"/>
@@ -11169,7 +11166,7 @@
       <c r="H871" s="21"/>
       <c r="I871" s="18"/>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A872" s="21"/>
       <c r="B872" s="18"/>
       <c r="C872" s="21"/>
@@ -11180,7 +11177,7 @@
       <c r="H872" s="21"/>
       <c r="I872" s="18"/>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A873" s="21"/>
       <c r="B873" s="18"/>
       <c r="C873" s="21"/>
@@ -11191,7 +11188,7 @@
       <c r="H873" s="21"/>
       <c r="I873" s="18"/>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A874" s="21"/>
       <c r="B874" s="18"/>
       <c r="C874" s="21"/>
@@ -11202,7 +11199,7 @@
       <c r="H874" s="21"/>
       <c r="I874" s="18"/>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A875" s="21"/>
       <c r="B875" s="18"/>
       <c r="C875" s="21"/>
@@ -11213,7 +11210,7 @@
       <c r="H875" s="21"/>
       <c r="I875" s="18"/>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A876" s="21"/>
       <c r="B876" s="18"/>
       <c r="C876" s="21"/>
@@ -11224,7 +11221,7 @@
       <c r="H876" s="21"/>
       <c r="I876" s="18"/>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A877" s="21"/>
       <c r="B877" s="18"/>
       <c r="C877" s="21"/>
@@ -11235,7 +11232,7 @@
       <c r="H877" s="21"/>
       <c r="I877" s="18"/>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A878" s="21"/>
       <c r="B878" s="18"/>
       <c r="C878" s="21"/>
@@ -11246,7 +11243,7 @@
       <c r="H878" s="21"/>
       <c r="I878" s="18"/>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A879" s="21"/>
       <c r="B879" s="18"/>
       <c r="C879" s="21"/>
@@ -11257,7 +11254,7 @@
       <c r="H879" s="21"/>
       <c r="I879" s="18"/>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A880" s="21"/>
       <c r="B880" s="18"/>
       <c r="C880" s="21"/>
@@ -11268,7 +11265,7 @@
       <c r="H880" s="21"/>
       <c r="I880" s="18"/>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A881" s="21"/>
       <c r="B881" s="18"/>
       <c r="C881" s="21"/>
@@ -11279,7 +11276,7 @@
       <c r="H881" s="21"/>
       <c r="I881" s="18"/>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A882" s="21"/>
       <c r="B882" s="18"/>
       <c r="C882" s="21"/>
@@ -11290,7 +11287,7 @@
       <c r="H882" s="21"/>
       <c r="I882" s="18"/>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A883" s="21"/>
       <c r="B883" s="18"/>
       <c r="C883" s="21"/>
@@ -11301,7 +11298,7 @@
       <c r="H883" s="21"/>
       <c r="I883" s="18"/>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A884" s="21"/>
       <c r="B884" s="18"/>
       <c r="C884" s="21"/>
@@ -11312,7 +11309,7 @@
       <c r="H884" s="21"/>
       <c r="I884" s="18"/>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A885" s="21"/>
       <c r="B885" s="18"/>
       <c r="C885" s="21"/>
@@ -11323,7 +11320,7 @@
       <c r="H885" s="21"/>
       <c r="I885" s="18"/>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A886" s="21"/>
       <c r="B886" s="18"/>
       <c r="C886" s="21"/>
@@ -11334,7 +11331,7 @@
       <c r="H886" s="21"/>
       <c r="I886" s="18"/>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A887" s="21"/>
       <c r="B887" s="18"/>
       <c r="C887" s="21"/>
@@ -11345,7 +11342,7 @@
       <c r="H887" s="21"/>
       <c r="I887" s="18"/>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A888" s="21"/>
       <c r="B888" s="18"/>
       <c r="C888" s="21"/>
@@ -11356,7 +11353,7 @@
       <c r="H888" s="21"/>
       <c r="I888" s="18"/>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A889" s="21"/>
       <c r="B889" s="18"/>
       <c r="C889" s="21"/>
@@ -11367,7 +11364,7 @@
       <c r="H889" s="21"/>
       <c r="I889" s="18"/>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A890" s="21"/>
       <c r="B890" s="18"/>
       <c r="C890" s="21"/>
@@ -11378,7 +11375,7 @@
       <c r="H890" s="21"/>
       <c r="I890" s="18"/>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A891" s="21"/>
       <c r="B891" s="18"/>
       <c r="C891" s="21"/>
@@ -11389,7 +11386,7 @@
       <c r="H891" s="21"/>
       <c r="I891" s="18"/>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A892" s="21"/>
       <c r="B892" s="18"/>
       <c r="C892" s="21"/>
@@ -11400,7 +11397,7 @@
       <c r="H892" s="21"/>
       <c r="I892" s="18"/>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A893" s="21"/>
       <c r="B893" s="18"/>
       <c r="C893" s="21"/>
@@ -11411,7 +11408,7 @@
       <c r="H893" s="21"/>
       <c r="I893" s="18"/>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A894" s="21"/>
       <c r="B894" s="18"/>
       <c r="C894" s="21"/>
@@ -11422,7 +11419,7 @@
       <c r="H894" s="21"/>
       <c r="I894" s="18"/>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A895" s="21"/>
       <c r="B895" s="18"/>
       <c r="C895" s="21"/>
@@ -11433,7 +11430,7 @@
       <c r="H895" s="21"/>
       <c r="I895" s="18"/>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A896" s="21"/>
       <c r="B896" s="18"/>
       <c r="C896" s="21"/>
@@ -11444,7 +11441,7 @@
       <c r="H896" s="21"/>
       <c r="I896" s="18"/>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A897" s="21"/>
       <c r="B897" s="18"/>
       <c r="C897" s="21"/>
@@ -11455,7 +11452,7 @@
       <c r="H897" s="21"/>
       <c r="I897" s="18"/>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A898" s="21"/>
       <c r="B898" s="18"/>
       <c r="C898" s="21"/>
@@ -11466,7 +11463,7 @@
       <c r="H898" s="21"/>
       <c r="I898" s="18"/>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A899" s="21"/>
       <c r="B899" s="18"/>
       <c r="C899" s="21"/>
@@ -11477,7 +11474,7 @@
       <c r="H899" s="21"/>
       <c r="I899" s="18"/>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A900" s="21"/>
       <c r="B900" s="18"/>
       <c r="C900" s="21"/>
@@ -11488,7 +11485,7 @@
       <c r="H900" s="21"/>
       <c r="I900" s="18"/>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A901" s="21"/>
       <c r="B901" s="18"/>
       <c r="C901" s="21"/>
@@ -11499,7 +11496,7 @@
       <c r="H901" s="21"/>
       <c r="I901" s="18"/>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A902" s="21"/>
       <c r="B902" s="18"/>
       <c r="C902" s="21"/>
@@ -11510,7 +11507,7 @@
       <c r="H902" s="21"/>
       <c r="I902" s="18"/>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A903" s="21"/>
       <c r="B903" s="18"/>
       <c r="C903" s="21"/>
@@ -11521,7 +11518,7 @@
       <c r="H903" s="21"/>
       <c r="I903" s="18"/>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A904" s="21"/>
       <c r="B904" s="18"/>
       <c r="C904" s="21"/>
@@ -11532,7 +11529,7 @@
       <c r="H904" s="21"/>
       <c r="I904" s="18"/>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A905" s="21"/>
       <c r="B905" s="18"/>
       <c r="C905" s="21"/>
@@ -11543,7 +11540,7 @@
       <c r="H905" s="21"/>
       <c r="I905" s="18"/>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A906" s="21"/>
       <c r="B906" s="18"/>
       <c r="C906" s="21"/>
@@ -11554,7 +11551,7 @@
       <c r="H906" s="21"/>
       <c r="I906" s="18"/>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A907" s="21"/>
       <c r="B907" s="18"/>
       <c r="C907" s="21"/>
@@ -11565,7 +11562,7 @@
       <c r="H907" s="21"/>
       <c r="I907" s="18"/>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A908" s="21"/>
       <c r="B908" s="18"/>
       <c r="C908" s="21"/>
@@ -11576,7 +11573,7 @@
       <c r="H908" s="21"/>
       <c r="I908" s="18"/>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A909" s="21"/>
       <c r="B909" s="18"/>
       <c r="C909" s="21"/>
@@ -11587,7 +11584,7 @@
       <c r="H909" s="21"/>
       <c r="I909" s="18"/>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A910" s="21"/>
       <c r="B910" s="18"/>
       <c r="C910" s="21"/>
@@ -11598,7 +11595,7 @@
       <c r="H910" s="21"/>
       <c r="I910" s="18"/>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A911" s="21"/>
       <c r="B911" s="18"/>
       <c r="C911" s="21"/>
@@ -11609,7 +11606,7 @@
       <c r="H911" s="21"/>
       <c r="I911" s="18"/>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A912" s="21"/>
       <c r="B912" s="18"/>
       <c r="C912" s="21"/>
@@ -11620,7 +11617,7 @@
       <c r="H912" s="21"/>
       <c r="I912" s="18"/>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A913" s="21"/>
       <c r="B913" s="18"/>
       <c r="C913" s="21"/>
@@ -11631,7 +11628,7 @@
       <c r="H913" s="21"/>
       <c r="I913" s="18"/>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A914" s="21"/>
       <c r="B914" s="18"/>
       <c r="C914" s="21"/>
@@ -11642,7 +11639,7 @@
       <c r="H914" s="21"/>
       <c r="I914" s="18"/>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A915" s="21"/>
       <c r="B915" s="18"/>
       <c r="C915" s="21"/>
@@ -11653,7 +11650,7 @@
       <c r="H915" s="21"/>
       <c r="I915" s="18"/>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A916" s="21"/>
       <c r="B916" s="18"/>
       <c r="C916" s="21"/>
@@ -11664,7 +11661,7 @@
       <c r="H916" s="21"/>
       <c r="I916" s="18"/>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A917" s="21"/>
       <c r="B917" s="18"/>
       <c r="C917" s="21"/>
@@ -11675,7 +11672,7 @@
       <c r="H917" s="21"/>
       <c r="I917" s="18"/>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A918" s="21"/>
       <c r="B918" s="18"/>
       <c r="C918" s="21"/>
@@ -11686,7 +11683,7 @@
       <c r="H918" s="21"/>
       <c r="I918" s="18"/>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A919" s="21"/>
       <c r="B919" s="18"/>
       <c r="C919" s="21"/>
@@ -11697,7 +11694,7 @@
       <c r="H919" s="21"/>
       <c r="I919" s="18"/>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A920" s="21"/>
       <c r="B920" s="18"/>
       <c r="C920" s="21"/>
@@ -11708,7 +11705,7 @@
       <c r="H920" s="21"/>
       <c r="I920" s="18"/>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A921" s="21"/>
       <c r="B921" s="18"/>
       <c r="C921" s="21"/>
@@ -11719,7 +11716,7 @@
       <c r="H921" s="21"/>
       <c r="I921" s="18"/>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A922" s="21"/>
       <c r="B922" s="18"/>
       <c r="C922" s="21"/>
@@ -11730,7 +11727,7 @@
       <c r="H922" s="21"/>
       <c r="I922" s="18"/>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A923" s="21"/>
       <c r="B923" s="18"/>
       <c r="C923" s="21"/>
@@ -11741,7 +11738,7 @@
       <c r="H923" s="21"/>
       <c r="I923" s="18"/>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A924" s="21"/>
       <c r="B924" s="18"/>
       <c r="C924" s="21"/>
@@ -11752,7 +11749,7 @@
       <c r="H924" s="21"/>
       <c r="I924" s="18"/>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A925" s="21"/>
       <c r="B925" s="18"/>
       <c r="C925" s="21"/>
@@ -11763,7 +11760,7 @@
       <c r="H925" s="21"/>
       <c r="I925" s="18"/>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A926" s="21"/>
       <c r="B926" s="18"/>
       <c r="C926" s="21"/>
@@ -11774,7 +11771,7 @@
       <c r="H926" s="21"/>
       <c r="I926" s="18"/>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A927" s="21"/>
       <c r="B927" s="18"/>
       <c r="C927" s="21"/>
@@ -11785,7 +11782,7 @@
       <c r="H927" s="21"/>
       <c r="I927" s="18"/>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A928" s="21"/>
       <c r="B928" s="18"/>
       <c r="C928" s="21"/>
@@ -11796,7 +11793,7 @@
       <c r="H928" s="21"/>
       <c r="I928" s="18"/>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A929" s="21"/>
       <c r="B929" s="18"/>
       <c r="C929" s="21"/>
@@ -11807,7 +11804,7 @@
       <c r="H929" s="21"/>
       <c r="I929" s="18"/>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A930" s="21"/>
       <c r="B930" s="18"/>
       <c r="C930" s="21"/>
@@ -11818,7 +11815,7 @@
       <c r="H930" s="21"/>
       <c r="I930" s="18"/>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A931" s="21"/>
       <c r="B931" s="18"/>
       <c r="C931" s="21"/>
@@ -11829,7 +11826,7 @@
       <c r="H931" s="21"/>
       <c r="I931" s="18"/>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A932" s="21"/>
       <c r="B932" s="18"/>
       <c r="C932" s="21"/>
@@ -11840,7 +11837,7 @@
       <c r="H932" s="21"/>
       <c r="I932" s="18"/>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A933" s="21"/>
       <c r="B933" s="18"/>
       <c r="C933" s="21"/>
@@ -11851,7 +11848,7 @@
       <c r="H933" s="21"/>
       <c r="I933" s="18"/>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A934" s="21"/>
       <c r="B934" s="18"/>
       <c r="C934" s="21"/>
@@ -11862,7 +11859,7 @@
       <c r="H934" s="21"/>
       <c r="I934" s="18"/>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A935" s="21"/>
       <c r="B935" s="18"/>
       <c r="C935" s="21"/>
@@ -11873,7 +11870,7 @@
       <c r="H935" s="21"/>
       <c r="I935" s="18"/>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A936" s="21"/>
       <c r="B936" s="18"/>
       <c r="C936" s="21"/>
@@ -11884,7 +11881,7 @@
       <c r="H936" s="21"/>
       <c r="I936" s="18"/>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A937" s="21"/>
       <c r="B937" s="18"/>
       <c r="C937" s="21"/>
@@ -11895,7 +11892,7 @@
       <c r="H937" s="21"/>
       <c r="I937" s="18"/>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A938" s="21"/>
       <c r="B938" s="18"/>
       <c r="C938" s="21"/>
@@ -11906,7 +11903,7 @@
       <c r="H938" s="21"/>
       <c r="I938" s="18"/>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A939" s="21"/>
       <c r="B939" s="18"/>
       <c r="C939" s="21"/>
@@ -11917,7 +11914,7 @@
       <c r="H939" s="21"/>
       <c r="I939" s="18"/>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A940" s="21"/>
       <c r="B940" s="18"/>
       <c r="C940" s="21"/>
@@ -11928,7 +11925,7 @@
       <c r="H940" s="21"/>
       <c r="I940" s="18"/>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A941" s="21"/>
       <c r="B941" s="18"/>
       <c r="C941" s="21"/>
@@ -11939,7 +11936,7 @@
       <c r="H941" s="21"/>
       <c r="I941" s="18"/>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A942" s="21"/>
       <c r="B942" s="18"/>
       <c r="C942" s="21"/>
@@ -11950,7 +11947,7 @@
       <c r="H942" s="21"/>
       <c r="I942" s="18"/>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A943" s="21"/>
       <c r="B943" s="18"/>
       <c r="C943" s="21"/>
@@ -11961,7 +11958,7 @@
       <c r="H943" s="21"/>
       <c r="I943" s="18"/>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A944" s="21"/>
       <c r="B944" s="18"/>
       <c r="C944" s="21"/>
@@ -11972,7 +11969,7 @@
       <c r="H944" s="21"/>
       <c r="I944" s="18"/>
     </row>
-    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A945" s="21"/>
       <c r="B945" s="18"/>
       <c r="C945" s="21"/>
@@ -11983,7 +11980,7 @@
       <c r="H945" s="21"/>
       <c r="I945" s="18"/>
     </row>
-    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A946" s="21"/>
       <c r="B946" s="18"/>
       <c r="C946" s="21"/>
@@ -11994,7 +11991,7 @@
       <c r="H946" s="21"/>
       <c r="I946" s="18"/>
     </row>
-    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A947" s="21"/>
       <c r="B947" s="18"/>
       <c r="C947" s="21"/>
@@ -12005,7 +12002,7 @@
       <c r="H947" s="21"/>
       <c r="I947" s="18"/>
     </row>
-    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A948" s="21"/>
       <c r="B948" s="18"/>
       <c r="C948" s="21"/>
@@ -12016,7 +12013,7 @@
       <c r="H948" s="21"/>
       <c r="I948" s="18"/>
     </row>
-    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A949" s="21"/>
       <c r="B949" s="18"/>
       <c r="C949" s="21"/>
@@ -12027,7 +12024,7 @@
       <c r="H949" s="21"/>
       <c r="I949" s="18"/>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A950" s="21"/>
       <c r="B950" s="18"/>
       <c r="C950" s="21"/>
@@ -12038,7 +12035,7 @@
       <c r="H950" s="21"/>
       <c r="I950" s="18"/>
     </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A951" s="21"/>
       <c r="B951" s="18"/>
       <c r="C951" s="21"/>
@@ -12049,7 +12046,7 @@
       <c r="H951" s="21"/>
       <c r="I951" s="18"/>
     </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A952" s="21"/>
       <c r="B952" s="18"/>
       <c r="C952" s="21"/>
@@ -12060,7 +12057,7 @@
       <c r="H952" s="21"/>
       <c r="I952" s="18"/>
     </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A953" s="21"/>
       <c r="B953" s="18"/>
       <c r="C953" s="21"/>
@@ -12071,7 +12068,7 @@
       <c r="H953" s="21"/>
       <c r="I953" s="18"/>
     </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A954" s="21"/>
       <c r="B954" s="18"/>
       <c r="C954" s="21"/>
@@ -12082,7 +12079,7 @@
       <c r="H954" s="21"/>
       <c r="I954" s="18"/>
     </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A955" s="21"/>
       <c r="B955" s="18"/>
       <c r="C955" s="21"/>
@@ -12093,7 +12090,7 @@
       <c r="H955" s="21"/>
       <c r="I955" s="18"/>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A956" s="21"/>
       <c r="B956" s="18"/>
       <c r="C956" s="21"/>
@@ -12104,7 +12101,7 @@
       <c r="H956" s="21"/>
       <c r="I956" s="18"/>
     </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A957" s="21"/>
       <c r="B957" s="18"/>
       <c r="C957" s="21"/>
@@ -12115,7 +12112,7 @@
       <c r="H957" s="21"/>
       <c r="I957" s="18"/>
     </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A958" s="21"/>
       <c r="B958" s="18"/>
       <c r="C958" s="21"/>
@@ -12126,7 +12123,7 @@
       <c r="H958" s="21"/>
       <c r="I958" s="18"/>
     </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A959" s="21"/>
       <c r="B959" s="18"/>
       <c r="C959" s="21"/>
@@ -12137,7 +12134,7 @@
       <c r="H959" s="21"/>
       <c r="I959" s="18"/>
     </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A960" s="21"/>
       <c r="B960" s="18"/>
       <c r="C960" s="21"/>
@@ -12148,7 +12145,7 @@
       <c r="H960" s="21"/>
       <c r="I960" s="18"/>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A961" s="21"/>
       <c r="B961" s="18"/>
       <c r="C961" s="21"/>
@@ -12159,7 +12156,7 @@
       <c r="H961" s="21"/>
       <c r="I961" s="18"/>
     </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A962" s="21"/>
       <c r="B962" s="18"/>
       <c r="C962" s="21"/>
@@ -12170,7 +12167,7 @@
       <c r="H962" s="21"/>
       <c r="I962" s="18"/>
     </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A963" s="21"/>
       <c r="B963" s="18"/>
       <c r="C963" s="21"/>
@@ -12181,7 +12178,7 @@
       <c r="H963" s="21"/>
       <c r="I963" s="18"/>
     </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A964" s="21"/>
       <c r="B964" s="18"/>
       <c r="C964" s="21"/>
@@ -12192,7 +12189,7 @@
       <c r="H964" s="21"/>
       <c r="I964" s="18"/>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A965" s="21"/>
       <c r="B965" s="18"/>
       <c r="C965" s="21"/>
@@ -12203,7 +12200,7 @@
       <c r="H965" s="21"/>
       <c r="I965" s="18"/>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A966" s="21"/>
       <c r="B966" s="18"/>
       <c r="C966" s="21"/>
@@ -12214,7 +12211,7 @@
       <c r="H966" s="21"/>
       <c r="I966" s="18"/>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A967" s="21"/>
       <c r="B967" s="18"/>
       <c r="C967" s="21"/>
@@ -12225,7 +12222,7 @@
       <c r="H967" s="21"/>
       <c r="I967" s="18"/>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A968" s="21"/>
       <c r="B968" s="18"/>
       <c r="C968" s="21"/>
@@ -12236,7 +12233,7 @@
       <c r="H968" s="21"/>
       <c r="I968" s="18"/>
     </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A969" s="21"/>
       <c r="B969" s="18"/>
       <c r="C969" s="21"/>
@@ -12247,7 +12244,7 @@
       <c r="H969" s="21"/>
       <c r="I969" s="18"/>
     </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A970" s="21"/>
       <c r="B970" s="18"/>
       <c r="C970" s="21"/>
@@ -12258,7 +12255,7 @@
       <c r="H970" s="21"/>
       <c r="I970" s="18"/>
     </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A971" s="21"/>
       <c r="B971" s="18"/>
       <c r="C971" s="21"/>
@@ -12269,7 +12266,7 @@
       <c r="H971" s="21"/>
       <c r="I971" s="18"/>
     </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A972" s="21"/>
       <c r="B972" s="18"/>
       <c r="C972" s="21"/>
@@ -12280,7 +12277,7 @@
       <c r="H972" s="21"/>
       <c r="I972" s="18"/>
     </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A973" s="21"/>
       <c r="B973" s="18"/>
       <c r="C973" s="21"/>
@@ -12291,7 +12288,7 @@
       <c r="H973" s="21"/>
       <c r="I973" s="18"/>
     </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A974" s="21"/>
       <c r="B974" s="18"/>
       <c r="C974" s="21"/>
@@ -12302,7 +12299,7 @@
       <c r="H974" s="21"/>
       <c r="I974" s="18"/>
     </row>
-    <row r="975" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A975" s="21"/>
       <c r="B975" s="18"/>
       <c r="C975" s="21"/>
@@ -12313,7 +12310,7 @@
       <c r="H975" s="21"/>
       <c r="I975" s="18"/>
     </row>
-    <row r="976" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A976" s="21"/>
       <c r="B976" s="18"/>
       <c r="C976" s="21"/>
@@ -12324,7 +12321,7 @@
       <c r="H976" s="21"/>
       <c r="I976" s="18"/>
     </row>
-    <row r="977" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A977" s="21"/>
       <c r="B977" s="18"/>
       <c r="C977" s="21"/>
@@ -12335,7 +12332,7 @@
       <c r="H977" s="21"/>
       <c r="I977" s="18"/>
     </row>
-    <row r="978" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A978" s="21"/>
       <c r="B978" s="18"/>
       <c r="C978" s="21"/>
@@ -12346,7 +12343,7 @@
       <c r="H978" s="21"/>
       <c r="I978" s="18"/>
     </row>
-    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A979" s="21"/>
       <c r="B979" s="18"/>
       <c r="C979" s="21"/>
@@ -12357,7 +12354,7 @@
       <c r="H979" s="21"/>
       <c r="I979" s="18"/>
     </row>
-    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A980" s="21"/>
       <c r="B980" s="18"/>
       <c r="C980" s="21"/>
@@ -12368,7 +12365,7 @@
       <c r="H980" s="21"/>
       <c r="I980" s="18"/>
     </row>
-    <row r="981" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A981" s="21"/>
       <c r="B981" s="18"/>
       <c r="C981" s="21"/>
@@ -12379,7 +12376,7 @@
       <c r="H981" s="21"/>
       <c r="I981" s="18"/>
     </row>
-    <row r="982" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A982" s="21"/>
       <c r="B982" s="18"/>
       <c r="C982" s="21"/>
@@ -12390,7 +12387,7 @@
       <c r="H982" s="21"/>
       <c r="I982" s="18"/>
     </row>
-    <row r="983" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A983" s="21"/>
       <c r="B983" s="18"/>
       <c r="C983" s="21"/>
@@ -12401,7 +12398,7 @@
       <c r="H983" s="21"/>
       <c r="I983" s="18"/>
     </row>
-    <row r="984" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A984" s="21"/>
       <c r="B984" s="18"/>
       <c r="C984" s="21"/>
@@ -12412,7 +12409,7 @@
       <c r="H984" s="21"/>
       <c r="I984" s="18"/>
     </row>
-    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A985" s="21"/>
       <c r="B985" s="18"/>
       <c r="C985" s="21"/>
@@ -12423,7 +12420,7 @@
       <c r="H985" s="21"/>
       <c r="I985" s="18"/>
     </row>
-    <row r="986" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A986" s="21"/>
       <c r="B986" s="18"/>
       <c r="C986" s="21"/>
@@ -12434,7 +12431,7 @@
       <c r="H986" s="21"/>
       <c r="I986" s="18"/>
     </row>
-    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A987" s="21"/>
       <c r="B987" s="18"/>
       <c r="C987" s="21"/>
@@ -12445,7 +12442,7 @@
       <c r="H987" s="21"/>
       <c r="I987" s="18"/>
     </row>
-    <row r="988" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A988" s="23"/>
       <c r="B988" s="13"/>
       <c r="C988" s="23"/>
@@ -12455,7 +12452,7 @@
       <c r="G988" s="23"/>
       <c r="H988" s="23"/>
     </row>
-    <row r="989" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A989" s="23"/>
       <c r="B989" s="13"/>
       <c r="C989" s="23"/>
@@ -12465,7 +12462,7 @@
       <c r="G989" s="23"/>
       <c r="H989" s="23"/>
     </row>
-    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A990" s="23"/>
       <c r="B990" s="13"/>
       <c r="C990" s="23"/>
@@ -12475,7 +12472,7 @@
       <c r="G990" s="23"/>
       <c r="H990" s="23"/>
     </row>
-    <row r="991" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A991" s="23"/>
       <c r="B991" s="13"/>
       <c r="C991" s="23"/>
@@ -12485,7 +12482,7 @@
       <c r="G991" s="23"/>
       <c r="H991" s="23"/>
     </row>
-    <row r="992" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A992" s="23"/>
       <c r="B992" s="13"/>
       <c r="C992" s="23"/>
@@ -12495,7 +12492,7 @@
       <c r="G992" s="23"/>
       <c r="H992" s="23"/>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A993" s="23"/>
       <c r="B993" s="13"/>
       <c r="C993" s="23"/>
@@ -12505,7 +12502,7 @@
       <c r="G993" s="23"/>
       <c r="H993" s="23"/>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A994" s="23"/>
       <c r="B994" s="13"/>
       <c r="C994" s="23"/>
@@ -12515,7 +12512,7 @@
       <c r="G994" s="23"/>
       <c r="H994" s="23"/>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A995" s="23"/>
       <c r="B995" s="13"/>
       <c r="C995" s="23"/>

--- a/ECE 4981 Task List.xlsx
+++ b/ECE 4981 Task List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ECE_4981_Files\gitclone\ECE4981\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fall2020\ECE4981\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68046F9-363A-4217-A467-129F70C096F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBAAD5B-2940-4228-BA49-B0E040502F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8829020-0EF2-4875-8210-9C2942B344E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B8829020-0EF2-4875-8210-9C2942B344E7}"/>
   </bookViews>
   <sheets>
     <sheet name="TASK LIST" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>START DATE</t>
   </si>
@@ -117,13 +117,7 @@
     <t>Contact faculty advisor</t>
   </si>
   <si>
-    <t>Advisor: Advisor's Name</t>
-  </si>
-  <si>
     <t>Determine project name</t>
-  </si>
-  <si>
-    <t>Members: Abdullah - Matt - Hung</t>
   </si>
   <si>
     <t>HD/MF/AA</t>
@@ -206,6 +200,18 @@
   <si>
     <t xml:space="preserve">09/10/2020 Professor Paul Watta has accepted our invitation to be our faculty advisor. Matt Falconer will set up a vrtual meeting with him for next week in which we can discuss our project concepts and receive written advisor comments.
 </t>
+  </si>
+  <si>
+    <t>Advisor: Paul Watta</t>
+  </si>
+  <si>
+    <t>What is required to have in a concept description</t>
+  </si>
+  <si>
+    <t>Members: Abdullah - Matt - HD</t>
+  </si>
+  <si>
+    <t>09/11/20 HD to make a ppt slides to present what should be included in a concept description before next group meeting.</t>
   </si>
 </sst>
 </file>
@@ -1158,32 +1164,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADCF63-C9C4-4C77-9C8F-0AE89C3F3266}">
   <dimension ref="A1:O995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="19" customWidth="1"/>
     <col min="9" max="9" width="82" style="13" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="5"/>
-    <col min="11" max="11" width="17.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="5"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="17.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
     <col min="14" max="14" width="16" style="5" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="5"/>
+    <col min="15" max="15" width="14.28515625" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
@@ -1194,7 +1200,7 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="34" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I1" s="34"/>
       <c r="J1" s="2"/>
@@ -1211,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -1220,18 +1226,18 @@
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="35" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="2"/>
       <c r="L2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1284,7 +1290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="147" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>1</v>
       </c>
@@ -1304,14 +1310,14 @@
         <v>44082</v>
       </c>
       <c r="G5" s="10">
-        <f ca="1">(NETWORKDAYS.INTL(TODAY(),F5))</f>
-        <v>-3</v>
+        <f ca="1">IF(H5="Done",0,(NETWORKDAYS.INTL(TODAY(),F5)))</f>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1337,7 +1343,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9">
         <v>44082</v>
@@ -1346,14 +1352,14 @@
         <v>44085</v>
       </c>
       <c r="G7" s="10">
-        <f ca="1">(NETWORKDAYS.INTL(TODAY(),F7))</f>
-        <v>2</v>
+        <f ca="1">IF(H7="Done",0,(NETWORKDAYS.INTL(TODAY(),F7)))</f>
+        <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2"/>
       <c r="L7" s="2"/>
@@ -1372,7 +1378,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2"/>
       <c r="L8" s="2"/>
@@ -1391,15 +1397,15 @@
         <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1411,7 +1417,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -1425,12 +1431,12 @@
         <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="12" t="s">
         <v>25</v>
@@ -1439,7 +1445,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1448,7 +1454,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1467,47 +1473,64 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>3</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9">
         <v>44092</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" ref="G14" ca="1" si="0">(NETWORKDAYS.INTL(TODAY(),F14))</f>
-        <v>7</v>
+        <f ca="1">IF(H14="Done",0,(NETWORKDAYS.INTL(TODAY(),F14)))</f>
+        <v>6</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="1"/>
+      <c r="B15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9">
+        <v>44085</v>
+      </c>
+      <c r="F15" s="9">
+        <v>44087</v>
+      </c>
+      <c r="G15" s="10">
+        <f ca="1">IF(H15="Done",0,(NETWORKDAYS.INTL(TODAY(),F15)))</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1573,24 +1596,24 @@
         <v>4</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9">
         <v>44095</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" ref="G20" ca="1" si="1">(NETWORKDAYS.INTL(TODAY(),F20))</f>
-        <v>8</v>
+        <f ca="1">IF(H20="Done",0,(NETWORKDAYS.INTL(TODAY(),F20)))</f>
+        <v>7</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
@@ -1611,7 +1634,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="18"/>
       <c r="C22" s="21"/>
@@ -1625,7 +1648,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="18"/>
       <c r="C23" s="21"/>
@@ -1639,7 +1662,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="18"/>
       <c r="C24" s="21"/>
@@ -1653,36 +1676,36 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>5</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22">
         <v>44099</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" ref="G25" ca="1" si="2">(NETWORKDAYS.INTL(TODAY(),F25))</f>
-        <v>12</v>
+        <f ca="1">IF(H25="Done",0,(NETWORKDAYS.INTL(TODAY(),F25)))</f>
+        <v>11</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="18"/>
       <c r="C26" s="21"/>
@@ -1696,7 +1719,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="18"/>
       <c r="C27" s="21"/>
@@ -1710,7 +1733,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="18"/>
       <c r="C28" s="21"/>
@@ -1724,7 +1747,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="18"/>
       <c r="C29" s="21"/>
@@ -1738,7 +1761,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="18"/>
       <c r="C30" s="21"/>
@@ -1749,7 +1772,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="18"/>
       <c r="C31" s="21"/>
@@ -1760,33 +1783,33 @@
       <c r="H31" s="21"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:12" ht="42" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A32" s="29">
         <v>6</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22">
         <v>44106</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" ref="G32" ca="1" si="3">(NETWORKDAYS.INTL(TODAY(),F32))</f>
-        <v>17</v>
+        <f ca="1">IF(H32="Done",0,(NETWORKDAYS.INTL(TODAY(),F32)))</f>
+        <v>16</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="18"/>
       <c r="C33" s="21"/>
@@ -1797,7 +1820,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="18"/>
       <c r="C34" s="21"/>
@@ -1808,7 +1831,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="18"/>
       <c r="C35" s="21"/>
@@ -1819,7 +1842,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
       <c r="B36" s="18"/>
       <c r="C36" s="21"/>
@@ -1830,7 +1853,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="18"/>
       <c r="C37" s="21"/>
@@ -1841,7 +1864,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="18"/>
       <c r="C38" s="21"/>
@@ -1852,31 +1875,31 @@
       <c r="H38" s="21"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
         <v>7</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="22">
         <v>44113</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" ref="G39" ca="1" si="4">(NETWORKDAYS.INTL(TODAY(),F39))</f>
-        <v>22</v>
+        <f ca="1">IF(H39="Done",0,(NETWORKDAYS.INTL(TODAY(),F39)))</f>
+        <v>21</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="18"/>
       <c r="C40" s="21"/>
@@ -1887,7 +1910,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="18"/>
       <c r="C41" s="21"/>
@@ -1898,7 +1921,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="18"/>
       <c r="C42" s="21"/>
@@ -1909,7 +1932,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="18"/>
       <c r="C43" s="21"/>
@@ -1920,7 +1943,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="18"/>
       <c r="C44" s="21"/>
@@ -1931,7 +1954,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="18"/>
       <c r="C45" s="21"/>
@@ -1942,33 +1965,33 @@
       <c r="H45" s="21"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
         <v>8</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22">
         <v>44120</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" ref="G46" ca="1" si="5">(NETWORKDAYS.INTL(TODAY(),F46))</f>
-        <v>27</v>
+        <f ca="1">IF(H46="Done",0,(NETWORKDAYS.INTL(TODAY(),F46)))</f>
+        <v>26</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="18"/>
       <c r="C47" s="21"/>
@@ -1979,7 +2002,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="18"/>
       <c r="C48" s="21"/>
@@ -1990,7 +2013,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="18"/>
       <c r="C49" s="21"/>
@@ -2001,7 +2024,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="18"/>
       <c r="C50" s="21"/>
@@ -2012,7 +2035,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="18"/>
       <c r="C51" s="21"/>
@@ -2023,33 +2046,33 @@
       <c r="H51" s="21"/>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
         <v>9</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22">
         <v>44123</v>
       </c>
       <c r="G52" s="10">
-        <f t="shared" ref="G52" ca="1" si="6">(NETWORKDAYS.INTL(TODAY(),F52))</f>
-        <v>28</v>
+        <f ca="1">IF(H52="Done",0,(NETWORKDAYS.INTL(TODAY(),F52)))</f>
+        <v>27</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I52" s="18"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="18"/>
       <c r="C53" s="21"/>
@@ -2060,7 +2083,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="18"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="18"/>
       <c r="C54" s="21"/>
@@ -2071,7 +2094,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="18"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="18"/>
       <c r="C55" s="21"/>
@@ -2082,7 +2105,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="18"/>
       <c r="C56" s="21"/>
@@ -2093,7 +2116,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="18"/>
       <c r="C57" s="21"/>
@@ -2104,33 +2127,33 @@
       <c r="H57" s="21"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:9" ht="42" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
         <v>10</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22">
         <v>44127</v>
       </c>
       <c r="G58" s="10">
-        <f t="shared" ref="G58" ca="1" si="7">(NETWORKDAYS.INTL(TODAY(),F58))</f>
-        <v>32</v>
+        <f ca="1">IF(H58="Done",0,(NETWORKDAYS.INTL(TODAY(),F58)))</f>
+        <v>31</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="18"/>
       <c r="C59" s="21"/>
@@ -2141,7 +2164,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="18"/>
       <c r="C60" s="21"/>
@@ -2152,7 +2175,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="18"/>
       <c r="C61" s="21"/>
@@ -2163,7 +2186,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="18"/>
       <c r="C62" s="21"/>
@@ -2174,7 +2197,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="18"/>
       <c r="C63" s="21"/>
@@ -2185,33 +2208,33 @@
       <c r="H63" s="21"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>11</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="22">
         <v>44130</v>
       </c>
       <c r="G64" s="10">
-        <f t="shared" ref="G64" ca="1" si="8">(NETWORKDAYS.INTL(TODAY(),F64))</f>
-        <v>33</v>
+        <f ca="1">IF(H64="Done",0,(NETWORKDAYS.INTL(TODAY(),F64)))</f>
+        <v>32</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I64" s="18"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="18"/>
       <c r="C65" s="21"/>
@@ -2222,7 +2245,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="18"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="18"/>
       <c r="C66" s="21"/>
@@ -2233,7 +2256,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="18"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="18"/>
       <c r="C67" s="21"/>
@@ -2244,7 +2267,7 @@
       <c r="H67" s="21"/>
       <c r="I67" s="18"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="18"/>
       <c r="C68" s="21"/>
@@ -2255,7 +2278,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="18"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
       <c r="B69" s="18"/>
       <c r="C69" s="21"/>
@@ -2266,33 +2289,33 @@
       <c r="H69" s="21"/>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:9" ht="42" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A70" s="29">
         <v>12</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="22">
         <v>44141</v>
       </c>
       <c r="G70" s="10">
-        <f t="shared" ref="G70" ca="1" si="9">(NETWORKDAYS.INTL(TODAY(),F70))</f>
-        <v>42</v>
+        <f ca="1">IF(H70="Done",0,(NETWORKDAYS.INTL(TODAY(),F70)))</f>
+        <v>41</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="18"/>
       <c r="C71" s="21"/>
@@ -2303,7 +2326,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="18"/>
       <c r="C72" s="21"/>
@@ -2314,7 +2337,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="18"/>
       <c r="C73" s="21"/>
@@ -2325,7 +2348,7 @@
       <c r="H73" s="21"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="18"/>
       <c r="C74" s="21"/>
@@ -2336,7 +2359,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="18"/>
       <c r="C75" s="21"/>
@@ -2347,31 +2370,31 @@
       <c r="H75" s="21"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
         <v>13</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22">
         <v>44151</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" ref="G76" ca="1" si="10">(NETWORKDAYS.INTL(TODAY(),F76))</f>
-        <v>48</v>
+        <f ca="1">IF(H76="Done",0,(NETWORKDAYS.INTL(TODAY(),F76)))</f>
+        <v>47</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="18"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
       <c r="B77" s="18"/>
       <c r="C77" s="21"/>
@@ -2382,7 +2405,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="18"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
       <c r="B78" s="18"/>
       <c r="C78" s="21"/>
@@ -2393,7 +2416,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="18"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="18"/>
       <c r="C79" s="21"/>
@@ -2404,7 +2427,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="18"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="18"/>
       <c r="C80" s="21"/>
@@ -2415,7 +2438,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="18"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="18"/>
       <c r="C81" s="21"/>
@@ -2426,18 +2449,18 @@
       <c r="H81" s="21"/>
       <c r="I81" s="18"/>
     </row>
-    <row r="82" spans="1:9" ht="42" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <v>14</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C82" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
@@ -2445,7 +2468,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="18"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="21"/>
       <c r="B83" s="18"/>
       <c r="C83" s="21"/>
@@ -2456,7 +2479,7 @@
       <c r="H83" s="21"/>
       <c r="I83" s="18"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="21"/>
       <c r="B84" s="18"/>
       <c r="C84" s="21"/>
@@ -2467,7 +2490,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="18"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
       <c r="B85" s="18"/>
       <c r="C85" s="21"/>
@@ -2478,7 +2501,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="18"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
       <c r="B86" s="18"/>
       <c r="C86" s="21"/>
@@ -2489,7 +2512,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="18"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
       <c r="B87" s="18"/>
       <c r="C87" s="21"/>
@@ -2500,31 +2523,31 @@
       <c r="H87" s="21"/>
       <c r="I87" s="18"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>15</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E88" s="22"/>
       <c r="F88" s="22">
         <v>44165</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" ref="G88" ca="1" si="11">(NETWORKDAYS.INTL(TODAY(),F88))</f>
-        <v>58</v>
+        <f t="shared" ref="G88" ca="1" si="0">(NETWORKDAYS.INTL(TODAY(),F88))</f>
+        <v>57</v>
       </c>
       <c r="H88" s="21"/>
       <c r="I88" s="18"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
       <c r="B89" s="18"/>
       <c r="C89" s="21"/>
@@ -2535,7 +2558,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="18"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
       <c r="B90" s="18"/>
       <c r="C90" s="21"/>
@@ -2546,7 +2569,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="18"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
       <c r="B91" s="18"/>
       <c r="C91" s="21"/>
@@ -2557,7 +2580,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="18"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="21"/>
       <c r="B92" s="18"/>
       <c r="C92" s="21"/>
@@ -2568,7 +2591,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="18"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="21"/>
       <c r="B93" s="18"/>
       <c r="C93" s="21"/>
@@ -2579,18 +2602,18 @@
       <c r="H93" s="21"/>
       <c r="I93" s="18"/>
     </row>
-    <row r="94" spans="1:9" ht="42" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <v>16</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
@@ -2598,7 +2621,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="18"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="18"/>
       <c r="C95" s="21"/>
@@ -2609,7 +2632,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="18"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
       <c r="B96" s="18"/>
       <c r="C96" s="21"/>
@@ -2620,7 +2643,7 @@
       <c r="H96" s="21"/>
       <c r="I96" s="18"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="21"/>
       <c r="B97" s="18"/>
       <c r="C97" s="21"/>
@@ -2631,7 +2654,7 @@
       <c r="H97" s="21"/>
       <c r="I97" s="18"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" s="18"/>
       <c r="C98" s="21"/>
@@ -2642,7 +2665,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="18"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="21"/>
       <c r="B99" s="18"/>
       <c r="C99" s="21"/>
@@ -2653,31 +2676,31 @@
       <c r="H99" s="21"/>
       <c r="I99" s="18"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>17</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E100" s="22"/>
       <c r="F100" s="22">
         <v>44172</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" ref="G100" ca="1" si="12">(NETWORKDAYS.INTL(TODAY(),F100))</f>
-        <v>63</v>
+        <f t="shared" ref="G100" ca="1" si="1">(NETWORKDAYS.INTL(TODAY(),F100))</f>
+        <v>62</v>
       </c>
       <c r="H100" s="21"/>
       <c r="I100" s="18"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="21"/>
       <c r="B101" s="18"/>
       <c r="C101" s="21"/>
@@ -2688,7 +2711,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="18"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="21"/>
       <c r="B102" s="18"/>
       <c r="C102" s="21"/>
@@ -2699,7 +2722,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="21"/>
       <c r="B103" s="18"/>
       <c r="C103" s="21"/>
@@ -2710,7 +2733,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="21"/>
       <c r="B104" s="18"/>
       <c r="C104" s="21"/>
@@ -2721,7 +2744,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="21"/>
       <c r="B105" s="18"/>
       <c r="C105" s="21"/>
@@ -2732,7 +2755,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="21"/>
       <c r="B106" s="18"/>
       <c r="C106" s="21"/>
@@ -2743,18 +2766,18 @@
       <c r="H106" s="21"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <v>18</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
@@ -2762,7 +2785,7 @@
       <c r="H107" s="21"/>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="21"/>
       <c r="B108" s="18"/>
       <c r="C108" s="21"/>
@@ -2773,7 +2796,7 @@
       <c r="H108" s="21"/>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="21"/>
       <c r="B109" s="18"/>
       <c r="C109" s="21"/>
@@ -2784,7 +2807,7 @@
       <c r="H109" s="21"/>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="21"/>
       <c r="B110" s="18"/>
       <c r="C110" s="21"/>
@@ -2795,7 +2818,7 @@
       <c r="H110" s="21"/>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="21"/>
       <c r="B111" s="18"/>
       <c r="C111" s="21"/>
@@ -2806,7 +2829,7 @@
       <c r="H111" s="21"/>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="21"/>
       <c r="B112" s="18"/>
       <c r="C112" s="21"/>
@@ -2817,7 +2840,7 @@
       <c r="H112" s="21"/>
       <c r="I112" s="18"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="21"/>
       <c r="B113" s="18"/>
       <c r="C113" s="21"/>
@@ -2828,7 +2851,7 @@
       <c r="H113" s="21"/>
       <c r="I113" s="18"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="21"/>
       <c r="B114" s="18"/>
       <c r="C114" s="21"/>
@@ -2839,7 +2862,7 @@
       <c r="H114" s="21"/>
       <c r="I114" s="18"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="21"/>
       <c r="B115" s="18"/>
       <c r="C115" s="21"/>
@@ -2850,7 +2873,7 @@
       <c r="H115" s="21"/>
       <c r="I115" s="18"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
       <c r="B116" s="18"/>
       <c r="C116" s="21"/>
@@ -2861,7 +2884,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="21"/>
       <c r="B117" s="18"/>
       <c r="C117" s="21"/>
@@ -2872,7 +2895,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="21"/>
       <c r="B118" s="18"/>
       <c r="C118" s="21"/>
@@ -2883,7 +2906,7 @@
       <c r="H118" s="21"/>
       <c r="I118" s="18"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="21"/>
       <c r="B119" s="18"/>
       <c r="C119" s="21"/>
@@ -2894,7 +2917,7 @@
       <c r="H119" s="21"/>
       <c r="I119" s="18"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="21"/>
       <c r="B120" s="18"/>
       <c r="C120" s="21"/>
@@ -2905,7 +2928,7 @@
       <c r="H120" s="21"/>
       <c r="I120" s="18"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="21"/>
       <c r="B121" s="18"/>
       <c r="C121" s="21"/>
@@ -2916,7 +2939,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="18"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="21"/>
       <c r="B122" s="18"/>
       <c r="C122" s="21"/>
@@ -2927,7 +2950,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="18"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="21"/>
       <c r="B123" s="18"/>
       <c r="C123" s="21"/>
@@ -2938,7 +2961,7 @@
       <c r="H123" s="21"/>
       <c r="I123" s="18"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="21"/>
       <c r="B124" s="18"/>
       <c r="C124" s="21"/>
@@ -2949,7 +2972,7 @@
       <c r="H124" s="21"/>
       <c r="I124" s="18"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="21"/>
       <c r="B125" s="18"/>
       <c r="C125" s="21"/>
@@ -2960,7 +2983,7 @@
       <c r="H125" s="21"/>
       <c r="I125" s="18"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="21"/>
       <c r="B126" s="18"/>
       <c r="C126" s="21"/>
@@ -2971,7 +2994,7 @@
       <c r="H126" s="21"/>
       <c r="I126" s="18"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
       <c r="B127" s="18"/>
       <c r="C127" s="21"/>
@@ -2982,7 +3005,7 @@
       <c r="H127" s="21"/>
       <c r="I127" s="18"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="21"/>
       <c r="B128" s="18"/>
       <c r="C128" s="21"/>
@@ -2993,7 +3016,7 @@
       <c r="H128" s="21"/>
       <c r="I128" s="18"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="21"/>
       <c r="B129" s="18"/>
       <c r="C129" s="21"/>
@@ -3004,7 +3027,7 @@
       <c r="H129" s="21"/>
       <c r="I129" s="18"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="21"/>
       <c r="B130" s="18"/>
       <c r="C130" s="21"/>
@@ -3015,7 +3038,7 @@
       <c r="H130" s="21"/>
       <c r="I130" s="18"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="21"/>
       <c r="B131" s="18"/>
       <c r="C131" s="21"/>
@@ -3026,7 +3049,7 @@
       <c r="H131" s="21"/>
       <c r="I131" s="18"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="21"/>
       <c r="B132" s="18"/>
       <c r="C132" s="21"/>
@@ -3037,7 +3060,7 @@
       <c r="H132" s="21"/>
       <c r="I132" s="18"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="21"/>
       <c r="B133" s="18"/>
       <c r="C133" s="21"/>
@@ -3048,7 +3071,7 @@
       <c r="H133" s="21"/>
       <c r="I133" s="18"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="21"/>
       <c r="B134" s="18"/>
       <c r="C134" s="21"/>
@@ -3059,7 +3082,7 @@
       <c r="H134" s="21"/>
       <c r="I134" s="18"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="21"/>
       <c r="B135" s="18"/>
       <c r="C135" s="21"/>
@@ -3070,7 +3093,7 @@
       <c r="H135" s="21"/>
       <c r="I135" s="18"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="21"/>
       <c r="B136" s="18"/>
       <c r="C136" s="21"/>
@@ -3081,7 +3104,7 @@
       <c r="H136" s="21"/>
       <c r="I136" s="18"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="21"/>
       <c r="B137" s="18"/>
       <c r="C137" s="21"/>
@@ -3092,7 +3115,7 @@
       <c r="H137" s="21"/>
       <c r="I137" s="18"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="21"/>
       <c r="B138" s="18"/>
       <c r="C138" s="21"/>
@@ -3103,7 +3126,7 @@
       <c r="H138" s="21"/>
       <c r="I138" s="18"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="21"/>
       <c r="B139" s="18"/>
       <c r="C139" s="21"/>
@@ -3114,7 +3137,7 @@
       <c r="H139" s="21"/>
       <c r="I139" s="18"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="21"/>
       <c r="B140" s="18"/>
       <c r="C140" s="21"/>
@@ -3125,7 +3148,7 @@
       <c r="H140" s="21"/>
       <c r="I140" s="18"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="21"/>
       <c r="B141" s="18"/>
       <c r="C141" s="21"/>
@@ -3136,7 +3159,7 @@
       <c r="H141" s="21"/>
       <c r="I141" s="18"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="21"/>
       <c r="B142" s="18"/>
       <c r="C142" s="21"/>
@@ -3147,7 +3170,7 @@
       <c r="H142" s="21"/>
       <c r="I142" s="18"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="21"/>
       <c r="B143" s="18"/>
       <c r="C143" s="21"/>
@@ -3158,7 +3181,7 @@
       <c r="H143" s="21"/>
       <c r="I143" s="18"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="21"/>
       <c r="B144" s="18"/>
       <c r="C144" s="21"/>
@@ -3169,7 +3192,7 @@
       <c r="H144" s="21"/>
       <c r="I144" s="18"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="21"/>
       <c r="B145" s="18"/>
       <c r="C145" s="21"/>
@@ -3180,7 +3203,7 @@
       <c r="H145" s="21"/>
       <c r="I145" s="18"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="21"/>
       <c r="B146" s="18"/>
       <c r="C146" s="21"/>
@@ -3191,7 +3214,7 @@
       <c r="H146" s="21"/>
       <c r="I146" s="18"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="21"/>
       <c r="B147" s="18"/>
       <c r="C147" s="21"/>
@@ -3202,7 +3225,7 @@
       <c r="H147" s="21"/>
       <c r="I147" s="18"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="21"/>
       <c r="B148" s="18"/>
       <c r="C148" s="21"/>
@@ -3213,7 +3236,7 @@
       <c r="H148" s="21"/>
       <c r="I148" s="18"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="21"/>
       <c r="B149" s="18"/>
       <c r="C149" s="21"/>
@@ -3224,7 +3247,7 @@
       <c r="H149" s="21"/>
       <c r="I149" s="18"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="21"/>
       <c r="B150" s="18"/>
       <c r="C150" s="21"/>
@@ -3235,7 +3258,7 @@
       <c r="H150" s="21"/>
       <c r="I150" s="18"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="21"/>
       <c r="B151" s="18"/>
       <c r="C151" s="21"/>
@@ -3246,7 +3269,7 @@
       <c r="H151" s="21"/>
       <c r="I151" s="18"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="21"/>
       <c r="B152" s="18"/>
       <c r="C152" s="21"/>
@@ -3257,7 +3280,7 @@
       <c r="H152" s="21"/>
       <c r="I152" s="18"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="21"/>
       <c r="B153" s="18"/>
       <c r="C153" s="21"/>
@@ -3268,7 +3291,7 @@
       <c r="H153" s="21"/>
       <c r="I153" s="18"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="21"/>
       <c r="B154" s="18"/>
       <c r="C154" s="21"/>
@@ -3279,7 +3302,7 @@
       <c r="H154" s="21"/>
       <c r="I154" s="18"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="21"/>
       <c r="B155" s="18"/>
       <c r="C155" s="21"/>
@@ -3290,7 +3313,7 @@
       <c r="H155" s="21"/>
       <c r="I155" s="18"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="21"/>
       <c r="B156" s="18"/>
       <c r="C156" s="21"/>
@@ -3301,7 +3324,7 @@
       <c r="H156" s="21"/>
       <c r="I156" s="18"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="21"/>
       <c r="B157" s="18"/>
       <c r="C157" s="21"/>
@@ -3312,7 +3335,7 @@
       <c r="H157" s="21"/>
       <c r="I157" s="18"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
       <c r="B158" s="18"/>
       <c r="C158" s="21"/>
@@ -3323,7 +3346,7 @@
       <c r="H158" s="21"/>
       <c r="I158" s="18"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="21"/>
       <c r="B159" s="18"/>
       <c r="C159" s="21"/>
@@ -3334,7 +3357,7 @@
       <c r="H159" s="21"/>
       <c r="I159" s="18"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="21"/>
       <c r="B160" s="18"/>
       <c r="C160" s="21"/>
@@ -3345,7 +3368,7 @@
       <c r="H160" s="21"/>
       <c r="I160" s="18"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="21"/>
       <c r="B161" s="18"/>
       <c r="C161" s="21"/>
@@ -3356,7 +3379,7 @@
       <c r="H161" s="21"/>
       <c r="I161" s="18"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="21"/>
       <c r="B162" s="18"/>
       <c r="C162" s="21"/>
@@ -3367,7 +3390,7 @@
       <c r="H162" s="21"/>
       <c r="I162" s="18"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="21"/>
       <c r="B163" s="18"/>
       <c r="C163" s="21"/>
@@ -3378,7 +3401,7 @@
       <c r="H163" s="21"/>
       <c r="I163" s="18"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="21"/>
       <c r="B164" s="18"/>
       <c r="C164" s="21"/>
@@ -3389,7 +3412,7 @@
       <c r="H164" s="21"/>
       <c r="I164" s="18"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="21"/>
       <c r="B165" s="18"/>
       <c r="C165" s="21"/>
@@ -3400,7 +3423,7 @@
       <c r="H165" s="21"/>
       <c r="I165" s="18"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="21"/>
       <c r="B166" s="18"/>
       <c r="C166" s="21"/>
@@ -3411,7 +3434,7 @@
       <c r="H166" s="21"/>
       <c r="I166" s="18"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="21"/>
       <c r="B167" s="18"/>
       <c r="C167" s="21"/>
@@ -3422,7 +3445,7 @@
       <c r="H167" s="21"/>
       <c r="I167" s="18"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="21"/>
       <c r="B168" s="18"/>
       <c r="C168" s="21"/>
@@ -3433,7 +3456,7 @@
       <c r="H168" s="21"/>
       <c r="I168" s="18"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="21"/>
       <c r="B169" s="18"/>
       <c r="C169" s="21"/>
@@ -3444,7 +3467,7 @@
       <c r="H169" s="21"/>
       <c r="I169" s="18"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="21"/>
       <c r="B170" s="18"/>
       <c r="C170" s="21"/>
@@ -3455,7 +3478,7 @@
       <c r="H170" s="21"/>
       <c r="I170" s="18"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="21"/>
       <c r="B171" s="18"/>
       <c r="C171" s="21"/>
@@ -3466,7 +3489,7 @@
       <c r="H171" s="21"/>
       <c r="I171" s="18"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="21"/>
       <c r="B172" s="18"/>
       <c r="C172" s="21"/>
@@ -3477,7 +3500,7 @@
       <c r="H172" s="21"/>
       <c r="I172" s="18"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="21"/>
       <c r="B173" s="18"/>
       <c r="C173" s="21"/>
@@ -3488,7 +3511,7 @@
       <c r="H173" s="21"/>
       <c r="I173" s="18"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="21"/>
       <c r="B174" s="18"/>
       <c r="C174" s="21"/>
@@ -3499,7 +3522,7 @@
       <c r="H174" s="21"/>
       <c r="I174" s="18"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="21"/>
       <c r="B175" s="18"/>
       <c r="C175" s="21"/>
@@ -3510,7 +3533,7 @@
       <c r="H175" s="21"/>
       <c r="I175" s="18"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="21"/>
       <c r="B176" s="18"/>
       <c r="C176" s="21"/>
@@ -3521,7 +3544,7 @@
       <c r="H176" s="21"/>
       <c r="I176" s="18"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="21"/>
       <c r="B177" s="18"/>
       <c r="C177" s="21"/>
@@ -3532,7 +3555,7 @@
       <c r="H177" s="21"/>
       <c r="I177" s="18"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="21"/>
       <c r="B178" s="18"/>
       <c r="C178" s="21"/>
@@ -3543,7 +3566,7 @@
       <c r="H178" s="21"/>
       <c r="I178" s="18"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="21"/>
       <c r="B179" s="18"/>
       <c r="C179" s="21"/>
@@ -3554,7 +3577,7 @@
       <c r="H179" s="21"/>
       <c r="I179" s="18"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="21"/>
       <c r="B180" s="18"/>
       <c r="C180" s="21"/>
@@ -3565,7 +3588,7 @@
       <c r="H180" s="21"/>
       <c r="I180" s="18"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="21"/>
       <c r="B181" s="18"/>
       <c r="C181" s="21"/>
@@ -3576,7 +3599,7 @@
       <c r="H181" s="21"/>
       <c r="I181" s="18"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="21"/>
       <c r="B182" s="18"/>
       <c r="C182" s="21"/>
@@ -3587,7 +3610,7 @@
       <c r="H182" s="21"/>
       <c r="I182" s="18"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="21"/>
       <c r="B183" s="18"/>
       <c r="C183" s="21"/>
@@ -3598,7 +3621,7 @@
       <c r="H183" s="21"/>
       <c r="I183" s="18"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="21"/>
       <c r="B184" s="18"/>
       <c r="C184" s="21"/>
@@ -3609,7 +3632,7 @@
       <c r="H184" s="21"/>
       <c r="I184" s="18"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="21"/>
       <c r="B185" s="18"/>
       <c r="C185" s="21"/>
@@ -3620,7 +3643,7 @@
       <c r="H185" s="21"/>
       <c r="I185" s="18"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="21"/>
       <c r="B186" s="18"/>
       <c r="C186" s="21"/>
@@ -3631,7 +3654,7 @@
       <c r="H186" s="21"/>
       <c r="I186" s="18"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="21"/>
       <c r="B187" s="18"/>
       <c r="C187" s="21"/>
@@ -3642,7 +3665,7 @@
       <c r="H187" s="21"/>
       <c r="I187" s="18"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="21"/>
       <c r="B188" s="18"/>
       <c r="C188" s="21"/>
@@ -3653,7 +3676,7 @@
       <c r="H188" s="21"/>
       <c r="I188" s="18"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="21"/>
       <c r="B189" s="18"/>
       <c r="C189" s="21"/>
@@ -3664,7 +3687,7 @@
       <c r="H189" s="21"/>
       <c r="I189" s="18"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="21"/>
       <c r="B190" s="18"/>
       <c r="C190" s="21"/>
@@ -3675,7 +3698,7 @@
       <c r="H190" s="21"/>
       <c r="I190" s="18"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="21"/>
       <c r="B191" s="18"/>
       <c r="C191" s="21"/>
@@ -3686,7 +3709,7 @@
       <c r="H191" s="21"/>
       <c r="I191" s="18"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="21"/>
       <c r="B192" s="18"/>
       <c r="C192" s="21"/>
@@ -3697,7 +3720,7 @@
       <c r="H192" s="21"/>
       <c r="I192" s="18"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="21"/>
       <c r="B193" s="18"/>
       <c r="C193" s="21"/>
@@ -3708,7 +3731,7 @@
       <c r="H193" s="21"/>
       <c r="I193" s="18"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="21"/>
       <c r="B194" s="18"/>
       <c r="C194" s="21"/>
@@ -3719,7 +3742,7 @@
       <c r="H194" s="21"/>
       <c r="I194" s="18"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="21"/>
       <c r="B195" s="18"/>
       <c r="C195" s="21"/>
@@ -3730,7 +3753,7 @@
       <c r="H195" s="21"/>
       <c r="I195" s="18"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="21"/>
       <c r="B196" s="18"/>
       <c r="C196" s="21"/>
@@ -3741,7 +3764,7 @@
       <c r="H196" s="21"/>
       <c r="I196" s="18"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="21"/>
       <c r="B197" s="18"/>
       <c r="C197" s="21"/>
@@ -3752,7 +3775,7 @@
       <c r="H197" s="21"/>
       <c r="I197" s="18"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="21"/>
       <c r="B198" s="18"/>
       <c r="C198" s="21"/>
@@ -3763,7 +3786,7 @@
       <c r="H198" s="21"/>
       <c r="I198" s="18"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="21"/>
       <c r="B199" s="18"/>
       <c r="C199" s="21"/>
@@ -3774,7 +3797,7 @@
       <c r="H199" s="21"/>
       <c r="I199" s="18"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="21"/>
       <c r="B200" s="18"/>
       <c r="C200" s="21"/>
@@ -3785,7 +3808,7 @@
       <c r="H200" s="21"/>
       <c r="I200" s="18"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="21"/>
       <c r="B201" s="18"/>
       <c r="C201" s="21"/>
@@ -3796,7 +3819,7 @@
       <c r="H201" s="21"/>
       <c r="I201" s="18"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="21"/>
       <c r="B202" s="18"/>
       <c r="C202" s="21"/>
@@ -3807,7 +3830,7 @@
       <c r="H202" s="21"/>
       <c r="I202" s="18"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="21"/>
       <c r="B203" s="18"/>
       <c r="C203" s="21"/>
@@ -3818,7 +3841,7 @@
       <c r="H203" s="21"/>
       <c r="I203" s="18"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="21"/>
       <c r="B204" s="18"/>
       <c r="C204" s="21"/>
@@ -3829,7 +3852,7 @@
       <c r="H204" s="21"/>
       <c r="I204" s="18"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="21"/>
       <c r="B205" s="18"/>
       <c r="C205" s="21"/>
@@ -3840,7 +3863,7 @@
       <c r="H205" s="21"/>
       <c r="I205" s="18"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="21"/>
       <c r="B206" s="18"/>
       <c r="C206" s="21"/>
@@ -3851,7 +3874,7 @@
       <c r="H206" s="21"/>
       <c r="I206" s="18"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="21"/>
       <c r="B207" s="18"/>
       <c r="C207" s="21"/>
@@ -3862,7 +3885,7 @@
       <c r="H207" s="21"/>
       <c r="I207" s="18"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="21"/>
       <c r="B208" s="18"/>
       <c r="C208" s="21"/>
@@ -3873,7 +3896,7 @@
       <c r="H208" s="21"/>
       <c r="I208" s="18"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="21"/>
       <c r="B209" s="18"/>
       <c r="C209" s="21"/>
@@ -3884,7 +3907,7 @@
       <c r="H209" s="21"/>
       <c r="I209" s="18"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="21"/>
       <c r="B210" s="18"/>
       <c r="C210" s="21"/>
@@ -3895,7 +3918,7 @@
       <c r="H210" s="21"/>
       <c r="I210" s="18"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="21"/>
       <c r="B211" s="18"/>
       <c r="C211" s="21"/>
@@ -3906,7 +3929,7 @@
       <c r="H211" s="21"/>
       <c r="I211" s="18"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="21"/>
       <c r="B212" s="18"/>
       <c r="C212" s="21"/>
@@ -3917,7 +3940,7 @@
       <c r="H212" s="21"/>
       <c r="I212" s="18"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="21"/>
       <c r="B213" s="18"/>
       <c r="C213" s="21"/>
@@ -3928,7 +3951,7 @@
       <c r="H213" s="21"/>
       <c r="I213" s="18"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="21"/>
       <c r="B214" s="18"/>
       <c r="C214" s="21"/>
@@ -3939,7 +3962,7 @@
       <c r="H214" s="21"/>
       <c r="I214" s="18"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="21"/>
       <c r="B215" s="18"/>
       <c r="C215" s="21"/>
@@ -3950,7 +3973,7 @@
       <c r="H215" s="21"/>
       <c r="I215" s="18"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="21"/>
       <c r="B216" s="18"/>
       <c r="C216" s="21"/>
@@ -3961,7 +3984,7 @@
       <c r="H216" s="21"/>
       <c r="I216" s="18"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="21"/>
       <c r="B217" s="18"/>
       <c r="C217" s="21"/>
@@ -3972,7 +3995,7 @@
       <c r="H217" s="21"/>
       <c r="I217" s="18"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="21"/>
       <c r="B218" s="18"/>
       <c r="C218" s="21"/>
@@ -3983,7 +4006,7 @@
       <c r="H218" s="21"/>
       <c r="I218" s="18"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="21"/>
       <c r="B219" s="18"/>
       <c r="C219" s="21"/>
@@ -3994,7 +4017,7 @@
       <c r="H219" s="21"/>
       <c r="I219" s="18"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="21"/>
       <c r="B220" s="18"/>
       <c r="C220" s="21"/>
@@ -4005,7 +4028,7 @@
       <c r="H220" s="21"/>
       <c r="I220" s="18"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="21"/>
       <c r="B221" s="18"/>
       <c r="C221" s="21"/>
@@ -4016,7 +4039,7 @@
       <c r="H221" s="21"/>
       <c r="I221" s="18"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="21"/>
       <c r="B222" s="18"/>
       <c r="C222" s="21"/>
@@ -4027,7 +4050,7 @@
       <c r="H222" s="21"/>
       <c r="I222" s="18"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="21"/>
       <c r="B223" s="18"/>
       <c r="C223" s="21"/>
@@ -4038,7 +4061,7 @@
       <c r="H223" s="21"/>
       <c r="I223" s="18"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="21"/>
       <c r="B224" s="18"/>
       <c r="C224" s="21"/>
@@ -4049,7 +4072,7 @@
       <c r="H224" s="21"/>
       <c r="I224" s="18"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="21"/>
       <c r="B225" s="18"/>
       <c r="C225" s="21"/>
@@ -4060,7 +4083,7 @@
       <c r="H225" s="21"/>
       <c r="I225" s="18"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="21"/>
       <c r="B226" s="18"/>
       <c r="C226" s="21"/>
@@ -4071,7 +4094,7 @@
       <c r="H226" s="21"/>
       <c r="I226" s="18"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="21"/>
       <c r="B227" s="18"/>
       <c r="C227" s="21"/>
@@ -4082,7 +4105,7 @@
       <c r="H227" s="21"/>
       <c r="I227" s="18"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="21"/>
       <c r="B228" s="18"/>
       <c r="C228" s="21"/>
@@ -4093,7 +4116,7 @@
       <c r="H228" s="21"/>
       <c r="I228" s="18"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="21"/>
       <c r="B229" s="18"/>
       <c r="C229" s="21"/>
@@ -4104,7 +4127,7 @@
       <c r="H229" s="21"/>
       <c r="I229" s="18"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="21"/>
       <c r="B230" s="18"/>
       <c r="C230" s="21"/>
@@ -4115,7 +4138,7 @@
       <c r="H230" s="21"/>
       <c r="I230" s="18"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="21"/>
       <c r="B231" s="18"/>
       <c r="C231" s="21"/>
@@ -4126,7 +4149,7 @@
       <c r="H231" s="21"/>
       <c r="I231" s="18"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="21"/>
       <c r="B232" s="18"/>
       <c r="C232" s="21"/>
@@ -4137,7 +4160,7 @@
       <c r="H232" s="21"/>
       <c r="I232" s="18"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="21"/>
       <c r="B233" s="18"/>
       <c r="C233" s="21"/>
@@ -4148,7 +4171,7 @@
       <c r="H233" s="21"/>
       <c r="I233" s="18"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="21"/>
       <c r="B234" s="18"/>
       <c r="C234" s="21"/>
@@ -4159,7 +4182,7 @@
       <c r="H234" s="21"/>
       <c r="I234" s="18"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="21"/>
       <c r="B235" s="18"/>
       <c r="C235" s="21"/>
@@ -4170,7 +4193,7 @@
       <c r="H235" s="21"/>
       <c r="I235" s="18"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="21"/>
       <c r="B236" s="18"/>
       <c r="C236" s="21"/>
@@ -4181,7 +4204,7 @@
       <c r="H236" s="21"/>
       <c r="I236" s="18"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="21"/>
       <c r="B237" s="18"/>
       <c r="C237" s="21"/>
@@ -4192,7 +4215,7 @@
       <c r="H237" s="21"/>
       <c r="I237" s="18"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="21"/>
       <c r="B238" s="18"/>
       <c r="C238" s="21"/>
@@ -4203,7 +4226,7 @@
       <c r="H238" s="21"/>
       <c r="I238" s="18"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="21"/>
       <c r="B239" s="18"/>
       <c r="C239" s="21"/>
@@ -4214,7 +4237,7 @@
       <c r="H239" s="21"/>
       <c r="I239" s="18"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="21"/>
       <c r="B240" s="18"/>
       <c r="C240" s="21"/>
@@ -4225,7 +4248,7 @@
       <c r="H240" s="21"/>
       <c r="I240" s="18"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="21"/>
       <c r="B241" s="18"/>
       <c r="C241" s="21"/>
@@ -4236,7 +4259,7 @@
       <c r="H241" s="21"/>
       <c r="I241" s="18"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="21"/>
       <c r="B242" s="18"/>
       <c r="C242" s="21"/>
@@ -4247,7 +4270,7 @@
       <c r="H242" s="21"/>
       <c r="I242" s="18"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="21"/>
       <c r="B243" s="18"/>
       <c r="C243" s="21"/>
@@ -4258,7 +4281,7 @@
       <c r="H243" s="21"/>
       <c r="I243" s="18"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="21"/>
       <c r="B244" s="18"/>
       <c r="C244" s="21"/>
@@ -4269,7 +4292,7 @@
       <c r="H244" s="21"/>
       <c r="I244" s="18"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="21"/>
       <c r="B245" s="18"/>
       <c r="C245" s="21"/>
@@ -4280,7 +4303,7 @@
       <c r="H245" s="21"/>
       <c r="I245" s="18"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="21"/>
       <c r="B246" s="18"/>
       <c r="C246" s="21"/>
@@ -4291,7 +4314,7 @@
       <c r="H246" s="21"/>
       <c r="I246" s="18"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="21"/>
       <c r="B247" s="18"/>
       <c r="C247" s="21"/>
@@ -4302,7 +4325,7 @@
       <c r="H247" s="21"/>
       <c r="I247" s="18"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="21"/>
       <c r="B248" s="18"/>
       <c r="C248" s="21"/>
@@ -4313,7 +4336,7 @@
       <c r="H248" s="21"/>
       <c r="I248" s="18"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="21"/>
       <c r="B249" s="18"/>
       <c r="C249" s="21"/>
@@ -4324,7 +4347,7 @@
       <c r="H249" s="21"/>
       <c r="I249" s="18"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="21"/>
       <c r="B250" s="18"/>
       <c r="C250" s="21"/>
@@ -4335,7 +4358,7 @@
       <c r="H250" s="21"/>
       <c r="I250" s="18"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="21"/>
       <c r="B251" s="18"/>
       <c r="C251" s="21"/>
@@ -4346,7 +4369,7 @@
       <c r="H251" s="21"/>
       <c r="I251" s="18"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="21"/>
       <c r="B252" s="18"/>
       <c r="C252" s="21"/>
@@ -4357,7 +4380,7 @@
       <c r="H252" s="21"/>
       <c r="I252" s="18"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="21"/>
       <c r="B253" s="18"/>
       <c r="C253" s="21"/>
@@ -4368,7 +4391,7 @@
       <c r="H253" s="21"/>
       <c r="I253" s="18"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="21"/>
       <c r="B254" s="18"/>
       <c r="C254" s="21"/>
@@ -4379,7 +4402,7 @@
       <c r="H254" s="21"/>
       <c r="I254" s="18"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="21"/>
       <c r="B255" s="18"/>
       <c r="C255" s="21"/>
@@ -4390,7 +4413,7 @@
       <c r="H255" s="21"/>
       <c r="I255" s="18"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="21"/>
       <c r="B256" s="18"/>
       <c r="C256" s="21"/>
@@ -4401,7 +4424,7 @@
       <c r="H256" s="21"/>
       <c r="I256" s="18"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="21"/>
       <c r="B257" s="18"/>
       <c r="C257" s="21"/>
@@ -4412,7 +4435,7 @@
       <c r="H257" s="21"/>
       <c r="I257" s="18"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="21"/>
       <c r="B258" s="18"/>
       <c r="C258" s="21"/>
@@ -4423,7 +4446,7 @@
       <c r="H258" s="21"/>
       <c r="I258" s="18"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="21"/>
       <c r="B259" s="18"/>
       <c r="C259" s="21"/>
@@ -4434,7 +4457,7 @@
       <c r="H259" s="21"/>
       <c r="I259" s="18"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="21"/>
       <c r="B260" s="18"/>
       <c r="C260" s="21"/>
@@ -4445,7 +4468,7 @@
       <c r="H260" s="21"/>
       <c r="I260" s="18"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="21"/>
       <c r="B261" s="18"/>
       <c r="C261" s="21"/>
@@ -4456,7 +4479,7 @@
       <c r="H261" s="21"/>
       <c r="I261" s="18"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="21"/>
       <c r="B262" s="18"/>
       <c r="C262" s="21"/>
@@ -4467,7 +4490,7 @@
       <c r="H262" s="21"/>
       <c r="I262" s="18"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="21"/>
       <c r="B263" s="18"/>
       <c r="C263" s="21"/>
@@ -4478,7 +4501,7 @@
       <c r="H263" s="21"/>
       <c r="I263" s="18"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="21"/>
       <c r="B264" s="18"/>
       <c r="C264" s="21"/>
@@ -4489,7 +4512,7 @@
       <c r="H264" s="21"/>
       <c r="I264" s="18"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="21"/>
       <c r="B265" s="18"/>
       <c r="C265" s="21"/>
@@ -4500,7 +4523,7 @@
       <c r="H265" s="21"/>
       <c r="I265" s="18"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="21"/>
       <c r="B266" s="18"/>
       <c r="C266" s="21"/>
@@ -4511,7 +4534,7 @@
       <c r="H266" s="21"/>
       <c r="I266" s="18"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="21"/>
       <c r="B267" s="18"/>
       <c r="C267" s="21"/>
@@ -4522,7 +4545,7 @@
       <c r="H267" s="21"/>
       <c r="I267" s="18"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="21"/>
       <c r="B268" s="18"/>
       <c r="C268" s="21"/>
@@ -4533,7 +4556,7 @@
       <c r="H268" s="21"/>
       <c r="I268" s="18"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="21"/>
       <c r="B269" s="18"/>
       <c r="C269" s="21"/>
@@ -4544,7 +4567,7 @@
       <c r="H269" s="21"/>
       <c r="I269" s="18"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="21"/>
       <c r="B270" s="18"/>
       <c r="C270" s="21"/>
@@ -4555,7 +4578,7 @@
       <c r="H270" s="21"/>
       <c r="I270" s="18"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="21"/>
       <c r="B271" s="18"/>
       <c r="C271" s="21"/>
@@ -4566,7 +4589,7 @@
       <c r="H271" s="21"/>
       <c r="I271" s="18"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="21"/>
       <c r="B272" s="18"/>
       <c r="C272" s="21"/>
@@ -4577,7 +4600,7 @@
       <c r="H272" s="21"/>
       <c r="I272" s="18"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="21"/>
       <c r="B273" s="18"/>
       <c r="C273" s="21"/>
@@ -4588,7 +4611,7 @@
       <c r="H273" s="21"/>
       <c r="I273" s="18"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="21"/>
       <c r="B274" s="18"/>
       <c r="C274" s="21"/>
@@ -4599,7 +4622,7 @@
       <c r="H274" s="21"/>
       <c r="I274" s="18"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="21"/>
       <c r="B275" s="18"/>
       <c r="C275" s="21"/>
@@ -4610,7 +4633,7 @@
       <c r="H275" s="21"/>
       <c r="I275" s="18"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="21"/>
       <c r="B276" s="18"/>
       <c r="C276" s="21"/>
@@ -4621,7 +4644,7 @@
       <c r="H276" s="21"/>
       <c r="I276" s="18"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="21"/>
       <c r="B277" s="18"/>
       <c r="C277" s="21"/>
@@ -4632,7 +4655,7 @@
       <c r="H277" s="21"/>
       <c r="I277" s="18"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="21"/>
       <c r="B278" s="18"/>
       <c r="C278" s="21"/>
@@ -4643,7 +4666,7 @@
       <c r="H278" s="21"/>
       <c r="I278" s="18"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="21"/>
       <c r="B279" s="18"/>
       <c r="C279" s="21"/>
@@ -4654,7 +4677,7 @@
       <c r="H279" s="21"/>
       <c r="I279" s="18"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="21"/>
       <c r="B280" s="18"/>
       <c r="C280" s="21"/>
@@ -4665,7 +4688,7 @@
       <c r="H280" s="21"/>
       <c r="I280" s="18"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="21"/>
       <c r="B281" s="18"/>
       <c r="C281" s="21"/>
@@ -4676,7 +4699,7 @@
       <c r="H281" s="21"/>
       <c r="I281" s="18"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="21"/>
       <c r="B282" s="18"/>
       <c r="C282" s="21"/>
@@ -4687,7 +4710,7 @@
       <c r="H282" s="21"/>
       <c r="I282" s="18"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="21"/>
       <c r="B283" s="18"/>
       <c r="C283" s="21"/>
@@ -4698,7 +4721,7 @@
       <c r="H283" s="21"/>
       <c r="I283" s="18"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="21"/>
       <c r="B284" s="18"/>
       <c r="C284" s="21"/>
@@ -4709,7 +4732,7 @@
       <c r="H284" s="21"/>
       <c r="I284" s="18"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="21"/>
       <c r="B285" s="18"/>
       <c r="C285" s="21"/>
@@ -4720,7 +4743,7 @@
       <c r="H285" s="21"/>
       <c r="I285" s="18"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="21"/>
       <c r="B286" s="18"/>
       <c r="C286" s="21"/>
@@ -4731,7 +4754,7 @@
       <c r="H286" s="21"/>
       <c r="I286" s="18"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="21"/>
       <c r="B287" s="18"/>
       <c r="C287" s="21"/>
@@ -4742,7 +4765,7 @@
       <c r="H287" s="21"/>
       <c r="I287" s="18"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="21"/>
       <c r="B288" s="18"/>
       <c r="C288" s="21"/>
@@ -4753,7 +4776,7 @@
       <c r="H288" s="21"/>
       <c r="I288" s="18"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="21"/>
       <c r="B289" s="18"/>
       <c r="C289" s="21"/>
@@ -4764,7 +4787,7 @@
       <c r="H289" s="21"/>
       <c r="I289" s="18"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="21"/>
       <c r="B290" s="18"/>
       <c r="C290" s="21"/>
@@ -4775,7 +4798,7 @@
       <c r="H290" s="21"/>
       <c r="I290" s="18"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="21"/>
       <c r="B291" s="18"/>
       <c r="C291" s="21"/>
@@ -4786,7 +4809,7 @@
       <c r="H291" s="21"/>
       <c r="I291" s="18"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="21"/>
       <c r="B292" s="18"/>
       <c r="C292" s="21"/>
@@ -4797,7 +4820,7 @@
       <c r="H292" s="21"/>
       <c r="I292" s="18"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="21"/>
       <c r="B293" s="18"/>
       <c r="C293" s="21"/>
@@ -4808,7 +4831,7 @@
       <c r="H293" s="21"/>
       <c r="I293" s="18"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="21"/>
       <c r="B294" s="18"/>
       <c r="C294" s="21"/>
@@ -4819,7 +4842,7 @@
       <c r="H294" s="21"/>
       <c r="I294" s="18"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="21"/>
       <c r="B295" s="18"/>
       <c r="C295" s="21"/>
@@ -4830,7 +4853,7 @@
       <c r="H295" s="21"/>
       <c r="I295" s="18"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="21"/>
       <c r="B296" s="18"/>
       <c r="C296" s="21"/>
@@ -4841,7 +4864,7 @@
       <c r="H296" s="21"/>
       <c r="I296" s="18"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="21"/>
       <c r="B297" s="18"/>
       <c r="C297" s="21"/>
@@ -4852,7 +4875,7 @@
       <c r="H297" s="21"/>
       <c r="I297" s="18"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="21"/>
       <c r="B298" s="18"/>
       <c r="C298" s="21"/>
@@ -4863,7 +4886,7 @@
       <c r="H298" s="21"/>
       <c r="I298" s="18"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="21"/>
       <c r="B299" s="18"/>
       <c r="C299" s="21"/>
@@ -4874,7 +4897,7 @@
       <c r="H299" s="21"/>
       <c r="I299" s="18"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="21"/>
       <c r="B300" s="18"/>
       <c r="C300" s="21"/>
@@ -4885,7 +4908,7 @@
       <c r="H300" s="21"/>
       <c r="I300" s="18"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="21"/>
       <c r="B301" s="18"/>
       <c r="C301" s="21"/>
@@ -4896,7 +4919,7 @@
       <c r="H301" s="21"/>
       <c r="I301" s="18"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="21"/>
       <c r="B302" s="18"/>
       <c r="C302" s="21"/>
@@ -4907,7 +4930,7 @@
       <c r="H302" s="21"/>
       <c r="I302" s="18"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="21"/>
       <c r="B303" s="18"/>
       <c r="C303" s="21"/>
@@ -4918,7 +4941,7 @@
       <c r="H303" s="21"/>
       <c r="I303" s="18"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="21"/>
       <c r="B304" s="18"/>
       <c r="C304" s="21"/>
@@ -4929,7 +4952,7 @@
       <c r="H304" s="21"/>
       <c r="I304" s="18"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="21"/>
       <c r="B305" s="18"/>
       <c r="C305" s="21"/>
@@ -4940,7 +4963,7 @@
       <c r="H305" s="21"/>
       <c r="I305" s="18"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="21"/>
       <c r="B306" s="18"/>
       <c r="C306" s="21"/>
@@ -4951,7 +4974,7 @@
       <c r="H306" s="21"/>
       <c r="I306" s="18"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="21"/>
       <c r="B307" s="18"/>
       <c r="C307" s="21"/>
@@ -4962,7 +4985,7 @@
       <c r="H307" s="21"/>
       <c r="I307" s="18"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="21"/>
       <c r="B308" s="18"/>
       <c r="C308" s="21"/>
@@ -4973,7 +4996,7 @@
       <c r="H308" s="21"/>
       <c r="I308" s="18"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="21"/>
       <c r="B309" s="18"/>
       <c r="C309" s="21"/>
@@ -4984,7 +5007,7 @@
       <c r="H309" s="21"/>
       <c r="I309" s="18"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="21"/>
       <c r="B310" s="18"/>
       <c r="C310" s="21"/>
@@ -4995,7 +5018,7 @@
       <c r="H310" s="21"/>
       <c r="I310" s="18"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="21"/>
       <c r="B311" s="18"/>
       <c r="C311" s="21"/>
@@ -5006,7 +5029,7 @@
       <c r="H311" s="21"/>
       <c r="I311" s="18"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="21"/>
       <c r="B312" s="18"/>
       <c r="C312" s="21"/>
@@ -5017,7 +5040,7 @@
       <c r="H312" s="21"/>
       <c r="I312" s="18"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="21"/>
       <c r="B313" s="18"/>
       <c r="C313" s="21"/>
@@ -5028,7 +5051,7 @@
       <c r="H313" s="21"/>
       <c r="I313" s="18"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="21"/>
       <c r="B314" s="18"/>
       <c r="C314" s="21"/>
@@ -5039,7 +5062,7 @@
       <c r="H314" s="21"/>
       <c r="I314" s="18"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="21"/>
       <c r="B315" s="18"/>
       <c r="C315" s="21"/>
@@ -5050,7 +5073,7 @@
       <c r="H315" s="21"/>
       <c r="I315" s="18"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="21"/>
       <c r="B316" s="18"/>
       <c r="C316" s="21"/>
@@ -5061,7 +5084,7 @@
       <c r="H316" s="21"/>
       <c r="I316" s="18"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="21"/>
       <c r="B317" s="18"/>
       <c r="C317" s="21"/>
@@ -5072,7 +5095,7 @@
       <c r="H317" s="21"/>
       <c r="I317" s="18"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="21"/>
       <c r="B318" s="18"/>
       <c r="C318" s="21"/>
@@ -5083,7 +5106,7 @@
       <c r="H318" s="21"/>
       <c r="I318" s="18"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="21"/>
       <c r="B319" s="18"/>
       <c r="C319" s="21"/>
@@ -5094,7 +5117,7 @@
       <c r="H319" s="21"/>
       <c r="I319" s="18"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="21"/>
       <c r="B320" s="18"/>
       <c r="C320" s="21"/>
@@ -5105,7 +5128,7 @@
       <c r="H320" s="21"/>
       <c r="I320" s="18"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="21"/>
       <c r="B321" s="18"/>
       <c r="C321" s="21"/>
@@ -5116,7 +5139,7 @@
       <c r="H321" s="21"/>
       <c r="I321" s="18"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="21"/>
       <c r="B322" s="18"/>
       <c r="C322" s="21"/>
@@ -5127,7 +5150,7 @@
       <c r="H322" s="21"/>
       <c r="I322" s="18"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="21"/>
       <c r="B323" s="18"/>
       <c r="C323" s="21"/>
@@ -5138,7 +5161,7 @@
       <c r="H323" s="21"/>
       <c r="I323" s="18"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="21"/>
       <c r="B324" s="18"/>
       <c r="C324" s="21"/>
@@ -5149,7 +5172,7 @@
       <c r="H324" s="21"/>
       <c r="I324" s="18"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="21"/>
       <c r="B325" s="18"/>
       <c r="C325" s="21"/>
@@ -5160,7 +5183,7 @@
       <c r="H325" s="21"/>
       <c r="I325" s="18"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="21"/>
       <c r="B326" s="18"/>
       <c r="C326" s="21"/>
@@ -5171,7 +5194,7 @@
       <c r="H326" s="21"/>
       <c r="I326" s="18"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="21"/>
       <c r="B327" s="18"/>
       <c r="C327" s="21"/>
@@ -5182,7 +5205,7 @@
       <c r="H327" s="21"/>
       <c r="I327" s="18"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="21"/>
       <c r="B328" s="18"/>
       <c r="C328" s="21"/>
@@ -5193,7 +5216,7 @@
       <c r="H328" s="21"/>
       <c r="I328" s="18"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="21"/>
       <c r="B329" s="18"/>
       <c r="C329" s="21"/>
@@ -5204,7 +5227,7 @@
       <c r="H329" s="21"/>
       <c r="I329" s="18"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="21"/>
       <c r="B330" s="18"/>
       <c r="C330" s="21"/>
@@ -5215,7 +5238,7 @@
       <c r="H330" s="21"/>
       <c r="I330" s="18"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="21"/>
       <c r="B331" s="18"/>
       <c r="C331" s="21"/>
@@ -5226,7 +5249,7 @@
       <c r="H331" s="21"/>
       <c r="I331" s="18"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="21"/>
       <c r="B332" s="18"/>
       <c r="C332" s="21"/>
@@ -5237,7 +5260,7 @@
       <c r="H332" s="21"/>
       <c r="I332" s="18"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="21"/>
       <c r="B333" s="18"/>
       <c r="C333" s="21"/>
@@ -5248,7 +5271,7 @@
       <c r="H333" s="21"/>
       <c r="I333" s="18"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="21"/>
       <c r="B334" s="18"/>
       <c r="C334" s="21"/>
@@ -5259,7 +5282,7 @@
       <c r="H334" s="21"/>
       <c r="I334" s="18"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="21"/>
       <c r="B335" s="18"/>
       <c r="C335" s="21"/>
@@ -5270,7 +5293,7 @@
       <c r="H335" s="21"/>
       <c r="I335" s="18"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="21"/>
       <c r="B336" s="18"/>
       <c r="C336" s="21"/>
@@ -5281,7 +5304,7 @@
       <c r="H336" s="21"/>
       <c r="I336" s="18"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="21"/>
       <c r="B337" s="18"/>
       <c r="C337" s="21"/>
@@ -5292,7 +5315,7 @@
       <c r="H337" s="21"/>
       <c r="I337" s="18"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="21"/>
       <c r="B338" s="18"/>
       <c r="C338" s="21"/>
@@ -5303,7 +5326,7 @@
       <c r="H338" s="21"/>
       <c r="I338" s="18"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="21"/>
       <c r="B339" s="18"/>
       <c r="C339" s="21"/>
@@ -5314,7 +5337,7 @@
       <c r="H339" s="21"/>
       <c r="I339" s="18"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="21"/>
       <c r="B340" s="18"/>
       <c r="C340" s="21"/>
@@ -5325,7 +5348,7 @@
       <c r="H340" s="21"/>
       <c r="I340" s="18"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="21"/>
       <c r="B341" s="18"/>
       <c r="C341" s="21"/>
@@ -5336,7 +5359,7 @@
       <c r="H341" s="21"/>
       <c r="I341" s="18"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="21"/>
       <c r="B342" s="18"/>
       <c r="C342" s="21"/>
@@ -5347,7 +5370,7 @@
       <c r="H342" s="21"/>
       <c r="I342" s="18"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="21"/>
       <c r="B343" s="18"/>
       <c r="C343" s="21"/>
@@ -5358,7 +5381,7 @@
       <c r="H343" s="21"/>
       <c r="I343" s="18"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="21"/>
       <c r="B344" s="18"/>
       <c r="C344" s="21"/>
@@ -5369,7 +5392,7 @@
       <c r="H344" s="21"/>
       <c r="I344" s="18"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="21"/>
       <c r="B345" s="18"/>
       <c r="C345" s="21"/>
@@ -5380,7 +5403,7 @@
       <c r="H345" s="21"/>
       <c r="I345" s="18"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="21"/>
       <c r="B346" s="18"/>
       <c r="C346" s="21"/>
@@ -5391,7 +5414,7 @@
       <c r="H346" s="21"/>
       <c r="I346" s="18"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="21"/>
       <c r="B347" s="18"/>
       <c r="C347" s="21"/>
@@ -5402,7 +5425,7 @@
       <c r="H347" s="21"/>
       <c r="I347" s="18"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="21"/>
       <c r="B348" s="18"/>
       <c r="C348" s="21"/>
@@ -5413,7 +5436,7 @@
       <c r="H348" s="21"/>
       <c r="I348" s="18"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="21"/>
       <c r="B349" s="18"/>
       <c r="C349" s="21"/>
@@ -5424,7 +5447,7 @@
       <c r="H349" s="21"/>
       <c r="I349" s="18"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="21"/>
       <c r="B350" s="18"/>
       <c r="C350" s="21"/>
@@ -5435,7 +5458,7 @@
       <c r="H350" s="21"/>
       <c r="I350" s="18"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="21"/>
       <c r="B351" s="18"/>
       <c r="C351" s="21"/>
@@ -5446,7 +5469,7 @@
       <c r="H351" s="21"/>
       <c r="I351" s="18"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="21"/>
       <c r="B352" s="18"/>
       <c r="C352" s="21"/>
@@ -5457,7 +5480,7 @@
       <c r="H352" s="21"/>
       <c r="I352" s="18"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="21"/>
       <c r="B353" s="18"/>
       <c r="C353" s="21"/>
@@ -5468,7 +5491,7 @@
       <c r="H353" s="21"/>
       <c r="I353" s="18"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="21"/>
       <c r="B354" s="18"/>
       <c r="C354" s="21"/>
@@ -5479,7 +5502,7 @@
       <c r="H354" s="21"/>
       <c r="I354" s="18"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="21"/>
       <c r="B355" s="18"/>
       <c r="C355" s="21"/>
@@ -5490,7 +5513,7 @@
       <c r="H355" s="21"/>
       <c r="I355" s="18"/>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="21"/>
       <c r="B356" s="18"/>
       <c r="C356" s="21"/>
@@ -5501,7 +5524,7 @@
       <c r="H356" s="21"/>
       <c r="I356" s="18"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="21"/>
       <c r="B357" s="18"/>
       <c r="C357" s="21"/>
@@ -5512,7 +5535,7 @@
       <c r="H357" s="21"/>
       <c r="I357" s="18"/>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="21"/>
       <c r="B358" s="18"/>
       <c r="C358" s="21"/>
@@ -5523,7 +5546,7 @@
       <c r="H358" s="21"/>
       <c r="I358" s="18"/>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="21"/>
       <c r="B359" s="18"/>
       <c r="C359" s="21"/>
@@ -5534,7 +5557,7 @@
       <c r="H359" s="21"/>
       <c r="I359" s="18"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="21"/>
       <c r="B360" s="18"/>
       <c r="C360" s="21"/>
@@ -5545,7 +5568,7 @@
       <c r="H360" s="21"/>
       <c r="I360" s="18"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="21"/>
       <c r="B361" s="18"/>
       <c r="C361" s="21"/>
@@ -5556,7 +5579,7 @@
       <c r="H361" s="21"/>
       <c r="I361" s="18"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="21"/>
       <c r="B362" s="18"/>
       <c r="C362" s="21"/>
@@ -5567,7 +5590,7 @@
       <c r="H362" s="21"/>
       <c r="I362" s="18"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="21"/>
       <c r="B363" s="18"/>
       <c r="C363" s="21"/>
@@ -5578,7 +5601,7 @@
       <c r="H363" s="21"/>
       <c r="I363" s="18"/>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="21"/>
       <c r="B364" s="18"/>
       <c r="C364" s="21"/>
@@ -5589,7 +5612,7 @@
       <c r="H364" s="21"/>
       <c r="I364" s="18"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="21"/>
       <c r="B365" s="18"/>
       <c r="C365" s="21"/>
@@ -5600,7 +5623,7 @@
       <c r="H365" s="21"/>
       <c r="I365" s="18"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="21"/>
       <c r="B366" s="18"/>
       <c r="C366" s="21"/>
@@ -5611,7 +5634,7 @@
       <c r="H366" s="21"/>
       <c r="I366" s="18"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="21"/>
       <c r="B367" s="18"/>
       <c r="C367" s="21"/>
@@ -5622,7 +5645,7 @@
       <c r="H367" s="21"/>
       <c r="I367" s="18"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="21"/>
       <c r="B368" s="18"/>
       <c r="C368" s="21"/>
@@ -5633,7 +5656,7 @@
       <c r="H368" s="21"/>
       <c r="I368" s="18"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="21"/>
       <c r="B369" s="18"/>
       <c r="C369" s="21"/>
@@ -5644,7 +5667,7 @@
       <c r="H369" s="21"/>
       <c r="I369" s="18"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="21"/>
       <c r="B370" s="18"/>
       <c r="C370" s="21"/>
@@ -5655,7 +5678,7 @@
       <c r="H370" s="21"/>
       <c r="I370" s="18"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="21"/>
       <c r="B371" s="18"/>
       <c r="C371" s="21"/>
@@ -5666,7 +5689,7 @@
       <c r="H371" s="21"/>
       <c r="I371" s="18"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="21"/>
       <c r="B372" s="18"/>
       <c r="C372" s="21"/>
@@ -5677,7 +5700,7 @@
       <c r="H372" s="21"/>
       <c r="I372" s="18"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="21"/>
       <c r="B373" s="18"/>
       <c r="C373" s="21"/>
@@ -5688,7 +5711,7 @@
       <c r="H373" s="21"/>
       <c r="I373" s="18"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="21"/>
       <c r="B374" s="18"/>
       <c r="C374" s="21"/>
@@ -5699,7 +5722,7 @@
       <c r="H374" s="21"/>
       <c r="I374" s="18"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="21"/>
       <c r="B375" s="18"/>
       <c r="C375" s="21"/>
@@ -5710,7 +5733,7 @@
       <c r="H375" s="21"/>
       <c r="I375" s="18"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="21"/>
       <c r="B376" s="18"/>
       <c r="C376" s="21"/>
@@ -5721,7 +5744,7 @@
       <c r="H376" s="21"/>
       <c r="I376" s="18"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="21"/>
       <c r="B377" s="18"/>
       <c r="C377" s="21"/>
@@ -5732,7 +5755,7 @@
       <c r="H377" s="21"/>
       <c r="I377" s="18"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="21"/>
       <c r="B378" s="18"/>
       <c r="C378" s="21"/>
@@ -5743,7 +5766,7 @@
       <c r="H378" s="21"/>
       <c r="I378" s="18"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="21"/>
       <c r="B379" s="18"/>
       <c r="C379" s="21"/>
@@ -5754,7 +5777,7 @@
       <c r="H379" s="21"/>
       <c r="I379" s="18"/>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="21"/>
       <c r="B380" s="18"/>
       <c r="C380" s="21"/>
@@ -5765,7 +5788,7 @@
       <c r="H380" s="21"/>
       <c r="I380" s="18"/>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="21"/>
       <c r="B381" s="18"/>
       <c r="C381" s="21"/>
@@ -5776,7 +5799,7 @@
       <c r="H381" s="21"/>
       <c r="I381" s="18"/>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="21"/>
       <c r="B382" s="18"/>
       <c r="C382" s="21"/>
@@ -5787,7 +5810,7 @@
       <c r="H382" s="21"/>
       <c r="I382" s="18"/>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="21"/>
       <c r="B383" s="18"/>
       <c r="C383" s="21"/>
@@ -5798,7 +5821,7 @@
       <c r="H383" s="21"/>
       <c r="I383" s="18"/>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="21"/>
       <c r="B384" s="18"/>
       <c r="C384" s="21"/>
@@ -5809,7 +5832,7 @@
       <c r="H384" s="21"/>
       <c r="I384" s="18"/>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="21"/>
       <c r="B385" s="18"/>
       <c r="C385" s="21"/>
@@ -5820,7 +5843,7 @@
       <c r="H385" s="21"/>
       <c r="I385" s="18"/>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" s="21"/>
       <c r="B386" s="18"/>
       <c r="C386" s="21"/>
@@ -5831,7 +5854,7 @@
       <c r="H386" s="21"/>
       <c r="I386" s="18"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" s="21"/>
       <c r="B387" s="18"/>
       <c r="C387" s="21"/>
@@ -5842,7 +5865,7 @@
       <c r="H387" s="21"/>
       <c r="I387" s="18"/>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" s="21"/>
       <c r="B388" s="18"/>
       <c r="C388" s="21"/>
@@ -5853,7 +5876,7 @@
       <c r="H388" s="21"/>
       <c r="I388" s="18"/>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="21"/>
       <c r="B389" s="18"/>
       <c r="C389" s="21"/>
@@ -5864,7 +5887,7 @@
       <c r="H389" s="21"/>
       <c r="I389" s="18"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" s="21"/>
       <c r="B390" s="18"/>
       <c r="C390" s="21"/>
@@ -5875,7 +5898,7 @@
       <c r="H390" s="21"/>
       <c r="I390" s="18"/>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" s="21"/>
       <c r="B391" s="18"/>
       <c r="C391" s="21"/>
@@ -5886,7 +5909,7 @@
       <c r="H391" s="21"/>
       <c r="I391" s="18"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="21"/>
       <c r="B392" s="18"/>
       <c r="C392" s="21"/>
@@ -5897,7 +5920,7 @@
       <c r="H392" s="21"/>
       <c r="I392" s="18"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" s="21"/>
       <c r="B393" s="18"/>
       <c r="C393" s="21"/>
@@ -5908,7 +5931,7 @@
       <c r="H393" s="21"/>
       <c r="I393" s="18"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" s="21"/>
       <c r="B394" s="18"/>
       <c r="C394" s="21"/>
@@ -5919,7 +5942,7 @@
       <c r="H394" s="21"/>
       <c r="I394" s="18"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="21"/>
       <c r="B395" s="18"/>
       <c r="C395" s="21"/>
@@ -5930,7 +5953,7 @@
       <c r="H395" s="21"/>
       <c r="I395" s="18"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" s="21"/>
       <c r="B396" s="18"/>
       <c r="C396" s="21"/>
@@ -5941,7 +5964,7 @@
       <c r="H396" s="21"/>
       <c r="I396" s="18"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" s="21"/>
       <c r="B397" s="18"/>
       <c r="C397" s="21"/>
@@ -5952,7 +5975,7 @@
       <c r="H397" s="21"/>
       <c r="I397" s="18"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="21"/>
       <c r="B398" s="18"/>
       <c r="C398" s="21"/>
@@ -5963,7 +5986,7 @@
       <c r="H398" s="21"/>
       <c r="I398" s="18"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" s="21"/>
       <c r="B399" s="18"/>
       <c r="C399" s="21"/>
@@ -5974,7 +5997,7 @@
       <c r="H399" s="21"/>
       <c r="I399" s="18"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" s="21"/>
       <c r="B400" s="18"/>
       <c r="C400" s="21"/>
@@ -5985,7 +6008,7 @@
       <c r="H400" s="21"/>
       <c r="I400" s="18"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" s="21"/>
       <c r="B401" s="18"/>
       <c r="C401" s="21"/>
@@ -5996,7 +6019,7 @@
       <c r="H401" s="21"/>
       <c r="I401" s="18"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" s="21"/>
       <c r="B402" s="18"/>
       <c r="C402" s="21"/>
@@ -6007,7 +6030,7 @@
       <c r="H402" s="21"/>
       <c r="I402" s="18"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" s="21"/>
       <c r="B403" s="18"/>
       <c r="C403" s="21"/>
@@ -6018,7 +6041,7 @@
       <c r="H403" s="21"/>
       <c r="I403" s="18"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="21"/>
       <c r="B404" s="18"/>
       <c r="C404" s="21"/>
@@ -6029,7 +6052,7 @@
       <c r="H404" s="21"/>
       <c r="I404" s="18"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" s="21"/>
       <c r="B405" s="18"/>
       <c r="C405" s="21"/>
@@ -6040,7 +6063,7 @@
       <c r="H405" s="21"/>
       <c r="I405" s="18"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" s="21"/>
       <c r="B406" s="18"/>
       <c r="C406" s="21"/>
@@ -6051,7 +6074,7 @@
       <c r="H406" s="21"/>
       <c r="I406" s="18"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" s="21"/>
       <c r="B407" s="18"/>
       <c r="C407" s="21"/>
@@ -6062,7 +6085,7 @@
       <c r="H407" s="21"/>
       <c r="I407" s="18"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="21"/>
       <c r="B408" s="18"/>
       <c r="C408" s="21"/>
@@ -6073,7 +6096,7 @@
       <c r="H408" s="21"/>
       <c r="I408" s="18"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" s="21"/>
       <c r="B409" s="18"/>
       <c r="C409" s="21"/>
@@ -6084,7 +6107,7 @@
       <c r="H409" s="21"/>
       <c r="I409" s="18"/>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="21"/>
       <c r="B410" s="18"/>
       <c r="C410" s="21"/>
@@ -6095,7 +6118,7 @@
       <c r="H410" s="21"/>
       <c r="I410" s="18"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" s="21"/>
       <c r="B411" s="18"/>
       <c r="C411" s="21"/>
@@ -6106,7 +6129,7 @@
       <c r="H411" s="21"/>
       <c r="I411" s="18"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" s="21"/>
       <c r="B412" s="18"/>
       <c r="C412" s="21"/>
@@ -6117,7 +6140,7 @@
       <c r="H412" s="21"/>
       <c r="I412" s="18"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="21"/>
       <c r="B413" s="18"/>
       <c r="C413" s="21"/>
@@ -6128,7 +6151,7 @@
       <c r="H413" s="21"/>
       <c r="I413" s="18"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" s="21"/>
       <c r="B414" s="18"/>
       <c r="C414" s="21"/>
@@ -6139,7 +6162,7 @@
       <c r="H414" s="21"/>
       <c r="I414" s="18"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" s="21"/>
       <c r="B415" s="18"/>
       <c r="C415" s="21"/>
@@ -6150,7 +6173,7 @@
       <c r="H415" s="21"/>
       <c r="I415" s="18"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" s="21"/>
       <c r="B416" s="18"/>
       <c r="C416" s="21"/>
@@ -6161,7 +6184,7 @@
       <c r="H416" s="21"/>
       <c r="I416" s="18"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" s="21"/>
       <c r="B417" s="18"/>
       <c r="C417" s="21"/>
@@ -6172,7 +6195,7 @@
       <c r="H417" s="21"/>
       <c r="I417" s="18"/>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" s="21"/>
       <c r="B418" s="18"/>
       <c r="C418" s="21"/>
@@ -6183,7 +6206,7 @@
       <c r="H418" s="21"/>
       <c r="I418" s="18"/>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" s="21"/>
       <c r="B419" s="18"/>
       <c r="C419" s="21"/>
@@ -6194,7 +6217,7 @@
       <c r="H419" s="21"/>
       <c r="I419" s="18"/>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" s="21"/>
       <c r="B420" s="18"/>
       <c r="C420" s="21"/>
@@ -6205,7 +6228,7 @@
       <c r="H420" s="21"/>
       <c r="I420" s="18"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" s="21"/>
       <c r="B421" s="18"/>
       <c r="C421" s="21"/>
@@ -6216,7 +6239,7 @@
       <c r="H421" s="21"/>
       <c r="I421" s="18"/>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" s="21"/>
       <c r="B422" s="18"/>
       <c r="C422" s="21"/>
@@ -6227,7 +6250,7 @@
       <c r="H422" s="21"/>
       <c r="I422" s="18"/>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" s="21"/>
       <c r="B423" s="18"/>
       <c r="C423" s="21"/>
@@ -6238,7 +6261,7 @@
       <c r="H423" s="21"/>
       <c r="I423" s="18"/>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" s="21"/>
       <c r="B424" s="18"/>
       <c r="C424" s="21"/>
@@ -6249,7 +6272,7 @@
       <c r="H424" s="21"/>
       <c r="I424" s="18"/>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" s="21"/>
       <c r="B425" s="18"/>
       <c r="C425" s="21"/>
@@ -6260,7 +6283,7 @@
       <c r="H425" s="21"/>
       <c r="I425" s="18"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" s="21"/>
       <c r="B426" s="18"/>
       <c r="C426" s="21"/>
@@ -6271,7 +6294,7 @@
       <c r="H426" s="21"/>
       <c r="I426" s="18"/>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" s="21"/>
       <c r="B427" s="18"/>
       <c r="C427" s="21"/>
@@ -6282,7 +6305,7 @@
       <c r="H427" s="21"/>
       <c r="I427" s="18"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="21"/>
       <c r="B428" s="18"/>
       <c r="C428" s="21"/>
@@ -6293,7 +6316,7 @@
       <c r="H428" s="21"/>
       <c r="I428" s="18"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" s="21"/>
       <c r="B429" s="18"/>
       <c r="C429" s="21"/>
@@ -6304,7 +6327,7 @@
       <c r="H429" s="21"/>
       <c r="I429" s="18"/>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" s="21"/>
       <c r="B430" s="18"/>
       <c r="C430" s="21"/>
@@ -6315,7 +6338,7 @@
       <c r="H430" s="21"/>
       <c r="I430" s="18"/>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" s="21"/>
       <c r="B431" s="18"/>
       <c r="C431" s="21"/>
@@ -6326,7 +6349,7 @@
       <c r="H431" s="21"/>
       <c r="I431" s="18"/>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" s="21"/>
       <c r="B432" s="18"/>
       <c r="C432" s="21"/>
@@ -6337,7 +6360,7 @@
       <c r="H432" s="21"/>
       <c r="I432" s="18"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" s="21"/>
       <c r="B433" s="18"/>
       <c r="C433" s="21"/>
@@ -6348,7 +6371,7 @@
       <c r="H433" s="21"/>
       <c r="I433" s="18"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" s="21"/>
       <c r="B434" s="18"/>
       <c r="C434" s="21"/>
@@ -6359,7 +6382,7 @@
       <c r="H434" s="21"/>
       <c r="I434" s="18"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" s="21"/>
       <c r="B435" s="18"/>
       <c r="C435" s="21"/>
@@ -6370,7 +6393,7 @@
       <c r="H435" s="21"/>
       <c r="I435" s="18"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" s="21"/>
       <c r="B436" s="18"/>
       <c r="C436" s="21"/>
@@ -6381,7 +6404,7 @@
       <c r="H436" s="21"/>
       <c r="I436" s="18"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" s="21"/>
       <c r="B437" s="18"/>
       <c r="C437" s="21"/>
@@ -6392,7 +6415,7 @@
       <c r="H437" s="21"/>
       <c r="I437" s="18"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" s="21"/>
       <c r="B438" s="18"/>
       <c r="C438" s="21"/>
@@ -6403,7 +6426,7 @@
       <c r="H438" s="21"/>
       <c r="I438" s="18"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" s="21"/>
       <c r="B439" s="18"/>
       <c r="C439" s="21"/>
@@ -6414,7 +6437,7 @@
       <c r="H439" s="21"/>
       <c r="I439" s="18"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" s="21"/>
       <c r="B440" s="18"/>
       <c r="C440" s="21"/>
@@ -6425,7 +6448,7 @@
       <c r="H440" s="21"/>
       <c r="I440" s="18"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" s="21"/>
       <c r="B441" s="18"/>
       <c r="C441" s="21"/>
@@ -6436,7 +6459,7 @@
       <c r="H441" s="21"/>
       <c r="I441" s="18"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" s="21"/>
       <c r="B442" s="18"/>
       <c r="C442" s="21"/>
@@ -6447,7 +6470,7 @@
       <c r="H442" s="21"/>
       <c r="I442" s="18"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="21"/>
       <c r="B443" s="18"/>
       <c r="C443" s="21"/>
@@ -6458,7 +6481,7 @@
       <c r="H443" s="21"/>
       <c r="I443" s="18"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" s="21"/>
       <c r="B444" s="18"/>
       <c r="C444" s="21"/>
@@ -6469,7 +6492,7 @@
       <c r="H444" s="21"/>
       <c r="I444" s="18"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" s="21"/>
       <c r="B445" s="18"/>
       <c r="C445" s="21"/>
@@ -6480,7 +6503,7 @@
       <c r="H445" s="21"/>
       <c r="I445" s="18"/>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" s="21"/>
       <c r="B446" s="18"/>
       <c r="C446" s="21"/>
@@ -6491,7 +6514,7 @@
       <c r="H446" s="21"/>
       <c r="I446" s="18"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" s="21"/>
       <c r="B447" s="18"/>
       <c r="C447" s="21"/>
@@ -6502,7 +6525,7 @@
       <c r="H447" s="21"/>
       <c r="I447" s="18"/>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" s="21"/>
       <c r="B448" s="18"/>
       <c r="C448" s="21"/>
@@ -6513,7 +6536,7 @@
       <c r="H448" s="21"/>
       <c r="I448" s="18"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" s="21"/>
       <c r="B449" s="18"/>
       <c r="C449" s="21"/>
@@ -6524,7 +6547,7 @@
       <c r="H449" s="21"/>
       <c r="I449" s="18"/>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" s="21"/>
       <c r="B450" s="18"/>
       <c r="C450" s="21"/>
@@ -6535,7 +6558,7 @@
       <c r="H450" s="21"/>
       <c r="I450" s="18"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" s="21"/>
       <c r="B451" s="18"/>
       <c r="C451" s="21"/>
@@ -6546,7 +6569,7 @@
       <c r="H451" s="21"/>
       <c r="I451" s="18"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" s="21"/>
       <c r="B452" s="18"/>
       <c r="C452" s="21"/>
@@ -6557,7 +6580,7 @@
       <c r="H452" s="21"/>
       <c r="I452" s="18"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" s="21"/>
       <c r="B453" s="18"/>
       <c r="C453" s="21"/>
@@ -6568,7 +6591,7 @@
       <c r="H453" s="21"/>
       <c r="I453" s="18"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" s="21"/>
       <c r="B454" s="18"/>
       <c r="C454" s="21"/>
@@ -6579,7 +6602,7 @@
       <c r="H454" s="21"/>
       <c r="I454" s="18"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" s="21"/>
       <c r="B455" s="18"/>
       <c r="C455" s="21"/>
@@ -6590,7 +6613,7 @@
       <c r="H455" s="21"/>
       <c r="I455" s="18"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" s="21"/>
       <c r="B456" s="18"/>
       <c r="C456" s="21"/>
@@ -6601,7 +6624,7 @@
       <c r="H456" s="21"/>
       <c r="I456" s="18"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" s="21"/>
       <c r="B457" s="18"/>
       <c r="C457" s="21"/>
@@ -6612,7 +6635,7 @@
       <c r="H457" s="21"/>
       <c r="I457" s="18"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" s="21"/>
       <c r="B458" s="18"/>
       <c r="C458" s="21"/>
@@ -6623,7 +6646,7 @@
       <c r="H458" s="21"/>
       <c r="I458" s="18"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" s="21"/>
       <c r="B459" s="18"/>
       <c r="C459" s="21"/>
@@ -6634,7 +6657,7 @@
       <c r="H459" s="21"/>
       <c r="I459" s="18"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" s="21"/>
       <c r="B460" s="18"/>
       <c r="C460" s="21"/>
@@ -6645,7 +6668,7 @@
       <c r="H460" s="21"/>
       <c r="I460" s="18"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" s="21"/>
       <c r="B461" s="18"/>
       <c r="C461" s="21"/>
@@ -6656,7 +6679,7 @@
       <c r="H461" s="21"/>
       <c r="I461" s="18"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" s="21"/>
       <c r="B462" s="18"/>
       <c r="C462" s="21"/>
@@ -6667,7 +6690,7 @@
       <c r="H462" s="21"/>
       <c r="I462" s="18"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" s="21"/>
       <c r="B463" s="18"/>
       <c r="C463" s="21"/>
@@ -6678,7 +6701,7 @@
       <c r="H463" s="21"/>
       <c r="I463" s="18"/>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" s="21"/>
       <c r="B464" s="18"/>
       <c r="C464" s="21"/>
@@ -6689,7 +6712,7 @@
       <c r="H464" s="21"/>
       <c r="I464" s="18"/>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" s="21"/>
       <c r="B465" s="18"/>
       <c r="C465" s="21"/>
@@ -6700,7 +6723,7 @@
       <c r="H465" s="21"/>
       <c r="I465" s="18"/>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" s="21"/>
       <c r="B466" s="18"/>
       <c r="C466" s="21"/>
@@ -6711,7 +6734,7 @@
       <c r="H466" s="21"/>
       <c r="I466" s="18"/>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" s="21"/>
       <c r="B467" s="18"/>
       <c r="C467" s="21"/>
@@ -6722,7 +6745,7 @@
       <c r="H467" s="21"/>
       <c r="I467" s="18"/>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" s="21"/>
       <c r="B468" s="18"/>
       <c r="C468" s="21"/>
@@ -6733,7 +6756,7 @@
       <c r="H468" s="21"/>
       <c r="I468" s="18"/>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" s="21"/>
       <c r="B469" s="18"/>
       <c r="C469" s="21"/>
@@ -6744,7 +6767,7 @@
       <c r="H469" s="21"/>
       <c r="I469" s="18"/>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" s="21"/>
       <c r="B470" s="18"/>
       <c r="C470" s="21"/>
@@ -6755,7 +6778,7 @@
       <c r="H470" s="21"/>
       <c r="I470" s="18"/>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" s="21"/>
       <c r="B471" s="18"/>
       <c r="C471" s="21"/>
@@ -6766,7 +6789,7 @@
       <c r="H471" s="21"/>
       <c r="I471" s="18"/>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" s="21"/>
       <c r="B472" s="18"/>
       <c r="C472" s="21"/>
@@ -6777,7 +6800,7 @@
       <c r="H472" s="21"/>
       <c r="I472" s="18"/>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" s="21"/>
       <c r="B473" s="18"/>
       <c r="C473" s="21"/>
@@ -6788,7 +6811,7 @@
       <c r="H473" s="21"/>
       <c r="I473" s="18"/>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" s="21"/>
       <c r="B474" s="18"/>
       <c r="C474" s="21"/>
@@ -6799,7 +6822,7 @@
       <c r="H474" s="21"/>
       <c r="I474" s="18"/>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" s="21"/>
       <c r="B475" s="18"/>
       <c r="C475" s="21"/>
@@ -6810,7 +6833,7 @@
       <c r="H475" s="21"/>
       <c r="I475" s="18"/>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" s="21"/>
       <c r="B476" s="18"/>
       <c r="C476" s="21"/>
@@ -6821,7 +6844,7 @@
       <c r="H476" s="21"/>
       <c r="I476" s="18"/>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" s="21"/>
       <c r="B477" s="18"/>
       <c r="C477" s="21"/>
@@ -6832,7 +6855,7 @@
       <c r="H477" s="21"/>
       <c r="I477" s="18"/>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" s="21"/>
       <c r="B478" s="18"/>
       <c r="C478" s="21"/>
@@ -6843,7 +6866,7 @@
       <c r="H478" s="21"/>
       <c r="I478" s="18"/>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" s="21"/>
       <c r="B479" s="18"/>
       <c r="C479" s="21"/>
@@ -6854,7 +6877,7 @@
       <c r="H479" s="21"/>
       <c r="I479" s="18"/>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" s="21"/>
       <c r="B480" s="18"/>
       <c r="C480" s="21"/>
@@ -6865,7 +6888,7 @@
       <c r="H480" s="21"/>
       <c r="I480" s="18"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" s="21"/>
       <c r="B481" s="18"/>
       <c r="C481" s="21"/>
@@ -6876,7 +6899,7 @@
       <c r="H481" s="21"/>
       <c r="I481" s="18"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" s="21"/>
       <c r="B482" s="18"/>
       <c r="C482" s="21"/>
@@ -6887,7 +6910,7 @@
       <c r="H482" s="21"/>
       <c r="I482" s="18"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" s="21"/>
       <c r="B483" s="18"/>
       <c r="C483" s="21"/>
@@ -6898,7 +6921,7 @@
       <c r="H483" s="21"/>
       <c r="I483" s="18"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" s="21"/>
       <c r="B484" s="18"/>
       <c r="C484" s="21"/>
@@ -6909,7 +6932,7 @@
       <c r="H484" s="21"/>
       <c r="I484" s="18"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" s="21"/>
       <c r="B485" s="18"/>
       <c r="C485" s="21"/>
@@ -6920,7 +6943,7 @@
       <c r="H485" s="21"/>
       <c r="I485" s="18"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" s="21"/>
       <c r="B486" s="18"/>
       <c r="C486" s="21"/>
@@ -6931,7 +6954,7 @@
       <c r="H486" s="21"/>
       <c r="I486" s="18"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" s="21"/>
       <c r="B487" s="18"/>
       <c r="C487" s="21"/>
@@ -6942,7 +6965,7 @@
       <c r="H487" s="21"/>
       <c r="I487" s="18"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" s="21"/>
       <c r="B488" s="18"/>
       <c r="C488" s="21"/>
@@ -6953,7 +6976,7 @@
       <c r="H488" s="21"/>
       <c r="I488" s="18"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" s="21"/>
       <c r="B489" s="18"/>
       <c r="C489" s="21"/>
@@ -6964,7 +6987,7 @@
       <c r="H489" s="21"/>
       <c r="I489" s="18"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" s="21"/>
       <c r="B490" s="18"/>
       <c r="C490" s="21"/>
@@ -6975,7 +6998,7 @@
       <c r="H490" s="21"/>
       <c r="I490" s="18"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" s="21"/>
       <c r="B491" s="18"/>
       <c r="C491" s="21"/>
@@ -6986,7 +7009,7 @@
       <c r="H491" s="21"/>
       <c r="I491" s="18"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" s="21"/>
       <c r="B492" s="18"/>
       <c r="C492" s="21"/>
@@ -6997,7 +7020,7 @@
       <c r="H492" s="21"/>
       <c r="I492" s="18"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" s="21"/>
       <c r="B493" s="18"/>
       <c r="C493" s="21"/>
@@ -7008,7 +7031,7 @@
       <c r="H493" s="21"/>
       <c r="I493" s="18"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" s="21"/>
       <c r="B494" s="18"/>
       <c r="C494" s="21"/>
@@ -7019,7 +7042,7 @@
       <c r="H494" s="21"/>
       <c r="I494" s="18"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" s="21"/>
       <c r="B495" s="18"/>
       <c r="C495" s="21"/>
@@ -7030,7 +7053,7 @@
       <c r="H495" s="21"/>
       <c r="I495" s="18"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" s="21"/>
       <c r="B496" s="18"/>
       <c r="C496" s="21"/>
@@ -7041,7 +7064,7 @@
       <c r="H496" s="21"/>
       <c r="I496" s="18"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" s="21"/>
       <c r="B497" s="18"/>
       <c r="C497" s="21"/>
@@ -7052,7 +7075,7 @@
       <c r="H497" s="21"/>
       <c r="I497" s="18"/>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" s="21"/>
       <c r="B498" s="18"/>
       <c r="C498" s="21"/>
@@ -7063,7 +7086,7 @@
       <c r="H498" s="21"/>
       <c r="I498" s="18"/>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" s="21"/>
       <c r="B499" s="18"/>
       <c r="C499" s="21"/>
@@ -7074,7 +7097,7 @@
       <c r="H499" s="21"/>
       <c r="I499" s="18"/>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" s="21"/>
       <c r="B500" s="18"/>
       <c r="C500" s="21"/>
@@ -7085,7 +7108,7 @@
       <c r="H500" s="21"/>
       <c r="I500" s="18"/>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" s="21"/>
       <c r="B501" s="18"/>
       <c r="C501" s="21"/>
@@ -7096,7 +7119,7 @@
       <c r="H501" s="21"/>
       <c r="I501" s="18"/>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" s="21"/>
       <c r="B502" s="18"/>
       <c r="C502" s="21"/>
@@ -7107,7 +7130,7 @@
       <c r="H502" s="21"/>
       <c r="I502" s="18"/>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" s="21"/>
       <c r="B503" s="18"/>
       <c r="C503" s="21"/>
@@ -7118,7 +7141,7 @@
       <c r="H503" s="21"/>
       <c r="I503" s="18"/>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" s="21"/>
       <c r="B504" s="18"/>
       <c r="C504" s="21"/>
@@ -7129,7 +7152,7 @@
       <c r="H504" s="21"/>
       <c r="I504" s="18"/>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" s="21"/>
       <c r="B505" s="18"/>
       <c r="C505" s="21"/>
@@ -7140,7 +7163,7 @@
       <c r="H505" s="21"/>
       <c r="I505" s="18"/>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" s="21"/>
       <c r="B506" s="18"/>
       <c r="C506" s="21"/>
@@ -7151,7 +7174,7 @@
       <c r="H506" s="21"/>
       <c r="I506" s="18"/>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" s="21"/>
       <c r="B507" s="18"/>
       <c r="C507" s="21"/>
@@ -7162,7 +7185,7 @@
       <c r="H507" s="21"/>
       <c r="I507" s="18"/>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" s="21"/>
       <c r="B508" s="18"/>
       <c r="C508" s="21"/>
@@ -7173,7 +7196,7 @@
       <c r="H508" s="21"/>
       <c r="I508" s="18"/>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" s="21"/>
       <c r="B509" s="18"/>
       <c r="C509" s="21"/>
@@ -7184,7 +7207,7 @@
       <c r="H509" s="21"/>
       <c r="I509" s="18"/>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" s="21"/>
       <c r="B510" s="18"/>
       <c r="C510" s="21"/>
@@ -7195,7 +7218,7 @@
       <c r="H510" s="21"/>
       <c r="I510" s="18"/>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" s="21"/>
       <c r="B511" s="18"/>
       <c r="C511" s="21"/>
@@ -7206,7 +7229,7 @@
       <c r="H511" s="21"/>
       <c r="I511" s="18"/>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" s="21"/>
       <c r="B512" s="18"/>
       <c r="C512" s="21"/>
@@ -7217,7 +7240,7 @@
       <c r="H512" s="21"/>
       <c r="I512" s="18"/>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" s="21"/>
       <c r="B513" s="18"/>
       <c r="C513" s="21"/>
@@ -7228,7 +7251,7 @@
       <c r="H513" s="21"/>
       <c r="I513" s="18"/>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" s="21"/>
       <c r="B514" s="18"/>
       <c r="C514" s="21"/>
@@ -7239,7 +7262,7 @@
       <c r="H514" s="21"/>
       <c r="I514" s="18"/>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" s="21"/>
       <c r="B515" s="18"/>
       <c r="C515" s="21"/>
@@ -7250,7 +7273,7 @@
       <c r="H515" s="21"/>
       <c r="I515" s="18"/>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" s="21"/>
       <c r="B516" s="18"/>
       <c r="C516" s="21"/>
@@ -7261,7 +7284,7 @@
       <c r="H516" s="21"/>
       <c r="I516" s="18"/>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" s="21"/>
       <c r="B517" s="18"/>
       <c r="C517" s="21"/>
@@ -7272,7 +7295,7 @@
       <c r="H517" s="21"/>
       <c r="I517" s="18"/>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" s="21"/>
       <c r="B518" s="18"/>
       <c r="C518" s="21"/>
@@ -7283,7 +7306,7 @@
       <c r="H518" s="21"/>
       <c r="I518" s="18"/>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" s="21"/>
       <c r="B519" s="18"/>
       <c r="C519" s="21"/>
@@ -7294,7 +7317,7 @@
       <c r="H519" s="21"/>
       <c r="I519" s="18"/>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" s="21"/>
       <c r="B520" s="18"/>
       <c r="C520" s="21"/>
@@ -7305,7 +7328,7 @@
       <c r="H520" s="21"/>
       <c r="I520" s="18"/>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" s="21"/>
       <c r="B521" s="18"/>
       <c r="C521" s="21"/>
@@ -7316,7 +7339,7 @@
       <c r="H521" s="21"/>
       <c r="I521" s="18"/>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" s="21"/>
       <c r="B522" s="18"/>
       <c r="C522" s="21"/>
@@ -7327,7 +7350,7 @@
       <c r="H522" s="21"/>
       <c r="I522" s="18"/>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" s="21"/>
       <c r="B523" s="18"/>
       <c r="C523" s="21"/>
@@ -7338,7 +7361,7 @@
       <c r="H523" s="21"/>
       <c r="I523" s="18"/>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" s="21"/>
       <c r="B524" s="18"/>
       <c r="C524" s="21"/>
@@ -7349,7 +7372,7 @@
       <c r="H524" s="21"/>
       <c r="I524" s="18"/>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" s="21"/>
       <c r="B525" s="18"/>
       <c r="C525" s="21"/>
@@ -7360,7 +7383,7 @@
       <c r="H525" s="21"/>
       <c r="I525" s="18"/>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" s="21"/>
       <c r="B526" s="18"/>
       <c r="C526" s="21"/>
@@ -7371,7 +7394,7 @@
       <c r="H526" s="21"/>
       <c r="I526" s="18"/>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" s="21"/>
       <c r="B527" s="18"/>
       <c r="C527" s="21"/>
@@ -7382,7 +7405,7 @@
       <c r="H527" s="21"/>
       <c r="I527" s="18"/>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" s="21"/>
       <c r="B528" s="18"/>
       <c r="C528" s="21"/>
@@ -7393,7 +7416,7 @@
       <c r="H528" s="21"/>
       <c r="I528" s="18"/>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" s="21"/>
       <c r="B529" s="18"/>
       <c r="C529" s="21"/>
@@ -7404,7 +7427,7 @@
       <c r="H529" s="21"/>
       <c r="I529" s="18"/>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" s="21"/>
       <c r="B530" s="18"/>
       <c r="C530" s="21"/>
@@ -7415,7 +7438,7 @@
       <c r="H530" s="21"/>
       <c r="I530" s="18"/>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" s="21"/>
       <c r="B531" s="18"/>
       <c r="C531" s="21"/>
@@ -7426,7 +7449,7 @@
       <c r="H531" s="21"/>
       <c r="I531" s="18"/>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" s="21"/>
       <c r="B532" s="18"/>
       <c r="C532" s="21"/>
@@ -7437,7 +7460,7 @@
       <c r="H532" s="21"/>
       <c r="I532" s="18"/>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" s="21"/>
       <c r="B533" s="18"/>
       <c r="C533" s="21"/>
@@ -7448,7 +7471,7 @@
       <c r="H533" s="21"/>
       <c r="I533" s="18"/>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" s="21"/>
       <c r="B534" s="18"/>
       <c r="C534" s="21"/>
@@ -7459,7 +7482,7 @@
       <c r="H534" s="21"/>
       <c r="I534" s="18"/>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" s="21"/>
       <c r="B535" s="18"/>
       <c r="C535" s="21"/>
@@ -7470,7 +7493,7 @@
       <c r="H535" s="21"/>
       <c r="I535" s="18"/>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" s="21"/>
       <c r="B536" s="18"/>
       <c r="C536" s="21"/>
@@ -7481,7 +7504,7 @@
       <c r="H536" s="21"/>
       <c r="I536" s="18"/>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" s="21"/>
       <c r="B537" s="18"/>
       <c r="C537" s="21"/>
@@ -7492,7 +7515,7 @@
       <c r="H537" s="21"/>
       <c r="I537" s="18"/>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" s="21"/>
       <c r="B538" s="18"/>
       <c r="C538" s="21"/>
@@ -7503,7 +7526,7 @@
       <c r="H538" s="21"/>
       <c r="I538" s="18"/>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" s="21"/>
       <c r="B539" s="18"/>
       <c r="C539" s="21"/>
@@ -7514,7 +7537,7 @@
       <c r="H539" s="21"/>
       <c r="I539" s="18"/>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" s="21"/>
       <c r="B540" s="18"/>
       <c r="C540" s="21"/>
@@ -7525,7 +7548,7 @@
       <c r="H540" s="21"/>
       <c r="I540" s="18"/>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" s="21"/>
       <c r="B541" s="18"/>
       <c r="C541" s="21"/>
@@ -7536,7 +7559,7 @@
       <c r="H541" s="21"/>
       <c r="I541" s="18"/>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" s="21"/>
       <c r="B542" s="18"/>
       <c r="C542" s="21"/>
@@ -7547,7 +7570,7 @@
       <c r="H542" s="21"/>
       <c r="I542" s="18"/>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" s="21"/>
       <c r="B543" s="18"/>
       <c r="C543" s="21"/>
@@ -7558,7 +7581,7 @@
       <c r="H543" s="21"/>
       <c r="I543" s="18"/>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" s="21"/>
       <c r="B544" s="18"/>
       <c r="C544" s="21"/>
@@ -7569,7 +7592,7 @@
       <c r="H544" s="21"/>
       <c r="I544" s="18"/>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" s="21"/>
       <c r="B545" s="18"/>
       <c r="C545" s="21"/>
@@ -7580,7 +7603,7 @@
       <c r="H545" s="21"/>
       <c r="I545" s="18"/>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" s="21"/>
       <c r="B546" s="18"/>
       <c r="C546" s="21"/>
@@ -7591,7 +7614,7 @@
       <c r="H546" s="21"/>
       <c r="I546" s="18"/>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" s="21"/>
       <c r="B547" s="18"/>
       <c r="C547" s="21"/>
@@ -7602,7 +7625,7 @@
       <c r="H547" s="21"/>
       <c r="I547" s="18"/>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" s="21"/>
       <c r="B548" s="18"/>
       <c r="C548" s="21"/>
@@ -7613,7 +7636,7 @@
       <c r="H548" s="21"/>
       <c r="I548" s="18"/>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" s="21"/>
       <c r="B549" s="18"/>
       <c r="C549" s="21"/>
@@ -7624,7 +7647,7 @@
       <c r="H549" s="21"/>
       <c r="I549" s="18"/>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" s="21"/>
       <c r="B550" s="18"/>
       <c r="C550" s="21"/>
@@ -7635,7 +7658,7 @@
       <c r="H550" s="21"/>
       <c r="I550" s="18"/>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" s="21"/>
       <c r="B551" s="18"/>
       <c r="C551" s="21"/>
@@ -7646,7 +7669,7 @@
       <c r="H551" s="21"/>
       <c r="I551" s="18"/>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" s="21"/>
       <c r="B552" s="18"/>
       <c r="C552" s="21"/>
@@ -7657,7 +7680,7 @@
       <c r="H552" s="21"/>
       <c r="I552" s="18"/>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" s="21"/>
       <c r="B553" s="18"/>
       <c r="C553" s="21"/>
@@ -7668,7 +7691,7 @@
       <c r="H553" s="21"/>
       <c r="I553" s="18"/>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" s="21"/>
       <c r="B554" s="18"/>
       <c r="C554" s="21"/>
@@ -7679,7 +7702,7 @@
       <c r="H554" s="21"/>
       <c r="I554" s="18"/>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" s="21"/>
       <c r="B555" s="18"/>
       <c r="C555" s="21"/>
@@ -7690,7 +7713,7 @@
       <c r="H555" s="21"/>
       <c r="I555" s="18"/>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" s="21"/>
       <c r="B556" s="18"/>
       <c r="C556" s="21"/>
@@ -7701,7 +7724,7 @@
       <c r="H556" s="21"/>
       <c r="I556" s="18"/>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" s="21"/>
       <c r="B557" s="18"/>
       <c r="C557" s="21"/>
@@ -7712,7 +7735,7 @@
       <c r="H557" s="21"/>
       <c r="I557" s="18"/>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" s="21"/>
       <c r="B558" s="18"/>
       <c r="C558" s="21"/>
@@ -7723,7 +7746,7 @@
       <c r="H558" s="21"/>
       <c r="I558" s="18"/>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" s="21"/>
       <c r="B559" s="18"/>
       <c r="C559" s="21"/>
@@ -7734,7 +7757,7 @@
       <c r="H559" s="21"/>
       <c r="I559" s="18"/>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" s="21"/>
       <c r="B560" s="18"/>
       <c r="C560" s="21"/>
@@ -7745,7 +7768,7 @@
       <c r="H560" s="21"/>
       <c r="I560" s="18"/>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" s="21"/>
       <c r="B561" s="18"/>
       <c r="C561" s="21"/>
@@ -7756,7 +7779,7 @@
       <c r="H561" s="21"/>
       <c r="I561" s="18"/>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" s="21"/>
       <c r="B562" s="18"/>
       <c r="C562" s="21"/>
@@ -7767,7 +7790,7 @@
       <c r="H562" s="21"/>
       <c r="I562" s="18"/>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" s="21"/>
       <c r="B563" s="18"/>
       <c r="C563" s="21"/>
@@ -7778,7 +7801,7 @@
       <c r="H563" s="21"/>
       <c r="I563" s="18"/>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" s="21"/>
       <c r="B564" s="18"/>
       <c r="C564" s="21"/>
@@ -7789,7 +7812,7 @@
       <c r="H564" s="21"/>
       <c r="I564" s="18"/>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" s="21"/>
       <c r="B565" s="18"/>
       <c r="C565" s="21"/>
@@ -7800,7 +7823,7 @@
       <c r="H565" s="21"/>
       <c r="I565" s="18"/>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" s="21"/>
       <c r="B566" s="18"/>
       <c r="C566" s="21"/>
@@ -7811,7 +7834,7 @@
       <c r="H566" s="21"/>
       <c r="I566" s="18"/>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" s="21"/>
       <c r="B567" s="18"/>
       <c r="C567" s="21"/>
@@ -7822,7 +7845,7 @@
       <c r="H567" s="21"/>
       <c r="I567" s="18"/>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" s="21"/>
       <c r="B568" s="18"/>
       <c r="C568" s="21"/>
@@ -7833,7 +7856,7 @@
       <c r="H568" s="21"/>
       <c r="I568" s="18"/>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" s="21"/>
       <c r="B569" s="18"/>
       <c r="C569" s="21"/>
@@ -7844,7 +7867,7 @@
       <c r="H569" s="21"/>
       <c r="I569" s="18"/>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" s="21"/>
       <c r="B570" s="18"/>
       <c r="C570" s="21"/>
@@ -7855,7 +7878,7 @@
       <c r="H570" s="21"/>
       <c r="I570" s="18"/>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" s="21"/>
       <c r="B571" s="18"/>
       <c r="C571" s="21"/>
@@ -7866,7 +7889,7 @@
       <c r="H571" s="21"/>
       <c r="I571" s="18"/>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" s="21"/>
       <c r="B572" s="18"/>
       <c r="C572" s="21"/>
@@ -7877,7 +7900,7 @@
       <c r="H572" s="21"/>
       <c r="I572" s="18"/>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" s="21"/>
       <c r="B573" s="18"/>
       <c r="C573" s="21"/>
@@ -7888,7 +7911,7 @@
       <c r="H573" s="21"/>
       <c r="I573" s="18"/>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" s="21"/>
       <c r="B574" s="18"/>
       <c r="C574" s="21"/>
@@ -7899,7 +7922,7 @@
       <c r="H574" s="21"/>
       <c r="I574" s="18"/>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" s="21"/>
       <c r="B575" s="18"/>
       <c r="C575" s="21"/>
@@ -7910,7 +7933,7 @@
       <c r="H575" s="21"/>
       <c r="I575" s="18"/>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" s="21"/>
       <c r="B576" s="18"/>
       <c r="C576" s="21"/>
@@ -7921,7 +7944,7 @@
       <c r="H576" s="21"/>
       <c r="I576" s="18"/>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" s="21"/>
       <c r="B577" s="18"/>
       <c r="C577" s="21"/>
@@ -7932,7 +7955,7 @@
       <c r="H577" s="21"/>
       <c r="I577" s="18"/>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" s="21"/>
       <c r="B578" s="18"/>
       <c r="C578" s="21"/>
@@ -7943,7 +7966,7 @@
       <c r="H578" s="21"/>
       <c r="I578" s="18"/>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" s="21"/>
       <c r="B579" s="18"/>
       <c r="C579" s="21"/>
@@ -7954,7 +7977,7 @@
       <c r="H579" s="21"/>
       <c r="I579" s="18"/>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" s="21"/>
       <c r="B580" s="18"/>
       <c r="C580" s="21"/>
@@ -7965,7 +7988,7 @@
       <c r="H580" s="21"/>
       <c r="I580" s="18"/>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" s="21"/>
       <c r="B581" s="18"/>
       <c r="C581" s="21"/>
@@ -7976,7 +7999,7 @@
       <c r="H581" s="21"/>
       <c r="I581" s="18"/>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" s="21"/>
       <c r="B582" s="18"/>
       <c r="C582" s="21"/>
@@ -7987,7 +8010,7 @@
       <c r="H582" s="21"/>
       <c r="I582" s="18"/>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" s="21"/>
       <c r="B583" s="18"/>
       <c r="C583" s="21"/>
@@ -7998,7 +8021,7 @@
       <c r="H583" s="21"/>
       <c r="I583" s="18"/>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" s="21"/>
       <c r="B584" s="18"/>
       <c r="C584" s="21"/>
@@ -8009,7 +8032,7 @@
       <c r="H584" s="21"/>
       <c r="I584" s="18"/>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" s="21"/>
       <c r="B585" s="18"/>
       <c r="C585" s="21"/>
@@ -8020,7 +8043,7 @@
       <c r="H585" s="21"/>
       <c r="I585" s="18"/>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" s="21"/>
       <c r="B586" s="18"/>
       <c r="C586" s="21"/>
@@ -8031,7 +8054,7 @@
       <c r="H586" s="21"/>
       <c r="I586" s="18"/>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" s="21"/>
       <c r="B587" s="18"/>
       <c r="C587" s="21"/>
@@ -8042,7 +8065,7 @@
       <c r="H587" s="21"/>
       <c r="I587" s="18"/>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" s="21"/>
       <c r="B588" s="18"/>
       <c r="C588" s="21"/>
@@ -8053,7 +8076,7 @@
       <c r="H588" s="21"/>
       <c r="I588" s="18"/>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" s="21"/>
       <c r="B589" s="18"/>
       <c r="C589" s="21"/>
@@ -8064,7 +8087,7 @@
       <c r="H589" s="21"/>
       <c r="I589" s="18"/>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" s="21"/>
       <c r="B590" s="18"/>
       <c r="C590" s="21"/>
@@ -8075,7 +8098,7 @@
       <c r="H590" s="21"/>
       <c r="I590" s="18"/>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" s="21"/>
       <c r="B591" s="18"/>
       <c r="C591" s="21"/>
@@ -8086,7 +8109,7 @@
       <c r="H591" s="21"/>
       <c r="I591" s="18"/>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" s="21"/>
       <c r="B592" s="18"/>
       <c r="C592" s="21"/>
@@ -8097,7 +8120,7 @@
       <c r="H592" s="21"/>
       <c r="I592" s="18"/>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" s="21"/>
       <c r="B593" s="18"/>
       <c r="C593" s="21"/>
@@ -8108,7 +8131,7 @@
       <c r="H593" s="21"/>
       <c r="I593" s="18"/>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" s="21"/>
       <c r="B594" s="18"/>
       <c r="C594" s="21"/>
@@ -8119,7 +8142,7 @@
       <c r="H594" s="21"/>
       <c r="I594" s="18"/>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" s="21"/>
       <c r="B595" s="18"/>
       <c r="C595" s="21"/>
@@ -8130,7 +8153,7 @@
       <c r="H595" s="21"/>
       <c r="I595" s="18"/>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" s="21"/>
       <c r="B596" s="18"/>
       <c r="C596" s="21"/>
@@ -8141,7 +8164,7 @@
       <c r="H596" s="21"/>
       <c r="I596" s="18"/>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" s="21"/>
       <c r="B597" s="18"/>
       <c r="C597" s="21"/>
@@ -8152,7 +8175,7 @@
       <c r="H597" s="21"/>
       <c r="I597" s="18"/>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" s="21"/>
       <c r="B598" s="18"/>
       <c r="C598" s="21"/>
@@ -8163,7 +8186,7 @@
       <c r="H598" s="21"/>
       <c r="I598" s="18"/>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" s="21"/>
       <c r="B599" s="18"/>
       <c r="C599" s="21"/>
@@ -8174,7 +8197,7 @@
       <c r="H599" s="21"/>
       <c r="I599" s="18"/>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" s="21"/>
       <c r="B600" s="18"/>
       <c r="C600" s="21"/>
@@ -8185,7 +8208,7 @@
       <c r="H600" s="21"/>
       <c r="I600" s="18"/>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" s="21"/>
       <c r="B601" s="18"/>
       <c r="C601" s="21"/>
@@ -8196,7 +8219,7 @@
       <c r="H601" s="21"/>
       <c r="I601" s="18"/>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" s="21"/>
       <c r="B602" s="18"/>
       <c r="C602" s="21"/>
@@ -8207,7 +8230,7 @@
       <c r="H602" s="21"/>
       <c r="I602" s="18"/>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" s="21"/>
       <c r="B603" s="18"/>
       <c r="C603" s="21"/>
@@ -8218,7 +8241,7 @@
       <c r="H603" s="21"/>
       <c r="I603" s="18"/>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" s="21"/>
       <c r="B604" s="18"/>
       <c r="C604" s="21"/>
@@ -8229,7 +8252,7 @@
       <c r="H604" s="21"/>
       <c r="I604" s="18"/>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" s="21"/>
       <c r="B605" s="18"/>
       <c r="C605" s="21"/>
@@ -8240,7 +8263,7 @@
       <c r="H605" s="21"/>
       <c r="I605" s="18"/>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" s="21"/>
       <c r="B606" s="18"/>
       <c r="C606" s="21"/>
@@ -8251,7 +8274,7 @@
       <c r="H606" s="21"/>
       <c r="I606" s="18"/>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" s="21"/>
       <c r="B607" s="18"/>
       <c r="C607" s="21"/>
@@ -8262,7 +8285,7 @@
       <c r="H607" s="21"/>
       <c r="I607" s="18"/>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" s="21"/>
       <c r="B608" s="18"/>
       <c r="C608" s="21"/>
@@ -8273,7 +8296,7 @@
       <c r="H608" s="21"/>
       <c r="I608" s="18"/>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" s="21"/>
       <c r="B609" s="18"/>
       <c r="C609" s="21"/>
@@ -8284,7 +8307,7 @@
       <c r="H609" s="21"/>
       <c r="I609" s="18"/>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" s="21"/>
       <c r="B610" s="18"/>
       <c r="C610" s="21"/>
@@ -8295,7 +8318,7 @@
       <c r="H610" s="21"/>
       <c r="I610" s="18"/>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" s="21"/>
       <c r="B611" s="18"/>
       <c r="C611" s="21"/>
@@ -8306,7 +8329,7 @@
       <c r="H611" s="21"/>
       <c r="I611" s="18"/>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" s="21"/>
       <c r="B612" s="18"/>
       <c r="C612" s="21"/>
@@ -8317,7 +8340,7 @@
       <c r="H612" s="21"/>
       <c r="I612" s="18"/>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" s="21"/>
       <c r="B613" s="18"/>
       <c r="C613" s="21"/>
@@ -8328,7 +8351,7 @@
       <c r="H613" s="21"/>
       <c r="I613" s="18"/>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" s="21"/>
       <c r="B614" s="18"/>
       <c r="C614" s="21"/>
@@ -8339,7 +8362,7 @@
       <c r="H614" s="21"/>
       <c r="I614" s="18"/>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" s="21"/>
       <c r="B615" s="18"/>
       <c r="C615" s="21"/>
@@ -8350,7 +8373,7 @@
       <c r="H615" s="21"/>
       <c r="I615" s="18"/>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" s="21"/>
       <c r="B616" s="18"/>
       <c r="C616" s="21"/>
@@ -8361,7 +8384,7 @@
       <c r="H616" s="21"/>
       <c r="I616" s="18"/>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" s="21"/>
       <c r="B617" s="18"/>
       <c r="C617" s="21"/>
@@ -8372,7 +8395,7 @@
       <c r="H617" s="21"/>
       <c r="I617" s="18"/>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" s="21"/>
       <c r="B618" s="18"/>
       <c r="C618" s="21"/>
@@ -8383,7 +8406,7 @@
       <c r="H618" s="21"/>
       <c r="I618" s="18"/>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" s="21"/>
       <c r="B619" s="18"/>
       <c r="C619" s="21"/>
@@ -8394,7 +8417,7 @@
       <c r="H619" s="21"/>
       <c r="I619" s="18"/>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" s="21"/>
       <c r="B620" s="18"/>
       <c r="C620" s="21"/>
@@ -8405,7 +8428,7 @@
       <c r="H620" s="21"/>
       <c r="I620" s="18"/>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" s="21"/>
       <c r="B621" s="18"/>
       <c r="C621" s="21"/>
@@ -8416,7 +8439,7 @@
       <c r="H621" s="21"/>
       <c r="I621" s="18"/>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" s="21"/>
       <c r="B622" s="18"/>
       <c r="C622" s="21"/>
@@ -8427,7 +8450,7 @@
       <c r="H622" s="21"/>
       <c r="I622" s="18"/>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" s="21"/>
       <c r="B623" s="18"/>
       <c r="C623" s="21"/>
@@ -8438,7 +8461,7 @@
       <c r="H623" s="21"/>
       <c r="I623" s="18"/>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" s="21"/>
       <c r="B624" s="18"/>
       <c r="C624" s="21"/>
@@ -8449,7 +8472,7 @@
       <c r="H624" s="21"/>
       <c r="I624" s="18"/>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625" s="21"/>
       <c r="B625" s="18"/>
       <c r="C625" s="21"/>
@@ -8460,7 +8483,7 @@
       <c r="H625" s="21"/>
       <c r="I625" s="18"/>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626" s="21"/>
       <c r="B626" s="18"/>
       <c r="C626" s="21"/>
@@ -8471,7 +8494,7 @@
       <c r="H626" s="21"/>
       <c r="I626" s="18"/>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" s="21"/>
       <c r="B627" s="18"/>
       <c r="C627" s="21"/>
@@ -8482,7 +8505,7 @@
       <c r="H627" s="21"/>
       <c r="I627" s="18"/>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" s="21"/>
       <c r="B628" s="18"/>
       <c r="C628" s="21"/>
@@ -8493,7 +8516,7 @@
       <c r="H628" s="21"/>
       <c r="I628" s="18"/>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629" s="21"/>
       <c r="B629" s="18"/>
       <c r="C629" s="21"/>
@@ -8504,7 +8527,7 @@
       <c r="H629" s="21"/>
       <c r="I629" s="18"/>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630" s="21"/>
       <c r="B630" s="18"/>
       <c r="C630" s="21"/>
@@ -8515,7 +8538,7 @@
       <c r="H630" s="21"/>
       <c r="I630" s="18"/>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631" s="21"/>
       <c r="B631" s="18"/>
       <c r="C631" s="21"/>
@@ -8526,7 +8549,7 @@
       <c r="H631" s="21"/>
       <c r="I631" s="18"/>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" s="21"/>
       <c r="B632" s="18"/>
       <c r="C632" s="21"/>
@@ -8537,7 +8560,7 @@
       <c r="H632" s="21"/>
       <c r="I632" s="18"/>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" s="21"/>
       <c r="B633" s="18"/>
       <c r="C633" s="21"/>
@@ -8548,7 +8571,7 @@
       <c r="H633" s="21"/>
       <c r="I633" s="18"/>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634" s="21"/>
       <c r="B634" s="18"/>
       <c r="C634" s="21"/>
@@ -8559,7 +8582,7 @@
       <c r="H634" s="21"/>
       <c r="I634" s="18"/>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635" s="21"/>
       <c r="B635" s="18"/>
       <c r="C635" s="21"/>
@@ -8570,7 +8593,7 @@
       <c r="H635" s="21"/>
       <c r="I635" s="18"/>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636" s="21"/>
       <c r="B636" s="18"/>
       <c r="C636" s="21"/>
@@ -8581,7 +8604,7 @@
       <c r="H636" s="21"/>
       <c r="I636" s="18"/>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637" s="21"/>
       <c r="B637" s="18"/>
       <c r="C637" s="21"/>
@@ -8592,7 +8615,7 @@
       <c r="H637" s="21"/>
       <c r="I637" s="18"/>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" s="21"/>
       <c r="B638" s="18"/>
       <c r="C638" s="21"/>
@@ -8603,7 +8626,7 @@
       <c r="H638" s="21"/>
       <c r="I638" s="18"/>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639" s="21"/>
       <c r="B639" s="18"/>
       <c r="C639" s="21"/>
@@ -8614,7 +8637,7 @@
       <c r="H639" s="21"/>
       <c r="I639" s="18"/>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640" s="21"/>
       <c r="B640" s="18"/>
       <c r="C640" s="21"/>
@@ -8625,7 +8648,7 @@
       <c r="H640" s="21"/>
       <c r="I640" s="18"/>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641" s="21"/>
       <c r="B641" s="18"/>
       <c r="C641" s="21"/>
@@ -8636,7 +8659,7 @@
       <c r="H641" s="21"/>
       <c r="I641" s="18"/>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" s="21"/>
       <c r="B642" s="18"/>
       <c r="C642" s="21"/>
@@ -8647,7 +8670,7 @@
       <c r="H642" s="21"/>
       <c r="I642" s="18"/>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" s="21"/>
       <c r="B643" s="18"/>
       <c r="C643" s="21"/>
@@ -8658,7 +8681,7 @@
       <c r="H643" s="21"/>
       <c r="I643" s="18"/>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644" s="21"/>
       <c r="B644" s="18"/>
       <c r="C644" s="21"/>
@@ -8669,7 +8692,7 @@
       <c r="H644" s="21"/>
       <c r="I644" s="18"/>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" s="21"/>
       <c r="B645" s="18"/>
       <c r="C645" s="21"/>
@@ -8680,7 +8703,7 @@
       <c r="H645" s="21"/>
       <c r="I645" s="18"/>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646" s="21"/>
       <c r="B646" s="18"/>
       <c r="C646" s="21"/>
@@ -8691,7 +8714,7 @@
       <c r="H646" s="21"/>
       <c r="I646" s="18"/>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647" s="21"/>
       <c r="B647" s="18"/>
       <c r="C647" s="21"/>
@@ -8702,7 +8725,7 @@
       <c r="H647" s="21"/>
       <c r="I647" s="18"/>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648" s="21"/>
       <c r="B648" s="18"/>
       <c r="C648" s="21"/>
@@ -8713,7 +8736,7 @@
       <c r="H648" s="21"/>
       <c r="I648" s="18"/>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649" s="21"/>
       <c r="B649" s="18"/>
       <c r="C649" s="21"/>
@@ -8724,7 +8747,7 @@
       <c r="H649" s="21"/>
       <c r="I649" s="18"/>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650" s="21"/>
       <c r="B650" s="18"/>
       <c r="C650" s="21"/>
@@ -8735,7 +8758,7 @@
       <c r="H650" s="21"/>
       <c r="I650" s="18"/>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651" s="21"/>
       <c r="B651" s="18"/>
       <c r="C651" s="21"/>
@@ -8746,7 +8769,7 @@
       <c r="H651" s="21"/>
       <c r="I651" s="18"/>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652" s="21"/>
       <c r="B652" s="18"/>
       <c r="C652" s="21"/>
@@ -8757,7 +8780,7 @@
       <c r="H652" s="21"/>
       <c r="I652" s="18"/>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653" s="21"/>
       <c r="B653" s="18"/>
       <c r="C653" s="21"/>
@@ -8768,7 +8791,7 @@
       <c r="H653" s="21"/>
       <c r="I653" s="18"/>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654" s="21"/>
       <c r="B654" s="18"/>
       <c r="C654" s="21"/>
@@ -8779,7 +8802,7 @@
       <c r="H654" s="21"/>
       <c r="I654" s="18"/>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655" s="21"/>
       <c r="B655" s="18"/>
       <c r="C655" s="21"/>
@@ -8790,7 +8813,7 @@
       <c r="H655" s="21"/>
       <c r="I655" s="18"/>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656" s="21"/>
       <c r="B656" s="18"/>
       <c r="C656" s="21"/>
@@ -8801,7 +8824,7 @@
       <c r="H656" s="21"/>
       <c r="I656" s="18"/>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657" s="21"/>
       <c r="B657" s="18"/>
       <c r="C657" s="21"/>
@@ -8812,7 +8835,7 @@
       <c r="H657" s="21"/>
       <c r="I657" s="18"/>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658" s="21"/>
       <c r="B658" s="18"/>
       <c r="C658" s="21"/>
@@ -8823,7 +8846,7 @@
       <c r="H658" s="21"/>
       <c r="I658" s="18"/>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659" s="21"/>
       <c r="B659" s="18"/>
       <c r="C659" s="21"/>
@@ -8834,7 +8857,7 @@
       <c r="H659" s="21"/>
       <c r="I659" s="18"/>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A660" s="21"/>
       <c r="B660" s="18"/>
       <c r="C660" s="21"/>
@@ -8845,7 +8868,7 @@
       <c r="H660" s="21"/>
       <c r="I660" s="18"/>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661" s="21"/>
       <c r="B661" s="18"/>
       <c r="C661" s="21"/>
@@ -8856,7 +8879,7 @@
       <c r="H661" s="21"/>
       <c r="I661" s="18"/>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662" s="21"/>
       <c r="B662" s="18"/>
       <c r="C662" s="21"/>
@@ -8867,7 +8890,7 @@
       <c r="H662" s="21"/>
       <c r="I662" s="18"/>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663" s="21"/>
       <c r="B663" s="18"/>
       <c r="C663" s="21"/>
@@ -8878,7 +8901,7 @@
       <c r="H663" s="21"/>
       <c r="I663" s="18"/>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A664" s="21"/>
       <c r="B664" s="18"/>
       <c r="C664" s="21"/>
@@ -8889,7 +8912,7 @@
       <c r="H664" s="21"/>
       <c r="I664" s="18"/>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665" s="21"/>
       <c r="B665" s="18"/>
       <c r="C665" s="21"/>
@@ -8900,7 +8923,7 @@
       <c r="H665" s="21"/>
       <c r="I665" s="18"/>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A666" s="21"/>
       <c r="B666" s="18"/>
       <c r="C666" s="21"/>
@@ -8911,7 +8934,7 @@
       <c r="H666" s="21"/>
       <c r="I666" s="18"/>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667" s="21"/>
       <c r="B667" s="18"/>
       <c r="C667" s="21"/>
@@ -8922,7 +8945,7 @@
       <c r="H667" s="21"/>
       <c r="I667" s="18"/>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A668" s="21"/>
       <c r="B668" s="18"/>
       <c r="C668" s="21"/>
@@ -8933,7 +8956,7 @@
       <c r="H668" s="21"/>
       <c r="I668" s="18"/>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669" s="21"/>
       <c r="B669" s="18"/>
       <c r="C669" s="21"/>
@@ -8944,7 +8967,7 @@
       <c r="H669" s="21"/>
       <c r="I669" s="18"/>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A670" s="21"/>
       <c r="B670" s="18"/>
       <c r="C670" s="21"/>
@@ -8955,7 +8978,7 @@
       <c r="H670" s="21"/>
       <c r="I670" s="18"/>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671" s="21"/>
       <c r="B671" s="18"/>
       <c r="C671" s="21"/>
@@ -8966,7 +8989,7 @@
       <c r="H671" s="21"/>
       <c r="I671" s="18"/>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672" s="21"/>
       <c r="B672" s="18"/>
       <c r="C672" s="21"/>
@@ -8977,7 +9000,7 @@
       <c r="H672" s="21"/>
       <c r="I672" s="18"/>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673" s="21"/>
       <c r="B673" s="18"/>
       <c r="C673" s="21"/>
@@ -8988,7 +9011,7 @@
       <c r="H673" s="21"/>
       <c r="I673" s="18"/>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" s="21"/>
       <c r="B674" s="18"/>
       <c r="C674" s="21"/>
@@ -8999,7 +9022,7 @@
       <c r="H674" s="21"/>
       <c r="I674" s="18"/>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" s="21"/>
       <c r="B675" s="18"/>
       <c r="C675" s="21"/>
@@ -9010,7 +9033,7 @@
       <c r="H675" s="21"/>
       <c r="I675" s="18"/>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" s="21"/>
       <c r="B676" s="18"/>
       <c r="C676" s="21"/>
@@ -9021,7 +9044,7 @@
       <c r="H676" s="21"/>
       <c r="I676" s="18"/>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677" s="21"/>
       <c r="B677" s="18"/>
       <c r="C677" s="21"/>
@@ -9032,7 +9055,7 @@
       <c r="H677" s="21"/>
       <c r="I677" s="18"/>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" s="21"/>
       <c r="B678" s="18"/>
       <c r="C678" s="21"/>
@@ -9043,7 +9066,7 @@
       <c r="H678" s="21"/>
       <c r="I678" s="18"/>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679" s="21"/>
       <c r="B679" s="18"/>
       <c r="C679" s="21"/>
@@ -9054,7 +9077,7 @@
       <c r="H679" s="21"/>
       <c r="I679" s="18"/>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680" s="21"/>
       <c r="B680" s="18"/>
       <c r="C680" s="21"/>
@@ -9065,7 +9088,7 @@
       <c r="H680" s="21"/>
       <c r="I680" s="18"/>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" s="21"/>
       <c r="B681" s="18"/>
       <c r="C681" s="21"/>
@@ -9076,7 +9099,7 @@
       <c r="H681" s="21"/>
       <c r="I681" s="18"/>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" s="21"/>
       <c r="B682" s="18"/>
       <c r="C682" s="21"/>
@@ -9087,7 +9110,7 @@
       <c r="H682" s="21"/>
       <c r="I682" s="18"/>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" s="21"/>
       <c r="B683" s="18"/>
       <c r="C683" s="21"/>
@@ -9098,7 +9121,7 @@
       <c r="H683" s="21"/>
       <c r="I683" s="18"/>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" s="21"/>
       <c r="B684" s="18"/>
       <c r="C684" s="21"/>
@@ -9109,7 +9132,7 @@
       <c r="H684" s="21"/>
       <c r="I684" s="18"/>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" s="21"/>
       <c r="B685" s="18"/>
       <c r="C685" s="21"/>
@@ -9120,7 +9143,7 @@
       <c r="H685" s="21"/>
       <c r="I685" s="18"/>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" s="21"/>
       <c r="B686" s="18"/>
       <c r="C686" s="21"/>
@@ -9131,7 +9154,7 @@
       <c r="H686" s="21"/>
       <c r="I686" s="18"/>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687" s="21"/>
       <c r="B687" s="18"/>
       <c r="C687" s="21"/>
@@ -9142,7 +9165,7 @@
       <c r="H687" s="21"/>
       <c r="I687" s="18"/>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688" s="21"/>
       <c r="B688" s="18"/>
       <c r="C688" s="21"/>
@@ -9153,7 +9176,7 @@
       <c r="H688" s="21"/>
       <c r="I688" s="18"/>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A689" s="21"/>
       <c r="B689" s="18"/>
       <c r="C689" s="21"/>
@@ -9164,7 +9187,7 @@
       <c r="H689" s="21"/>
       <c r="I689" s="18"/>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A690" s="21"/>
       <c r="B690" s="18"/>
       <c r="C690" s="21"/>
@@ -9175,7 +9198,7 @@
       <c r="H690" s="21"/>
       <c r="I690" s="18"/>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A691" s="21"/>
       <c r="B691" s="18"/>
       <c r="C691" s="21"/>
@@ -9186,7 +9209,7 @@
       <c r="H691" s="21"/>
       <c r="I691" s="18"/>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A692" s="21"/>
       <c r="B692" s="18"/>
       <c r="C692" s="21"/>
@@ -9197,7 +9220,7 @@
       <c r="H692" s="21"/>
       <c r="I692" s="18"/>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A693" s="21"/>
       <c r="B693" s="18"/>
       <c r="C693" s="21"/>
@@ -9208,7 +9231,7 @@
       <c r="H693" s="21"/>
       <c r="I693" s="18"/>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694" s="21"/>
       <c r="B694" s="18"/>
       <c r="C694" s="21"/>
@@ -9219,7 +9242,7 @@
       <c r="H694" s="21"/>
       <c r="I694" s="18"/>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A695" s="21"/>
       <c r="B695" s="18"/>
       <c r="C695" s="21"/>
@@ -9230,7 +9253,7 @@
       <c r="H695" s="21"/>
       <c r="I695" s="18"/>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A696" s="21"/>
       <c r="B696" s="18"/>
       <c r="C696" s="21"/>
@@ -9241,7 +9264,7 @@
       <c r="H696" s="21"/>
       <c r="I696" s="18"/>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697" s="21"/>
       <c r="B697" s="18"/>
       <c r="C697" s="21"/>
@@ -9252,7 +9275,7 @@
       <c r="H697" s="21"/>
       <c r="I697" s="18"/>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698" s="21"/>
       <c r="B698" s="18"/>
       <c r="C698" s="21"/>
@@ -9263,7 +9286,7 @@
       <c r="H698" s="21"/>
       <c r="I698" s="18"/>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A699" s="21"/>
       <c r="B699" s="18"/>
       <c r="C699" s="21"/>
@@ -9274,7 +9297,7 @@
       <c r="H699" s="21"/>
       <c r="I699" s="18"/>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A700" s="21"/>
       <c r="B700" s="18"/>
       <c r="C700" s="21"/>
@@ -9285,7 +9308,7 @@
       <c r="H700" s="21"/>
       <c r="I700" s="18"/>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701" s="21"/>
       <c r="B701" s="18"/>
       <c r="C701" s="21"/>
@@ -9296,7 +9319,7 @@
       <c r="H701" s="21"/>
       <c r="I701" s="18"/>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A702" s="21"/>
       <c r="B702" s="18"/>
       <c r="C702" s="21"/>
@@ -9307,7 +9330,7 @@
       <c r="H702" s="21"/>
       <c r="I702" s="18"/>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703" s="21"/>
       <c r="B703" s="18"/>
       <c r="C703" s="21"/>
@@ -9318,7 +9341,7 @@
       <c r="H703" s="21"/>
       <c r="I703" s="18"/>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704" s="21"/>
       <c r="B704" s="18"/>
       <c r="C704" s="21"/>
@@ -9329,7 +9352,7 @@
       <c r="H704" s="21"/>
       <c r="I704" s="18"/>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A705" s="21"/>
       <c r="B705" s="18"/>
       <c r="C705" s="21"/>
@@ -9340,7 +9363,7 @@
       <c r="H705" s="21"/>
       <c r="I705" s="18"/>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A706" s="21"/>
       <c r="B706" s="18"/>
       <c r="C706" s="21"/>
@@ -9351,7 +9374,7 @@
       <c r="H706" s="21"/>
       <c r="I706" s="18"/>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A707" s="21"/>
       <c r="B707" s="18"/>
       <c r="C707" s="21"/>
@@ -9362,7 +9385,7 @@
       <c r="H707" s="21"/>
       <c r="I707" s="18"/>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A708" s="21"/>
       <c r="B708" s="18"/>
       <c r="C708" s="21"/>
@@ -9373,7 +9396,7 @@
       <c r="H708" s="21"/>
       <c r="I708" s="18"/>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A709" s="21"/>
       <c r="B709" s="18"/>
       <c r="C709" s="21"/>
@@ -9384,7 +9407,7 @@
       <c r="H709" s="21"/>
       <c r="I709" s="18"/>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A710" s="21"/>
       <c r="B710" s="18"/>
       <c r="C710" s="21"/>
@@ -9395,7 +9418,7 @@
       <c r="H710" s="21"/>
       <c r="I710" s="18"/>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A711" s="21"/>
       <c r="B711" s="18"/>
       <c r="C711" s="21"/>
@@ -9406,7 +9429,7 @@
       <c r="H711" s="21"/>
       <c r="I711" s="18"/>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A712" s="21"/>
       <c r="B712" s="18"/>
       <c r="C712" s="21"/>
@@ -9417,7 +9440,7 @@
       <c r="H712" s="21"/>
       <c r="I712" s="18"/>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A713" s="21"/>
       <c r="B713" s="18"/>
       <c r="C713" s="21"/>
@@ -9428,7 +9451,7 @@
       <c r="H713" s="21"/>
       <c r="I713" s="18"/>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A714" s="21"/>
       <c r="B714" s="18"/>
       <c r="C714" s="21"/>
@@ -9439,7 +9462,7 @@
       <c r="H714" s="21"/>
       <c r="I714" s="18"/>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A715" s="21"/>
       <c r="B715" s="18"/>
       <c r="C715" s="21"/>
@@ -9450,7 +9473,7 @@
       <c r="H715" s="21"/>
       <c r="I715" s="18"/>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A716" s="21"/>
       <c r="B716" s="18"/>
       <c r="C716" s="21"/>
@@ -9461,7 +9484,7 @@
       <c r="H716" s="21"/>
       <c r="I716" s="18"/>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A717" s="21"/>
       <c r="B717" s="18"/>
       <c r="C717" s="21"/>
@@ -9472,7 +9495,7 @@
       <c r="H717" s="21"/>
       <c r="I717" s="18"/>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A718" s="21"/>
       <c r="B718" s="18"/>
       <c r="C718" s="21"/>
@@ -9483,7 +9506,7 @@
       <c r="H718" s="21"/>
       <c r="I718" s="18"/>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A719" s="21"/>
       <c r="B719" s="18"/>
       <c r="C719" s="21"/>
@@ -9494,7 +9517,7 @@
       <c r="H719" s="21"/>
       <c r="I719" s="18"/>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A720" s="21"/>
       <c r="B720" s="18"/>
       <c r="C720" s="21"/>
@@ -9505,7 +9528,7 @@
       <c r="H720" s="21"/>
       <c r="I720" s="18"/>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721" s="21"/>
       <c r="B721" s="18"/>
       <c r="C721" s="21"/>
@@ -9516,7 +9539,7 @@
       <c r="H721" s="21"/>
       <c r="I721" s="18"/>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A722" s="21"/>
       <c r="B722" s="18"/>
       <c r="C722" s="21"/>
@@ -9527,7 +9550,7 @@
       <c r="H722" s="21"/>
       <c r="I722" s="18"/>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723" s="21"/>
       <c r="B723" s="18"/>
       <c r="C723" s="21"/>
@@ -9538,7 +9561,7 @@
       <c r="H723" s="21"/>
       <c r="I723" s="18"/>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A724" s="21"/>
       <c r="B724" s="18"/>
       <c r="C724" s="21"/>
@@ -9549,7 +9572,7 @@
       <c r="H724" s="21"/>
       <c r="I724" s="18"/>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725" s="21"/>
       <c r="B725" s="18"/>
       <c r="C725" s="21"/>
@@ -9560,7 +9583,7 @@
       <c r="H725" s="21"/>
       <c r="I725" s="18"/>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726" s="21"/>
       <c r="B726" s="18"/>
       <c r="C726" s="21"/>
@@ -9571,7 +9594,7 @@
       <c r="H726" s="21"/>
       <c r="I726" s="18"/>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A727" s="21"/>
       <c r="B727" s="18"/>
       <c r="C727" s="21"/>
@@ -9582,7 +9605,7 @@
       <c r="H727" s="21"/>
       <c r="I727" s="18"/>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728" s="21"/>
       <c r="B728" s="18"/>
       <c r="C728" s="21"/>
@@ -9593,7 +9616,7 @@
       <c r="H728" s="21"/>
       <c r="I728" s="18"/>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729" s="21"/>
       <c r="B729" s="18"/>
       <c r="C729" s="21"/>
@@ -9604,7 +9627,7 @@
       <c r="H729" s="21"/>
       <c r="I729" s="18"/>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A730" s="21"/>
       <c r="B730" s="18"/>
       <c r="C730" s="21"/>
@@ -9615,7 +9638,7 @@
       <c r="H730" s="21"/>
       <c r="I730" s="18"/>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A731" s="21"/>
       <c r="B731" s="18"/>
       <c r="C731" s="21"/>
@@ -9626,7 +9649,7 @@
       <c r="H731" s="21"/>
       <c r="I731" s="18"/>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A732" s="21"/>
       <c r="B732" s="18"/>
       <c r="C732" s="21"/>
@@ -9637,7 +9660,7 @@
       <c r="H732" s="21"/>
       <c r="I732" s="18"/>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A733" s="21"/>
       <c r="B733" s="18"/>
       <c r="C733" s="21"/>
@@ -9648,7 +9671,7 @@
       <c r="H733" s="21"/>
       <c r="I733" s="18"/>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A734" s="21"/>
       <c r="B734" s="18"/>
       <c r="C734" s="21"/>
@@ -9659,7 +9682,7 @@
       <c r="H734" s="21"/>
       <c r="I734" s="18"/>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A735" s="21"/>
       <c r="B735" s="18"/>
       <c r="C735" s="21"/>
@@ -9670,7 +9693,7 @@
       <c r="H735" s="21"/>
       <c r="I735" s="18"/>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A736" s="21"/>
       <c r="B736" s="18"/>
       <c r="C736" s="21"/>
@@ -9681,7 +9704,7 @@
       <c r="H736" s="21"/>
       <c r="I736" s="18"/>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A737" s="21"/>
       <c r="B737" s="18"/>
       <c r="C737" s="21"/>
@@ -9692,7 +9715,7 @@
       <c r="H737" s="21"/>
       <c r="I737" s="18"/>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A738" s="21"/>
       <c r="B738" s="18"/>
       <c r="C738" s="21"/>
@@ -9703,7 +9726,7 @@
       <c r="H738" s="21"/>
       <c r="I738" s="18"/>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A739" s="21"/>
       <c r="B739" s="18"/>
       <c r="C739" s="21"/>
@@ -9714,7 +9737,7 @@
       <c r="H739" s="21"/>
       <c r="I739" s="18"/>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A740" s="21"/>
       <c r="B740" s="18"/>
       <c r="C740" s="21"/>
@@ -9725,7 +9748,7 @@
       <c r="H740" s="21"/>
       <c r="I740" s="18"/>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A741" s="21"/>
       <c r="B741" s="18"/>
       <c r="C741" s="21"/>
@@ -9736,7 +9759,7 @@
       <c r="H741" s="21"/>
       <c r="I741" s="18"/>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A742" s="21"/>
       <c r="B742" s="18"/>
       <c r="C742" s="21"/>
@@ -9747,7 +9770,7 @@
       <c r="H742" s="21"/>
       <c r="I742" s="18"/>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A743" s="21"/>
       <c r="B743" s="18"/>
       <c r="C743" s="21"/>
@@ -9758,7 +9781,7 @@
       <c r="H743" s="21"/>
       <c r="I743" s="18"/>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A744" s="21"/>
       <c r="B744" s="18"/>
       <c r="C744" s="21"/>
@@ -9769,7 +9792,7 @@
       <c r="H744" s="21"/>
       <c r="I744" s="18"/>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A745" s="21"/>
       <c r="B745" s="18"/>
       <c r="C745" s="21"/>
@@ -9780,7 +9803,7 @@
       <c r="H745" s="21"/>
       <c r="I745" s="18"/>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A746" s="21"/>
       <c r="B746" s="18"/>
       <c r="C746" s="21"/>
@@ -9791,7 +9814,7 @@
       <c r="H746" s="21"/>
       <c r="I746" s="18"/>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A747" s="21"/>
       <c r="B747" s="18"/>
       <c r="C747" s="21"/>
@@ -9802,7 +9825,7 @@
       <c r="H747" s="21"/>
       <c r="I747" s="18"/>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A748" s="21"/>
       <c r="B748" s="18"/>
       <c r="C748" s="21"/>
@@ -9813,7 +9836,7 @@
       <c r="H748" s="21"/>
       <c r="I748" s="18"/>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A749" s="21"/>
       <c r="B749" s="18"/>
       <c r="C749" s="21"/>
@@ -9824,7 +9847,7 @@
       <c r="H749" s="21"/>
       <c r="I749" s="18"/>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A750" s="21"/>
       <c r="B750" s="18"/>
       <c r="C750" s="21"/>
@@ -9835,7 +9858,7 @@
       <c r="H750" s="21"/>
       <c r="I750" s="18"/>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A751" s="21"/>
       <c r="B751" s="18"/>
       <c r="C751" s="21"/>
@@ -9846,7 +9869,7 @@
       <c r="H751" s="21"/>
       <c r="I751" s="18"/>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A752" s="21"/>
       <c r="B752" s="18"/>
       <c r="C752" s="21"/>
@@ -9857,7 +9880,7 @@
       <c r="H752" s="21"/>
       <c r="I752" s="18"/>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753" s="21"/>
       <c r="B753" s="18"/>
       <c r="C753" s="21"/>
@@ -9868,7 +9891,7 @@
       <c r="H753" s="21"/>
       <c r="I753" s="18"/>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754" s="21"/>
       <c r="B754" s="18"/>
       <c r="C754" s="21"/>
@@ -9879,7 +9902,7 @@
       <c r="H754" s="21"/>
       <c r="I754" s="18"/>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755" s="21"/>
       <c r="B755" s="18"/>
       <c r="C755" s="21"/>
@@ -9890,7 +9913,7 @@
       <c r="H755" s="21"/>
       <c r="I755" s="18"/>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756" s="21"/>
       <c r="B756" s="18"/>
       <c r="C756" s="21"/>
@@ -9901,7 +9924,7 @@
       <c r="H756" s="21"/>
       <c r="I756" s="18"/>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757" s="21"/>
       <c r="B757" s="18"/>
       <c r="C757" s="21"/>
@@ -9912,7 +9935,7 @@
       <c r="H757" s="21"/>
       <c r="I757" s="18"/>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758" s="21"/>
       <c r="B758" s="18"/>
       <c r="C758" s="21"/>
@@ -9923,7 +9946,7 @@
       <c r="H758" s="21"/>
       <c r="I758" s="18"/>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759" s="21"/>
       <c r="B759" s="18"/>
       <c r="C759" s="21"/>
@@ -9934,7 +9957,7 @@
       <c r="H759" s="21"/>
       <c r="I759" s="18"/>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760" s="21"/>
       <c r="B760" s="18"/>
       <c r="C760" s="21"/>
@@ -9945,7 +9968,7 @@
       <c r="H760" s="21"/>
       <c r="I760" s="18"/>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761" s="21"/>
       <c r="B761" s="18"/>
       <c r="C761" s="21"/>
@@ -9956,7 +9979,7 @@
       <c r="H761" s="21"/>
       <c r="I761" s="18"/>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762" s="21"/>
       <c r="B762" s="18"/>
       <c r="C762" s="21"/>
@@ -9967,7 +9990,7 @@
       <c r="H762" s="21"/>
       <c r="I762" s="18"/>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763" s="21"/>
       <c r="B763" s="18"/>
       <c r="C763" s="21"/>
@@ -9978,7 +10001,7 @@
       <c r="H763" s="21"/>
       <c r="I763" s="18"/>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764" s="21"/>
       <c r="B764" s="18"/>
       <c r="C764" s="21"/>
@@ -9989,7 +10012,7 @@
       <c r="H764" s="21"/>
       <c r="I764" s="18"/>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765" s="21"/>
       <c r="B765" s="18"/>
       <c r="C765" s="21"/>
@@ -10000,7 +10023,7 @@
       <c r="H765" s="21"/>
       <c r="I765" s="18"/>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766" s="21"/>
       <c r="B766" s="18"/>
       <c r="C766" s="21"/>
@@ -10011,7 +10034,7 @@
       <c r="H766" s="21"/>
       <c r="I766" s="18"/>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767" s="21"/>
       <c r="B767" s="18"/>
       <c r="C767" s="21"/>
@@ -10022,7 +10045,7 @@
       <c r="H767" s="21"/>
       <c r="I767" s="18"/>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768" s="21"/>
       <c r="B768" s="18"/>
       <c r="C768" s="21"/>
@@ -10033,7 +10056,7 @@
       <c r="H768" s="21"/>
       <c r="I768" s="18"/>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" s="21"/>
       <c r="B769" s="18"/>
       <c r="C769" s="21"/>
@@ -10044,7 +10067,7 @@
       <c r="H769" s="21"/>
       <c r="I769" s="18"/>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" s="21"/>
       <c r="B770" s="18"/>
       <c r="C770" s="21"/>
@@ -10055,7 +10078,7 @@
       <c r="H770" s="21"/>
       <c r="I770" s="18"/>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" s="21"/>
       <c r="B771" s="18"/>
       <c r="C771" s="21"/>
@@ -10066,7 +10089,7 @@
       <c r="H771" s="21"/>
       <c r="I771" s="18"/>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" s="21"/>
       <c r="B772" s="18"/>
       <c r="C772" s="21"/>
@@ -10077,7 +10100,7 @@
       <c r="H772" s="21"/>
       <c r="I772" s="18"/>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" s="21"/>
       <c r="B773" s="18"/>
       <c r="C773" s="21"/>
@@ -10088,7 +10111,7 @@
       <c r="H773" s="21"/>
       <c r="I773" s="18"/>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" s="21"/>
       <c r="B774" s="18"/>
       <c r="C774" s="21"/>
@@ -10099,7 +10122,7 @@
       <c r="H774" s="21"/>
       <c r="I774" s="18"/>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" s="21"/>
       <c r="B775" s="18"/>
       <c r="C775" s="21"/>
@@ -10110,7 +10133,7 @@
       <c r="H775" s="21"/>
       <c r="I775" s="18"/>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" s="21"/>
       <c r="B776" s="18"/>
       <c r="C776" s="21"/>
@@ -10121,7 +10144,7 @@
       <c r="H776" s="21"/>
       <c r="I776" s="18"/>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" s="21"/>
       <c r="B777" s="18"/>
       <c r="C777" s="21"/>
@@ -10132,7 +10155,7 @@
       <c r="H777" s="21"/>
       <c r="I777" s="18"/>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" s="21"/>
       <c r="B778" s="18"/>
       <c r="C778" s="21"/>
@@ -10143,7 +10166,7 @@
       <c r="H778" s="21"/>
       <c r="I778" s="18"/>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" s="21"/>
       <c r="B779" s="18"/>
       <c r="C779" s="21"/>
@@ -10154,7 +10177,7 @@
       <c r="H779" s="21"/>
       <c r="I779" s="18"/>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" s="21"/>
       <c r="B780" s="18"/>
       <c r="C780" s="21"/>
@@ -10165,7 +10188,7 @@
       <c r="H780" s="21"/>
       <c r="I780" s="18"/>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" s="21"/>
       <c r="B781" s="18"/>
       <c r="C781" s="21"/>
@@ -10176,7 +10199,7 @@
       <c r="H781" s="21"/>
       <c r="I781" s="18"/>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" s="21"/>
       <c r="B782" s="18"/>
       <c r="C782" s="21"/>
@@ -10187,7 +10210,7 @@
       <c r="H782" s="21"/>
       <c r="I782" s="18"/>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" s="21"/>
       <c r="B783" s="18"/>
       <c r="C783" s="21"/>
@@ -10198,7 +10221,7 @@
       <c r="H783" s="21"/>
       <c r="I783" s="18"/>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" s="21"/>
       <c r="B784" s="18"/>
       <c r="C784" s="21"/>
@@ -10209,7 +10232,7 @@
       <c r="H784" s="21"/>
       <c r="I784" s="18"/>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" s="21"/>
       <c r="B785" s="18"/>
       <c r="C785" s="21"/>
@@ -10220,7 +10243,7 @@
       <c r="H785" s="21"/>
       <c r="I785" s="18"/>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" s="21"/>
       <c r="B786" s="18"/>
       <c r="C786" s="21"/>
@@ -10231,7 +10254,7 @@
       <c r="H786" s="21"/>
       <c r="I786" s="18"/>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" s="21"/>
       <c r="B787" s="18"/>
       <c r="C787" s="21"/>
@@ -10242,7 +10265,7 @@
       <c r="H787" s="21"/>
       <c r="I787" s="18"/>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" s="21"/>
       <c r="B788" s="18"/>
       <c r="C788" s="21"/>
@@ -10253,7 +10276,7 @@
       <c r="H788" s="21"/>
       <c r="I788" s="18"/>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" s="21"/>
       <c r="B789" s="18"/>
       <c r="C789" s="21"/>
@@ -10264,7 +10287,7 @@
       <c r="H789" s="21"/>
       <c r="I789" s="18"/>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" s="21"/>
       <c r="B790" s="18"/>
       <c r="C790" s="21"/>
@@ -10275,7 +10298,7 @@
       <c r="H790" s="21"/>
       <c r="I790" s="18"/>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" s="21"/>
       <c r="B791" s="18"/>
       <c r="C791" s="21"/>
@@ -10286,7 +10309,7 @@
       <c r="H791" s="21"/>
       <c r="I791" s="18"/>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" s="21"/>
       <c r="B792" s="18"/>
       <c r="C792" s="21"/>
@@ -10297,7 +10320,7 @@
       <c r="H792" s="21"/>
       <c r="I792" s="18"/>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" s="21"/>
       <c r="B793" s="18"/>
       <c r="C793" s="21"/>
@@ -10308,7 +10331,7 @@
       <c r="H793" s="21"/>
       <c r="I793" s="18"/>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" s="21"/>
       <c r="B794" s="18"/>
       <c r="C794" s="21"/>
@@ -10319,7 +10342,7 @@
       <c r="H794" s="21"/>
       <c r="I794" s="18"/>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" s="21"/>
       <c r="B795" s="18"/>
       <c r="C795" s="21"/>
@@ -10330,7 +10353,7 @@
       <c r="H795" s="21"/>
       <c r="I795" s="18"/>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" s="21"/>
       <c r="B796" s="18"/>
       <c r="C796" s="21"/>
@@ -10341,7 +10364,7 @@
       <c r="H796" s="21"/>
       <c r="I796" s="18"/>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" s="21"/>
       <c r="B797" s="18"/>
       <c r="C797" s="21"/>
@@ -10352,7 +10375,7 @@
       <c r="H797" s="21"/>
       <c r="I797" s="18"/>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" s="21"/>
       <c r="B798" s="18"/>
       <c r="C798" s="21"/>
@@ -10363,7 +10386,7 @@
       <c r="H798" s="21"/>
       <c r="I798" s="18"/>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" s="21"/>
       <c r="B799" s="18"/>
       <c r="C799" s="21"/>
@@ -10374,7 +10397,7 @@
       <c r="H799" s="21"/>
       <c r="I799" s="18"/>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" s="21"/>
       <c r="B800" s="18"/>
       <c r="C800" s="21"/>
@@ -10385,7 +10408,7 @@
       <c r="H800" s="21"/>
       <c r="I800" s="18"/>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" s="21"/>
       <c r="B801" s="18"/>
       <c r="C801" s="21"/>
@@ -10396,7 +10419,7 @@
       <c r="H801" s="21"/>
       <c r="I801" s="18"/>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" s="21"/>
       <c r="B802" s="18"/>
       <c r="C802" s="21"/>
@@ -10407,7 +10430,7 @@
       <c r="H802" s="21"/>
       <c r="I802" s="18"/>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" s="21"/>
       <c r="B803" s="18"/>
       <c r="C803" s="21"/>
@@ -10418,7 +10441,7 @@
       <c r="H803" s="21"/>
       <c r="I803" s="18"/>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" s="21"/>
       <c r="B804" s="18"/>
       <c r="C804" s="21"/>
@@ -10429,7 +10452,7 @@
       <c r="H804" s="21"/>
       <c r="I804" s="18"/>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" s="21"/>
       <c r="B805" s="18"/>
       <c r="C805" s="21"/>
@@ -10440,7 +10463,7 @@
       <c r="H805" s="21"/>
       <c r="I805" s="18"/>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" s="21"/>
       <c r="B806" s="18"/>
       <c r="C806" s="21"/>
@@ -10451,7 +10474,7 @@
       <c r="H806" s="21"/>
       <c r="I806" s="18"/>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" s="21"/>
       <c r="B807" s="18"/>
       <c r="C807" s="21"/>
@@ -10462,7 +10485,7 @@
       <c r="H807" s="21"/>
       <c r="I807" s="18"/>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" s="21"/>
       <c r="B808" s="18"/>
       <c r="C808" s="21"/>
@@ -10473,7 +10496,7 @@
       <c r="H808" s="21"/>
       <c r="I808" s="18"/>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" s="21"/>
       <c r="B809" s="18"/>
       <c r="C809" s="21"/>
@@ -10484,7 +10507,7 @@
       <c r="H809" s="21"/>
       <c r="I809" s="18"/>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" s="21"/>
       <c r="B810" s="18"/>
       <c r="C810" s="21"/>
@@ -10495,7 +10518,7 @@
       <c r="H810" s="21"/>
       <c r="I810" s="18"/>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" s="21"/>
       <c r="B811" s="18"/>
       <c r="C811" s="21"/>
@@ -10506,7 +10529,7 @@
       <c r="H811" s="21"/>
       <c r="I811" s="18"/>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" s="21"/>
       <c r="B812" s="18"/>
       <c r="C812" s="21"/>
@@ -10517,7 +10540,7 @@
       <c r="H812" s="21"/>
       <c r="I812" s="18"/>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" s="21"/>
       <c r="B813" s="18"/>
       <c r="C813" s="21"/>
@@ -10528,7 +10551,7 @@
       <c r="H813" s="21"/>
       <c r="I813" s="18"/>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" s="21"/>
       <c r="B814" s="18"/>
       <c r="C814" s="21"/>
@@ -10539,7 +10562,7 @@
       <c r="H814" s="21"/>
       <c r="I814" s="18"/>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" s="21"/>
       <c r="B815" s="18"/>
       <c r="C815" s="21"/>
@@ -10550,7 +10573,7 @@
       <c r="H815" s="21"/>
       <c r="I815" s="18"/>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" s="21"/>
       <c r="B816" s="18"/>
       <c r="C816" s="21"/>
@@ -10561,7 +10584,7 @@
       <c r="H816" s="21"/>
       <c r="I816" s="18"/>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A817" s="21"/>
       <c r="B817" s="18"/>
       <c r="C817" s="21"/>
@@ -10572,7 +10595,7 @@
       <c r="H817" s="21"/>
       <c r="I817" s="18"/>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A818" s="21"/>
       <c r="B818" s="18"/>
       <c r="C818" s="21"/>
@@ -10583,7 +10606,7 @@
       <c r="H818" s="21"/>
       <c r="I818" s="18"/>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A819" s="21"/>
       <c r="B819" s="18"/>
       <c r="C819" s="21"/>
@@ -10594,7 +10617,7 @@
       <c r="H819" s="21"/>
       <c r="I819" s="18"/>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A820" s="21"/>
       <c r="B820" s="18"/>
       <c r="C820" s="21"/>
@@ -10605,7 +10628,7 @@
       <c r="H820" s="21"/>
       <c r="I820" s="18"/>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A821" s="21"/>
       <c r="B821" s="18"/>
       <c r="C821" s="21"/>
@@ -10616,7 +10639,7 @@
       <c r="H821" s="21"/>
       <c r="I821" s="18"/>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A822" s="21"/>
       <c r="B822" s="18"/>
       <c r="C822" s="21"/>
@@ -10627,7 +10650,7 @@
       <c r="H822" s="21"/>
       <c r="I822" s="18"/>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A823" s="21"/>
       <c r="B823" s="18"/>
       <c r="C823" s="21"/>
@@ -10638,7 +10661,7 @@
       <c r="H823" s="21"/>
       <c r="I823" s="18"/>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A824" s="21"/>
       <c r="B824" s="18"/>
       <c r="C824" s="21"/>
@@ -10649,7 +10672,7 @@
       <c r="H824" s="21"/>
       <c r="I824" s="18"/>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A825" s="21"/>
       <c r="B825" s="18"/>
       <c r="C825" s="21"/>
@@ -10660,7 +10683,7 @@
       <c r="H825" s="21"/>
       <c r="I825" s="18"/>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A826" s="21"/>
       <c r="B826" s="18"/>
       <c r="C826" s="21"/>
@@ -10671,7 +10694,7 @@
       <c r="H826" s="21"/>
       <c r="I826" s="18"/>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A827" s="21"/>
       <c r="B827" s="18"/>
       <c r="C827" s="21"/>
@@ -10682,7 +10705,7 @@
       <c r="H827" s="21"/>
       <c r="I827" s="18"/>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A828" s="21"/>
       <c r="B828" s="18"/>
       <c r="C828" s="21"/>
@@ -10693,7 +10716,7 @@
       <c r="H828" s="21"/>
       <c r="I828" s="18"/>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A829" s="21"/>
       <c r="B829" s="18"/>
       <c r="C829" s="21"/>
@@ -10704,7 +10727,7 @@
       <c r="H829" s="21"/>
       <c r="I829" s="18"/>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A830" s="21"/>
       <c r="B830" s="18"/>
       <c r="C830" s="21"/>
@@ -10715,7 +10738,7 @@
       <c r="H830" s="21"/>
       <c r="I830" s="18"/>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A831" s="21"/>
       <c r="B831" s="18"/>
       <c r="C831" s="21"/>
@@ -10726,7 +10749,7 @@
       <c r="H831" s="21"/>
       <c r="I831" s="18"/>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A832" s="21"/>
       <c r="B832" s="18"/>
       <c r="C832" s="21"/>
@@ -10737,7 +10760,7 @@
       <c r="H832" s="21"/>
       <c r="I832" s="18"/>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A833" s="21"/>
       <c r="B833" s="18"/>
       <c r="C833" s="21"/>
@@ -10748,7 +10771,7 @@
       <c r="H833" s="21"/>
       <c r="I833" s="18"/>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A834" s="21"/>
       <c r="B834" s="18"/>
       <c r="C834" s="21"/>
@@ -10759,7 +10782,7 @@
       <c r="H834" s="21"/>
       <c r="I834" s="18"/>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A835" s="21"/>
       <c r="B835" s="18"/>
       <c r="C835" s="21"/>
@@ -10770,7 +10793,7 @@
       <c r="H835" s="21"/>
       <c r="I835" s="18"/>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A836" s="21"/>
       <c r="B836" s="18"/>
       <c r="C836" s="21"/>
@@ -10781,7 +10804,7 @@
       <c r="H836" s="21"/>
       <c r="I836" s="18"/>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A837" s="21"/>
       <c r="B837" s="18"/>
       <c r="C837" s="21"/>
@@ -10792,7 +10815,7 @@
       <c r="H837" s="21"/>
       <c r="I837" s="18"/>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A838" s="21"/>
       <c r="B838" s="18"/>
       <c r="C838" s="21"/>
@@ -10803,7 +10826,7 @@
       <c r="H838" s="21"/>
       <c r="I838" s="18"/>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A839" s="21"/>
       <c r="B839" s="18"/>
       <c r="C839" s="21"/>
@@ -10814,7 +10837,7 @@
       <c r="H839" s="21"/>
       <c r="I839" s="18"/>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A840" s="21"/>
       <c r="B840" s="18"/>
       <c r="C840" s="21"/>
@@ -10825,7 +10848,7 @@
       <c r="H840" s="21"/>
       <c r="I840" s="18"/>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A841" s="21"/>
       <c r="B841" s="18"/>
       <c r="C841" s="21"/>
@@ -10836,7 +10859,7 @@
       <c r="H841" s="21"/>
       <c r="I841" s="18"/>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A842" s="21"/>
       <c r="B842" s="18"/>
       <c r="C842" s="21"/>
@@ -10847,7 +10870,7 @@
       <c r="H842" s="21"/>
       <c r="I842" s="18"/>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A843" s="21"/>
       <c r="B843" s="18"/>
       <c r="C843" s="21"/>
@@ -10858,7 +10881,7 @@
       <c r="H843" s="21"/>
       <c r="I843" s="18"/>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A844" s="21"/>
       <c r="B844" s="18"/>
       <c r="C844" s="21"/>
@@ -10869,7 +10892,7 @@
       <c r="H844" s="21"/>
       <c r="I844" s="18"/>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A845" s="21"/>
       <c r="B845" s="18"/>
       <c r="C845" s="21"/>
@@ -10880,7 +10903,7 @@
       <c r="H845" s="21"/>
       <c r="I845" s="18"/>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A846" s="21"/>
       <c r="B846" s="18"/>
       <c r="C846" s="21"/>
@@ -10891,7 +10914,7 @@
       <c r="H846" s="21"/>
       <c r="I846" s="18"/>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A847" s="21"/>
       <c r="B847" s="18"/>
       <c r="C847" s="21"/>
@@ -10902,7 +10925,7 @@
       <c r="H847" s="21"/>
       <c r="I847" s="18"/>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A848" s="21"/>
       <c r="B848" s="18"/>
       <c r="C848" s="21"/>
@@ -10913,7 +10936,7 @@
       <c r="H848" s="21"/>
       <c r="I848" s="18"/>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A849" s="21"/>
       <c r="B849" s="18"/>
       <c r="C849" s="21"/>
@@ -10924,7 +10947,7 @@
       <c r="H849" s="21"/>
       <c r="I849" s="18"/>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A850" s="21"/>
       <c r="B850" s="18"/>
       <c r="C850" s="21"/>
@@ -10935,7 +10958,7 @@
       <c r="H850" s="21"/>
       <c r="I850" s="18"/>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A851" s="21"/>
       <c r="B851" s="18"/>
       <c r="C851" s="21"/>
@@ -10946,7 +10969,7 @@
       <c r="H851" s="21"/>
       <c r="I851" s="18"/>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A852" s="21"/>
       <c r="B852" s="18"/>
       <c r="C852" s="21"/>
@@ -10957,7 +10980,7 @@
       <c r="H852" s="21"/>
       <c r="I852" s="18"/>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A853" s="21"/>
       <c r="B853" s="18"/>
       <c r="C853" s="21"/>
@@ -10968,7 +10991,7 @@
       <c r="H853" s="21"/>
       <c r="I853" s="18"/>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A854" s="21"/>
       <c r="B854" s="18"/>
       <c r="C854" s="21"/>
@@ -10979,7 +11002,7 @@
       <c r="H854" s="21"/>
       <c r="I854" s="18"/>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A855" s="21"/>
       <c r="B855" s="18"/>
       <c r="C855" s="21"/>
@@ -10990,7 +11013,7 @@
       <c r="H855" s="21"/>
       <c r="I855" s="18"/>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A856" s="21"/>
       <c r="B856" s="18"/>
       <c r="C856" s="21"/>
@@ -11001,7 +11024,7 @@
       <c r="H856" s="21"/>
       <c r="I856" s="18"/>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A857" s="21"/>
       <c r="B857" s="18"/>
       <c r="C857" s="21"/>
@@ -11012,7 +11035,7 @@
       <c r="H857" s="21"/>
       <c r="I857" s="18"/>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A858" s="21"/>
       <c r="B858" s="18"/>
       <c r="C858" s="21"/>
@@ -11023,7 +11046,7 @@
       <c r="H858" s="21"/>
       <c r="I858" s="18"/>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A859" s="21"/>
       <c r="B859" s="18"/>
       <c r="C859" s="21"/>
@@ -11034,7 +11057,7 @@
       <c r="H859" s="21"/>
       <c r="I859" s="18"/>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A860" s="21"/>
       <c r="B860" s="18"/>
       <c r="C860" s="21"/>
@@ -11045,7 +11068,7 @@
       <c r="H860" s="21"/>
       <c r="I860" s="18"/>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A861" s="21"/>
       <c r="B861" s="18"/>
       <c r="C861" s="21"/>
@@ -11056,7 +11079,7 @@
       <c r="H861" s="21"/>
       <c r="I861" s="18"/>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A862" s="21"/>
       <c r="B862" s="18"/>
       <c r="C862" s="21"/>
@@ -11067,7 +11090,7 @@
       <c r="H862" s="21"/>
       <c r="I862" s="18"/>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A863" s="21"/>
       <c r="B863" s="18"/>
       <c r="C863" s="21"/>
@@ -11078,7 +11101,7 @@
       <c r="H863" s="21"/>
       <c r="I863" s="18"/>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A864" s="21"/>
       <c r="B864" s="18"/>
       <c r="C864" s="21"/>
@@ -11089,7 +11112,7 @@
       <c r="H864" s="21"/>
       <c r="I864" s="18"/>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A865" s="21"/>
       <c r="B865" s="18"/>
       <c r="C865" s="21"/>
@@ -11100,7 +11123,7 @@
       <c r="H865" s="21"/>
       <c r="I865" s="18"/>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A866" s="21"/>
       <c r="B866" s="18"/>
       <c r="C866" s="21"/>
@@ -11111,7 +11134,7 @@
       <c r="H866" s="21"/>
       <c r="I866" s="18"/>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A867" s="21"/>
       <c r="B867" s="18"/>
       <c r="C867" s="21"/>
@@ -11122,7 +11145,7 @@
       <c r="H867" s="21"/>
       <c r="I867" s="18"/>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A868" s="21"/>
       <c r="B868" s="18"/>
       <c r="C868" s="21"/>
@@ -11133,7 +11156,7 @@
       <c r="H868" s="21"/>
       <c r="I868" s="18"/>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A869" s="21"/>
       <c r="B869" s="18"/>
       <c r="C869" s="21"/>
@@ -11144,7 +11167,7 @@
       <c r="H869" s="21"/>
       <c r="I869" s="18"/>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A870" s="21"/>
       <c r="B870" s="18"/>
       <c r="C870" s="21"/>
@@ -11155,7 +11178,7 @@
       <c r="H870" s="21"/>
       <c r="I870" s="18"/>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A871" s="21"/>
       <c r="B871" s="18"/>
       <c r="C871" s="21"/>
@@ -11166,7 +11189,7 @@
       <c r="H871" s="21"/>
       <c r="I871" s="18"/>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A872" s="21"/>
       <c r="B872" s="18"/>
       <c r="C872" s="21"/>
@@ -11177,7 +11200,7 @@
       <c r="H872" s="21"/>
       <c r="I872" s="18"/>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A873" s="21"/>
       <c r="B873" s="18"/>
       <c r="C873" s="21"/>
@@ -11188,7 +11211,7 @@
       <c r="H873" s="21"/>
       <c r="I873" s="18"/>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A874" s="21"/>
       <c r="B874" s="18"/>
       <c r="C874" s="21"/>
@@ -11199,7 +11222,7 @@
       <c r="H874" s="21"/>
       <c r="I874" s="18"/>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A875" s="21"/>
       <c r="B875" s="18"/>
       <c r="C875" s="21"/>
@@ -11210,7 +11233,7 @@
       <c r="H875" s="21"/>
       <c r="I875" s="18"/>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A876" s="21"/>
       <c r="B876" s="18"/>
       <c r="C876" s="21"/>
@@ -11221,7 +11244,7 @@
       <c r="H876" s="21"/>
       <c r="I876" s="18"/>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A877" s="21"/>
       <c r="B877" s="18"/>
       <c r="C877" s="21"/>
@@ -11232,7 +11255,7 @@
       <c r="H877" s="21"/>
       <c r="I877" s="18"/>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A878" s="21"/>
       <c r="B878" s="18"/>
       <c r="C878" s="21"/>
@@ -11243,7 +11266,7 @@
       <c r="H878" s="21"/>
       <c r="I878" s="18"/>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A879" s="21"/>
       <c r="B879" s="18"/>
       <c r="C879" s="21"/>
@@ -11254,7 +11277,7 @@
       <c r="H879" s="21"/>
       <c r="I879" s="18"/>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A880" s="21"/>
       <c r="B880" s="18"/>
       <c r="C880" s="21"/>
@@ -11265,7 +11288,7 @@
       <c r="H880" s="21"/>
       <c r="I880" s="18"/>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A881" s="21"/>
       <c r="B881" s="18"/>
       <c r="C881" s="21"/>
@@ -11276,7 +11299,7 @@
       <c r="H881" s="21"/>
       <c r="I881" s="18"/>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A882" s="21"/>
       <c r="B882" s="18"/>
       <c r="C882" s="21"/>
@@ -11287,7 +11310,7 @@
       <c r="H882" s="21"/>
       <c r="I882" s="18"/>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A883" s="21"/>
       <c r="B883" s="18"/>
       <c r="C883" s="21"/>
@@ -11298,7 +11321,7 @@
       <c r="H883" s="21"/>
       <c r="I883" s="18"/>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A884" s="21"/>
       <c r="B884" s="18"/>
       <c r="C884" s="21"/>
@@ -11309,7 +11332,7 @@
       <c r="H884" s="21"/>
       <c r="I884" s="18"/>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A885" s="21"/>
       <c r="B885" s="18"/>
       <c r="C885" s="21"/>
@@ -11320,7 +11343,7 @@
       <c r="H885" s="21"/>
       <c r="I885" s="18"/>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A886" s="21"/>
       <c r="B886" s="18"/>
       <c r="C886" s="21"/>
@@ -11331,7 +11354,7 @@
       <c r="H886" s="21"/>
       <c r="I886" s="18"/>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A887" s="21"/>
       <c r="B887" s="18"/>
       <c r="C887" s="21"/>
@@ -11342,7 +11365,7 @@
       <c r="H887" s="21"/>
       <c r="I887" s="18"/>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A888" s="21"/>
       <c r="B888" s="18"/>
       <c r="C888" s="21"/>
@@ -11353,7 +11376,7 @@
       <c r="H888" s="21"/>
       <c r="I888" s="18"/>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A889" s="21"/>
       <c r="B889" s="18"/>
       <c r="C889" s="21"/>
@@ -11364,7 +11387,7 @@
       <c r="H889" s="21"/>
       <c r="I889" s="18"/>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A890" s="21"/>
       <c r="B890" s="18"/>
       <c r="C890" s="21"/>
@@ -11375,7 +11398,7 @@
       <c r="H890" s="21"/>
       <c r="I890" s="18"/>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A891" s="21"/>
       <c r="B891" s="18"/>
       <c r="C891" s="21"/>
@@ -11386,7 +11409,7 @@
       <c r="H891" s="21"/>
       <c r="I891" s="18"/>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A892" s="21"/>
       <c r="B892" s="18"/>
       <c r="C892" s="21"/>
@@ -11397,7 +11420,7 @@
       <c r="H892" s="21"/>
       <c r="I892" s="18"/>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A893" s="21"/>
       <c r="B893" s="18"/>
       <c r="C893" s="21"/>
@@ -11408,7 +11431,7 @@
       <c r="H893" s="21"/>
       <c r="I893" s="18"/>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A894" s="21"/>
       <c r="B894" s="18"/>
       <c r="C894" s="21"/>
@@ -11419,7 +11442,7 @@
       <c r="H894" s="21"/>
       <c r="I894" s="18"/>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A895" s="21"/>
       <c r="B895" s="18"/>
       <c r="C895" s="21"/>
@@ -11430,7 +11453,7 @@
       <c r="H895" s="21"/>
       <c r="I895" s="18"/>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A896" s="21"/>
       <c r="B896" s="18"/>
       <c r="C896" s="21"/>
@@ -11441,7 +11464,7 @@
       <c r="H896" s="21"/>
       <c r="I896" s="18"/>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A897" s="21"/>
       <c r="B897" s="18"/>
       <c r="C897" s="21"/>
@@ -11452,7 +11475,7 @@
       <c r="H897" s="21"/>
       <c r="I897" s="18"/>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A898" s="21"/>
       <c r="B898" s="18"/>
       <c r="C898" s="21"/>
@@ -11463,7 +11486,7 @@
       <c r="H898" s="21"/>
       <c r="I898" s="18"/>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A899" s="21"/>
       <c r="B899" s="18"/>
       <c r="C899" s="21"/>
@@ -11474,7 +11497,7 @@
       <c r="H899" s="21"/>
       <c r="I899" s="18"/>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A900" s="21"/>
       <c r="B900" s="18"/>
       <c r="C900" s="21"/>
@@ -11485,7 +11508,7 @@
       <c r="H900" s="21"/>
       <c r="I900" s="18"/>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A901" s="21"/>
       <c r="B901" s="18"/>
       <c r="C901" s="21"/>
@@ -11496,7 +11519,7 @@
       <c r="H901" s="21"/>
       <c r="I901" s="18"/>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A902" s="21"/>
       <c r="B902" s="18"/>
       <c r="C902" s="21"/>
@@ -11507,7 +11530,7 @@
       <c r="H902" s="21"/>
       <c r="I902" s="18"/>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A903" s="21"/>
       <c r="B903" s="18"/>
       <c r="C903" s="21"/>
@@ -11518,7 +11541,7 @@
       <c r="H903" s="21"/>
       <c r="I903" s="18"/>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A904" s="21"/>
       <c r="B904" s="18"/>
       <c r="C904" s="21"/>
@@ -11529,7 +11552,7 @@
       <c r="H904" s="21"/>
       <c r="I904" s="18"/>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A905" s="21"/>
       <c r="B905" s="18"/>
       <c r="C905" s="21"/>
@@ -11540,7 +11563,7 @@
       <c r="H905" s="21"/>
       <c r="I905" s="18"/>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A906" s="21"/>
       <c r="B906" s="18"/>
       <c r="C906" s="21"/>
@@ -11551,7 +11574,7 @@
       <c r="H906" s="21"/>
       <c r="I906" s="18"/>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A907" s="21"/>
       <c r="B907" s="18"/>
       <c r="C907" s="21"/>
@@ -11562,7 +11585,7 @@
       <c r="H907" s="21"/>
       <c r="I907" s="18"/>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A908" s="21"/>
       <c r="B908" s="18"/>
       <c r="C908" s="21"/>
@@ -11573,7 +11596,7 @@
       <c r="H908" s="21"/>
       <c r="I908" s="18"/>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A909" s="21"/>
       <c r="B909" s="18"/>
       <c r="C909" s="21"/>
@@ -11584,7 +11607,7 @@
       <c r="H909" s="21"/>
       <c r="I909" s="18"/>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A910" s="21"/>
       <c r="B910" s="18"/>
       <c r="C910" s="21"/>
@@ -11595,7 +11618,7 @@
       <c r="H910" s="21"/>
       <c r="I910" s="18"/>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A911" s="21"/>
       <c r="B911" s="18"/>
       <c r="C911" s="21"/>
@@ -11606,7 +11629,7 @@
       <c r="H911" s="21"/>
       <c r="I911" s="18"/>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A912" s="21"/>
       <c r="B912" s="18"/>
       <c r="C912" s="21"/>
@@ -11617,7 +11640,7 @@
       <c r="H912" s="21"/>
       <c r="I912" s="18"/>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A913" s="21"/>
       <c r="B913" s="18"/>
       <c r="C913" s="21"/>
@@ -11628,7 +11651,7 @@
       <c r="H913" s="21"/>
       <c r="I913" s="18"/>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A914" s="21"/>
       <c r="B914" s="18"/>
       <c r="C914" s="21"/>
@@ -11639,7 +11662,7 @@
       <c r="H914" s="21"/>
       <c r="I914" s="18"/>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A915" s="21"/>
       <c r="B915" s="18"/>
       <c r="C915" s="21"/>
@@ -11650,7 +11673,7 @@
       <c r="H915" s="21"/>
       <c r="I915" s="18"/>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A916" s="21"/>
       <c r="B916" s="18"/>
       <c r="C916" s="21"/>
@@ -11661,7 +11684,7 @@
       <c r="H916" s="21"/>
       <c r="I916" s="18"/>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A917" s="21"/>
       <c r="B917" s="18"/>
       <c r="C917" s="21"/>
@@ -11672,7 +11695,7 @@
       <c r="H917" s="21"/>
       <c r="I917" s="18"/>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A918" s="21"/>
       <c r="B918" s="18"/>
       <c r="C918" s="21"/>
@@ -11683,7 +11706,7 @@
       <c r="H918" s="21"/>
       <c r="I918" s="18"/>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A919" s="21"/>
       <c r="B919" s="18"/>
       <c r="C919" s="21"/>
@@ -11694,7 +11717,7 @@
       <c r="H919" s="21"/>
       <c r="I919" s="18"/>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A920" s="21"/>
       <c r="B920" s="18"/>
       <c r="C920" s="21"/>
@@ -11705,7 +11728,7 @@
       <c r="H920" s="21"/>
       <c r="I920" s="18"/>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A921" s="21"/>
       <c r="B921" s="18"/>
       <c r="C921" s="21"/>
@@ -11716,7 +11739,7 @@
       <c r="H921" s="21"/>
       <c r="I921" s="18"/>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A922" s="21"/>
       <c r="B922" s="18"/>
       <c r="C922" s="21"/>
@@ -11727,7 +11750,7 @@
       <c r="H922" s="21"/>
       <c r="I922" s="18"/>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A923" s="21"/>
       <c r="B923" s="18"/>
       <c r="C923" s="21"/>
@@ -11738,7 +11761,7 @@
       <c r="H923" s="21"/>
       <c r="I923" s="18"/>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A924" s="21"/>
       <c r="B924" s="18"/>
       <c r="C924" s="21"/>
@@ -11749,7 +11772,7 @@
       <c r="H924" s="21"/>
       <c r="I924" s="18"/>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A925" s="21"/>
       <c r="B925" s="18"/>
       <c r="C925" s="21"/>
@@ -11760,7 +11783,7 @@
       <c r="H925" s="21"/>
       <c r="I925" s="18"/>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A926" s="21"/>
       <c r="B926" s="18"/>
       <c r="C926" s="21"/>
@@ -11771,7 +11794,7 @@
       <c r="H926" s="21"/>
       <c r="I926" s="18"/>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A927" s="21"/>
       <c r="B927" s="18"/>
       <c r="C927" s="21"/>
@@ -11782,7 +11805,7 @@
       <c r="H927" s="21"/>
       <c r="I927" s="18"/>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A928" s="21"/>
       <c r="B928" s="18"/>
       <c r="C928" s="21"/>
@@ -11793,7 +11816,7 @@
       <c r="H928" s="21"/>
       <c r="I928" s="18"/>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A929" s="21"/>
       <c r="B929" s="18"/>
       <c r="C929" s="21"/>
@@ -11804,7 +11827,7 @@
       <c r="H929" s="21"/>
       <c r="I929" s="18"/>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A930" s="21"/>
       <c r="B930" s="18"/>
       <c r="C930" s="21"/>
@@ -11815,7 +11838,7 @@
       <c r="H930" s="21"/>
       <c r="I930" s="18"/>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A931" s="21"/>
       <c r="B931" s="18"/>
       <c r="C931" s="21"/>
@@ -11826,7 +11849,7 @@
       <c r="H931" s="21"/>
       <c r="I931" s="18"/>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A932" s="21"/>
       <c r="B932" s="18"/>
       <c r="C932" s="21"/>
@@ -11837,7 +11860,7 @@
       <c r="H932" s="21"/>
       <c r="I932" s="18"/>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A933" s="21"/>
       <c r="B933" s="18"/>
       <c r="C933" s="21"/>
@@ -11848,7 +11871,7 @@
       <c r="H933" s="21"/>
       <c r="I933" s="18"/>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A934" s="21"/>
       <c r="B934" s="18"/>
       <c r="C934" s="21"/>
@@ -11859,7 +11882,7 @@
       <c r="H934" s="21"/>
       <c r="I934" s="18"/>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A935" s="21"/>
       <c r="B935" s="18"/>
       <c r="C935" s="21"/>
@@ -11870,7 +11893,7 @@
       <c r="H935" s="21"/>
       <c r="I935" s="18"/>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A936" s="21"/>
       <c r="B936" s="18"/>
       <c r="C936" s="21"/>
@@ -11881,7 +11904,7 @@
       <c r="H936" s="21"/>
       <c r="I936" s="18"/>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A937" s="21"/>
       <c r="B937" s="18"/>
       <c r="C937" s="21"/>
@@ -11892,7 +11915,7 @@
       <c r="H937" s="21"/>
       <c r="I937" s="18"/>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A938" s="21"/>
       <c r="B938" s="18"/>
       <c r="C938" s="21"/>
@@ -11903,7 +11926,7 @@
       <c r="H938" s="21"/>
       <c r="I938" s="18"/>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A939" s="21"/>
       <c r="B939" s="18"/>
       <c r="C939" s="21"/>
@@ -11914,7 +11937,7 @@
       <c r="H939" s="21"/>
       <c r="I939" s="18"/>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A940" s="21"/>
       <c r="B940" s="18"/>
       <c r="C940" s="21"/>
@@ -11925,7 +11948,7 @@
       <c r="H940" s="21"/>
       <c r="I940" s="18"/>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A941" s="21"/>
       <c r="B941" s="18"/>
       <c r="C941" s="21"/>
@@ -11936,7 +11959,7 @@
       <c r="H941" s="21"/>
       <c r="I941" s="18"/>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A942" s="21"/>
       <c r="B942" s="18"/>
       <c r="C942" s="21"/>
@@ -11947,7 +11970,7 @@
       <c r="H942" s="21"/>
       <c r="I942" s="18"/>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A943" s="21"/>
       <c r="B943" s="18"/>
       <c r="C943" s="21"/>
@@ -11958,7 +11981,7 @@
       <c r="H943" s="21"/>
       <c r="I943" s="18"/>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A944" s="21"/>
       <c r="B944" s="18"/>
       <c r="C944" s="21"/>
@@ -11969,7 +11992,7 @@
       <c r="H944" s="21"/>
       <c r="I944" s="18"/>
     </row>
-    <row r="945" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A945" s="21"/>
       <c r="B945" s="18"/>
       <c r="C945" s="21"/>
@@ -11980,7 +12003,7 @@
       <c r="H945" s="21"/>
       <c r="I945" s="18"/>
     </row>
-    <row r="946" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A946" s="21"/>
       <c r="B946" s="18"/>
       <c r="C946" s="21"/>
@@ -11991,7 +12014,7 @@
       <c r="H946" s="21"/>
       <c r="I946" s="18"/>
     </row>
-    <row r="947" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A947" s="21"/>
       <c r="B947" s="18"/>
       <c r="C947" s="21"/>
@@ -12002,7 +12025,7 @@
       <c r="H947" s="21"/>
       <c r="I947" s="18"/>
     </row>
-    <row r="948" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A948" s="21"/>
       <c r="B948" s="18"/>
       <c r="C948" s="21"/>
@@ -12013,7 +12036,7 @@
       <c r="H948" s="21"/>
       <c r="I948" s="18"/>
     </row>
-    <row r="949" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A949" s="21"/>
       <c r="B949" s="18"/>
       <c r="C949" s="21"/>
@@ -12024,7 +12047,7 @@
       <c r="H949" s="21"/>
       <c r="I949" s="18"/>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A950" s="21"/>
       <c r="B950" s="18"/>
       <c r="C950" s="21"/>
@@ -12035,7 +12058,7 @@
       <c r="H950" s="21"/>
       <c r="I950" s="18"/>
     </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A951" s="21"/>
       <c r="B951" s="18"/>
       <c r="C951" s="21"/>
@@ -12046,7 +12069,7 @@
       <c r="H951" s="21"/>
       <c r="I951" s="18"/>
     </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A952" s="21"/>
       <c r="B952" s="18"/>
       <c r="C952" s="21"/>
@@ -12057,7 +12080,7 @@
       <c r="H952" s="21"/>
       <c r="I952" s="18"/>
     </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A953" s="21"/>
       <c r="B953" s="18"/>
       <c r="C953" s="21"/>
@@ -12068,7 +12091,7 @@
       <c r="H953" s="21"/>
       <c r="I953" s="18"/>
     </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A954" s="21"/>
       <c r="B954" s="18"/>
       <c r="C954" s="21"/>
@@ -12079,7 +12102,7 @@
       <c r="H954" s="21"/>
       <c r="I954" s="18"/>
     </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A955" s="21"/>
       <c r="B955" s="18"/>
       <c r="C955" s="21"/>
@@ -12090,7 +12113,7 @@
       <c r="H955" s="21"/>
       <c r="I955" s="18"/>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A956" s="21"/>
       <c r="B956" s="18"/>
       <c r="C956" s="21"/>
@@ -12101,7 +12124,7 @@
       <c r="H956" s="21"/>
       <c r="I956" s="18"/>
     </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A957" s="21"/>
       <c r="B957" s="18"/>
       <c r="C957" s="21"/>
@@ -12112,7 +12135,7 @@
       <c r="H957" s="21"/>
       <c r="I957" s="18"/>
     </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A958" s="21"/>
       <c r="B958" s="18"/>
       <c r="C958" s="21"/>
@@ -12123,7 +12146,7 @@
       <c r="H958" s="21"/>
       <c r="I958" s="18"/>
     </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A959" s="21"/>
       <c r="B959" s="18"/>
       <c r="C959" s="21"/>
@@ -12134,7 +12157,7 @@
       <c r="H959" s="21"/>
       <c r="I959" s="18"/>
     </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A960" s="21"/>
       <c r="B960" s="18"/>
       <c r="C960" s="21"/>
@@ -12145,7 +12168,7 @@
       <c r="H960" s="21"/>
       <c r="I960" s="18"/>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A961" s="21"/>
       <c r="B961" s="18"/>
       <c r="C961" s="21"/>
@@ -12156,7 +12179,7 @@
       <c r="H961" s="21"/>
       <c r="I961" s="18"/>
     </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A962" s="21"/>
       <c r="B962" s="18"/>
       <c r="C962" s="21"/>
@@ -12167,7 +12190,7 @@
       <c r="H962" s="21"/>
       <c r="I962" s="18"/>
     </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A963" s="21"/>
       <c r="B963" s="18"/>
       <c r="C963" s="21"/>
@@ -12178,7 +12201,7 @@
       <c r="H963" s="21"/>
       <c r="I963" s="18"/>
     </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A964" s="21"/>
       <c r="B964" s="18"/>
       <c r="C964" s="21"/>
@@ -12189,7 +12212,7 @@
       <c r="H964" s="21"/>
       <c r="I964" s="18"/>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A965" s="21"/>
       <c r="B965" s="18"/>
       <c r="C965" s="21"/>
@@ -12200,7 +12223,7 @@
       <c r="H965" s="21"/>
       <c r="I965" s="18"/>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A966" s="21"/>
       <c r="B966" s="18"/>
       <c r="C966" s="21"/>
@@ -12211,7 +12234,7 @@
       <c r="H966" s="21"/>
       <c r="I966" s="18"/>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A967" s="21"/>
       <c r="B967" s="18"/>
       <c r="C967" s="21"/>
@@ -12222,7 +12245,7 @@
       <c r="H967" s="21"/>
       <c r="I967" s="18"/>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A968" s="21"/>
       <c r="B968" s="18"/>
       <c r="C968" s="21"/>
@@ -12233,7 +12256,7 @@
       <c r="H968" s="21"/>
       <c r="I968" s="18"/>
     </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A969" s="21"/>
       <c r="B969" s="18"/>
       <c r="C969" s="21"/>
@@ -12244,7 +12267,7 @@
       <c r="H969" s="21"/>
       <c r="I969" s="18"/>
     </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A970" s="21"/>
       <c r="B970" s="18"/>
       <c r="C970" s="21"/>
@@ -12255,7 +12278,7 @@
       <c r="H970" s="21"/>
       <c r="I970" s="18"/>
     </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A971" s="21"/>
       <c r="B971" s="18"/>
       <c r="C971" s="21"/>
@@ -12266,7 +12289,7 @@
       <c r="H971" s="21"/>
       <c r="I971" s="18"/>
     </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A972" s="21"/>
       <c r="B972" s="18"/>
       <c r="C972" s="21"/>
@@ -12277,7 +12300,7 @@
       <c r="H972" s="21"/>
       <c r="I972" s="18"/>
     </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A973" s="21"/>
       <c r="B973" s="18"/>
       <c r="C973" s="21"/>
@@ -12288,7 +12311,7 @@
       <c r="H973" s="21"/>
       <c r="I973" s="18"/>
     </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A974" s="21"/>
       <c r="B974" s="18"/>
       <c r="C974" s="21"/>
@@ -12299,7 +12322,7 @@
       <c r="H974" s="21"/>
       <c r="I974" s="18"/>
     </row>
-    <row r="975" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A975" s="21"/>
       <c r="B975" s="18"/>
       <c r="C975" s="21"/>
@@ -12310,7 +12333,7 @@
       <c r="H975" s="21"/>
       <c r="I975" s="18"/>
     </row>
-    <row r="976" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A976" s="21"/>
       <c r="B976" s="18"/>
       <c r="C976" s="21"/>
@@ -12321,7 +12344,7 @@
       <c r="H976" s="21"/>
       <c r="I976" s="18"/>
     </row>
-    <row r="977" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A977" s="21"/>
       <c r="B977" s="18"/>
       <c r="C977" s="21"/>
@@ -12332,7 +12355,7 @@
       <c r="H977" s="21"/>
       <c r="I977" s="18"/>
     </row>
-    <row r="978" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A978" s="21"/>
       <c r="B978" s="18"/>
       <c r="C978" s="21"/>
@@ -12343,7 +12366,7 @@
       <c r="H978" s="21"/>
       <c r="I978" s="18"/>
     </row>
-    <row r="979" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A979" s="21"/>
       <c r="B979" s="18"/>
       <c r="C979" s="21"/>
@@ -12354,7 +12377,7 @@
       <c r="H979" s="21"/>
       <c r="I979" s="18"/>
     </row>
-    <row r="980" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A980" s="21"/>
       <c r="B980" s="18"/>
       <c r="C980" s="21"/>
@@ -12365,7 +12388,7 @@
       <c r="H980" s="21"/>
       <c r="I980" s="18"/>
     </row>
-    <row r="981" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A981" s="21"/>
       <c r="B981" s="18"/>
       <c r="C981" s="21"/>
@@ -12376,7 +12399,7 @@
       <c r="H981" s="21"/>
       <c r="I981" s="18"/>
     </row>
-    <row r="982" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A982" s="21"/>
       <c r="B982" s="18"/>
       <c r="C982" s="21"/>
@@ -12387,7 +12410,7 @@
       <c r="H982" s="21"/>
       <c r="I982" s="18"/>
     </row>
-    <row r="983" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A983" s="21"/>
       <c r="B983" s="18"/>
       <c r="C983" s="21"/>
@@ -12398,7 +12421,7 @@
       <c r="H983" s="21"/>
       <c r="I983" s="18"/>
     </row>
-    <row r="984" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A984" s="21"/>
       <c r="B984" s="18"/>
       <c r="C984" s="21"/>
@@ -12409,7 +12432,7 @@
       <c r="H984" s="21"/>
       <c r="I984" s="18"/>
     </row>
-    <row r="985" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A985" s="21"/>
       <c r="B985" s="18"/>
       <c r="C985" s="21"/>
@@ -12420,7 +12443,7 @@
       <c r="H985" s="21"/>
       <c r="I985" s="18"/>
     </row>
-    <row r="986" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A986" s="21"/>
       <c r="B986" s="18"/>
       <c r="C986" s="21"/>
@@ -12431,7 +12454,7 @@
       <c r="H986" s="21"/>
       <c r="I986" s="18"/>
     </row>
-    <row r="987" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A987" s="21"/>
       <c r="B987" s="18"/>
       <c r="C987" s="21"/>
@@ -12442,7 +12465,7 @@
       <c r="H987" s="21"/>
       <c r="I987" s="18"/>
     </row>
-    <row r="988" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A988" s="23"/>
       <c r="B988" s="13"/>
       <c r="C988" s="23"/>
@@ -12452,7 +12475,7 @@
       <c r="G988" s="23"/>
       <c r="H988" s="23"/>
     </row>
-    <row r="989" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A989" s="23"/>
       <c r="B989" s="13"/>
       <c r="C989" s="23"/>
@@ -12462,7 +12485,7 @@
       <c r="G989" s="23"/>
       <c r="H989" s="23"/>
     </row>
-    <row r="990" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A990" s="23"/>
       <c r="B990" s="13"/>
       <c r="C990" s="23"/>
@@ -12472,7 +12495,7 @@
       <c r="G990" s="23"/>
       <c r="H990" s="23"/>
     </row>
-    <row r="991" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A991" s="23"/>
       <c r="B991" s="13"/>
       <c r="C991" s="23"/>
@@ -12482,7 +12505,7 @@
       <c r="G991" s="23"/>
       <c r="H991" s="23"/>
     </row>
-    <row r="992" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A992" s="23"/>
       <c r="B992" s="13"/>
       <c r="C992" s="23"/>
@@ -12492,7 +12515,7 @@
       <c r="G992" s="23"/>
       <c r="H992" s="23"/>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A993" s="23"/>
       <c r="B993" s="13"/>
       <c r="C993" s="23"/>
@@ -12502,7 +12525,7 @@
       <c r="G993" s="23"/>
       <c r="H993" s="23"/>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A994" s="23"/>
       <c r="B994" s="13"/>
       <c r="C994" s="23"/>
@@ -12512,7 +12535,7 @@
       <c r="G994" s="23"/>
       <c r="H994" s="23"/>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A995" s="23"/>
       <c r="B995" s="13"/>
       <c r="C995" s="23"/>

--- a/ECE 4981 Task List.xlsx
+++ b/ECE 4981 Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fall2020\ECE4981\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBAAD5B-2940-4228-BA49-B0E040502F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCAE7F6-88B6-4909-ADC2-55B6C374B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B8829020-0EF2-4875-8210-9C2942B344E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
   <si>
     <t>START DATE</t>
   </si>
@@ -194,10 +194,6 @@
     <t>Sound Logic</t>
   </si>
   <si>
-    <t xml:space="preserve">09/08/20 Matt to document the problems
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">09/10/2020 Professor Paul Watta has accepted our invitation to be our faculty advisor. Matt Falconer will set up a vrtual meeting with him for next week in which we can discuss our project concepts and receive written advisor comments.
 </t>
   </si>
@@ -212,6 +208,19 @@
   </si>
   <si>
     <t>09/11/20 HD to make a ppt slides to present what should be included in a concept description before next group meeting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/20 Matt to the working principle of a resonator
+</t>
+  </si>
+  <si>
+    <t>Team meeting to assign tasks on draft concept description</t>
+  </si>
+  <si>
+    <t>Send a draft concept description to Prof Watta and set up a meeting with Prof</t>
+  </si>
+  <si>
+    <t>Meet with Prof Watta to have inputs, thoughts, comments</t>
   </si>
 </sst>
 </file>
@@ -1164,9 +1173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADCF63-C9C4-4C77-9C8F-0AE89C3F3266}">
   <dimension ref="A1:O995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1200,7 +1209,7 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="34"/>
       <c r="J1" s="2"/>
@@ -1226,7 +1235,7 @@
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="2"/>
@@ -1340,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>27</v>
@@ -1422,8 +1431,12 @@
       <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
@@ -1431,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
@@ -1451,10 +1464,10 @@
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1481,7 +1494,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>27</v>
@@ -1495,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>48</v>
@@ -1507,11 +1520,9 @@
     <row r="15" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
         <v>13</v>
       </c>
@@ -1529,17 +1540,21 @@
         <v>18</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
@@ -1549,9 +1564,11 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="9"/>
@@ -1563,9 +1580,11 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="9"/>

--- a/ECE 4981 Task List.xlsx
+++ b/ECE 4981 Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fall2020\ECE4981\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479D8969-7FB9-4FAF-AC82-45346CF16E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E769176D-548A-463D-AC19-3C21E369A7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8829020-0EF2-4875-8210-9C2942B344E7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="97">
   <si>
     <t>START DATE</t>
   </si>
@@ -323,6 +323,21 @@
 09/12/20 Have gathered info from all posible good sources for the documentation. Sources: Prof Paul Richarson, ECE4951, and Embedded Systems - Shape the World Micocontroller I/O by Valvano.
 09/14/20 The team will use the concept description template provided by the Professor. Instead, sharing Development Process by ECE4951 and Valvano Embedded Sys
 </t>
+  </si>
+  <si>
+    <t>Functional Char of the projects. What it does with the diagram</t>
+  </si>
+  <si>
+    <t>Risk management</t>
+  </si>
+  <si>
+    <t>ROM &amp; Modules status</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>Determine problems (cost, performance, automation)</t>
   </si>
 </sst>
 </file>
@@ -634,6 +649,9 @@
     <xf numFmtId="1" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -641,9 +659,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1682,11 +1697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADCF63-C9C4-4C77-9C8F-0AE89C3F3266}">
-  <dimension ref="A1:P995"/>
+  <dimension ref="A1:P998"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1711,20 +1726,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -1740,18 +1755,18 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="45" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="1"/>
       <c r="M2" s="3" t="s">
         <v>32</v>
@@ -1761,18 +1776,18 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="45" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="1"/>
       <c r="M3" s="3" t="s">
         <v>16</v>
@@ -2067,7 +2082,7 @@
       <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="43" t="s">
         <v>90</v>
       </c>
       <c r="J15" s="34" t="s">
@@ -2077,64 +2092,60 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="42" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="6"/>
+    <row r="16" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
-        <v>44091</v>
-      </c>
-      <c r="G16" s="9">
-        <f ca="1">IF(H16="Done",0,(NETWORKDAYS.INTL(TODAY(),F16)))</f>
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="34"/>
+        <v>44089</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="34" t="s">
+        <v>96</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
-        <v>45</v>
+      <c r="D17" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <v>44090</v>
       </c>
-      <c r="G17" s="9">
-        <f ca="1">IF(H17="Done",0,(NETWORKDAYS.INTL(TODAY(),F17)))</f>
-        <v>2</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="34"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="6"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
@@ -2142,54 +2153,58 @@
       <c r="F18" s="8">
         <v>44091</v>
       </c>
-      <c r="G18" s="9">
-        <f ca="1">IF(H18="Done",0,(NETWORKDAYS.INTL(TODAY(),F18)))</f>
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="34"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+    <row r="19" spans="1:13" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="8">
+        <v>44091</v>
+      </c>
+      <c r="G19" s="9">
+        <f ca="1">IF(H19="Done",0,(NETWORKDAYS.INTL(TODAY(),F19)))</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="34"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>4</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>25</v>
+    <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8">
-        <v>44095</v>
+        <v>44090</v>
       </c>
       <c r="G20" s="9">
         <f ca="1">IF(H20="Done",0,(NETWORKDAYS.INTL(TODAY(),F20)))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>32</v>
@@ -2200,90 +2215,101 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+    <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="3"/>
+      <c r="F21" s="8">
+        <v>44091</v>
+      </c>
+      <c r="G21" s="9">
+        <f ca="1">IF(H21="Done",0,(NETWORKDAYS.INTL(TODAY(),F21)))</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="34"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="35"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="35"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>4</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <v>44095</v>
+      </c>
+      <c r="G23" s="9">
+        <f ca="1">IF(H23="Done",0,(NETWORKDAYS.INTL(TODAY(),F23)))</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="35"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
-        <v>5</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A25" s="20"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="21">
-        <v>44099</v>
-      </c>
-      <c r="G25" s="9">
-        <f ca="1">IF(H25="Done",0,(NETWORKDAYS.INTL(TODAY(),F25)))</f>
-        <v>9</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="35"/>
       <c r="K25" s="1"/>
@@ -2321,14 +2347,29 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="F28" s="21">
+        <v>44099</v>
+      </c>
+      <c r="G28" s="9">
+        <f ca="1">IF(H28="Done",0,(NETWORKDAYS.INTL(TODAY(),F28)))</f>
+        <v>9</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="I28" s="20"/>
       <c r="J28" s="35"/>
       <c r="K28" s="1"/>
@@ -2361,6 +2402,9 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="35"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
@@ -2373,33 +2417,24 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
       <c r="J31" s="35"/>
-    </row>
-    <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
-        <v>6</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="21">
-        <v>44106</v>
-      </c>
-      <c r="G32" s="9">
-        <f ca="1">IF(H32="Done",0,(NETWORKDAYS.INTL(TODAY(),F32)))</f>
-        <v>14</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="35"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
@@ -2425,15 +2460,30 @@
       <c r="I34" s="20"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+    <row r="35" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="28">
+        <v>6</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="F35" s="21">
+        <v>44106</v>
+      </c>
+      <c r="G35" s="9">
+        <f ca="1">IF(H35="Done",0,(NETWORKDAYS.INTL(TODAY(),F35)))</f>
+        <v>14</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="I35" s="20"/>
       <c r="J35" s="35"/>
     </row>
@@ -2474,26 +2524,13 @@
       <c r="J38" s="35"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="28">
-        <v>7</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A39" s="20"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="21">
-        <v>44113</v>
-      </c>
-      <c r="G39" s="9">
-        <f ca="1">IF(H39="Done",0,(NETWORKDAYS.INTL(TODAY(),F39)))</f>
-        <v>19</v>
-      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="35"/>
@@ -2523,13 +2560,26 @@
       <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="A42" s="28">
+        <v>7</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
+      <c r="F42" s="21">
+        <v>44113</v>
+      </c>
+      <c r="G42" s="9">
+        <f ca="1">IF(H42="Done",0,(NETWORKDAYS.INTL(TODAY(),F42)))</f>
+        <v>19</v>
+      </c>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="35"/>
@@ -2571,29 +2621,14 @@
       <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="28">
-        <v>8</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A46" s="20"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="21"/>
-      <c r="F46" s="21">
-        <v>44120</v>
-      </c>
-      <c r="G46" s="9">
-        <f ca="1">IF(H46="Done",0,(NETWORKDAYS.INTL(TODAY(),F46)))</f>
-        <v>24</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="35"/>
     </row>
@@ -2622,14 +2657,29 @@
       <c r="J48" s="35"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="A49" s="28">
+        <v>8</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="F49" s="21">
+        <v>44120</v>
+      </c>
+      <c r="G49" s="9">
+        <f ca="1">IF(H49="Done",0,(NETWORKDAYS.INTL(TODAY(),F49)))</f>
+        <v>24</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="I49" s="20"/>
       <c r="J49" s="35"/>
     </row>
@@ -2658,29 +2708,14 @@
       <c r="J51" s="35"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="28">
-        <v>9</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A52" s="20"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="21"/>
-      <c r="F52" s="21">
-        <v>44123</v>
-      </c>
-      <c r="G52" s="9">
-        <f ca="1">IF(H52="Done",0,(NETWORKDAYS.INTL(TODAY(),F52)))</f>
-        <v>25</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="35"/>
     </row>
@@ -2709,14 +2744,29 @@
       <c r="J54" s="35"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="A55" s="28">
+        <v>9</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
+      <c r="F55" s="21">
+        <v>44123</v>
+      </c>
+      <c r="G55" s="9">
+        <f ca="1">IF(H55="Done",0,(NETWORKDAYS.INTL(TODAY(),F55)))</f>
+        <v>25</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="I55" s="20"/>
       <c r="J55" s="35"/>
     </row>
@@ -2744,30 +2794,15 @@
       <c r="I57" s="20"/>
       <c r="J57" s="35"/>
     </row>
-    <row r="58" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="28">
-        <v>10</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>25</v>
-      </c>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="21">
-        <v>44127</v>
-      </c>
-      <c r="G58" s="9">
-        <f ca="1">IF(H58="Done",0,(NETWORKDAYS.INTL(TODAY(),F58)))</f>
-        <v>29</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="20"/>
       <c r="J58" s="35"/>
     </row>
@@ -2795,15 +2830,30 @@
       <c r="I60" s="20"/>
       <c r="J60" s="35"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
+    <row r="61" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="28">
+        <v>10</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
+      <c r="F61" s="21">
+        <v>44127</v>
+      </c>
+      <c r="G61" s="9">
+        <f ca="1">IF(H61="Done",0,(NETWORKDAYS.INTL(TODAY(),F61)))</f>
+        <v>29</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="I61" s="20"/>
       <c r="J61" s="35"/>
     </row>
@@ -2832,29 +2882,14 @@
       <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="28">
-        <v>11</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A64" s="20"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="21"/>
-      <c r="F64" s="21">
-        <v>44130</v>
-      </c>
-      <c r="G64" s="9">
-        <f ca="1">IF(H64="Done",0,(NETWORKDAYS.INTL(TODAY(),F64)))</f>
-        <v>30</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="35"/>
     </row>
@@ -2883,14 +2918,29 @@
       <c r="J66" s="35"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
+      <c r="A67" s="28">
+        <v>11</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+      <c r="F67" s="21">
+        <v>44130</v>
+      </c>
+      <c r="G67" s="9">
+        <f ca="1">IF(H67="Done",0,(NETWORKDAYS.INTL(TODAY(),F67)))</f>
+        <v>30</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="I67" s="20"/>
       <c r="J67" s="35"/>
     </row>
@@ -2918,30 +2968,15 @@
       <c r="I69" s="20"/>
       <c r="J69" s="35"/>
     </row>
-    <row r="70" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="28">
-        <v>12</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>25</v>
-      </c>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="21"/>
-      <c r="F70" s="21">
-        <v>44141</v>
-      </c>
-      <c r="G70" s="9">
-        <f ca="1">IF(H70="Done",0,(NETWORKDAYS.INTL(TODAY(),F70)))</f>
-        <v>39</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="35"/>
     </row>
@@ -2969,15 +3004,30 @@
       <c r="I72" s="20"/>
       <c r="J72" s="35"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="20"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+    <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="28">
+        <v>12</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
+      <c r="F73" s="21">
+        <v>44141</v>
+      </c>
+      <c r="G73" s="9">
+        <f ca="1">IF(H73="Done",0,(NETWORKDAYS.INTL(TODAY(),F73)))</f>
+        <v>39</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="I73" s="20"/>
       <c r="J73" s="35"/>
     </row>
@@ -3006,26 +3056,13 @@
       <c r="J75" s="35"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="20">
-        <v>13</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A76" s="20"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="21"/>
-      <c r="F76" s="21">
-        <v>44151</v>
-      </c>
-      <c r="G76" s="9">
-        <f ca="1">IF(H76="Done",0,(NETWORKDAYS.INTL(TODAY(),F76)))</f>
-        <v>45</v>
-      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
       <c r="J76" s="35"/>
@@ -3055,13 +3092,26 @@
       <c r="J78" s="35"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="20"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
+      <c r="A79" s="20">
+        <v>13</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="20"/>
+      <c r="F79" s="21">
+        <v>44151</v>
+      </c>
+      <c r="G79" s="9">
+        <f ca="1">IF(H79="Done",0,(NETWORKDAYS.INTL(TODAY(),F79)))</f>
+        <v>45</v>
+      </c>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
       <c r="J79" s="35"/>
@@ -3090,27 +3140,14 @@
       <c r="I81" s="20"/>
       <c r="J81" s="35"/>
     </row>
-    <row r="82" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="20">
-        <v>14</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>25</v>
-      </c>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="20"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="21"/>
-      <c r="F82" s="21">
-        <v>44155</v>
-      </c>
-      <c r="G82" s="9">
-        <f ca="1">IF(H82="Done",0,(NETWORKDAYS.INTL(TODAY(),F82)))</f>
-        <v>49</v>
-      </c>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20"/>
       <c r="H82" s="20"/>
       <c r="I82" s="20"/>
       <c r="J82" s="35"/>
@@ -3139,14 +3176,27 @@
       <c r="I84" s="20"/>
       <c r="J84" s="35"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="20"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
+    <row r="85" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="20">
+        <v>14</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20"/>
+      <c r="F85" s="21">
+        <v>44155</v>
+      </c>
+      <c r="G85" s="9">
+        <f ca="1">IF(H85="Done",0,(NETWORKDAYS.INTL(TODAY(),F85)))</f>
+        <v>49</v>
+      </c>
       <c r="H85" s="20"/>
       <c r="I85" s="20"/>
       <c r="J85" s="35"/>
@@ -3176,26 +3226,13 @@
       <c r="J87" s="35"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="20">
-        <v>15</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A88" s="20"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="21"/>
-      <c r="F88" s="21">
-        <v>44165</v>
-      </c>
-      <c r="G88" s="9">
-        <f t="shared" ref="G88" ca="1" si="0">(NETWORKDAYS.INTL(TODAY(),F88))</f>
-        <v>55</v>
-      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
       <c r="H88" s="20"/>
       <c r="I88" s="20"/>
       <c r="J88" s="35"/>
@@ -3225,13 +3262,26 @@
       <c r="J90" s="35"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="20"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
+      <c r="A91" s="20">
+        <v>15</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="20"/>
+      <c r="F91" s="21">
+        <v>44165</v>
+      </c>
+      <c r="G91" s="9">
+        <f t="shared" ref="G91" ca="1" si="0">(NETWORKDAYS.INTL(TODAY(),F91))</f>
+        <v>55</v>
+      </c>
       <c r="H91" s="20"/>
       <c r="I91" s="20"/>
       <c r="J91" s="35"/>
@@ -3260,19 +3310,11 @@
       <c r="I93" s="20"/>
       <c r="J93" s="35"/>
     </row>
-    <row r="94" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="20">
-        <v>16</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>25</v>
-      </c>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="20"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="21"/>
       <c r="F94" s="21"/>
       <c r="G94" s="20"/>
@@ -3304,11 +3346,19 @@
       <c r="I96" s="20"/>
       <c r="J96" s="35"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="20"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
+    <row r="97" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="20">
+        <v>16</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
       <c r="G97" s="20"/>
@@ -3341,26 +3391,13 @@
       <c r="J99" s="35"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="20">
-        <v>17</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A100" s="20"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="21"/>
-      <c r="F100" s="21">
-        <v>44172</v>
-      </c>
-      <c r="G100" s="9">
-        <f t="shared" ref="G100" ca="1" si="1">(NETWORKDAYS.INTL(TODAY(),F100))</f>
-        <v>60</v>
-      </c>
+      <c r="F100" s="21"/>
+      <c r="G100" s="20"/>
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
       <c r="J100" s="35"/>
@@ -3390,13 +3427,26 @@
       <c r="J102" s="35"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="20"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
+      <c r="A103" s="20">
+        <v>17</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="20"/>
+      <c r="F103" s="21">
+        <v>44172</v>
+      </c>
+      <c r="G103" s="9">
+        <f t="shared" ref="G103" ca="1" si="1">(NETWORKDAYS.INTL(TODAY(),F103))</f>
+        <v>60</v>
+      </c>
       <c r="H103" s="20"/>
       <c r="I103" s="20"/>
       <c r="J103" s="35"/>
@@ -3438,26 +3488,13 @@
       <c r="J106" s="35"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="20">
-        <v>18</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A107" s="20"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
       <c r="E107" s="21"/>
-      <c r="F107" s="21">
-        <v>44176</v>
-      </c>
-      <c r="G107" s="9">
-        <f t="shared" ref="G107" ca="1" si="2">(NETWORKDAYS.INTL(TODAY(),F107))</f>
-        <v>64</v>
-      </c>
+      <c r="F107" s="21"/>
+      <c r="G107" s="20"/>
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
       <c r="J107" s="35"/>
@@ -3487,13 +3524,26 @@
       <c r="J109" s="35"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="20"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
+      <c r="A110" s="20">
+        <v>18</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="20"/>
+      <c r="F110" s="21">
+        <v>44176</v>
+      </c>
+      <c r="G110" s="9">
+        <f t="shared" ref="G110" ca="1" si="2">(NETWORKDAYS.INTL(TODAY(),F110))</f>
+        <v>64</v>
+      </c>
       <c r="H110" s="20"/>
       <c r="I110" s="20"/>
       <c r="J110" s="35"/>
@@ -14023,37 +14073,40 @@
       <c r="J987" s="35"/>
     </row>
     <row r="988" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A988" s="22"/>
-      <c r="B988" s="12"/>
-      <c r="C988" s="22"/>
-      <c r="D988" s="22"/>
-      <c r="E988" s="23"/>
-      <c r="F988" s="23"/>
-      <c r="G988" s="22"/>
-      <c r="H988" s="22"/>
-      <c r="I988" s="22"/>
+      <c r="A988" s="20"/>
+      <c r="B988" s="17"/>
+      <c r="C988" s="20"/>
+      <c r="D988" s="20"/>
+      <c r="E988" s="21"/>
+      <c r="F988" s="21"/>
+      <c r="G988" s="20"/>
+      <c r="H988" s="20"/>
+      <c r="I988" s="20"/>
+      <c r="J988" s="35"/>
     </row>
     <row r="989" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A989" s="22"/>
-      <c r="B989" s="12"/>
-      <c r="C989" s="22"/>
-      <c r="D989" s="22"/>
-      <c r="E989" s="23"/>
-      <c r="F989" s="23"/>
-      <c r="G989" s="22"/>
-      <c r="H989" s="22"/>
-      <c r="I989" s="22"/>
+      <c r="A989" s="20"/>
+      <c r="B989" s="17"/>
+      <c r="C989" s="20"/>
+      <c r="D989" s="20"/>
+      <c r="E989" s="21"/>
+      <c r="F989" s="21"/>
+      <c r="G989" s="20"/>
+      <c r="H989" s="20"/>
+      <c r="I989" s="20"/>
+      <c r="J989" s="35"/>
     </row>
     <row r="990" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A990" s="22"/>
-      <c r="B990" s="12"/>
-      <c r="C990" s="22"/>
-      <c r="D990" s="22"/>
-      <c r="E990" s="23"/>
-      <c r="F990" s="23"/>
-      <c r="G990" s="22"/>
-      <c r="H990" s="22"/>
-      <c r="I990" s="22"/>
+      <c r="A990" s="20"/>
+      <c r="B990" s="17"/>
+      <c r="C990" s="20"/>
+      <c r="D990" s="20"/>
+      <c r="E990" s="21"/>
+      <c r="F990" s="21"/>
+      <c r="G990" s="20"/>
+      <c r="H990" s="20"/>
+      <c r="I990" s="20"/>
+      <c r="J990" s="35"/>
     </row>
     <row r="991" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A991" s="22"/>
@@ -14110,6 +14163,39 @@
       <c r="H995" s="22"/>
       <c r="I995" s="22"/>
     </row>
+    <row r="996" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A996" s="22"/>
+      <c r="B996" s="12"/>
+      <c r="C996" s="22"/>
+      <c r="D996" s="22"/>
+      <c r="E996" s="23"/>
+      <c r="F996" s="23"/>
+      <c r="G996" s="22"/>
+      <c r="H996" s="22"/>
+      <c r="I996" s="22"/>
+    </row>
+    <row r="997" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A997" s="22"/>
+      <c r="B997" s="12"/>
+      <c r="C997" s="22"/>
+      <c r="D997" s="22"/>
+      <c r="E997" s="23"/>
+      <c r="F997" s="23"/>
+      <c r="G997" s="22"/>
+      <c r="H997" s="22"/>
+      <c r="I997" s="22"/>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A998" s="22"/>
+      <c r="B998" s="12"/>
+      <c r="C998" s="22"/>
+      <c r="D998" s="22"/>
+      <c r="E998" s="23"/>
+      <c r="F998" s="23"/>
+      <c r="G998" s="22"/>
+      <c r="H998" s="22"/>
+      <c r="I998" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G3"/>
@@ -14117,52 +14203,52 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:I21">
+  <conditionalFormatting sqref="H5:I24">
     <cfRule type="cellIs" dxfId="75" priority="63" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I21">
+  <conditionalFormatting sqref="H5:I24">
     <cfRule type="cellIs" dxfId="74" priority="66" stopIfTrue="1" operator="equal">
       <formula>"DELAY"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I21">
+  <conditionalFormatting sqref="H5:I24">
     <cfRule type="cellIs" dxfId="73" priority="62" stopIfTrue="1" operator="equal">
       <formula>"DELAY"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I21">
+  <conditionalFormatting sqref="H5:I24">
     <cfRule type="cellIs" dxfId="72" priority="59" stopIfTrue="1" operator="equal">
       <formula>"DELAY"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I21">
+  <conditionalFormatting sqref="H5:I24">
     <cfRule type="cellIs" dxfId="71" priority="61" stopIfTrue="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I21">
+  <conditionalFormatting sqref="H5:I24">
     <cfRule type="cellIs" dxfId="70" priority="64" stopIfTrue="1" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I21">
+  <conditionalFormatting sqref="H5:I24">
     <cfRule type="cellIs" dxfId="69" priority="60" stopIfTrue="1" operator="equal">
       <formula>"ONGOING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I21">
+  <conditionalFormatting sqref="H5:I24">
     <cfRule type="cellIs" dxfId="68" priority="67" stopIfTrue="1" operator="equal">
       <formula>"ONGOING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I21">
+  <conditionalFormatting sqref="H5:I24">
     <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I21">
+  <conditionalFormatting sqref="H5:I24">
     <cfRule type="cellIs" dxfId="66" priority="68" stopIfTrue="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -14367,20 +14453,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -14396,18 +14482,18 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="45" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="1"/>
       <c r="M2" s="3" t="s">
         <v>32</v>
@@ -14417,18 +14503,18 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="45" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="1"/>
       <c r="M3" s="3" t="s">
         <v>16</v>
@@ -14812,7 +14898,7 @@
       <c r="K19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="11" t="s">
         <v>79</v>
@@ -14831,7 +14917,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -14845,7 +14931,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>3</v>
       </c>
@@ -14873,7 +14959,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
         <v>81</v>
@@ -14899,7 +14985,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="13" t="s">
         <v>82</v>
@@ -14925,7 +15011,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
         <v>83</v>

--- a/ECE 4981 Task List.xlsx
+++ b/ECE 4981 Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fall2020\ECE4981\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E769176D-548A-463D-AC19-3C21E369A7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70950ECB-3449-458E-A06B-A18C6B50627D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8829020-0EF2-4875-8210-9C2942B344E7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="97">
   <si>
     <t>START DATE</t>
   </si>
@@ -1700,8 +1700,8 @@
   <dimension ref="A1:P998"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2108,9 @@
         <v>44089</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I16" s="43"/>
       <c r="J16" s="34" t="s">
         <v>96</v>

--- a/ECE 4981 Task List.xlsx
+++ b/ECE 4981 Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fall2020\ECE4981\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70950ECB-3449-458E-A06B-A18C6B50627D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F523B0-585C-4DAE-8A2E-5FCB7E2B26FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8829020-0EF2-4875-8210-9C2942B344E7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
   <si>
     <t>START DATE</t>
   </si>
@@ -1700,8 +1700,8 @@
   <dimension ref="A1:P998"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <pane ySplit="4" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G14" s="9">
         <f ca="1">IF(H14="Done",0,(NETWORKDAYS.INTL(TODAY(),F14)))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="43"/>
       <c r="J16" s="34" t="s">
@@ -2124,7 +2124,9 @@
       <c r="B17" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
@@ -2147,7 +2149,9 @@
       <c r="B18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
@@ -2180,7 +2184,7 @@
       </c>
       <c r="G19" s="9">
         <f ca="1">IF(H19="Done",0,(NETWORKDAYS.INTL(TODAY(),F19)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>32</v>
@@ -2206,7 +2210,7 @@
       </c>
       <c r="G20" s="9">
         <f ca="1">IF(H20="Done",0,(NETWORKDAYS.INTL(TODAY(),F20)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>32</v>
@@ -2232,7 +2236,7 @@
       </c>
       <c r="G21" s="9">
         <f ca="1">IF(H21="Done",0,(NETWORKDAYS.INTL(TODAY(),F21)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>32</v>
@@ -2277,7 +2281,7 @@
       </c>
       <c r="G23" s="9">
         <f ca="1">IF(H23="Done",0,(NETWORKDAYS.INTL(TODAY(),F23)))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>32</v>
@@ -2367,7 +2371,7 @@
       </c>
       <c r="G28" s="9">
         <f ca="1">IF(H28="Done",0,(NETWORKDAYS.INTL(TODAY(),F28)))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>32</v>
@@ -2481,7 +2485,7 @@
       </c>
       <c r="G35" s="9">
         <f ca="1">IF(H35="Done",0,(NETWORKDAYS.INTL(TODAY(),F35)))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>32</v>
@@ -2580,7 +2584,7 @@
       </c>
       <c r="G42" s="9">
         <f ca="1">IF(H42="Done",0,(NETWORKDAYS.INTL(TODAY(),F42)))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
@@ -2677,7 +2681,7 @@
       </c>
       <c r="G49" s="9">
         <f ca="1">IF(H49="Done",0,(NETWORKDAYS.INTL(TODAY(),F49)))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H49" s="20" t="s">
         <v>32</v>
@@ -2764,7 +2768,7 @@
       </c>
       <c r="G55" s="9">
         <f ca="1">IF(H55="Done",0,(NETWORKDAYS.INTL(TODAY(),F55)))</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H55" s="20" t="s">
         <v>32</v>
@@ -2851,7 +2855,7 @@
       </c>
       <c r="G61" s="9">
         <f ca="1">IF(H61="Done",0,(NETWORKDAYS.INTL(TODAY(),F61)))</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H61" s="20" t="s">
         <v>32</v>
@@ -2938,7 +2942,7 @@
       </c>
       <c r="G67" s="9">
         <f ca="1">IF(H67="Done",0,(NETWORKDAYS.INTL(TODAY(),F67)))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67" s="20" t="s">
         <v>32</v>
@@ -3025,7 +3029,7 @@
       </c>
       <c r="G73" s="9">
         <f ca="1">IF(H73="Done",0,(NETWORKDAYS.INTL(TODAY(),F73)))</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73" s="20" t="s">
         <v>32</v>
@@ -3112,7 +3116,7 @@
       </c>
       <c r="G79" s="9">
         <f ca="1">IF(H79="Done",0,(NETWORKDAYS.INTL(TODAY(),F79)))</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
@@ -3197,7 +3201,7 @@
       </c>
       <c r="G85" s="9">
         <f ca="1">IF(H85="Done",0,(NETWORKDAYS.INTL(TODAY(),F85)))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H85" s="20"/>
       <c r="I85" s="20"/>
@@ -3282,7 +3286,7 @@
       </c>
       <c r="G91" s="9">
         <f t="shared" ref="G91" ca="1" si="0">(NETWORKDAYS.INTL(TODAY(),F91))</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H91" s="20"/>
       <c r="I91" s="20"/>
@@ -3447,7 +3451,7 @@
       </c>
       <c r="G103" s="9">
         <f t="shared" ref="G103" ca="1" si="1">(NETWORKDAYS.INTL(TODAY(),F103))</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H103" s="20"/>
       <c r="I103" s="20"/>
@@ -3544,7 +3548,7 @@
       </c>
       <c r="G110" s="9">
         <f t="shared" ref="G110" ca="1" si="2">(NETWORKDAYS.INTL(TODAY(),F110))</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H110" s="20"/>
       <c r="I110" s="20"/>
@@ -14580,7 +14584,7 @@
       </c>
       <c r="G5" s="42">
         <f t="shared" ref="G5" ca="1" si="0">(NETWORKDAYS.INTL(TODAY(),F5))</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14605,7 +14609,7 @@
       </c>
       <c r="G6" s="9">
         <f ca="1">IF(H6="Done",0,(NETWORKDAYS.INTL(TODAY(),F6)))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14629,7 +14633,7 @@
       </c>
       <c r="G7" s="9">
         <f ca="1">IF(H7="Done",0,(NETWORKDAYS.INTL(TODAY(),F7)))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14653,7 +14657,7 @@
       </c>
       <c r="G8" s="9">
         <f ca="1">IF(H8="Done",0,(NETWORKDAYS.INTL(TODAY(),F8)))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14677,7 +14681,7 @@
       </c>
       <c r="G9" s="9">
         <f ca="1">IF(H9="Done",0,(NETWORKDAYS.INTL(TODAY(),F9)))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -14718,7 +14722,7 @@
       </c>
       <c r="G11" s="9">
         <f ca="1">IF(H11="Done",0,(NETWORKDAYS.INTL(TODAY(),F11)))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -14742,7 +14746,7 @@
       </c>
       <c r="G12" s="9">
         <f ca="1">IF(H12="Done",0,(NETWORKDAYS.INTL(TODAY(),F12)))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14781,7 +14785,7 @@
       </c>
       <c r="G14" s="42">
         <f t="shared" ref="G14" ca="1" si="1">(NETWORKDAYS.INTL(TODAY(),F14))</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14806,7 +14810,7 @@
       </c>
       <c r="G15" s="9">
         <f ca="1">IF(H15="Done",0,(NETWORKDAYS.INTL(TODAY(),F15)))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14831,7 +14835,7 @@
       </c>
       <c r="G16" s="9">
         <f ca="1">IF(H16="Done",0,(NETWORKDAYS.INTL(TODAY(),F16)))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -14856,7 +14860,7 @@
       </c>
       <c r="G17" s="9">
         <f ca="1">IF(H17="Done",0,(NETWORKDAYS.INTL(TODAY(),F17)))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -14952,7 +14956,7 @@
       </c>
       <c r="G22" s="42">
         <f t="shared" ref="G22" ca="1" si="2">(NETWORKDAYS.INTL(TODAY(),F22))</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14978,7 +14982,7 @@
       </c>
       <c r="G23" s="9">
         <f ca="1">IF(H23="Done",0,(NETWORKDAYS.INTL(TODAY(),F23)))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -15004,7 +15008,7 @@
       </c>
       <c r="G24" s="9">
         <f ca="1">IF(H24="Done",0,(NETWORKDAYS.INTL(TODAY(),F24)))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -15030,7 +15034,7 @@
       </c>
       <c r="G25" s="9">
         <f ca="1">IF(H25="Done",0,(NETWORKDAYS.INTL(TODAY(),F25)))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -15056,7 +15060,7 @@
       </c>
       <c r="G26" s="9">
         <f ca="1">IF(H26="Done",0,(NETWORKDAYS.INTL(TODAY(),F26)))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -15082,7 +15086,7 @@
       </c>
       <c r="G27" s="9">
         <f ca="1">IF(H27="Done",0,(NETWORKDAYS.INTL(TODAY(),F27)))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
